--- a/reports/Results.xlsx
+++ b/reports/Results.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/moe/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/moe/Desktop/puf-auth-ml/reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{38ED78BD-F411-6044-A351-2D7EEFF0EDAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B257D18-A9BE-6D40-BFC6-3B61AA3B9AB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{65BD7D84-E0D3-BF4C-8AA6-282CCD8082D7}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="48">
   <si>
     <t>Intact</t>
   </si>
@@ -73,36 +73,12 @@
     <t>Average Confidence</t>
   </si>
   <si>
-    <t xml:space="preserve"> 93.31%</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 92.88%</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 58.03%</t>
   </si>
   <si>
     <t>66.67%</t>
   </si>
   <si>
-    <t xml:space="preserve"> 66.49%</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 51.93%</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 74.19%</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 80.65%</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 85.93%</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 89.94%</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Average Confidence</t>
   </si>
   <si>
@@ -110,50 +86,6 @@
   </si>
   <si>
     <t>99.48%</t>
-  </si>
-  <si>
-    <t>99.05%</t>
-  </si>
-  <si>
-    <t>98.16%</t>
-  </si>
-  <si>
-    <t>95.68%</t>
-  </si>
-  <si>
-    <t>91.98%</t>
-  </si>
-  <si>
-    <t>85.55%</t>
-  </si>
-  <si>
-    <t>73.57%</t>
-  </si>
-  <si>
-    <t>60.20%</t>
-  </si>
-  <si>
-    <t>53.07%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Intact dataset:
-RPi1: 43 responses
-RPi2: 43 responses
-Rpi3: 43 responses
-Total: 129
-</t>
-  </si>
-  <si>
-    <t>C-30 dataset:
-RPi1: 129 responses
-RPi2: 129 responses
-Rpi3: 129 responses
-3 curropt responses per each original responses
-Total: 387</t>
-  </si>
-  <si>
-    <t>Test: 20%: (8 responses from each RP in intact, 129 responses 
-from each RP in corrupted)</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -162,13 +94,100 @@
   <si>
     <t>C-30
 (30% curropted)</t>
+  </si>
+  <si>
+    <t>Intact+C-30</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 93.30%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 92.86%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 89.93%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 85.88%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 80.66%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 74.26%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 66.48%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 51.88%</t>
+  </si>
+  <si>
+    <t>99.04%</t>
+  </si>
+  <si>
+    <t>97.75%</t>
+  </si>
+  <si>
+    <t>95.59%</t>
+  </si>
+  <si>
+    <t>92.00%</t>
+  </si>
+  <si>
+    <t>85.65%</t>
+  </si>
+  <si>
+    <t>73.53%</t>
+  </si>
+  <si>
+    <t>60.18%</t>
+  </si>
+  <si>
+    <t>53.06%</t>
+  </si>
+  <si>
+    <t>99.68%</t>
+  </si>
+  <si>
+    <t>99.47%</t>
+  </si>
+  <si>
+    <t>99.02%</t>
+  </si>
+  <si>
+    <t>97.65%</t>
+  </si>
+  <si>
+    <t>95.69%</t>
+  </si>
+  <si>
+    <t>91.95%</t>
+  </si>
+  <si>
+    <t>85.81%</t>
+  </si>
+  <si>
+    <t>74.02%</t>
+  </si>
+  <si>
+    <t>60.67%</t>
+  </si>
+  <si>
+    <t>53.60</t>
+  </si>
+  <si>
+    <t>RPI1,RPI2,RPI3</t>
+  </si>
+  <si>
+    <t>In case of Random Response which does not belong to any classes, models assing the response to a class with:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -202,6 +221,12 @@
       <color theme="1"/>
       <name val="Calibri (Body)"/>
     </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -211,7 +236,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -281,16 +306,53 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -301,12 +363,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -328,14 +384,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -494,9 +575,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -534,7 +615,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -640,7 +721,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -782,7 +863,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -790,10 +871,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F7AB769-A4AB-314C-9FAA-CEF8525B9786}">
-  <dimension ref="G8:M26"/>
+  <dimension ref="G6:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D7" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="C9" zoomScaleNormal="88" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -807,247 +888,319 @@
     <col min="13" max="13" width="27.33203125" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="6" spans="7:13" x14ac:dyDescent="0.2">
+      <c r="I6" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+    </row>
+    <row r="7" spans="7:13" x14ac:dyDescent="0.2">
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+    </row>
     <row r="8" spans="7:13" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="7:13" ht="82" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G9" s="1"/>
-      <c r="H9" s="8" t="s">
+      <c r="H9" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="I9" s="9"/>
-      <c r="J9" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="K9" s="9"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="9"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="K9" s="17"/>
+      <c r="L9" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="M9" s="17"/>
     </row>
     <row r="10" spans="7:13" ht="21" x14ac:dyDescent="0.25">
       <c r="G10" s="2"/>
-      <c r="H10" s="10" t="s">
+      <c r="H10" s="8" t="s">
         <v>10</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J10" s="10" t="s">
+      <c r="J10" s="8" t="s">
         <v>10</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L10" s="10"/>
-      <c r="M10" s="3"/>
+        <v>14</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="11" spans="7:13" ht="24" x14ac:dyDescent="0.3">
       <c r="G11" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="H11" s="11">
+      <c r="H11" s="9">
         <v>1</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J11" s="11">
+        <v>20</v>
+      </c>
+      <c r="J11" s="9">
         <v>1</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L11" s="11"/>
-      <c r="M11" s="5"/>
+        <v>15</v>
+      </c>
+      <c r="L11" s="9">
+        <v>1</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="12" spans="7:13" ht="24" x14ac:dyDescent="0.3">
       <c r="G12" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H12" s="11">
+      <c r="H12" s="9">
         <v>1</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J12" s="11">
+        <v>21</v>
+      </c>
+      <c r="J12" s="9">
         <v>1</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="L12" s="11"/>
-      <c r="M12" s="5"/>
+        <v>16</v>
+      </c>
+      <c r="L12" s="9">
+        <v>1</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="13" spans="7:13" ht="24" x14ac:dyDescent="0.3">
       <c r="G13" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H13" s="11">
+      <c r="H13" s="9">
         <v>1</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J13" s="11">
+        <v>22</v>
+      </c>
+      <c r="J13" s="9">
         <v>1</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="L13" s="11"/>
-      <c r="M13" s="5"/>
+        <v>28</v>
+      </c>
+      <c r="L13" s="9">
+        <v>1</v>
+      </c>
+      <c r="M13" s="5" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="14" spans="7:13" ht="24" x14ac:dyDescent="0.3">
       <c r="G14" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H14" s="11">
+      <c r="H14" s="9">
         <v>1</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J14" s="11">
+        <v>23</v>
+      </c>
+      <c r="J14" s="9">
         <v>1</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="L14" s="11"/>
-      <c r="M14" s="5"/>
+        <v>29</v>
+      </c>
+      <c r="L14" s="9">
+        <v>1</v>
+      </c>
+      <c r="M14" s="5" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="15" spans="7:13" ht="24" x14ac:dyDescent="0.3">
       <c r="G15" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H15" s="11">
+      <c r="H15" s="9">
         <v>1</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J15" s="11">
+        <v>24</v>
+      </c>
+      <c r="J15" s="9">
         <v>1</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="L15" s="11"/>
-      <c r="M15" s="5"/>
+        <v>30</v>
+      </c>
+      <c r="L15" s="9">
+        <v>1</v>
+      </c>
+      <c r="M15" s="5" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="16" spans="7:13" ht="24" x14ac:dyDescent="0.3">
       <c r="G16" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H16" s="11">
+      <c r="H16" s="9">
         <v>1</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="J16" s="11">
+        <v>25</v>
+      </c>
+      <c r="J16" s="9">
         <v>1</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="L16" s="13"/>
-      <c r="M16" s="5"/>
+        <v>31</v>
+      </c>
+      <c r="L16" s="9">
+        <v>1</v>
+      </c>
+      <c r="M16" s="5" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="17" spans="7:13" ht="24" x14ac:dyDescent="0.3">
       <c r="G17" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H17" s="11">
+      <c r="H17" s="9">
         <v>1</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J17" s="11">
+        <v>26</v>
+      </c>
+      <c r="J17" s="9">
         <v>1</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="L17" s="11"/>
-      <c r="M17" s="5"/>
+        <v>32</v>
+      </c>
+      <c r="L17" s="9">
+        <v>1</v>
+      </c>
+      <c r="M17" s="5" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="18" spans="7:13" ht="24" x14ac:dyDescent="0.3">
       <c r="G18" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H18" s="11">
+      <c r="H18" s="9">
         <v>1</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J18" s="11">
+        <v>12</v>
+      </c>
+      <c r="J18" s="9">
         <v>1</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="L18" s="11"/>
-      <c r="M18" s="5"/>
+        <v>33</v>
+      </c>
+      <c r="L18" s="9">
+        <v>1</v>
+      </c>
+      <c r="M18" s="5" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="19" spans="7:13" ht="24" x14ac:dyDescent="0.3">
       <c r="G19" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H19" s="13" t="s">
-        <v>15</v>
+      <c r="H19" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J19" s="11">
+        <v>27</v>
+      </c>
+      <c r="J19" s="9">
         <v>1</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="L19" s="11"/>
-      <c r="M19" s="5"/>
+        <v>34</v>
+      </c>
+      <c r="L19" s="9">
+        <v>1</v>
+      </c>
+      <c r="M19" s="5" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="20" spans="7:13" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G20" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H20" s="14"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="12" t="s">
-        <v>15</v>
+      <c r="H20" s="12"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L20" s="12"/>
-      <c r="M20" s="7"/>
-    </row>
-    <row r="25" spans="7:13" ht="136" x14ac:dyDescent="0.2">
-      <c r="G25" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="H25" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="I25" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
+      </c>
+      <c r="L20" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="M20" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="7:13" ht="103" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G21" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="H21" s="23"/>
+      <c r="I21" s="25">
+        <v>0.45</v>
+      </c>
+      <c r="J21" s="26"/>
+      <c r="K21" s="25">
+        <v>0.49</v>
+      </c>
+      <c r="L21" s="26"/>
+      <c r="M21" s="27">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="25" spans="7:13" ht="34" x14ac:dyDescent="0.2">
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="15" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="7:13" ht="49" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G26" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="H9:I9"/>
     <mergeCell ref="J9:K9"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="G26:I26"/>
+    <mergeCell ref="I6:L7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/reports/Results.xlsx
+++ b/reports/Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/moe/Desktop/puf-auth-ml/reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B257D18-A9BE-6D40-BFC6-3B61AA3B9AB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D4BEE0B-F3A6-6B42-9943-45B61654617C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{65BD7D84-E0D3-BF4C-8AA6-282CCD8082D7}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16060" xr2:uid="{65BD7D84-E0D3-BF4C-8AA6-282CCD8082D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="50">
   <si>
     <t>Intact</t>
   </si>
@@ -181,6 +181,12 @@
   </si>
   <si>
     <t>In case of Random Response which does not belong to any classes, models assing the response to a class with:</t>
+  </si>
+  <si>
+    <t>intact+C-30+augmented</t>
+  </si>
+  <si>
+    <t>99.93%</t>
   </si>
 </sst>
 </file>
@@ -347,7 +353,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -384,27 +390,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -417,6 +402,30 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -871,10 +880,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F7AB769-A4AB-314C-9FAA-CEF8525B9786}">
-  <dimension ref="G6:M26"/>
+  <dimension ref="G6:O26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C9" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" topLeftCell="E7" zoomScaleNormal="88" workbookViewId="0">
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -886,39 +895,44 @@
     <col min="11" max="11" width="26.33203125" customWidth="1"/>
     <col min="12" max="12" width="18.5" customWidth="1"/>
     <col min="13" max="13" width="27.33203125" customWidth="1"/>
+    <col min="15" max="15" width="30.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="7:13" x14ac:dyDescent="0.2">
-      <c r="I6" s="22" t="s">
+    <row r="6" spans="7:15" x14ac:dyDescent="0.2">
+      <c r="I6" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-    </row>
-    <row r="7" spans="7:13" x14ac:dyDescent="0.2">
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
-    </row>
-    <row r="8" spans="7:13" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="7:13" ht="82" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+    </row>
+    <row r="7" spans="7:15" x14ac:dyDescent="0.2">
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
+    </row>
+    <row r="8" spans="7:15" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="7:15" ht="82" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G9" s="1"/>
-      <c r="H9" s="16" t="s">
+      <c r="H9" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="I9" s="17"/>
-      <c r="J9" s="18" t="s">
+      <c r="I9" s="22"/>
+      <c r="J9" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="K9" s="17"/>
-      <c r="L9" s="16" t="s">
+      <c r="K9" s="22"/>
+      <c r="L9" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="M9" s="17"/>
-    </row>
-    <row r="10" spans="7:13" ht="21" x14ac:dyDescent="0.25">
+      <c r="M9" s="22"/>
+      <c r="N9" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="O9" s="22"/>
+    </row>
+    <row r="10" spans="7:15" ht="21" x14ac:dyDescent="0.25">
       <c r="G10" s="2"/>
       <c r="H10" s="8" t="s">
         <v>10</v>
@@ -938,8 +952,14 @@
       <c r="M10" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="7:13" ht="24" x14ac:dyDescent="0.3">
+      <c r="N10" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="O10" s="28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="7:15" ht="24" x14ac:dyDescent="0.3">
       <c r="G11" s="4" t="s">
         <v>0</v>
       </c>
@@ -961,8 +981,14 @@
       <c r="M11" s="5" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="12" spans="7:13" ht="24" x14ac:dyDescent="0.3">
+      <c r="N11" s="9">
+        <v>1</v>
+      </c>
+      <c r="O11" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="7:15" ht="24" x14ac:dyDescent="0.3">
       <c r="G12" s="4" t="s">
         <v>2</v>
       </c>
@@ -985,7 +1011,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="7:13" ht="24" x14ac:dyDescent="0.3">
+    <row r="13" spans="7:15" ht="24" x14ac:dyDescent="0.3">
       <c r="G13" s="4" t="s">
         <v>3</v>
       </c>
@@ -1008,7 +1034,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="7:13" ht="24" x14ac:dyDescent="0.3">
+    <row r="14" spans="7:15" ht="24" x14ac:dyDescent="0.3">
       <c r="G14" s="4" t="s">
         <v>1</v>
       </c>
@@ -1031,7 +1057,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="7:13" ht="24" x14ac:dyDescent="0.3">
+    <row r="15" spans="7:15" ht="24" x14ac:dyDescent="0.3">
       <c r="G15" s="4" t="s">
         <v>4</v>
       </c>
@@ -1054,7 +1080,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="7:13" ht="24" x14ac:dyDescent="0.3">
+    <row r="16" spans="7:15" ht="24" x14ac:dyDescent="0.3">
       <c r="G16" s="4" t="s">
         <v>5</v>
       </c>
@@ -1166,19 +1192,19 @@
       </c>
     </row>
     <row r="21" spans="7:13" ht="103" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="G21" s="24" t="s">
+      <c r="G21" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="H21" s="23"/>
-      <c r="I21" s="25">
+      <c r="H21" s="16"/>
+      <c r="I21" s="18">
         <v>0.45</v>
       </c>
-      <c r="J21" s="26"/>
-      <c r="K21" s="25">
+      <c r="J21" s="19"/>
+      <c r="K21" s="18">
         <v>0.49</v>
       </c>
-      <c r="L21" s="26"/>
-      <c r="M21" s="27">
+      <c r="L21" s="19"/>
+      <c r="M21" s="20">
         <v>0.5</v>
       </c>
     </row>
@@ -1190,12 +1216,13 @@
       </c>
     </row>
     <row r="26" spans="7:13" ht="49" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G26" s="19"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="20"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="N9:O9"/>
     <mergeCell ref="H9:I9"/>
     <mergeCell ref="J9:K9"/>
     <mergeCell ref="L9:M9"/>

--- a/reports/Results.xlsx
+++ b/reports/Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/moe/Desktop/puf-auth-ml/reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D4BEE0B-F3A6-6B42-9943-45B61654617C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD772639-E83A-2F4F-B376-37644157C12B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16060" xr2:uid="{65BD7D84-E0D3-BF4C-8AA6-282CCD8082D7}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{65BD7D84-E0D3-BF4C-8AA6-282CCD8082D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="59">
   <si>
     <t>Intact</t>
   </si>
@@ -187,6 +187,33 @@
   </si>
   <si>
     <t>99.93%</t>
+  </si>
+  <si>
+    <t>99.65%</t>
+  </si>
+  <si>
+    <t>99.33%</t>
+  </si>
+  <si>
+    <t>96.52%</t>
+  </si>
+  <si>
+    <t>93.18%</t>
+  </si>
+  <si>
+    <t>87.08%</t>
+  </si>
+  <si>
+    <t>75.02%</t>
+  </si>
+  <si>
+    <t>61.45%</t>
+  </si>
+  <si>
+    <t>54.20%</t>
+  </si>
+  <si>
+    <t>98.49%</t>
   </si>
 </sst>
 </file>
@@ -353,7 +380,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -403,6 +430,18 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -417,15 +456,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -883,7 +913,7 @@
   <dimension ref="G6:O26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E7" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -899,38 +929,38 @@
   </cols>
   <sheetData>
     <row r="6" spans="7:15" x14ac:dyDescent="0.2">
-      <c r="I6" s="26" t="s">
+      <c r="I6" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
     </row>
     <row r="7" spans="7:15" x14ac:dyDescent="0.2">
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="27"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
     </row>
     <row r="8" spans="7:15" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="7:15" ht="82" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G9" s="1"/>
-      <c r="H9" s="21" t="s">
+      <c r="H9" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="I9" s="22"/>
-      <c r="J9" s="23" t="s">
+      <c r="I9" s="26"/>
+      <c r="J9" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="K9" s="22"/>
-      <c r="L9" s="21" t="s">
+      <c r="K9" s="26"/>
+      <c r="L9" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="M9" s="22"/>
-      <c r="N9" s="21" t="s">
+      <c r="M9" s="26"/>
+      <c r="N9" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="O9" s="22"/>
+      <c r="O9" s="26"/>
     </row>
     <row r="10" spans="7:15" ht="21" x14ac:dyDescent="0.25">
       <c r="G10" s="2"/>
@@ -952,10 +982,10 @@
       <c r="M10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N10" s="28" t="s">
+      <c r="N10" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="O10" s="28" t="s">
+      <c r="O10" s="21" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1010,6 +1040,12 @@
       <c r="M12" s="5" t="s">
         <v>37</v>
       </c>
+      <c r="N12" s="9">
+        <v>1</v>
+      </c>
+      <c r="O12" s="9" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="13" spans="7:15" ht="24" x14ac:dyDescent="0.3">
       <c r="G13" s="4" t="s">
@@ -1033,6 +1069,12 @@
       <c r="M13" s="5" t="s">
         <v>38</v>
       </c>
+      <c r="N13" s="9">
+        <v>1</v>
+      </c>
+      <c r="O13" s="9" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="14" spans="7:15" ht="24" x14ac:dyDescent="0.3">
       <c r="G14" s="4" t="s">
@@ -1055,6 +1097,12 @@
       </c>
       <c r="M14" s="5" t="s">
         <v>39</v>
+      </c>
+      <c r="N14" s="9">
+        <v>1</v>
+      </c>
+      <c r="O14" s="9" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="7:15" ht="24" x14ac:dyDescent="0.3">
@@ -1079,6 +1127,12 @@
       <c r="M15" s="5" t="s">
         <v>40</v>
       </c>
+      <c r="N15" s="9">
+        <v>1</v>
+      </c>
+      <c r="O15" s="9" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="16" spans="7:15" ht="24" x14ac:dyDescent="0.3">
       <c r="G16" s="4" t="s">
@@ -1102,8 +1156,14 @@
       <c r="M16" s="5" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="17" spans="7:13" ht="24" x14ac:dyDescent="0.3">
+      <c r="N16" s="9">
+        <v>1</v>
+      </c>
+      <c r="O16" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="7:15" ht="24" x14ac:dyDescent="0.3">
       <c r="G17" s="4" t="s">
         <v>6</v>
       </c>
@@ -1125,8 +1185,14 @@
       <c r="M17" s="5" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="18" spans="7:13" ht="24" x14ac:dyDescent="0.3">
+      <c r="N17" s="9">
+        <v>1</v>
+      </c>
+      <c r="O17" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="7:15" ht="24" x14ac:dyDescent="0.3">
       <c r="G18" s="4" t="s">
         <v>7</v>
       </c>
@@ -1148,8 +1214,14 @@
       <c r="M18" s="5" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="19" spans="7:13" ht="24" x14ac:dyDescent="0.3">
+      <c r="N18" s="9">
+        <v>1</v>
+      </c>
+      <c r="O18" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="7:15" ht="24" x14ac:dyDescent="0.3">
       <c r="G19" s="4" t="s">
         <v>8</v>
       </c>
@@ -1171,8 +1243,14 @@
       <c r="M19" s="5" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="20" spans="7:13" ht="25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N19" s="9">
+        <v>1</v>
+      </c>
+      <c r="O19" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="7:15" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G20" s="6" t="s">
         <v>9</v>
       </c>
@@ -1190,8 +1268,14 @@
       <c r="M20" s="7" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="21" spans="7:13" ht="103" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="N20" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="O20" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="7:15" ht="103" thickBot="1" x14ac:dyDescent="0.25">
       <c r="G21" s="17" t="s">
         <v>47</v>
       </c>
@@ -1207,27 +1291,30 @@
       <c r="M21" s="20">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="25" spans="7:13" ht="34" x14ac:dyDescent="0.2">
+      <c r="O21" s="20">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="25" spans="7:15" ht="34" x14ac:dyDescent="0.2">
       <c r="G25" s="14"/>
       <c r="H25" s="14"/>
       <c r="I25" s="15" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="7:13" ht="49" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G26" s="24"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="25"/>
+    <row r="26" spans="7:15" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G26" s="28"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="I6:L7"/>
     <mergeCell ref="N9:O9"/>
     <mergeCell ref="H9:I9"/>
     <mergeCell ref="J9:K9"/>
     <mergeCell ref="L9:M9"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="I6:L7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/reports/Results.xlsx
+++ b/reports/Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/moe/Desktop/puf-auth-ml/reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD772639-E83A-2F4F-B376-37644157C12B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E685948A-E911-8543-8945-9F53086DA9E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{65BD7D84-E0D3-BF4C-8AA6-282CCD8082D7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{65BD7D84-E0D3-BF4C-8AA6-282CCD8082D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="60">
   <si>
     <t>Intact</t>
   </si>
@@ -92,128 +92,134 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve"> 93.30%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 92.86%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 89.93%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 85.88%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 80.66%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 74.26%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 66.48%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 51.88%</t>
+  </si>
+  <si>
+    <t>99.04%</t>
+  </si>
+  <si>
+    <t>97.75%</t>
+  </si>
+  <si>
+    <t>95.59%</t>
+  </si>
+  <si>
+    <t>92.00%</t>
+  </si>
+  <si>
+    <t>85.65%</t>
+  </si>
+  <si>
+    <t>73.53%</t>
+  </si>
+  <si>
+    <t>60.18%</t>
+  </si>
+  <si>
+    <t>53.06%</t>
+  </si>
+  <si>
+    <t>99.68%</t>
+  </si>
+  <si>
+    <t>99.47%</t>
+  </si>
+  <si>
+    <t>99.02%</t>
+  </si>
+  <si>
+    <t>97.65%</t>
+  </si>
+  <si>
+    <t>95.69%</t>
+  </si>
+  <si>
+    <t>91.95%</t>
+  </si>
+  <si>
+    <t>85.81%</t>
+  </si>
+  <si>
+    <t>74.02%</t>
+  </si>
+  <si>
+    <t>60.67%</t>
+  </si>
+  <si>
+    <t>53.60</t>
+  </si>
+  <si>
+    <t>In case of Random Response which does not belong to any classes, models assing the response to a class with:</t>
+  </si>
+  <si>
+    <t>99.93%</t>
+  </si>
+  <si>
+    <t>99.65%</t>
+  </si>
+  <si>
+    <t>99.33%</t>
+  </si>
+  <si>
+    <t>96.52%</t>
+  </si>
+  <si>
+    <t>93.18%</t>
+  </si>
+  <si>
+    <t>87.08%</t>
+  </si>
+  <si>
+    <t>75.02%</t>
+  </si>
+  <si>
+    <t>61.45%</t>
+  </si>
+  <si>
+    <t>54.20%</t>
+  </si>
+  <si>
+    <t>98.49%</t>
+  </si>
+  <si>
+    <t>RPI1,RPI2,RPI3 full length: 8388608 bits</t>
+  </si>
+  <si>
+    <t>Intact 
+(129 responses for 3 classes)</t>
+  </si>
+  <si>
     <t>C-30
-(30% curropted)</t>
-  </si>
-  <si>
-    <t>Intact+C-30</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 93.30%</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 92.86%</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 89.93%</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 85.88%</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 80.66%</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 74.26%</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 66.48%</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 51.88%</t>
-  </si>
-  <si>
-    <t>99.04%</t>
-  </si>
-  <si>
-    <t>97.75%</t>
-  </si>
-  <si>
-    <t>95.59%</t>
-  </si>
-  <si>
-    <t>92.00%</t>
-  </si>
-  <si>
-    <t>85.65%</t>
-  </si>
-  <si>
-    <t>73.53%</t>
-  </si>
-  <si>
-    <t>60.18%</t>
-  </si>
-  <si>
-    <t>53.06%</t>
-  </si>
-  <si>
-    <t>99.68%</t>
-  </si>
-  <si>
-    <t>99.47%</t>
-  </si>
-  <si>
-    <t>99.02%</t>
-  </si>
-  <si>
-    <t>97.65%</t>
-  </si>
-  <si>
-    <t>95.69%</t>
-  </si>
-  <si>
-    <t>91.95%</t>
-  </si>
-  <si>
-    <t>85.81%</t>
-  </si>
-  <si>
-    <t>74.02%</t>
-  </si>
-  <si>
-    <t>60.67%</t>
-  </si>
-  <si>
-    <t>53.60</t>
-  </si>
-  <si>
-    <t>RPI1,RPI2,RPI3</t>
-  </si>
-  <si>
-    <t>In case of Random Response which does not belong to any classes, models assing the response to a class with:</t>
-  </si>
-  <si>
-    <t>intact+C-30+augmented</t>
-  </si>
-  <si>
-    <t>99.93%</t>
-  </si>
-  <si>
-    <t>99.65%</t>
-  </si>
-  <si>
-    <t>99.33%</t>
-  </si>
-  <si>
-    <t>96.52%</t>
-  </si>
-  <si>
-    <t>93.18%</t>
-  </si>
-  <si>
-    <t>87.08%</t>
-  </si>
-  <si>
-    <t>75.02%</t>
-  </si>
-  <si>
-    <t>61.45%</t>
-  </si>
-  <si>
-    <t>54.20%</t>
-  </si>
-  <si>
-    <t>98.49%</t>
+(387 responses for 3 classes)</t>
+  </si>
+  <si>
+    <t>Intact+C-30
+(516 responses for 3 classes)</t>
+  </si>
+  <si>
+    <t>intact+C-30+augmented
+(1806 responses for 3 classes)</t>
   </si>
 </sst>
 </file>
@@ -380,7 +386,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -436,26 +442,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -912,8 +915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F7AB769-A4AB-314C-9FAA-CEF8525B9786}">
   <dimension ref="G6:O26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E7" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView tabSelected="1" topLeftCell="E2" zoomScaleNormal="88" workbookViewId="0">
+      <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -925,42 +928,43 @@
     <col min="11" max="11" width="26.33203125" customWidth="1"/>
     <col min="12" max="12" width="18.5" customWidth="1"/>
     <col min="13" max="13" width="27.33203125" customWidth="1"/>
-    <col min="15" max="15" width="30.6640625" customWidth="1"/>
+    <col min="14" max="14" width="16" customWidth="1"/>
+    <col min="15" max="15" width="36.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="6" spans="7:15" x14ac:dyDescent="0.2">
-      <c r="I6" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
+      <c r="I6" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
     </row>
     <row r="7" spans="7:15" x14ac:dyDescent="0.2">
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
     </row>
     <row r="8" spans="7:15" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="7:15" ht="82" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G9" s="1"/>
-      <c r="H9" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="I9" s="26"/>
-      <c r="J9" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="K9" s="26"/>
-      <c r="L9" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="M9" s="26"/>
-      <c r="N9" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="O9" s="26"/>
+      <c r="H9" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="I9" s="27"/>
+      <c r="J9" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="K9" s="27"/>
+      <c r="L9" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="M9" s="27"/>
+      <c r="N9" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="O9" s="27"/>
     </row>
     <row r="10" spans="7:15" ht="21" x14ac:dyDescent="0.25">
       <c r="G10" s="2"/>
@@ -997,7 +1001,7 @@
         <v>1</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J11" s="9">
         <v>1</v>
@@ -1009,13 +1013,13 @@
         <v>1</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N11" s="9">
         <v>1</v>
       </c>
       <c r="O11" s="9" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="7:15" ht="24" x14ac:dyDescent="0.3">
@@ -1026,7 +1030,7 @@
         <v>1</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J12" s="9">
         <v>1</v>
@@ -1038,13 +1042,13 @@
         <v>1</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N12" s="9">
         <v>1</v>
       </c>
       <c r="O12" s="9" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="7:15" ht="24" x14ac:dyDescent="0.3">
@@ -1055,25 +1059,25 @@
         <v>1</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J13" s="9">
         <v>1</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L13" s="9">
         <v>1</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N13" s="9">
         <v>1</v>
       </c>
       <c r="O13" s="9" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="7:15" ht="24" x14ac:dyDescent="0.3">
@@ -1084,25 +1088,25 @@
         <v>1</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J14" s="9">
         <v>1</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="L14" s="9">
         <v>1</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="N14" s="9">
         <v>1</v>
       </c>
       <c r="O14" s="9" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="7:15" ht="24" x14ac:dyDescent="0.3">
@@ -1113,25 +1117,25 @@
         <v>1</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J15" s="9">
         <v>1</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L15" s="9">
         <v>1</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="N15" s="9">
         <v>1</v>
       </c>
       <c r="O15" s="9" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="7:15" ht="24" x14ac:dyDescent="0.3">
@@ -1142,25 +1146,25 @@
         <v>1</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J16" s="9">
         <v>1</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="L16" s="9">
         <v>1</v>
       </c>
       <c r="M16" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="N16" s="9">
         <v>1</v>
       </c>
       <c r="O16" s="9" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="7:15" ht="24" x14ac:dyDescent="0.3">
@@ -1171,25 +1175,25 @@
         <v>1</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J17" s="9">
         <v>1</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L17" s="9">
         <v>1</v>
       </c>
       <c r="M17" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="N17" s="9">
         <v>1</v>
       </c>
       <c r="O17" s="9" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="7:15" ht="24" x14ac:dyDescent="0.3">
@@ -1206,19 +1210,19 @@
         <v>1</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L18" s="9">
         <v>1</v>
       </c>
       <c r="M18" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="N18" s="9">
         <v>1</v>
       </c>
       <c r="O18" s="9" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="7:15" ht="24" x14ac:dyDescent="0.3">
@@ -1229,25 +1233,25 @@
         <v>13</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J19" s="9">
         <v>1</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="L19" s="9">
         <v>1</v>
       </c>
       <c r="M19" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="N19" s="9">
         <v>1</v>
       </c>
       <c r="O19" s="9" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="7:15" ht="25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1260,24 +1264,24 @@
         <v>13</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L20" s="10" t="s">
         <v>13</v>
       </c>
       <c r="M20" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N20" s="22" t="s">
         <v>13</v>
       </c>
       <c r="O20" s="9" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="7:15" ht="103" thickBot="1" x14ac:dyDescent="0.25">
       <c r="G21" s="17" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H21" s="16"/>
       <c r="I21" s="18">
@@ -1303,9 +1307,9 @@
       </c>
     </row>
     <row r="26" spans="7:15" ht="49" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G26" s="28"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="29"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/reports/Results.xlsx
+++ b/reports/Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/moe/Desktop/puf-auth-ml/reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E685948A-E911-8543-8945-9F53086DA9E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A3E4EAB-59EF-034B-A56E-F9AC5B430822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{65BD7D84-E0D3-BF4C-8AA6-282CCD8082D7}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{65BD7D84-E0D3-BF4C-8AA6-282CCD8082D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="86">
   <si>
     <t>Intact</t>
   </si>
@@ -220,13 +220,91 @@
   <si>
     <t>intact+C-30+augmented
 (1806 responses for 3 classes)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 93.65%</t>
+  </si>
+  <si>
+    <t>89.76%</t>
+  </si>
+  <si>
+    <t>85.73%</t>
+  </si>
+  <si>
+    <t>83.43%</t>
+  </si>
+  <si>
+    <t>80.60%</t>
+  </si>
+  <si>
+    <t>73.13%</t>
+  </si>
+  <si>
+    <t>61.85%</t>
+  </si>
+  <si>
+    <t>57.28%</t>
+  </si>
+  <si>
+    <t>45.83%</t>
+  </si>
+  <si>
+    <t>49.72%</t>
+  </si>
+  <si>
+    <t>33.33%</t>
+  </si>
+  <si>
+    <t>46.54%</t>
+  </si>
+  <si>
+    <t>47.80%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 93.63%</t>
+  </si>
+  <si>
+    <t>87.50%</t>
+  </si>
+  <si>
+    <t>88.33%</t>
+  </si>
+  <si>
+    <t>83.33%</t>
+  </si>
+  <si>
+    <t>86.96%</t>
+  </si>
+  <si>
+    <t>76.68%</t>
+  </si>
+  <si>
+    <t>75.00%</t>
+  </si>
+  <si>
+    <t>66.09%</t>
+  </si>
+  <si>
+    <t>50.90%</t>
+  </si>
+  <si>
+    <t>RPI1,RPI2,RPI3 full length: 256 bits</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 94.25%</t>
+  </si>
+  <si>
+    <t>RPI1,RPI2,RPI3 length: 1024 bits</t>
+  </si>
+  <si>
+    <t>RPI1,RPI2,RPI3 length: 512 bits</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -265,6 +343,14 @@
       <sz val="20"/>
       <color theme="1"/>
       <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -386,7 +472,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -415,8 +501,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -436,12 +520,6 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -459,6 +537,44 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -913,10 +1029,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F7AB769-A4AB-314C-9FAA-CEF8525B9786}">
-  <dimension ref="G6:O26"/>
+  <dimension ref="G6:P90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E2" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+    <sheetView tabSelected="1" topLeftCell="B36" zoomScaleNormal="88" workbookViewId="0">
+      <selection activeCell="L72" sqref="L72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -932,41 +1048,41 @@
     <col min="15" max="15" width="36.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="7:15" x14ac:dyDescent="0.2">
-      <c r="I6" s="25" t="s">
+    <row r="6" spans="7:16" x14ac:dyDescent="0.2">
+      <c r="I6" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26"/>
-    </row>
-    <row r="7" spans="7:15" x14ac:dyDescent="0.2">
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
-    </row>
-    <row r="8" spans="7:15" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="7:15" ht="82" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+    </row>
+    <row r="7" spans="7:16" x14ac:dyDescent="0.2">
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+    </row>
+    <row r="8" spans="7:16" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="7:16" ht="82" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G9" s="1"/>
-      <c r="H9" s="28" t="s">
+      <c r="H9" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="I9" s="27"/>
-      <c r="J9" s="28" t="s">
+      <c r="I9" s="23"/>
+      <c r="J9" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="K9" s="27"/>
-      <c r="L9" s="28" t="s">
+      <c r="K9" s="23"/>
+      <c r="L9" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="M9" s="27"/>
-      <c r="N9" s="28" t="s">
+      <c r="M9" s="23"/>
+      <c r="N9" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="O9" s="27"/>
-    </row>
-    <row r="10" spans="7:15" ht="21" x14ac:dyDescent="0.25">
+      <c r="O9" s="23"/>
+    </row>
+    <row r="10" spans="7:16" ht="21" x14ac:dyDescent="0.25">
       <c r="G10" s="2"/>
       <c r="H10" s="8" t="s">
         <v>10</v>
@@ -986,14 +1102,15 @@
       <c r="M10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N10" s="21" t="s">
+      <c r="N10" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="O10" s="21" t="s">
+      <c r="O10" s="26" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="7:15" ht="24" x14ac:dyDescent="0.3">
+      <c r="P10" s="2"/>
+    </row>
+    <row r="11" spans="7:16" ht="24" x14ac:dyDescent="0.3">
       <c r="G11" s="4" t="s">
         <v>0</v>
       </c>
@@ -1018,11 +1135,11 @@
       <c r="N11" s="9">
         <v>1</v>
       </c>
-      <c r="O11" s="9" t="s">
+      <c r="O11" s="27" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="7:15" ht="24" x14ac:dyDescent="0.3">
+    <row r="12" spans="7:16" ht="24" x14ac:dyDescent="0.3">
       <c r="G12" s="4" t="s">
         <v>2</v>
       </c>
@@ -1047,11 +1164,11 @@
       <c r="N12" s="9">
         <v>1</v>
       </c>
-      <c r="O12" s="9" t="s">
+      <c r="O12" s="27" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="7:15" ht="24" x14ac:dyDescent="0.3">
+    <row r="13" spans="7:16" ht="24" x14ac:dyDescent="0.3">
       <c r="G13" s="4" t="s">
         <v>3</v>
       </c>
@@ -1076,11 +1193,11 @@
       <c r="N13" s="9">
         <v>1</v>
       </c>
-      <c r="O13" s="9" t="s">
+      <c r="O13" s="27" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="7:15" ht="24" x14ac:dyDescent="0.3">
+    <row r="14" spans="7:16" ht="24" x14ac:dyDescent="0.3">
       <c r="G14" s="4" t="s">
         <v>1</v>
       </c>
@@ -1105,11 +1222,11 @@
       <c r="N14" s="9">
         <v>1</v>
       </c>
-      <c r="O14" s="9" t="s">
+      <c r="O14" s="27" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="7:15" ht="24" x14ac:dyDescent="0.3">
+    <row r="15" spans="7:16" ht="24" x14ac:dyDescent="0.3">
       <c r="G15" s="4" t="s">
         <v>4</v>
       </c>
@@ -1134,11 +1251,11 @@
       <c r="N15" s="9">
         <v>1</v>
       </c>
-      <c r="O15" s="9" t="s">
+      <c r="O15" s="27" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="7:15" ht="24" x14ac:dyDescent="0.3">
+    <row r="16" spans="7:16" ht="24" x14ac:dyDescent="0.3">
       <c r="G16" s="4" t="s">
         <v>5</v>
       </c>
@@ -1163,7 +1280,7 @@
       <c r="N16" s="9">
         <v>1</v>
       </c>
-      <c r="O16" s="9" t="s">
+      <c r="O16" s="27" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1192,7 +1309,7 @@
       <c r="N17" s="9">
         <v>1</v>
       </c>
-      <c r="O17" s="9" t="s">
+      <c r="O17" s="27" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1221,7 +1338,7 @@
       <c r="N18" s="9">
         <v>1</v>
       </c>
-      <c r="O18" s="9" t="s">
+      <c r="O18" s="27" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1250,7 +1367,7 @@
       <c r="N19" s="9">
         <v>1</v>
       </c>
-      <c r="O19" s="9" t="s">
+      <c r="O19" s="27" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1258,8 +1375,12 @@
       <c r="G20" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H20" s="12"/>
-      <c r="I20" s="13"/>
+      <c r="H20" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>72</v>
+      </c>
       <c r="J20" s="10" t="s">
         <v>13</v>
       </c>
@@ -1272,47 +1393,632 @@
       <c r="M20" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="N20" s="22" t="s">
+      <c r="N20" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="O20" s="9" t="s">
+      <c r="O20" s="28" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="21" spans="7:15" ht="103" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="G21" s="17" t="s">
+      <c r="G21" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="H21" s="16"/>
-      <c r="I21" s="18">
+      <c r="H21" s="14"/>
+      <c r="I21" s="16">
         <v>0.45</v>
       </c>
-      <c r="J21" s="19"/>
-      <c r="K21" s="18">
+      <c r="J21" s="17"/>
+      <c r="K21" s="16">
         <v>0.49</v>
       </c>
-      <c r="L21" s="19"/>
-      <c r="M21" s="20">
+      <c r="L21" s="17"/>
+      <c r="M21" s="18">
         <v>0.5</v>
       </c>
-      <c r="O21" s="20">
+      <c r="N21" s="25"/>
+      <c r="O21" s="18">
         <v>0.51</v>
       </c>
     </row>
     <row r="25" spans="7:15" ht="34" x14ac:dyDescent="0.2">
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="15" t="s">
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="13" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="26" spans="7:15" ht="49" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G26" s="23"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="24"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+    </row>
+    <row r="30" spans="7:15" x14ac:dyDescent="0.2">
+      <c r="I30" s="21"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="22"/>
+      <c r="L30" s="22"/>
+      <c r="N30" s="35"/>
+      <c r="O30" s="35"/>
+    </row>
+    <row r="31" spans="7:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I31" s="22"/>
+      <c r="J31" s="22"/>
+      <c r="K31" s="22"/>
+      <c r="L31" s="22"/>
+      <c r="N31" s="35"/>
+      <c r="O31" s="35"/>
+    </row>
+    <row r="32" spans="7:15" ht="25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G32" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="H32" s="37"/>
+      <c r="I32" s="38"/>
+      <c r="N32" s="35"/>
+      <c r="O32" s="35"/>
+    </row>
+    <row r="33" spans="7:15" ht="26" x14ac:dyDescent="0.2">
+      <c r="G33" s="1"/>
+      <c r="H33" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="I33" s="23"/>
+      <c r="J33" s="31"/>
+      <c r="K33" s="32"/>
+      <c r="L33" s="31"/>
+      <c r="M33" s="32"/>
+      <c r="N33" s="31"/>
+      <c r="O33" s="32"/>
+    </row>
+    <row r="34" spans="7:15" ht="21" x14ac:dyDescent="0.25">
+      <c r="G34" s="2"/>
+      <c r="H34" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J34" s="26"/>
+      <c r="K34" s="26"/>
+      <c r="L34" s="26"/>
+      <c r="M34" s="26"/>
+      <c r="N34" s="26"/>
+      <c r="O34" s="26"/>
+    </row>
+    <row r="35" spans="7:15" ht="24" x14ac:dyDescent="0.3">
+      <c r="G35" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H35" s="9">
+        <v>1</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="J35" s="30"/>
+      <c r="K35" s="29"/>
+      <c r="L35" s="30"/>
+      <c r="M35" s="29"/>
+      <c r="N35" s="30"/>
+      <c r="O35" s="30"/>
+    </row>
+    <row r="36" spans="7:15" ht="24" x14ac:dyDescent="0.3">
+      <c r="G36" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H36" s="9">
+        <v>1</v>
+      </c>
+      <c r="I36" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="J36" s="30"/>
+      <c r="K36" s="29"/>
+      <c r="L36" s="30"/>
+      <c r="M36" s="29"/>
+      <c r="N36" s="30"/>
+      <c r="O36" s="30"/>
+    </row>
+    <row r="37" spans="7:15" ht="24" x14ac:dyDescent="0.3">
+      <c r="G37" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H37" s="9">
+        <v>1</v>
+      </c>
+      <c r="I37" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="J37" s="30"/>
+      <c r="K37" s="29"/>
+      <c r="L37" s="30"/>
+      <c r="M37" s="29"/>
+      <c r="N37" s="30"/>
+      <c r="O37" s="30"/>
+    </row>
+    <row r="38" spans="7:15" ht="24" x14ac:dyDescent="0.3">
+      <c r="G38" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H38" s="9">
+        <v>1</v>
+      </c>
+      <c r="I38" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="J38" s="30"/>
+      <c r="K38" s="29"/>
+      <c r="L38" s="30"/>
+      <c r="M38" s="29"/>
+      <c r="N38" s="30"/>
+      <c r="O38" s="30"/>
+    </row>
+    <row r="39" spans="7:15" ht="24" x14ac:dyDescent="0.3">
+      <c r="G39" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H39" s="9">
+        <v>1</v>
+      </c>
+      <c r="I39" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="J39" s="30"/>
+      <c r="K39" s="29"/>
+      <c r="L39" s="30"/>
+      <c r="M39" s="29"/>
+      <c r="N39" s="30"/>
+      <c r="O39" s="30"/>
+    </row>
+    <row r="40" spans="7:15" ht="24" x14ac:dyDescent="0.3">
+      <c r="G40" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H40" s="9">
+        <v>1</v>
+      </c>
+      <c r="I40" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="J40" s="30"/>
+      <c r="K40" s="29"/>
+      <c r="L40" s="30"/>
+      <c r="M40" s="29"/>
+      <c r="N40" s="30"/>
+      <c r="O40" s="30"/>
+    </row>
+    <row r="41" spans="7:15" ht="24" x14ac:dyDescent="0.3">
+      <c r="G41" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H41" s="9">
+        <v>0.75</v>
+      </c>
+      <c r="I41" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="J41" s="30"/>
+      <c r="K41" s="29"/>
+      <c r="L41" s="30"/>
+      <c r="M41" s="29"/>
+      <c r="N41" s="30"/>
+      <c r="O41" s="30"/>
+    </row>
+    <row r="42" spans="7:15" ht="24" x14ac:dyDescent="0.3">
+      <c r="G42" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H42" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="I42" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J42" s="30"/>
+      <c r="K42" s="29"/>
+      <c r="L42" s="30"/>
+      <c r="M42" s="29"/>
+      <c r="N42" s="30"/>
+      <c r="O42" s="30"/>
+    </row>
+    <row r="43" spans="7:15" ht="24" x14ac:dyDescent="0.3">
+      <c r="G43" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H43" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="I43" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J43" s="30"/>
+      <c r="K43" s="29"/>
+      <c r="L43" s="30"/>
+      <c r="M43" s="29"/>
+      <c r="N43" s="30"/>
+      <c r="O43" s="30"/>
+    </row>
+    <row r="44" spans="7:15" ht="25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G44" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H44" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="I44" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="J44" s="29"/>
+      <c r="K44" s="29"/>
+      <c r="L44" s="29"/>
+      <c r="M44" s="29"/>
+      <c r="N44" s="29"/>
+      <c r="O44" s="30"/>
+    </row>
+    <row r="45" spans="7:15" ht="103" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G45" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="H45" s="14"/>
+      <c r="I45" s="18">
+        <v>0.42</v>
+      </c>
+      <c r="J45" s="33"/>
+      <c r="K45" s="34"/>
+      <c r="L45" s="33"/>
+      <c r="M45" s="34"/>
+      <c r="N45" s="35"/>
+      <c r="O45" s="34"/>
+    </row>
+    <row r="55" spans="7:13" x14ac:dyDescent="0.2">
+      <c r="I55" s="21"/>
+      <c r="J55" s="22"/>
+      <c r="K55" s="22"/>
+      <c r="L55" s="22"/>
+    </row>
+    <row r="56" spans="7:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I56" s="22"/>
+      <c r="J56" s="22"/>
+      <c r="K56" s="22"/>
+      <c r="L56" s="22"/>
+    </row>
+    <row r="57" spans="7:13" ht="25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G57" s="36" t="s">
+        <v>85</v>
+      </c>
+      <c r="H57" s="37"/>
+      <c r="I57" s="38"/>
+    </row>
+    <row r="58" spans="7:13" ht="26" x14ac:dyDescent="0.2">
+      <c r="G58" s="1"/>
+      <c r="H58" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="I58" s="23"/>
+      <c r="J58" s="31"/>
+      <c r="K58" s="32"/>
+      <c r="L58" s="31"/>
+      <c r="M58" s="32"/>
+    </row>
+    <row r="59" spans="7:13" ht="21" x14ac:dyDescent="0.25">
+      <c r="G59" s="2"/>
+      <c r="H59" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J59" s="26"/>
+      <c r="K59" s="26"/>
+      <c r="L59" s="26"/>
+      <c r="M59" s="26"/>
+    </row>
+    <row r="60" spans="7:13" ht="24" x14ac:dyDescent="0.3">
+      <c r="G60" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H60" s="9">
+        <v>1</v>
+      </c>
+      <c r="I60" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="J60" s="30"/>
+      <c r="K60" s="29"/>
+      <c r="L60" s="30"/>
+      <c r="M60" s="29"/>
+    </row>
+    <row r="61" spans="7:13" ht="24" x14ac:dyDescent="0.3">
+      <c r="G61" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H61" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="I61" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="J61" s="30"/>
+      <c r="K61" s="29"/>
+      <c r="L61" s="30"/>
+      <c r="M61" s="29"/>
+    </row>
+    <row r="62" spans="7:13" ht="24" x14ac:dyDescent="0.3">
+      <c r="G62" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H62" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="I62" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="J62" s="30"/>
+      <c r="K62" s="29"/>
+      <c r="L62" s="30"/>
+      <c r="M62" s="29"/>
+    </row>
+    <row r="63" spans="7:13" ht="24" x14ac:dyDescent="0.3">
+      <c r="G63" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H63" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="I63" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="J63" s="30"/>
+      <c r="K63" s="29"/>
+      <c r="L63" s="30"/>
+      <c r="M63" s="29"/>
+    </row>
+    <row r="64" spans="7:13" ht="24" x14ac:dyDescent="0.3">
+      <c r="G64" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H64" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="I64" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="J64" s="30"/>
+      <c r="K64" s="29"/>
+      <c r="L64" s="30"/>
+      <c r="M64" s="29"/>
+    </row>
+    <row r="65" spans="7:13" ht="24" x14ac:dyDescent="0.3">
+      <c r="G65" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H65" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I65" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="J65" s="30"/>
+      <c r="K65" s="29"/>
+      <c r="L65" s="30"/>
+      <c r="M65" s="29"/>
+    </row>
+    <row r="66" spans="7:13" ht="24" x14ac:dyDescent="0.3">
+      <c r="G66" s="4"/>
+      <c r="H66" s="9"/>
+      <c r="I66" s="5"/>
+      <c r="J66" s="30"/>
+      <c r="K66" s="29"/>
+      <c r="L66" s="30"/>
+      <c r="M66" s="29"/>
+    </row>
+    <row r="67" spans="7:13" ht="24" x14ac:dyDescent="0.3">
+      <c r="G67" s="4"/>
+      <c r="H67" s="9"/>
+      <c r="I67" s="5"/>
+      <c r="J67" s="30"/>
+      <c r="K67" s="29"/>
+      <c r="L67" s="30"/>
+      <c r="M67" s="29"/>
+    </row>
+    <row r="68" spans="7:13" ht="24" x14ac:dyDescent="0.3">
+      <c r="G68" s="4"/>
+      <c r="H68" s="11"/>
+      <c r="I68" s="5"/>
+      <c r="J68" s="30"/>
+      <c r="K68" s="29"/>
+      <c r="L68" s="30"/>
+      <c r="M68" s="29"/>
+    </row>
+    <row r="69" spans="7:13" ht="25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G69" s="6"/>
+      <c r="H69" s="10"/>
+      <c r="I69" s="7"/>
+      <c r="J69" s="29"/>
+      <c r="K69" s="29"/>
+      <c r="L69" s="29"/>
+      <c r="M69" s="29"/>
+    </row>
+    <row r="70" spans="7:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G70" s="15"/>
+      <c r="H70" s="14"/>
+      <c r="I70" s="18"/>
+      <c r="J70" s="33"/>
+      <c r="K70" s="34"/>
+      <c r="L70" s="33"/>
+      <c r="M70" s="34"/>
+    </row>
+    <row r="75" spans="7:13" x14ac:dyDescent="0.2">
+      <c r="I75" s="21"/>
+      <c r="J75" s="22"/>
+      <c r="K75" s="22"/>
+      <c r="L75" s="22"/>
+    </row>
+    <row r="76" spans="7:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I76" s="22"/>
+      <c r="J76" s="22"/>
+      <c r="K76" s="22"/>
+      <c r="L76" s="22"/>
+    </row>
+    <row r="77" spans="7:13" ht="25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G77" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="H77" s="37"/>
+      <c r="I77" s="38"/>
+      <c r="J77" s="35"/>
+      <c r="K77" s="35"/>
+      <c r="L77" s="35"/>
+      <c r="M77" s="35"/>
+    </row>
+    <row r="78" spans="7:13" ht="26" x14ac:dyDescent="0.2">
+      <c r="G78" s="1"/>
+      <c r="H78" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="I78" s="23"/>
+      <c r="J78" s="31"/>
+      <c r="K78" s="32"/>
+      <c r="L78" s="31"/>
+      <c r="M78" s="32"/>
+    </row>
+    <row r="79" spans="7:13" ht="21" x14ac:dyDescent="0.25">
+      <c r="G79" s="2"/>
+      <c r="H79" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I79" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J79" s="26"/>
+      <c r="K79" s="26"/>
+      <c r="L79" s="26"/>
+      <c r="M79" s="26"/>
+    </row>
+    <row r="80" spans="7:13" ht="24" x14ac:dyDescent="0.3">
+      <c r="G80" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H80" s="9">
+        <v>1</v>
+      </c>
+      <c r="I80" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="J80" s="30"/>
+      <c r="K80" s="29"/>
+      <c r="L80" s="30"/>
+      <c r="M80" s="29"/>
+    </row>
+    <row r="81" spans="7:13" ht="24" x14ac:dyDescent="0.3">
+      <c r="G81" s="4"/>
+      <c r="H81" s="9"/>
+      <c r="I81" s="5"/>
+      <c r="J81" s="30"/>
+      <c r="K81" s="29"/>
+      <c r="L81" s="30"/>
+      <c r="M81" s="29"/>
+    </row>
+    <row r="82" spans="7:13" ht="24" x14ac:dyDescent="0.3">
+      <c r="G82" s="4"/>
+      <c r="H82" s="9"/>
+      <c r="I82" s="5"/>
+      <c r="J82" s="30"/>
+      <c r="K82" s="29"/>
+      <c r="L82" s="30"/>
+      <c r="M82" s="29"/>
+    </row>
+    <row r="83" spans="7:13" ht="24" x14ac:dyDescent="0.3">
+      <c r="G83" s="4"/>
+      <c r="H83" s="9"/>
+      <c r="I83" s="5"/>
+      <c r="J83" s="30"/>
+      <c r="K83" s="29"/>
+      <c r="L83" s="30"/>
+      <c r="M83" s="29"/>
+    </row>
+    <row r="84" spans="7:13" ht="24" x14ac:dyDescent="0.3">
+      <c r="G84" s="4"/>
+      <c r="H84" s="9"/>
+      <c r="I84" s="5"/>
+      <c r="J84" s="30"/>
+      <c r="K84" s="29"/>
+      <c r="L84" s="30"/>
+      <c r="M84" s="29"/>
+    </row>
+    <row r="85" spans="7:13" ht="24" x14ac:dyDescent="0.3">
+      <c r="G85" s="4"/>
+      <c r="H85" s="9"/>
+      <c r="I85" s="5"/>
+      <c r="J85" s="30"/>
+      <c r="K85" s="29"/>
+      <c r="L85" s="30"/>
+      <c r="M85" s="29"/>
+    </row>
+    <row r="86" spans="7:13" ht="24" x14ac:dyDescent="0.3">
+      <c r="G86" s="4"/>
+      <c r="H86" s="9"/>
+      <c r="I86" s="5"/>
+      <c r="J86" s="30"/>
+      <c r="K86" s="29"/>
+      <c r="L86" s="30"/>
+      <c r="M86" s="29"/>
+    </row>
+    <row r="87" spans="7:13" ht="24" x14ac:dyDescent="0.3">
+      <c r="G87" s="4"/>
+      <c r="H87" s="9"/>
+      <c r="I87" s="5"/>
+      <c r="J87" s="30"/>
+      <c r="K87" s="29"/>
+      <c r="L87" s="30"/>
+      <c r="M87" s="29"/>
+    </row>
+    <row r="88" spans="7:13" ht="24" x14ac:dyDescent="0.3">
+      <c r="G88" s="4"/>
+      <c r="H88" s="11"/>
+      <c r="I88" s="5"/>
+      <c r="J88" s="30"/>
+      <c r="K88" s="29"/>
+      <c r="L88" s="30"/>
+      <c r="M88" s="29"/>
+    </row>
+    <row r="89" spans="7:13" ht="25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G89" s="6"/>
+      <c r="H89" s="10"/>
+      <c r="I89" s="7"/>
+      <c r="J89" s="29"/>
+      <c r="K89" s="29"/>
+      <c r="L89" s="29"/>
+      <c r="M89" s="29"/>
+    </row>
+    <row r="90" spans="7:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G90" s="15"/>
+      <c r="H90" s="14"/>
+      <c r="I90" s="18"/>
+      <c r="J90" s="33"/>
+      <c r="K90" s="34"/>
+      <c r="L90" s="33"/>
+      <c r="M90" s="34"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="22">
+    <mergeCell ref="H78:I78"/>
+    <mergeCell ref="J78:K78"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="G57:I57"/>
+    <mergeCell ref="G77:I77"/>
+    <mergeCell ref="I55:L56"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="J58:K58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="I75:L76"/>
+    <mergeCell ref="I30:L31"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N33:O33"/>
     <mergeCell ref="G26:I26"/>
     <mergeCell ref="I6:L7"/>
     <mergeCell ref="N9:O9"/>

--- a/reports/Results.xlsx
+++ b/reports/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/moe/Desktop/puf-auth-ml/reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A3E4EAB-59EF-034B-A56E-F9AC5B430822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE97F029-C0FD-9F4F-A79C-01D0DFABBB45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{65BD7D84-E0D3-BF4C-8AA6-282CCD8082D7}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="88">
   <si>
     <t>Intact</t>
   </si>
@@ -298,13 +298,31 @@
   </si>
   <si>
     <t>RPI1,RPI2,RPI3 length: 512 bits</t>
+  </si>
+  <si>
+    <t>Intact
+RPi1: 8, RPi2:8, RPi3: 8</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">C-10
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>RPi1: 8 random 10p curropted, RPi2: 8 random 10p curropted, RPi3:  8 random 10p curropted</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -351,6 +369,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
     </font>
   </fonts>
   <fills count="2">
@@ -472,7 +495,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -521,60 +544,59 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1031,13 +1053,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F7AB769-A4AB-314C-9FAA-CEF8525B9786}">
   <dimension ref="G6:P90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B36" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="L72" sqref="L72"/>
+    <sheetView tabSelected="1" topLeftCell="E7" zoomScaleNormal="88" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="7" max="7" width="21.33203125" customWidth="1"/>
+    <col min="7" max="7" width="35.5" customWidth="1"/>
     <col min="8" max="8" width="19.1640625" customWidth="1"/>
     <col min="9" max="9" width="27.1640625" customWidth="1"/>
     <col min="10" max="10" width="18.6640625" customWidth="1"/>
@@ -1049,38 +1071,38 @@
   </cols>
   <sheetData>
     <row r="6" spans="7:16" x14ac:dyDescent="0.2">
-      <c r="I6" s="21" t="s">
+      <c r="I6" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
     </row>
     <row r="7" spans="7:16" x14ac:dyDescent="0.2">
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="30"/>
     </row>
     <row r="8" spans="7:16" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="7:16" ht="82" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G9" s="1"/>
-      <c r="H9" s="24" t="s">
+      <c r="H9" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="I9" s="23"/>
-      <c r="J9" s="24" t="s">
+      <c r="I9" s="28"/>
+      <c r="J9" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="K9" s="23"/>
-      <c r="L9" s="24" t="s">
+      <c r="K9" s="28"/>
+      <c r="L9" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="M9" s="23"/>
-      <c r="N9" s="24" t="s">
+      <c r="M9" s="28"/>
+      <c r="N9" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="O9" s="23"/>
+      <c r="O9" s="28"/>
     </row>
     <row r="10" spans="7:16" ht="21" x14ac:dyDescent="0.25">
       <c r="G10" s="2"/>
@@ -1105,14 +1127,14 @@
       <c r="N10" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="O10" s="26" t="s">
+      <c r="O10" s="21" t="s">
         <v>11</v>
       </c>
       <c r="P10" s="2"/>
     </row>
-    <row r="11" spans="7:16" ht="24" x14ac:dyDescent="0.3">
-      <c r="G11" s="4" t="s">
-        <v>0</v>
+    <row r="11" spans="7:16" ht="50" x14ac:dyDescent="0.3">
+      <c r="G11" s="37" t="s">
+        <v>86</v>
       </c>
       <c r="H11" s="9">
         <v>1</v>
@@ -1135,13 +1157,13 @@
       <c r="N11" s="9">
         <v>1</v>
       </c>
-      <c r="O11" s="27" t="s">
+      <c r="O11" s="22" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="7:16" ht="24" x14ac:dyDescent="0.3">
-      <c r="G12" s="4" t="s">
-        <v>2</v>
+    <row r="12" spans="7:16" ht="85" x14ac:dyDescent="0.25">
+      <c r="G12" s="37" t="s">
+        <v>87</v>
       </c>
       <c r="H12" s="9">
         <v>1</v>
@@ -1164,7 +1186,7 @@
       <c r="N12" s="9">
         <v>1</v>
       </c>
-      <c r="O12" s="27" t="s">
+      <c r="O12" s="22" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1193,7 +1215,7 @@
       <c r="N13" s="9">
         <v>1</v>
       </c>
-      <c r="O13" s="27" t="s">
+      <c r="O13" s="22" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1222,7 +1244,7 @@
       <c r="N14" s="9">
         <v>1</v>
       </c>
-      <c r="O14" s="27" t="s">
+      <c r="O14" s="22" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1251,7 +1273,7 @@
       <c r="N15" s="9">
         <v>1</v>
       </c>
-      <c r="O15" s="27" t="s">
+      <c r="O15" s="22" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1280,7 +1302,7 @@
       <c r="N16" s="9">
         <v>1</v>
       </c>
-      <c r="O16" s="27" t="s">
+      <c r="O16" s="22" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1309,7 +1331,7 @@
       <c r="N17" s="9">
         <v>1</v>
       </c>
-      <c r="O17" s="27" t="s">
+      <c r="O17" s="22" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1338,7 +1360,7 @@
       <c r="N18" s="9">
         <v>1</v>
       </c>
-      <c r="O18" s="27" t="s">
+      <c r="O18" s="22" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1367,7 +1389,7 @@
       <c r="N19" s="9">
         <v>1</v>
       </c>
-      <c r="O19" s="27" t="s">
+      <c r="O19" s="22" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1396,7 +1418,7 @@
       <c r="N20" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="O20" s="28" t="s">
+      <c r="O20" s="23" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1416,7 +1438,7 @@
       <c r="M21" s="18">
         <v>0.5</v>
       </c>
-      <c r="N21" s="25"/>
+      <c r="N21" s="20"/>
       <c r="O21" s="18">
         <v>0.51</v>
       </c>
@@ -1429,47 +1451,41 @@
       </c>
     </row>
     <row r="26" spans="7:15" ht="49" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G26" s="19"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="20"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="36"/>
     </row>
     <row r="30" spans="7:15" x14ac:dyDescent="0.2">
-      <c r="I30" s="21"/>
-      <c r="J30" s="22"/>
-      <c r="K30" s="22"/>
-      <c r="L30" s="22"/>
-      <c r="N30" s="35"/>
-      <c r="O30" s="35"/>
+      <c r="I30" s="34"/>
+      <c r="J30" s="30"/>
+      <c r="K30" s="30"/>
+      <c r="L30" s="30"/>
     </row>
     <row r="31" spans="7:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="I31" s="22"/>
-      <c r="J31" s="22"/>
-      <c r="K31" s="22"/>
-      <c r="L31" s="22"/>
-      <c r="N31" s="35"/>
-      <c r="O31" s="35"/>
+      <c r="I31" s="30"/>
+      <c r="J31" s="30"/>
+      <c r="K31" s="30"/>
+      <c r="L31" s="30"/>
     </row>
     <row r="32" spans="7:15" ht="25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G32" s="36" t="s">
+      <c r="G32" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="H32" s="37"/>
-      <c r="I32" s="38"/>
-      <c r="N32" s="35"/>
-      <c r="O32" s="35"/>
+      <c r="H32" s="32"/>
+      <c r="I32" s="33"/>
     </row>
     <row r="33" spans="7:15" ht="26" x14ac:dyDescent="0.2">
       <c r="G33" s="1"/>
-      <c r="H33" s="24" t="s">
+      <c r="H33" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="I33" s="23"/>
-      <c r="J33" s="31"/>
-      <c r="K33" s="32"/>
-      <c r="L33" s="31"/>
-      <c r="M33" s="32"/>
-      <c r="N33" s="31"/>
-      <c r="O33" s="32"/>
+      <c r="I33" s="28"/>
+      <c r="J33" s="29"/>
+      <c r="K33" s="30"/>
+      <c r="L33" s="29"/>
+      <c r="M33" s="30"/>
+      <c r="N33" s="29"/>
+      <c r="O33" s="30"/>
     </row>
     <row r="34" spans="7:15" ht="21" x14ac:dyDescent="0.25">
       <c r="G34" s="2"/>
@@ -1479,12 +1495,12 @@
       <c r="I34" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J34" s="26"/>
-      <c r="K34" s="26"/>
-      <c r="L34" s="26"/>
-      <c r="M34" s="26"/>
-      <c r="N34" s="26"/>
-      <c r="O34" s="26"/>
+      <c r="J34" s="21"/>
+      <c r="K34" s="21"/>
+      <c r="L34" s="21"/>
+      <c r="M34" s="21"/>
+      <c r="N34" s="21"/>
+      <c r="O34" s="21"/>
     </row>
     <row r="35" spans="7:15" ht="24" x14ac:dyDescent="0.3">
       <c r="G35" s="4" t="s">
@@ -1496,12 +1512,12 @@
       <c r="I35" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="J35" s="30"/>
-      <c r="K35" s="29"/>
-      <c r="L35" s="30"/>
-      <c r="M35" s="29"/>
-      <c r="N35" s="30"/>
-      <c r="O35" s="30"/>
+      <c r="J35" s="25"/>
+      <c r="K35" s="24"/>
+      <c r="L35" s="25"/>
+      <c r="M35" s="24"/>
+      <c r="N35" s="25"/>
+      <c r="O35" s="25"/>
     </row>
     <row r="36" spans="7:15" ht="24" x14ac:dyDescent="0.3">
       <c r="G36" s="4" t="s">
@@ -1513,12 +1529,12 @@
       <c r="I36" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="J36" s="30"/>
-      <c r="K36" s="29"/>
-      <c r="L36" s="30"/>
-      <c r="M36" s="29"/>
-      <c r="N36" s="30"/>
-      <c r="O36" s="30"/>
+      <c r="J36" s="25"/>
+      <c r="K36" s="24"/>
+      <c r="L36" s="25"/>
+      <c r="M36" s="24"/>
+      <c r="N36" s="25"/>
+      <c r="O36" s="25"/>
     </row>
     <row r="37" spans="7:15" ht="24" x14ac:dyDescent="0.3">
       <c r="G37" s="4" t="s">
@@ -1530,12 +1546,12 @@
       <c r="I37" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="J37" s="30"/>
-      <c r="K37" s="29"/>
-      <c r="L37" s="30"/>
-      <c r="M37" s="29"/>
-      <c r="N37" s="30"/>
-      <c r="O37" s="30"/>
+      <c r="J37" s="25"/>
+      <c r="K37" s="24"/>
+      <c r="L37" s="25"/>
+      <c r="M37" s="24"/>
+      <c r="N37" s="25"/>
+      <c r="O37" s="25"/>
     </row>
     <row r="38" spans="7:15" ht="24" x14ac:dyDescent="0.3">
       <c r="G38" s="4" t="s">
@@ -1547,12 +1563,12 @@
       <c r="I38" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="J38" s="30"/>
-      <c r="K38" s="29"/>
-      <c r="L38" s="30"/>
-      <c r="M38" s="29"/>
-      <c r="N38" s="30"/>
-      <c r="O38" s="30"/>
+      <c r="J38" s="25"/>
+      <c r="K38" s="24"/>
+      <c r="L38" s="25"/>
+      <c r="M38" s="24"/>
+      <c r="N38" s="25"/>
+      <c r="O38" s="25"/>
     </row>
     <row r="39" spans="7:15" ht="24" x14ac:dyDescent="0.3">
       <c r="G39" s="4" t="s">
@@ -1564,12 +1580,12 @@
       <c r="I39" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="J39" s="30"/>
-      <c r="K39" s="29"/>
-      <c r="L39" s="30"/>
-      <c r="M39" s="29"/>
-      <c r="N39" s="30"/>
-      <c r="O39" s="30"/>
+      <c r="J39" s="25"/>
+      <c r="K39" s="24"/>
+      <c r="L39" s="25"/>
+      <c r="M39" s="24"/>
+      <c r="N39" s="25"/>
+      <c r="O39" s="25"/>
     </row>
     <row r="40" spans="7:15" ht="24" x14ac:dyDescent="0.3">
       <c r="G40" s="4" t="s">
@@ -1581,12 +1597,12 @@
       <c r="I40" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="J40" s="30"/>
-      <c r="K40" s="29"/>
-      <c r="L40" s="30"/>
-      <c r="M40" s="29"/>
-      <c r="N40" s="30"/>
-      <c r="O40" s="30"/>
+      <c r="J40" s="25"/>
+      <c r="K40" s="24"/>
+      <c r="L40" s="25"/>
+      <c r="M40" s="24"/>
+      <c r="N40" s="25"/>
+      <c r="O40" s="25"/>
     </row>
     <row r="41" spans="7:15" ht="24" x14ac:dyDescent="0.3">
       <c r="G41" s="4" t="s">
@@ -1598,12 +1614,12 @@
       <c r="I41" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="J41" s="30"/>
-      <c r="K41" s="29"/>
-      <c r="L41" s="30"/>
-      <c r="M41" s="29"/>
-      <c r="N41" s="30"/>
-      <c r="O41" s="30"/>
+      <c r="J41" s="25"/>
+      <c r="K41" s="24"/>
+      <c r="L41" s="25"/>
+      <c r="M41" s="24"/>
+      <c r="N41" s="25"/>
+      <c r="O41" s="25"/>
     </row>
     <row r="42" spans="7:15" ht="24" x14ac:dyDescent="0.3">
       <c r="G42" s="4" t="s">
@@ -1615,12 +1631,12 @@
       <c r="I42" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="J42" s="30"/>
-      <c r="K42" s="29"/>
-      <c r="L42" s="30"/>
-      <c r="M42" s="29"/>
-      <c r="N42" s="30"/>
-      <c r="O42" s="30"/>
+      <c r="J42" s="25"/>
+      <c r="K42" s="24"/>
+      <c r="L42" s="25"/>
+      <c r="M42" s="24"/>
+      <c r="N42" s="25"/>
+      <c r="O42" s="25"/>
     </row>
     <row r="43" spans="7:15" ht="24" x14ac:dyDescent="0.3">
       <c r="G43" s="4" t="s">
@@ -1632,12 +1648,12 @@
       <c r="I43" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="J43" s="30"/>
-      <c r="K43" s="29"/>
-      <c r="L43" s="30"/>
-      <c r="M43" s="29"/>
-      <c r="N43" s="30"/>
-      <c r="O43" s="30"/>
+      <c r="J43" s="25"/>
+      <c r="K43" s="24"/>
+      <c r="L43" s="25"/>
+      <c r="M43" s="24"/>
+      <c r="N43" s="25"/>
+      <c r="O43" s="25"/>
     </row>
     <row r="44" spans="7:15" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G44" s="6" t="s">
@@ -1649,12 +1665,12 @@
       <c r="I44" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="J44" s="29"/>
-      <c r="K44" s="29"/>
-      <c r="L44" s="29"/>
-      <c r="M44" s="29"/>
-      <c r="N44" s="29"/>
-      <c r="O44" s="30"/>
+      <c r="J44" s="24"/>
+      <c r="K44" s="24"/>
+      <c r="L44" s="24"/>
+      <c r="M44" s="24"/>
+      <c r="N44" s="24"/>
+      <c r="O44" s="25"/>
     </row>
     <row r="45" spans="7:15" ht="103" thickBot="1" x14ac:dyDescent="0.25">
       <c r="G45" s="15" t="s">
@@ -1664,42 +1680,41 @@
       <c r="I45" s="18">
         <v>0.42</v>
       </c>
-      <c r="J45" s="33"/>
-      <c r="K45" s="34"/>
-      <c r="L45" s="33"/>
-      <c r="M45" s="34"/>
-      <c r="N45" s="35"/>
-      <c r="O45" s="34"/>
+      <c r="J45" s="19"/>
+      <c r="K45" s="26"/>
+      <c r="L45" s="19"/>
+      <c r="M45" s="26"/>
+      <c r="O45" s="26"/>
     </row>
     <row r="55" spans="7:13" x14ac:dyDescent="0.2">
-      <c r="I55" s="21"/>
-      <c r="J55" s="22"/>
-      <c r="K55" s="22"/>
-      <c r="L55" s="22"/>
+      <c r="I55" s="34"/>
+      <c r="J55" s="30"/>
+      <c r="K55" s="30"/>
+      <c r="L55" s="30"/>
     </row>
     <row r="56" spans="7:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="I56" s="22"/>
-      <c r="J56" s="22"/>
-      <c r="K56" s="22"/>
-      <c r="L56" s="22"/>
+      <c r="I56" s="30"/>
+      <c r="J56" s="30"/>
+      <c r="K56" s="30"/>
+      <c r="L56" s="30"/>
     </row>
     <row r="57" spans="7:13" ht="25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G57" s="36" t="s">
+      <c r="G57" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="H57" s="37"/>
-      <c r="I57" s="38"/>
+      <c r="H57" s="32"/>
+      <c r="I57" s="33"/>
     </row>
     <row r="58" spans="7:13" ht="26" x14ac:dyDescent="0.2">
       <c r="G58" s="1"/>
-      <c r="H58" s="24" t="s">
+      <c r="H58" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="I58" s="23"/>
-      <c r="J58" s="31"/>
-      <c r="K58" s="32"/>
-      <c r="L58" s="31"/>
-      <c r="M58" s="32"/>
+      <c r="I58" s="28"/>
+      <c r="J58" s="29"/>
+      <c r="K58" s="30"/>
+      <c r="L58" s="29"/>
+      <c r="M58" s="30"/>
     </row>
     <row r="59" spans="7:13" ht="21" x14ac:dyDescent="0.25">
       <c r="G59" s="2"/>
@@ -1709,10 +1724,10 @@
       <c r="I59" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J59" s="26"/>
-      <c r="K59" s="26"/>
-      <c r="L59" s="26"/>
-      <c r="M59" s="26"/>
+      <c r="J59" s="21"/>
+      <c r="K59" s="21"/>
+      <c r="L59" s="21"/>
+      <c r="M59" s="21"/>
     </row>
     <row r="60" spans="7:13" ht="24" x14ac:dyDescent="0.3">
       <c r="G60" s="4" t="s">
@@ -1724,10 +1739,10 @@
       <c r="I60" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="J60" s="30"/>
-      <c r="K60" s="29"/>
-      <c r="L60" s="30"/>
-      <c r="M60" s="29"/>
+      <c r="J60" s="25"/>
+      <c r="K60" s="24"/>
+      <c r="L60" s="25"/>
+      <c r="M60" s="24"/>
     </row>
     <row r="61" spans="7:13" ht="24" x14ac:dyDescent="0.3">
       <c r="G61" s="4" t="s">
@@ -1739,10 +1754,10 @@
       <c r="I61" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="J61" s="30"/>
-      <c r="K61" s="29"/>
-      <c r="L61" s="30"/>
-      <c r="M61" s="29"/>
+      <c r="J61" s="25"/>
+      <c r="K61" s="24"/>
+      <c r="L61" s="25"/>
+      <c r="M61" s="24"/>
     </row>
     <row r="62" spans="7:13" ht="24" x14ac:dyDescent="0.3">
       <c r="G62" s="4" t="s">
@@ -1754,10 +1769,10 @@
       <c r="I62" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="J62" s="30"/>
-      <c r="K62" s="29"/>
-      <c r="L62" s="30"/>
-      <c r="M62" s="29"/>
+      <c r="J62" s="25"/>
+      <c r="K62" s="24"/>
+      <c r="L62" s="25"/>
+      <c r="M62" s="24"/>
     </row>
     <row r="63" spans="7:13" ht="24" x14ac:dyDescent="0.3">
       <c r="G63" s="4" t="s">
@@ -1769,10 +1784,10 @@
       <c r="I63" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="J63" s="30"/>
-      <c r="K63" s="29"/>
-      <c r="L63" s="30"/>
-      <c r="M63" s="29"/>
+      <c r="J63" s="25"/>
+      <c r="K63" s="24"/>
+      <c r="L63" s="25"/>
+      <c r="M63" s="24"/>
     </row>
     <row r="64" spans="7:13" ht="24" x14ac:dyDescent="0.3">
       <c r="G64" s="4" t="s">
@@ -1784,10 +1799,10 @@
       <c r="I64" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="J64" s="30"/>
-      <c r="K64" s="29"/>
-      <c r="L64" s="30"/>
-      <c r="M64" s="29"/>
+      <c r="J64" s="25"/>
+      <c r="K64" s="24"/>
+      <c r="L64" s="25"/>
+      <c r="M64" s="24"/>
     </row>
     <row r="65" spans="7:13" ht="24" x14ac:dyDescent="0.3">
       <c r="G65" s="4" t="s">
@@ -1799,89 +1814,85 @@
       <c r="I65" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="J65" s="30"/>
-      <c r="K65" s="29"/>
-      <c r="L65" s="30"/>
-      <c r="M65" s="29"/>
+      <c r="J65" s="25"/>
+      <c r="K65" s="24"/>
+      <c r="L65" s="25"/>
+      <c r="M65" s="24"/>
     </row>
     <row r="66" spans="7:13" ht="24" x14ac:dyDescent="0.3">
       <c r="G66" s="4"/>
       <c r="H66" s="9"/>
       <c r="I66" s="5"/>
-      <c r="J66" s="30"/>
-      <c r="K66" s="29"/>
-      <c r="L66" s="30"/>
-      <c r="M66" s="29"/>
+      <c r="J66" s="25"/>
+      <c r="K66" s="24"/>
+      <c r="L66" s="25"/>
+      <c r="M66" s="24"/>
     </row>
     <row r="67" spans="7:13" ht="24" x14ac:dyDescent="0.3">
       <c r="G67" s="4"/>
       <c r="H67" s="9"/>
       <c r="I67" s="5"/>
-      <c r="J67" s="30"/>
-      <c r="K67" s="29"/>
-      <c r="L67" s="30"/>
-      <c r="M67" s="29"/>
+      <c r="J67" s="25"/>
+      <c r="K67" s="24"/>
+      <c r="L67" s="25"/>
+      <c r="M67" s="24"/>
     </row>
     <row r="68" spans="7:13" ht="24" x14ac:dyDescent="0.3">
       <c r="G68" s="4"/>
       <c r="H68" s="11"/>
       <c r="I68" s="5"/>
-      <c r="J68" s="30"/>
-      <c r="K68" s="29"/>
-      <c r="L68" s="30"/>
-      <c r="M68" s="29"/>
+      <c r="J68" s="25"/>
+      <c r="K68" s="24"/>
+      <c r="L68" s="25"/>
+      <c r="M68" s="24"/>
     </row>
     <row r="69" spans="7:13" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G69" s="6"/>
       <c r="H69" s="10"/>
       <c r="I69" s="7"/>
-      <c r="J69" s="29"/>
-      <c r="K69" s="29"/>
-      <c r="L69" s="29"/>
-      <c r="M69" s="29"/>
+      <c r="J69" s="24"/>
+      <c r="K69" s="24"/>
+      <c r="L69" s="24"/>
+      <c r="M69" s="24"/>
     </row>
     <row r="70" spans="7:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="G70" s="15"/>
       <c r="H70" s="14"/>
       <c r="I70" s="18"/>
-      <c r="J70" s="33"/>
-      <c r="K70" s="34"/>
-      <c r="L70" s="33"/>
-      <c r="M70" s="34"/>
+      <c r="J70" s="19"/>
+      <c r="K70" s="26"/>
+      <c r="L70" s="19"/>
+      <c r="M70" s="26"/>
     </row>
     <row r="75" spans="7:13" x14ac:dyDescent="0.2">
-      <c r="I75" s="21"/>
-      <c r="J75" s="22"/>
-      <c r="K75" s="22"/>
-      <c r="L75" s="22"/>
+      <c r="I75" s="34"/>
+      <c r="J75" s="30"/>
+      <c r="K75" s="30"/>
+      <c r="L75" s="30"/>
     </row>
     <row r="76" spans="7:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="I76" s="22"/>
-      <c r="J76" s="22"/>
-      <c r="K76" s="22"/>
-      <c r="L76" s="22"/>
+      <c r="I76" s="30"/>
+      <c r="J76" s="30"/>
+      <c r="K76" s="30"/>
+      <c r="L76" s="30"/>
     </row>
     <row r="77" spans="7:13" ht="25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G77" s="36" t="s">
+      <c r="G77" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="H77" s="37"/>
-      <c r="I77" s="38"/>
-      <c r="J77" s="35"/>
-      <c r="K77" s="35"/>
-      <c r="L77" s="35"/>
-      <c r="M77" s="35"/>
+      <c r="H77" s="32"/>
+      <c r="I77" s="33"/>
     </row>
     <row r="78" spans="7:13" ht="26" x14ac:dyDescent="0.2">
       <c r="G78" s="1"/>
-      <c r="H78" s="24" t="s">
+      <c r="H78" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="I78" s="23"/>
-      <c r="J78" s="31"/>
-      <c r="K78" s="32"/>
-      <c r="L78" s="31"/>
-      <c r="M78" s="32"/>
+      <c r="I78" s="28"/>
+      <c r="J78" s="29"/>
+      <c r="K78" s="30"/>
+      <c r="L78" s="29"/>
+      <c r="M78" s="30"/>
     </row>
     <row r="79" spans="7:13" ht="21" x14ac:dyDescent="0.25">
       <c r="G79" s="2"/>
@@ -1891,10 +1902,10 @@
       <c r="I79" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J79" s="26"/>
-      <c r="K79" s="26"/>
-      <c r="L79" s="26"/>
-      <c r="M79" s="26"/>
+      <c r="J79" s="21"/>
+      <c r="K79" s="21"/>
+      <c r="L79" s="21"/>
+      <c r="M79" s="21"/>
     </row>
     <row r="80" spans="7:13" ht="24" x14ac:dyDescent="0.3">
       <c r="G80" s="4" t="s">
@@ -1906,103 +1917,114 @@
       <c r="I80" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="J80" s="30"/>
-      <c r="K80" s="29"/>
-      <c r="L80" s="30"/>
-      <c r="M80" s="29"/>
+      <c r="J80" s="25"/>
+      <c r="K80" s="24"/>
+      <c r="L80" s="25"/>
+      <c r="M80" s="24"/>
     </row>
     <row r="81" spans="7:13" ht="24" x14ac:dyDescent="0.3">
       <c r="G81" s="4"/>
       <c r="H81" s="9"/>
       <c r="I81" s="5"/>
-      <c r="J81" s="30"/>
-      <c r="K81" s="29"/>
-      <c r="L81" s="30"/>
-      <c r="M81" s="29"/>
+      <c r="J81" s="25"/>
+      <c r="K81" s="24"/>
+      <c r="L81" s="25"/>
+      <c r="M81" s="24"/>
     </row>
     <row r="82" spans="7:13" ht="24" x14ac:dyDescent="0.3">
       <c r="G82" s="4"/>
       <c r="H82" s="9"/>
       <c r="I82" s="5"/>
-      <c r="J82" s="30"/>
-      <c r="K82" s="29"/>
-      <c r="L82" s="30"/>
-      <c r="M82" s="29"/>
+      <c r="J82" s="25"/>
+      <c r="K82" s="24"/>
+      <c r="L82" s="25"/>
+      <c r="M82" s="24"/>
     </row>
     <row r="83" spans="7:13" ht="24" x14ac:dyDescent="0.3">
       <c r="G83" s="4"/>
       <c r="H83" s="9"/>
       <c r="I83" s="5"/>
-      <c r="J83" s="30"/>
-      <c r="K83" s="29"/>
-      <c r="L83" s="30"/>
-      <c r="M83" s="29"/>
+      <c r="J83" s="25"/>
+      <c r="K83" s="24"/>
+      <c r="L83" s="25"/>
+      <c r="M83" s="24"/>
     </row>
     <row r="84" spans="7:13" ht="24" x14ac:dyDescent="0.3">
       <c r="G84" s="4"/>
       <c r="H84" s="9"/>
       <c r="I84" s="5"/>
-      <c r="J84" s="30"/>
-      <c r="K84" s="29"/>
-      <c r="L84" s="30"/>
-      <c r="M84" s="29"/>
+      <c r="J84" s="25"/>
+      <c r="K84" s="24"/>
+      <c r="L84" s="25"/>
+      <c r="M84" s="24"/>
     </row>
     <row r="85" spans="7:13" ht="24" x14ac:dyDescent="0.3">
       <c r="G85" s="4"/>
       <c r="H85" s="9"/>
       <c r="I85" s="5"/>
-      <c r="J85" s="30"/>
-      <c r="K85" s="29"/>
-      <c r="L85" s="30"/>
-      <c r="M85" s="29"/>
+      <c r="J85" s="25"/>
+      <c r="K85" s="24"/>
+      <c r="L85" s="25"/>
+      <c r="M85" s="24"/>
     </row>
     <row r="86" spans="7:13" ht="24" x14ac:dyDescent="0.3">
       <c r="G86" s="4"/>
       <c r="H86" s="9"/>
       <c r="I86" s="5"/>
-      <c r="J86" s="30"/>
-      <c r="K86" s="29"/>
-      <c r="L86" s="30"/>
-      <c r="M86" s="29"/>
+      <c r="J86" s="25"/>
+      <c r="K86" s="24"/>
+      <c r="L86" s="25"/>
+      <c r="M86" s="24"/>
     </row>
     <row r="87" spans="7:13" ht="24" x14ac:dyDescent="0.3">
       <c r="G87" s="4"/>
       <c r="H87" s="9"/>
       <c r="I87" s="5"/>
-      <c r="J87" s="30"/>
-      <c r="K87" s="29"/>
-      <c r="L87" s="30"/>
-      <c r="M87" s="29"/>
+      <c r="J87" s="25"/>
+      <c r="K87" s="24"/>
+      <c r="L87" s="25"/>
+      <c r="M87" s="24"/>
     </row>
     <row r="88" spans="7:13" ht="24" x14ac:dyDescent="0.3">
       <c r="G88" s="4"/>
       <c r="H88" s="11"/>
       <c r="I88" s="5"/>
-      <c r="J88" s="30"/>
-      <c r="K88" s="29"/>
-      <c r="L88" s="30"/>
-      <c r="M88" s="29"/>
+      <c r="J88" s="25"/>
+      <c r="K88" s="24"/>
+      <c r="L88" s="25"/>
+      <c r="M88" s="24"/>
     </row>
     <row r="89" spans="7:13" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G89" s="6"/>
       <c r="H89" s="10"/>
       <c r="I89" s="7"/>
-      <c r="J89" s="29"/>
-      <c r="K89" s="29"/>
-      <c r="L89" s="29"/>
-      <c r="M89" s="29"/>
+      <c r="J89" s="24"/>
+      <c r="K89" s="24"/>
+      <c r="L89" s="24"/>
+      <c r="M89" s="24"/>
     </row>
     <row r="90" spans="7:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="G90" s="15"/>
       <c r="H90" s="14"/>
       <c r="I90" s="18"/>
-      <c r="J90" s="33"/>
-      <c r="K90" s="34"/>
-      <c r="L90" s="33"/>
-      <c r="M90" s="34"/>
+      <c r="J90" s="19"/>
+      <c r="K90" s="26"/>
+      <c r="L90" s="19"/>
+      <c r="M90" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="I6:L7"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="I30:L31"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N33:O33"/>
     <mergeCell ref="H78:I78"/>
     <mergeCell ref="J78:K78"/>
     <mergeCell ref="L78:M78"/>
@@ -2014,17 +2036,6 @@
     <mergeCell ref="J58:K58"/>
     <mergeCell ref="L58:M58"/>
     <mergeCell ref="I75:L76"/>
-    <mergeCell ref="I30:L31"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="I6:L7"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="L9:M9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/reports/Results.xlsx
+++ b/reports/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/moe/Desktop/puf-auth-ml/reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE97F029-C0FD-9F4F-A79C-01D0DFABBB45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{329358EC-BEE1-F240-B682-A50157BA6242}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{65BD7D84-E0D3-BF4C-8AA6-282CCD8082D7}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="93">
   <si>
     <t>Intact</t>
   </si>
@@ -315,6 +315,56 @@
         <rFont val="Calibri (Body)"/>
       </rPr>
       <t>RPi1: 8 random 10p curropted, RPi2: 8 random 10p curropted, RPi3:  8 random 10p curropted</t>
+    </r>
+  </si>
+  <si>
+    <t>Intact
+RPi1: 25, RPi2:25, RPi3: 25</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">C-10
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>RPi1: 25 random 10p curropted, RPi2: 25 random 10p curropted, RPi3:  25 random 10p curropted</t>
+    </r>
+  </si>
+  <si>
+    <t>Intact
+RPi1: 34, RPi2:34, RPi3: 34</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">C-10
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>RPi1: 34 random 10p curropted, RPi2: 34 random 10p curropted, RPi3:  34 random 10p curropted</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">C-30
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>RPi1: 25 random 10p curropted, RPi2: 25 random 10p curropted, RPi3:  25 random 10p curropted</t>
     </r>
   </si>
 </sst>
@@ -384,7 +434,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -491,11 +541,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -565,6 +633,24 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -574,9 +660,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -586,17 +669,26 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1051,10 +1143,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F7AB769-A4AB-314C-9FAA-CEF8525B9786}">
-  <dimension ref="G6:P90"/>
+  <dimension ref="G6:S90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E7" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="J3" zoomScaleNormal="88" workbookViewId="0">
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1062,49 +1154,59 @@
     <col min="7" max="7" width="35.5" customWidth="1"/>
     <col min="8" max="8" width="19.1640625" customWidth="1"/>
     <col min="9" max="9" width="27.1640625" customWidth="1"/>
-    <col min="10" max="10" width="18.6640625" customWidth="1"/>
-    <col min="11" max="11" width="26.33203125" customWidth="1"/>
-    <col min="12" max="12" width="18.5" customWidth="1"/>
-    <col min="13" max="13" width="27.33203125" customWidth="1"/>
-    <col min="14" max="14" width="16" customWidth="1"/>
-    <col min="15" max="15" width="36.33203125" customWidth="1"/>
+    <col min="10" max="10" width="39.1640625" customWidth="1"/>
+    <col min="11" max="11" width="18.6640625" customWidth="1"/>
+    <col min="12" max="12" width="26.33203125" customWidth="1"/>
+    <col min="13" max="13" width="36.6640625" customWidth="1"/>
+    <col min="14" max="14" width="18.5" customWidth="1"/>
+    <col min="15" max="15" width="27.33203125" customWidth="1"/>
+    <col min="16" max="16" width="35.5" customWidth="1"/>
+    <col min="17" max="17" width="16" customWidth="1"/>
+    <col min="18" max="18" width="36.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="7:16" x14ac:dyDescent="0.2">
-      <c r="I6" s="34" t="s">
+    <row r="6" spans="7:19" x14ac:dyDescent="0.2">
+      <c r="I6" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-    </row>
-    <row r="7" spans="7:16" x14ac:dyDescent="0.2">
-      <c r="I7" s="30"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="30"/>
-      <c r="L7" s="30"/>
-    </row>
-    <row r="8" spans="7:16" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="7:16" ht="82" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J6" s="31"/>
+      <c r="K6" s="32"/>
+      <c r="L6" s="32"/>
+      <c r="M6" s="32"/>
+      <c r="N6" s="32"/>
+    </row>
+    <row r="7" spans="7:19" x14ac:dyDescent="0.2">
+      <c r="I7" s="32"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="32"/>
+      <c r="M7" s="32"/>
+      <c r="N7" s="32"/>
+    </row>
+    <row r="8" spans="7:19" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="7:19" ht="82" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G9" s="1"/>
-      <c r="H9" s="27" t="s">
+      <c r="H9" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="I9" s="28"/>
-      <c r="J9" s="27" t="s">
+      <c r="I9" s="34"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="K9" s="28"/>
-      <c r="L9" s="27" t="s">
+      <c r="L9" s="34"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="M9" s="28"/>
-      <c r="N9" s="27" t="s">
+      <c r="O9" s="34"/>
+      <c r="P9" s="39"/>
+      <c r="Q9" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="O9" s="28"/>
-    </row>
-    <row r="10" spans="7:16" ht="21" x14ac:dyDescent="0.25">
+      <c r="R9" s="34"/>
+    </row>
+    <row r="10" spans="7:19" ht="21" x14ac:dyDescent="0.25">
       <c r="G10" s="2"/>
       <c r="H10" s="8" t="s">
         <v>10</v>
@@ -1112,28 +1214,31 @@
       <c r="I10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J10" s="8" t="s">
+      <c r="J10" s="40"/>
+      <c r="K10" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="K10" s="3" t="s">
+      <c r="L10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L10" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="M10" s="40"/>
       <c r="N10" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="O10" s="21" t="s">
+      <c r="O10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="P10" s="2"/>
-    </row>
-    <row r="11" spans="7:16" ht="50" x14ac:dyDescent="0.3">
-      <c r="G11" s="37" t="s">
+      <c r="P10" s="40"/>
+      <c r="Q10" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="R10" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="S10" s="2"/>
+    </row>
+    <row r="11" spans="7:19" ht="50" x14ac:dyDescent="0.3">
+      <c r="G11" s="28" t="s">
         <v>86</v>
       </c>
       <c r="H11" s="9">
@@ -1142,27 +1247,36 @@
       <c r="I11" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="J11" s="9">
-        <v>1</v>
-      </c>
-      <c r="K11" s="5" t="s">
+      <c r="J11" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="K11" s="9">
+        <v>1</v>
+      </c>
+      <c r="L11" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="L11" s="9">
-        <v>1</v>
-      </c>
-      <c r="M11" s="5" t="s">
+      <c r="M11" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="N11" s="9">
+        <v>1</v>
+      </c>
+      <c r="O11" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="N11" s="9">
-        <v>1</v>
-      </c>
-      <c r="O11" s="22" t="s">
+      <c r="P11" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q11" s="9">
+        <v>1</v>
+      </c>
+      <c r="R11" s="22" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="7:16" ht="85" x14ac:dyDescent="0.25">
-      <c r="G12" s="37" t="s">
+    <row r="12" spans="7:19" ht="85" x14ac:dyDescent="0.25">
+      <c r="G12" s="28" t="s">
         <v>87</v>
       </c>
       <c r="H12" s="9">
@@ -1171,26 +1285,33 @@
       <c r="I12" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J12" s="9">
-        <v>1</v>
-      </c>
-      <c r="K12" s="5" t="s">
+      <c r="J12" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="K12" s="9">
+        <v>1</v>
+      </c>
+      <c r="L12" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="L12" s="9">
-        <v>1</v>
-      </c>
-      <c r="M12" s="5" t="s">
+      <c r="M12" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="N12" s="9">
+        <v>1</v>
+      </c>
+      <c r="O12" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="N12" s="9">
-        <v>1</v>
-      </c>
-      <c r="O12" s="22" t="s">
+      <c r="P12" s="41"/>
+      <c r="Q12" s="9">
+        <v>1</v>
+      </c>
+      <c r="R12" s="22" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="7:16" ht="24" x14ac:dyDescent="0.3">
+    <row r="13" spans="7:19" ht="24" x14ac:dyDescent="0.3">
       <c r="G13" s="4" t="s">
         <v>3</v>
       </c>
@@ -1200,26 +1321,29 @@
       <c r="I13" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J13" s="9">
-        <v>1</v>
-      </c>
-      <c r="K13" s="5" t="s">
+      <c r="J13" s="41"/>
+      <c r="K13" s="9">
+        <v>1</v>
+      </c>
+      <c r="L13" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="L13" s="9">
-        <v>1</v>
-      </c>
-      <c r="M13" s="5" t="s">
+      <c r="M13" s="41"/>
+      <c r="N13" s="9">
+        <v>1</v>
+      </c>
+      <c r="O13" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="N13" s="9">
-        <v>1</v>
-      </c>
-      <c r="O13" s="22" t="s">
+      <c r="P13" s="41"/>
+      <c r="Q13" s="9">
+        <v>1</v>
+      </c>
+      <c r="R13" s="22" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="7:16" ht="24" x14ac:dyDescent="0.3">
+    <row r="14" spans="7:19" ht="86" x14ac:dyDescent="0.3">
       <c r="G14" s="4" t="s">
         <v>1</v>
       </c>
@@ -1229,26 +1353,31 @@
       <c r="I14" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J14" s="9">
-        <v>1</v>
-      </c>
-      <c r="K14" s="5" t="s">
+      <c r="J14" s="41"/>
+      <c r="K14" s="9">
+        <v>1</v>
+      </c>
+      <c r="L14" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="L14" s="9">
-        <v>1</v>
-      </c>
-      <c r="M14" s="5" t="s">
+      <c r="M14" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="N14" s="9">
+        <v>1</v>
+      </c>
+      <c r="O14" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="N14" s="9">
-        <v>1</v>
-      </c>
-      <c r="O14" s="22" t="s">
+      <c r="P14" s="41"/>
+      <c r="Q14" s="9">
+        <v>1</v>
+      </c>
+      <c r="R14" s="22" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="7:16" ht="24" x14ac:dyDescent="0.3">
+    <row r="15" spans="7:19" ht="24" x14ac:dyDescent="0.3">
       <c r="G15" s="4" t="s">
         <v>4</v>
       </c>
@@ -1258,26 +1387,29 @@
       <c r="I15" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J15" s="9">
-        <v>1</v>
-      </c>
-      <c r="K15" s="5" t="s">
+      <c r="J15" s="41"/>
+      <c r="K15" s="9">
+        <v>1</v>
+      </c>
+      <c r="L15" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="L15" s="9">
-        <v>1</v>
-      </c>
-      <c r="M15" s="5" t="s">
+      <c r="M15" s="41"/>
+      <c r="N15" s="9">
+        <v>1</v>
+      </c>
+      <c r="O15" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="N15" s="9">
-        <v>1</v>
-      </c>
-      <c r="O15" s="22" t="s">
+      <c r="P15" s="41"/>
+      <c r="Q15" s="9">
+        <v>1</v>
+      </c>
+      <c r="R15" s="22" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="7:16" ht="24" x14ac:dyDescent="0.3">
+    <row r="16" spans="7:19" ht="24" x14ac:dyDescent="0.3">
       <c r="G16" s="4" t="s">
         <v>5</v>
       </c>
@@ -1287,26 +1419,29 @@
       <c r="I16" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="J16" s="9">
-        <v>1</v>
-      </c>
-      <c r="K16" s="5" t="s">
+      <c r="J16" s="41"/>
+      <c r="K16" s="9">
+        <v>1</v>
+      </c>
+      <c r="L16" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="L16" s="9">
-        <v>1</v>
-      </c>
-      <c r="M16" s="5" t="s">
+      <c r="M16" s="41"/>
+      <c r="N16" s="9">
+        <v>1</v>
+      </c>
+      <c r="O16" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="N16" s="9">
-        <v>1</v>
-      </c>
-      <c r="O16" s="22" t="s">
+      <c r="P16" s="41"/>
+      <c r="Q16" s="9">
+        <v>1</v>
+      </c>
+      <c r="R16" s="22" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="7:15" ht="24" x14ac:dyDescent="0.3">
+    <row r="17" spans="7:18" ht="24" x14ac:dyDescent="0.3">
       <c r="G17" s="4" t="s">
         <v>6</v>
       </c>
@@ -1316,26 +1451,29 @@
       <c r="I17" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="J17" s="9">
-        <v>1</v>
-      </c>
-      <c r="K17" s="5" t="s">
+      <c r="J17" s="41"/>
+      <c r="K17" s="9">
+        <v>1</v>
+      </c>
+      <c r="L17" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="L17" s="9">
-        <v>1</v>
-      </c>
-      <c r="M17" s="5" t="s">
+      <c r="M17" s="41"/>
+      <c r="N17" s="9">
+        <v>1</v>
+      </c>
+      <c r="O17" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="N17" s="9">
-        <v>1</v>
-      </c>
-      <c r="O17" s="22" t="s">
+      <c r="P17" s="41"/>
+      <c r="Q17" s="9">
+        <v>1</v>
+      </c>
+      <c r="R17" s="22" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="7:15" ht="24" x14ac:dyDescent="0.3">
+    <row r="18" spans="7:18" ht="24" x14ac:dyDescent="0.3">
       <c r="G18" s="4" t="s">
         <v>7</v>
       </c>
@@ -1345,26 +1483,29 @@
       <c r="I18" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="J18" s="9">
-        <v>1</v>
-      </c>
-      <c r="K18" s="5" t="s">
+      <c r="J18" s="41"/>
+      <c r="K18" s="9">
+        <v>1</v>
+      </c>
+      <c r="L18" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="L18" s="9">
-        <v>1</v>
-      </c>
-      <c r="M18" s="5" t="s">
+      <c r="M18" s="41"/>
+      <c r="N18" s="9">
+        <v>1</v>
+      </c>
+      <c r="O18" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="N18" s="9">
-        <v>1</v>
-      </c>
-      <c r="O18" s="22" t="s">
+      <c r="P18" s="41"/>
+      <c r="Q18" s="9">
+        <v>1</v>
+      </c>
+      <c r="R18" s="22" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="7:15" ht="24" x14ac:dyDescent="0.3">
+    <row r="19" spans="7:18" ht="24" x14ac:dyDescent="0.3">
       <c r="G19" s="4" t="s">
         <v>8</v>
       </c>
@@ -1374,26 +1515,29 @@
       <c r="I19" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J19" s="9">
-        <v>1</v>
-      </c>
-      <c r="K19" s="5" t="s">
+      <c r="J19" s="41"/>
+      <c r="K19" s="9">
+        <v>1</v>
+      </c>
+      <c r="L19" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="L19" s="9">
-        <v>1</v>
-      </c>
-      <c r="M19" s="5" t="s">
+      <c r="M19" s="41"/>
+      <c r="N19" s="9">
+        <v>1</v>
+      </c>
+      <c r="O19" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="N19" s="9">
-        <v>1</v>
-      </c>
-      <c r="O19" s="22" t="s">
+      <c r="P19" s="41"/>
+      <c r="Q19" s="9">
+        <v>1</v>
+      </c>
+      <c r="R19" s="22" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="7:15" ht="25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="7:18" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G20" s="6" t="s">
         <v>9</v>
       </c>
@@ -1403,26 +1547,29 @@
       <c r="I20" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="J20" s="10" t="s">
+      <c r="J20" s="42"/>
+      <c r="K20" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="L20" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="M20" s="7" t="s">
-        <v>43</v>
-      </c>
+      <c r="M20" s="42"/>
       <c r="N20" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="O20" s="23" t="s">
+      <c r="O20" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="P20" s="42"/>
+      <c r="Q20" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="R20" s="23" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="7:15" ht="103" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="7:18" ht="52" thickBot="1" x14ac:dyDescent="0.25">
       <c r="G21" s="15" t="s">
         <v>44</v>
       </c>
@@ -1430,64 +1577,77 @@
       <c r="I21" s="16">
         <v>0.45</v>
       </c>
-      <c r="J21" s="17"/>
-      <c r="K21" s="16">
+      <c r="J21" s="16"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="16">
         <v>0.49</v>
       </c>
-      <c r="L21" s="17"/>
-      <c r="M21" s="18">
+      <c r="M21" s="16"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="18">
         <v>0.5</v>
       </c>
-      <c r="N21" s="20"/>
-      <c r="O21" s="18">
+      <c r="P21" s="16"/>
+      <c r="Q21" s="20"/>
+      <c r="R21" s="18">
         <v>0.51</v>
       </c>
     </row>
-    <row r="25" spans="7:15" ht="34" x14ac:dyDescent="0.2">
+    <row r="25" spans="7:18" ht="34" x14ac:dyDescent="0.2">
       <c r="G25" s="12"/>
       <c r="H25" s="12"/>
       <c r="I25" s="13" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="26" spans="7:15" ht="49" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G26" s="35"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-    </row>
-    <row r="30" spans="7:15" x14ac:dyDescent="0.2">
-      <c r="I30" s="34"/>
-      <c r="J30" s="30"/>
-      <c r="K30" s="30"/>
-      <c r="L30" s="30"/>
-    </row>
-    <row r="31" spans="7:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="I31" s="30"/>
-      <c r="J31" s="30"/>
-      <c r="K31" s="30"/>
-      <c r="L31" s="30"/>
-    </row>
-    <row r="32" spans="7:15" ht="25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G32" s="31" t="s">
+      <c r="J25" s="13"/>
+    </row>
+    <row r="26" spans="7:18" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G26" s="29"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="30"/>
+      <c r="J26" s="27"/>
+    </row>
+    <row r="30" spans="7:18" x14ac:dyDescent="0.2">
+      <c r="I30" s="31"/>
+      <c r="J30" s="31"/>
+      <c r="K30" s="32"/>
+      <c r="L30" s="32"/>
+      <c r="M30" s="32"/>
+      <c r="N30" s="32"/>
+    </row>
+    <row r="31" spans="7:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I31" s="32"/>
+      <c r="J31" s="32"/>
+      <c r="K31" s="32"/>
+      <c r="L31" s="32"/>
+      <c r="M31" s="32"/>
+      <c r="N31" s="32"/>
+    </row>
+    <row r="32" spans="7:18" ht="25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G32" s="36" t="s">
         <v>84</v>
       </c>
-      <c r="H32" s="32"/>
-      <c r="I32" s="33"/>
-    </row>
-    <row r="33" spans="7:15" ht="26" x14ac:dyDescent="0.2">
+      <c r="H32" s="37"/>
+      <c r="I32" s="38"/>
+      <c r="J32" s="43"/>
+    </row>
+    <row r="33" spans="7:18" ht="26" x14ac:dyDescent="0.2">
       <c r="G33" s="1"/>
-      <c r="H33" s="27" t="s">
+      <c r="H33" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="I33" s="28"/>
-      <c r="J33" s="29"/>
-      <c r="K33" s="30"/>
-      <c r="L33" s="29"/>
-      <c r="M33" s="30"/>
-      <c r="N33" s="29"/>
-      <c r="O33" s="30"/>
-    </row>
-    <row r="34" spans="7:15" ht="21" x14ac:dyDescent="0.25">
+      <c r="I33" s="34"/>
+      <c r="J33" s="44"/>
+      <c r="K33" s="35"/>
+      <c r="L33" s="32"/>
+      <c r="M33" s="19"/>
+      <c r="N33" s="35"/>
+      <c r="O33" s="32"/>
+      <c r="P33" s="19"/>
+      <c r="Q33" s="35"/>
+      <c r="R33" s="32"/>
+    </row>
+    <row r="34" spans="7:18" ht="21" x14ac:dyDescent="0.25">
       <c r="G34" s="2"/>
       <c r="H34" s="8" t="s">
         <v>10</v>
@@ -1495,14 +1655,17 @@
       <c r="I34" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J34" s="21"/>
+      <c r="J34" s="40"/>
       <c r="K34" s="21"/>
       <c r="L34" s="21"/>
       <c r="M34" s="21"/>
       <c r="N34" s="21"/>
       <c r="O34" s="21"/>
-    </row>
-    <row r="35" spans="7:15" ht="24" x14ac:dyDescent="0.3">
+      <c r="P34" s="21"/>
+      <c r="Q34" s="21"/>
+      <c r="R34" s="21"/>
+    </row>
+    <row r="35" spans="7:18" ht="24" x14ac:dyDescent="0.3">
       <c r="G35" s="4" t="s">
         <v>0</v>
       </c>
@@ -1512,14 +1675,17 @@
       <c r="I35" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="J35" s="25"/>
-      <c r="K35" s="24"/>
-      <c r="L35" s="25"/>
+      <c r="J35" s="41"/>
+      <c r="K35" s="25"/>
+      <c r="L35" s="24"/>
       <c r="M35" s="24"/>
       <c r="N35" s="25"/>
-      <c r="O35" s="25"/>
-    </row>
-    <row r="36" spans="7:15" ht="24" x14ac:dyDescent="0.3">
+      <c r="O35" s="24"/>
+      <c r="P35" s="24"/>
+      <c r="Q35" s="25"/>
+      <c r="R35" s="25"/>
+    </row>
+    <row r="36" spans="7:18" ht="24" x14ac:dyDescent="0.3">
       <c r="G36" s="4" t="s">
         <v>2</v>
       </c>
@@ -1529,14 +1695,17 @@
       <c r="I36" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="J36" s="25"/>
-      <c r="K36" s="24"/>
-      <c r="L36" s="25"/>
+      <c r="J36" s="41"/>
+      <c r="K36" s="25"/>
+      <c r="L36" s="24"/>
       <c r="M36" s="24"/>
       <c r="N36" s="25"/>
-      <c r="O36" s="25"/>
-    </row>
-    <row r="37" spans="7:15" ht="24" x14ac:dyDescent="0.3">
+      <c r="O36" s="24"/>
+      <c r="P36" s="24"/>
+      <c r="Q36" s="25"/>
+      <c r="R36" s="25"/>
+    </row>
+    <row r="37" spans="7:18" ht="24" x14ac:dyDescent="0.3">
       <c r="G37" s="4" t="s">
         <v>3</v>
       </c>
@@ -1546,14 +1715,17 @@
       <c r="I37" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="J37" s="25"/>
-      <c r="K37" s="24"/>
-      <c r="L37" s="25"/>
+      <c r="J37" s="41"/>
+      <c r="K37" s="25"/>
+      <c r="L37" s="24"/>
       <c r="M37" s="24"/>
       <c r="N37" s="25"/>
-      <c r="O37" s="25"/>
-    </row>
-    <row r="38" spans="7:15" ht="24" x14ac:dyDescent="0.3">
+      <c r="O37" s="24"/>
+      <c r="P37" s="24"/>
+      <c r="Q37" s="25"/>
+      <c r="R37" s="25"/>
+    </row>
+    <row r="38" spans="7:18" ht="24" x14ac:dyDescent="0.3">
       <c r="G38" s="4" t="s">
         <v>1</v>
       </c>
@@ -1563,14 +1735,17 @@
       <c r="I38" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="J38" s="25"/>
-      <c r="K38" s="24"/>
-      <c r="L38" s="25"/>
+      <c r="J38" s="41"/>
+      <c r="K38" s="25"/>
+      <c r="L38" s="24"/>
       <c r="M38" s="24"/>
       <c r="N38" s="25"/>
-      <c r="O38" s="25"/>
-    </row>
-    <row r="39" spans="7:15" ht="24" x14ac:dyDescent="0.3">
+      <c r="O38" s="24"/>
+      <c r="P38" s="24"/>
+      <c r="Q38" s="25"/>
+      <c r="R38" s="25"/>
+    </row>
+    <row r="39" spans="7:18" ht="24" x14ac:dyDescent="0.3">
       <c r="G39" s="4" t="s">
         <v>4</v>
       </c>
@@ -1580,14 +1755,17 @@
       <c r="I39" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="J39" s="25"/>
-      <c r="K39" s="24"/>
-      <c r="L39" s="25"/>
+      <c r="J39" s="41"/>
+      <c r="K39" s="25"/>
+      <c r="L39" s="24"/>
       <c r="M39" s="24"/>
       <c r="N39" s="25"/>
-      <c r="O39" s="25"/>
-    </row>
-    <row r="40" spans="7:15" ht="24" x14ac:dyDescent="0.3">
+      <c r="O39" s="24"/>
+      <c r="P39" s="24"/>
+      <c r="Q39" s="25"/>
+      <c r="R39" s="25"/>
+    </row>
+    <row r="40" spans="7:18" ht="24" x14ac:dyDescent="0.3">
       <c r="G40" s="4" t="s">
         <v>5</v>
       </c>
@@ -1597,14 +1775,17 @@
       <c r="I40" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="J40" s="25"/>
-      <c r="K40" s="24"/>
-      <c r="L40" s="25"/>
+      <c r="J40" s="41"/>
+      <c r="K40" s="25"/>
+      <c r="L40" s="24"/>
       <c r="M40" s="24"/>
       <c r="N40" s="25"/>
-      <c r="O40" s="25"/>
-    </row>
-    <row r="41" spans="7:15" ht="24" x14ac:dyDescent="0.3">
+      <c r="O40" s="24"/>
+      <c r="P40" s="24"/>
+      <c r="Q40" s="25"/>
+      <c r="R40" s="25"/>
+    </row>
+    <row r="41" spans="7:18" ht="24" x14ac:dyDescent="0.3">
       <c r="G41" s="4" t="s">
         <v>6</v>
       </c>
@@ -1614,14 +1795,17 @@
       <c r="I41" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="J41" s="25"/>
-      <c r="K41" s="24"/>
-      <c r="L41" s="25"/>
+      <c r="J41" s="41"/>
+      <c r="K41" s="25"/>
+      <c r="L41" s="24"/>
       <c r="M41" s="24"/>
       <c r="N41" s="25"/>
-      <c r="O41" s="25"/>
-    </row>
-    <row r="42" spans="7:15" ht="24" x14ac:dyDescent="0.3">
+      <c r="O41" s="24"/>
+      <c r="P41" s="24"/>
+      <c r="Q41" s="25"/>
+      <c r="R41" s="25"/>
+    </row>
+    <row r="42" spans="7:18" ht="24" x14ac:dyDescent="0.3">
       <c r="G42" s="4" t="s">
         <v>7</v>
       </c>
@@ -1631,14 +1815,17 @@
       <c r="I42" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="J42" s="25"/>
-      <c r="K42" s="24"/>
-      <c r="L42" s="25"/>
+      <c r="J42" s="41"/>
+      <c r="K42" s="25"/>
+      <c r="L42" s="24"/>
       <c r="M42" s="24"/>
       <c r="N42" s="25"/>
-      <c r="O42" s="25"/>
-    </row>
-    <row r="43" spans="7:15" ht="24" x14ac:dyDescent="0.3">
+      <c r="O42" s="24"/>
+      <c r="P42" s="24"/>
+      <c r="Q42" s="25"/>
+      <c r="R42" s="25"/>
+    </row>
+    <row r="43" spans="7:18" ht="24" x14ac:dyDescent="0.3">
       <c r="G43" s="4" t="s">
         <v>8</v>
       </c>
@@ -1648,14 +1835,17 @@
       <c r="I43" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="J43" s="25"/>
-      <c r="K43" s="24"/>
-      <c r="L43" s="25"/>
+      <c r="J43" s="41"/>
+      <c r="K43" s="25"/>
+      <c r="L43" s="24"/>
       <c r="M43" s="24"/>
       <c r="N43" s="25"/>
-      <c r="O43" s="25"/>
-    </row>
-    <row r="44" spans="7:15" ht="25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O43" s="24"/>
+      <c r="P43" s="24"/>
+      <c r="Q43" s="25"/>
+      <c r="R43" s="25"/>
+    </row>
+    <row r="44" spans="7:18" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G44" s="6" t="s">
         <v>9</v>
       </c>
@@ -1665,14 +1855,17 @@
       <c r="I44" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="J44" s="24"/>
+      <c r="J44" s="41"/>
       <c r="K44" s="24"/>
       <c r="L44" s="24"/>
       <c r="M44" s="24"/>
       <c r="N44" s="24"/>
-      <c r="O44" s="25"/>
-    </row>
-    <row r="45" spans="7:15" ht="103" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O44" s="24"/>
+      <c r="P44" s="24"/>
+      <c r="Q44" s="24"/>
+      <c r="R44" s="25"/>
+    </row>
+    <row r="45" spans="7:18" ht="52" thickBot="1" x14ac:dyDescent="0.25">
       <c r="G45" s="15" t="s">
         <v>44</v>
       </c>
@@ -1680,43 +1873,54 @@
       <c r="I45" s="18">
         <v>0.42</v>
       </c>
-      <c r="J45" s="19"/>
-      <c r="K45" s="26"/>
-      <c r="L45" s="19"/>
+      <c r="J45" s="45"/>
+      <c r="K45" s="19"/>
+      <c r="L45" s="26"/>
       <c r="M45" s="26"/>
+      <c r="N45" s="19"/>
       <c r="O45" s="26"/>
-    </row>
-    <row r="55" spans="7:13" x14ac:dyDescent="0.2">
-      <c r="I55" s="34"/>
-      <c r="J55" s="30"/>
-      <c r="K55" s="30"/>
-      <c r="L55" s="30"/>
-    </row>
-    <row r="56" spans="7:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="I56" s="30"/>
-      <c r="J56" s="30"/>
-      <c r="K56" s="30"/>
-      <c r="L56" s="30"/>
-    </row>
-    <row r="57" spans="7:13" ht="25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G57" s="31" t="s">
+      <c r="P45" s="26"/>
+      <c r="R45" s="26"/>
+    </row>
+    <row r="55" spans="7:16" x14ac:dyDescent="0.2">
+      <c r="I55" s="31"/>
+      <c r="J55" s="31"/>
+      <c r="K55" s="32"/>
+      <c r="L55" s="32"/>
+      <c r="M55" s="32"/>
+      <c r="N55" s="32"/>
+    </row>
+    <row r="56" spans="7:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I56" s="32"/>
+      <c r="J56" s="32"/>
+      <c r="K56" s="32"/>
+      <c r="L56" s="32"/>
+      <c r="M56" s="32"/>
+      <c r="N56" s="32"/>
+    </row>
+    <row r="57" spans="7:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G57" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="H57" s="32"/>
-      <c r="I57" s="33"/>
-    </row>
-    <row r="58" spans="7:13" ht="26" x14ac:dyDescent="0.2">
+      <c r="H57" s="37"/>
+      <c r="I57" s="38"/>
+      <c r="J57" s="43"/>
+    </row>
+    <row r="58" spans="7:16" ht="26" x14ac:dyDescent="0.2">
       <c r="G58" s="1"/>
-      <c r="H58" s="27" t="s">
+      <c r="H58" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="I58" s="28"/>
-      <c r="J58" s="29"/>
-      <c r="K58" s="30"/>
-      <c r="L58" s="29"/>
-      <c r="M58" s="30"/>
-    </row>
-    <row r="59" spans="7:13" ht="21" x14ac:dyDescent="0.25">
+      <c r="I58" s="34"/>
+      <c r="J58" s="44"/>
+      <c r="K58" s="35"/>
+      <c r="L58" s="32"/>
+      <c r="M58" s="19"/>
+      <c r="N58" s="35"/>
+      <c r="O58" s="32"/>
+      <c r="P58" s="19"/>
+    </row>
+    <row r="59" spans="7:16" ht="21" x14ac:dyDescent="0.25">
       <c r="G59" s="2"/>
       <c r="H59" s="8" t="s">
         <v>10</v>
@@ -1724,12 +1928,15 @@
       <c r="I59" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J59" s="21"/>
+      <c r="J59" s="40"/>
       <c r="K59" s="21"/>
       <c r="L59" s="21"/>
       <c r="M59" s="21"/>
-    </row>
-    <row r="60" spans="7:13" ht="24" x14ac:dyDescent="0.3">
+      <c r="N59" s="21"/>
+      <c r="O59" s="21"/>
+      <c r="P59" s="21"/>
+    </row>
+    <row r="60" spans="7:16" ht="24" x14ac:dyDescent="0.3">
       <c r="G60" s="4" t="s">
         <v>0</v>
       </c>
@@ -1739,12 +1946,15 @@
       <c r="I60" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="J60" s="25"/>
-      <c r="K60" s="24"/>
-      <c r="L60" s="25"/>
+      <c r="J60" s="41"/>
+      <c r="K60" s="25"/>
+      <c r="L60" s="24"/>
       <c r="M60" s="24"/>
-    </row>
-    <row r="61" spans="7:13" ht="24" x14ac:dyDescent="0.3">
+      <c r="N60" s="25"/>
+      <c r="O60" s="24"/>
+      <c r="P60" s="24"/>
+    </row>
+    <row r="61" spans="7:16" ht="24" x14ac:dyDescent="0.3">
       <c r="G61" s="4" t="s">
         <v>2</v>
       </c>
@@ -1754,12 +1964,15 @@
       <c r="I61" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="J61" s="25"/>
-      <c r="K61" s="24"/>
-      <c r="L61" s="25"/>
+      <c r="J61" s="41"/>
+      <c r="K61" s="25"/>
+      <c r="L61" s="24"/>
       <c r="M61" s="24"/>
-    </row>
-    <row r="62" spans="7:13" ht="24" x14ac:dyDescent="0.3">
+      <c r="N61" s="25"/>
+      <c r="O61" s="24"/>
+      <c r="P61" s="24"/>
+    </row>
+    <row r="62" spans="7:16" ht="24" x14ac:dyDescent="0.3">
       <c r="G62" s="4" t="s">
         <v>3</v>
       </c>
@@ -1769,12 +1982,15 @@
       <c r="I62" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="J62" s="25"/>
-      <c r="K62" s="24"/>
-      <c r="L62" s="25"/>
+      <c r="J62" s="41"/>
+      <c r="K62" s="25"/>
+      <c r="L62" s="24"/>
       <c r="M62" s="24"/>
-    </row>
-    <row r="63" spans="7:13" ht="24" x14ac:dyDescent="0.3">
+      <c r="N62" s="25"/>
+      <c r="O62" s="24"/>
+      <c r="P62" s="24"/>
+    </row>
+    <row r="63" spans="7:16" ht="24" x14ac:dyDescent="0.3">
       <c r="G63" s="4" t="s">
         <v>1</v>
       </c>
@@ -1784,12 +2000,15 @@
       <c r="I63" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="J63" s="25"/>
-      <c r="K63" s="24"/>
-      <c r="L63" s="25"/>
+      <c r="J63" s="41"/>
+      <c r="K63" s="25"/>
+      <c r="L63" s="24"/>
       <c r="M63" s="24"/>
-    </row>
-    <row r="64" spans="7:13" ht="24" x14ac:dyDescent="0.3">
+      <c r="N63" s="25"/>
+      <c r="O63" s="24"/>
+      <c r="P63" s="24"/>
+    </row>
+    <row r="64" spans="7:16" ht="24" x14ac:dyDescent="0.3">
       <c r="G64" s="4" t="s">
         <v>4</v>
       </c>
@@ -1799,12 +2018,15 @@
       <c r="I64" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="J64" s="25"/>
-      <c r="K64" s="24"/>
-      <c r="L64" s="25"/>
+      <c r="J64" s="41"/>
+      <c r="K64" s="25"/>
+      <c r="L64" s="24"/>
       <c r="M64" s="24"/>
-    </row>
-    <row r="65" spans="7:13" ht="24" x14ac:dyDescent="0.3">
+      <c r="N64" s="25"/>
+      <c r="O64" s="24"/>
+      <c r="P64" s="24"/>
+    </row>
+    <row r="65" spans="7:16" ht="24" x14ac:dyDescent="0.3">
       <c r="G65" s="4" t="s">
         <v>5</v>
       </c>
@@ -1814,87 +2036,113 @@
       <c r="I65" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="J65" s="25"/>
-      <c r="K65" s="24"/>
-      <c r="L65" s="25"/>
+      <c r="J65" s="41"/>
+      <c r="K65" s="25"/>
+      <c r="L65" s="24"/>
       <c r="M65" s="24"/>
-    </row>
-    <row r="66" spans="7:13" ht="24" x14ac:dyDescent="0.3">
+      <c r="N65" s="25"/>
+      <c r="O65" s="24"/>
+      <c r="P65" s="24"/>
+    </row>
+    <row r="66" spans="7:16" ht="24" x14ac:dyDescent="0.3">
       <c r="G66" s="4"/>
       <c r="H66" s="9"/>
       <c r="I66" s="5"/>
-      <c r="J66" s="25"/>
-      <c r="K66" s="24"/>
-      <c r="L66" s="25"/>
+      <c r="J66" s="41"/>
+      <c r="K66" s="25"/>
+      <c r="L66" s="24"/>
       <c r="M66" s="24"/>
-    </row>
-    <row r="67" spans="7:13" ht="24" x14ac:dyDescent="0.3">
+      <c r="N66" s="25"/>
+      <c r="O66" s="24"/>
+      <c r="P66" s="24"/>
+    </row>
+    <row r="67" spans="7:16" ht="24" x14ac:dyDescent="0.3">
       <c r="G67" s="4"/>
       <c r="H67" s="9"/>
       <c r="I67" s="5"/>
-      <c r="J67" s="25"/>
-      <c r="K67" s="24"/>
-      <c r="L67" s="25"/>
+      <c r="J67" s="41"/>
+      <c r="K67" s="25"/>
+      <c r="L67" s="24"/>
       <c r="M67" s="24"/>
-    </row>
-    <row r="68" spans="7:13" ht="24" x14ac:dyDescent="0.3">
+      <c r="N67" s="25"/>
+      <c r="O67" s="24"/>
+      <c r="P67" s="24"/>
+    </row>
+    <row r="68" spans="7:16" ht="24" x14ac:dyDescent="0.3">
       <c r="G68" s="4"/>
       <c r="H68" s="11"/>
       <c r="I68" s="5"/>
-      <c r="J68" s="25"/>
-      <c r="K68" s="24"/>
-      <c r="L68" s="25"/>
+      <c r="J68" s="41"/>
+      <c r="K68" s="25"/>
+      <c r="L68" s="24"/>
       <c r="M68" s="24"/>
-    </row>
-    <row r="69" spans="7:13" ht="25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N68" s="25"/>
+      <c r="O68" s="24"/>
+      <c r="P68" s="24"/>
+    </row>
+    <row r="69" spans="7:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G69" s="6"/>
       <c r="H69" s="10"/>
       <c r="I69" s="7"/>
-      <c r="J69" s="24"/>
+      <c r="J69" s="41"/>
       <c r="K69" s="24"/>
       <c r="L69" s="24"/>
       <c r="M69" s="24"/>
-    </row>
-    <row r="70" spans="7:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="N69" s="24"/>
+      <c r="O69" s="24"/>
+      <c r="P69" s="24"/>
+    </row>
+    <row r="70" spans="7:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="G70" s="15"/>
       <c r="H70" s="14"/>
       <c r="I70" s="18"/>
-      <c r="J70" s="19"/>
-      <c r="K70" s="26"/>
-      <c r="L70" s="19"/>
+      <c r="J70" s="45"/>
+      <c r="K70" s="19"/>
+      <c r="L70" s="26"/>
       <c r="M70" s="26"/>
-    </row>
-    <row r="75" spans="7:13" x14ac:dyDescent="0.2">
-      <c r="I75" s="34"/>
-      <c r="J75" s="30"/>
-      <c r="K75" s="30"/>
-      <c r="L75" s="30"/>
-    </row>
-    <row r="76" spans="7:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="I76" s="30"/>
-      <c r="J76" s="30"/>
-      <c r="K76" s="30"/>
-      <c r="L76" s="30"/>
-    </row>
-    <row r="77" spans="7:13" ht="25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G77" s="31" t="s">
+      <c r="N70" s="19"/>
+      <c r="O70" s="26"/>
+      <c r="P70" s="26"/>
+    </row>
+    <row r="75" spans="7:16" x14ac:dyDescent="0.2">
+      <c r="I75" s="31"/>
+      <c r="J75" s="31"/>
+      <c r="K75" s="32"/>
+      <c r="L75" s="32"/>
+      <c r="M75" s="32"/>
+      <c r="N75" s="32"/>
+    </row>
+    <row r="76" spans="7:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I76" s="32"/>
+      <c r="J76" s="32"/>
+      <c r="K76" s="32"/>
+      <c r="L76" s="32"/>
+      <c r="M76" s="32"/>
+      <c r="N76" s="32"/>
+    </row>
+    <row r="77" spans="7:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G77" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="H77" s="32"/>
-      <c r="I77" s="33"/>
-    </row>
-    <row r="78" spans="7:13" ht="26" x14ac:dyDescent="0.2">
+      <c r="H77" s="37"/>
+      <c r="I77" s="38"/>
+      <c r="J77" s="43"/>
+    </row>
+    <row r="78" spans="7:16" ht="26" x14ac:dyDescent="0.2">
       <c r="G78" s="1"/>
-      <c r="H78" s="27" t="s">
+      <c r="H78" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="I78" s="28"/>
-      <c r="J78" s="29"/>
-      <c r="K78" s="30"/>
-      <c r="L78" s="29"/>
-      <c r="M78" s="30"/>
-    </row>
-    <row r="79" spans="7:13" ht="21" x14ac:dyDescent="0.25">
+      <c r="I78" s="34"/>
+      <c r="J78" s="44"/>
+      <c r="K78" s="35"/>
+      <c r="L78" s="32"/>
+      <c r="M78" s="19"/>
+      <c r="N78" s="35"/>
+      <c r="O78" s="32"/>
+      <c r="P78" s="19"/>
+    </row>
+    <row r="79" spans="7:16" ht="21" x14ac:dyDescent="0.25">
       <c r="G79" s="2"/>
       <c r="H79" s="8" t="s">
         <v>10</v>
@@ -1902,12 +2150,15 @@
       <c r="I79" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J79" s="21"/>
+      <c r="J79" s="40"/>
       <c r="K79" s="21"/>
       <c r="L79" s="21"/>
       <c r="M79" s="21"/>
-    </row>
-    <row r="80" spans="7:13" ht="24" x14ac:dyDescent="0.3">
+      <c r="N79" s="21"/>
+      <c r="O79" s="21"/>
+      <c r="P79" s="21"/>
+    </row>
+    <row r="80" spans="7:16" ht="24" x14ac:dyDescent="0.3">
       <c r="G80" s="4" t="s">
         <v>0</v>
       </c>
@@ -1917,125 +2168,158 @@
       <c r="I80" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="J80" s="25"/>
-      <c r="K80" s="24"/>
-      <c r="L80" s="25"/>
+      <c r="J80" s="41"/>
+      <c r="K80" s="25"/>
+      <c r="L80" s="24"/>
       <c r="M80" s="24"/>
-    </row>
-    <row r="81" spans="7:13" ht="24" x14ac:dyDescent="0.3">
+      <c r="N80" s="25"/>
+      <c r="O80" s="24"/>
+      <c r="P80" s="24"/>
+    </row>
+    <row r="81" spans="7:16" ht="24" x14ac:dyDescent="0.3">
       <c r="G81" s="4"/>
       <c r="H81" s="9"/>
       <c r="I81" s="5"/>
-      <c r="J81" s="25"/>
-      <c r="K81" s="24"/>
-      <c r="L81" s="25"/>
+      <c r="J81" s="41"/>
+      <c r="K81" s="25"/>
+      <c r="L81" s="24"/>
       <c r="M81" s="24"/>
-    </row>
-    <row r="82" spans="7:13" ht="24" x14ac:dyDescent="0.3">
+      <c r="N81" s="25"/>
+      <c r="O81" s="24"/>
+      <c r="P81" s="24"/>
+    </row>
+    <row r="82" spans="7:16" ht="24" x14ac:dyDescent="0.3">
       <c r="G82" s="4"/>
       <c r="H82" s="9"/>
       <c r="I82" s="5"/>
-      <c r="J82" s="25"/>
-      <c r="K82" s="24"/>
-      <c r="L82" s="25"/>
+      <c r="J82" s="41"/>
+      <c r="K82" s="25"/>
+      <c r="L82" s="24"/>
       <c r="M82" s="24"/>
-    </row>
-    <row r="83" spans="7:13" ht="24" x14ac:dyDescent="0.3">
+      <c r="N82" s="25"/>
+      <c r="O82" s="24"/>
+      <c r="P82" s="24"/>
+    </row>
+    <row r="83" spans="7:16" ht="24" x14ac:dyDescent="0.3">
       <c r="G83" s="4"/>
       <c r="H83" s="9"/>
       <c r="I83" s="5"/>
-      <c r="J83" s="25"/>
-      <c r="K83" s="24"/>
-      <c r="L83" s="25"/>
+      <c r="J83" s="41"/>
+      <c r="K83" s="25"/>
+      <c r="L83" s="24"/>
       <c r="M83" s="24"/>
-    </row>
-    <row r="84" spans="7:13" ht="24" x14ac:dyDescent="0.3">
+      <c r="N83" s="25"/>
+      <c r="O83" s="24"/>
+      <c r="P83" s="24"/>
+    </row>
+    <row r="84" spans="7:16" ht="24" x14ac:dyDescent="0.3">
       <c r="G84" s="4"/>
       <c r="H84" s="9"/>
       <c r="I84" s="5"/>
-      <c r="J84" s="25"/>
-      <c r="K84" s="24"/>
-      <c r="L84" s="25"/>
+      <c r="J84" s="41"/>
+      <c r="K84" s="25"/>
+      <c r="L84" s="24"/>
       <c r="M84" s="24"/>
-    </row>
-    <row r="85" spans="7:13" ht="24" x14ac:dyDescent="0.3">
+      <c r="N84" s="25"/>
+      <c r="O84" s="24"/>
+      <c r="P84" s="24"/>
+    </row>
+    <row r="85" spans="7:16" ht="24" x14ac:dyDescent="0.3">
       <c r="G85" s="4"/>
       <c r="H85" s="9"/>
       <c r="I85" s="5"/>
-      <c r="J85" s="25"/>
-      <c r="K85" s="24"/>
-      <c r="L85" s="25"/>
+      <c r="J85" s="41"/>
+      <c r="K85" s="25"/>
+      <c r="L85" s="24"/>
       <c r="M85" s="24"/>
-    </row>
-    <row r="86" spans="7:13" ht="24" x14ac:dyDescent="0.3">
+      <c r="N85" s="25"/>
+      <c r="O85" s="24"/>
+      <c r="P85" s="24"/>
+    </row>
+    <row r="86" spans="7:16" ht="24" x14ac:dyDescent="0.3">
       <c r="G86" s="4"/>
       <c r="H86" s="9"/>
       <c r="I86" s="5"/>
-      <c r="J86" s="25"/>
-      <c r="K86" s="24"/>
-      <c r="L86" s="25"/>
+      <c r="J86" s="41"/>
+      <c r="K86" s="25"/>
+      <c r="L86" s="24"/>
       <c r="M86" s="24"/>
-    </row>
-    <row r="87" spans="7:13" ht="24" x14ac:dyDescent="0.3">
+      <c r="N86" s="25"/>
+      <c r="O86" s="24"/>
+      <c r="P86" s="24"/>
+    </row>
+    <row r="87" spans="7:16" ht="24" x14ac:dyDescent="0.3">
       <c r="G87" s="4"/>
       <c r="H87" s="9"/>
       <c r="I87" s="5"/>
-      <c r="J87" s="25"/>
-      <c r="K87" s="24"/>
-      <c r="L87" s="25"/>
+      <c r="J87" s="41"/>
+      <c r="K87" s="25"/>
+      <c r="L87" s="24"/>
       <c r="M87" s="24"/>
-    </row>
-    <row r="88" spans="7:13" ht="24" x14ac:dyDescent="0.3">
+      <c r="N87" s="25"/>
+      <c r="O87" s="24"/>
+      <c r="P87" s="24"/>
+    </row>
+    <row r="88" spans="7:16" ht="24" x14ac:dyDescent="0.3">
       <c r="G88" s="4"/>
       <c r="H88" s="11"/>
       <c r="I88" s="5"/>
-      <c r="J88" s="25"/>
-      <c r="K88" s="24"/>
-      <c r="L88" s="25"/>
+      <c r="J88" s="41"/>
+      <c r="K88" s="25"/>
+      <c r="L88" s="24"/>
       <c r="M88" s="24"/>
-    </row>
-    <row r="89" spans="7:13" ht="25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N88" s="25"/>
+      <c r="O88" s="24"/>
+      <c r="P88" s="24"/>
+    </row>
+    <row r="89" spans="7:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G89" s="6"/>
       <c r="H89" s="10"/>
       <c r="I89" s="7"/>
-      <c r="J89" s="24"/>
+      <c r="J89" s="41"/>
       <c r="K89" s="24"/>
       <c r="L89" s="24"/>
       <c r="M89" s="24"/>
-    </row>
-    <row r="90" spans="7:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="N89" s="24"/>
+      <c r="O89" s="24"/>
+      <c r="P89" s="24"/>
+    </row>
+    <row r="90" spans="7:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="G90" s="15"/>
       <c r="H90" s="14"/>
       <c r="I90" s="18"/>
-      <c r="J90" s="19"/>
-      <c r="K90" s="26"/>
-      <c r="L90" s="19"/>
+      <c r="J90" s="45"/>
+      <c r="K90" s="19"/>
+      <c r="L90" s="26"/>
       <c r="M90" s="26"/>
+      <c r="N90" s="19"/>
+      <c r="O90" s="26"/>
+      <c r="P90" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="I6:L7"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="I30:L31"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="N33:O33"/>
     <mergeCell ref="H78:I78"/>
-    <mergeCell ref="J78:K78"/>
-    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="K78:L78"/>
+    <mergeCell ref="N78:O78"/>
     <mergeCell ref="G32:I32"/>
     <mergeCell ref="G57:I57"/>
     <mergeCell ref="G77:I77"/>
-    <mergeCell ref="I55:L56"/>
+    <mergeCell ref="I55:N56"/>
     <mergeCell ref="H58:I58"/>
-    <mergeCell ref="J58:K58"/>
-    <mergeCell ref="L58:M58"/>
-    <mergeCell ref="I75:L76"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="I75:N76"/>
+    <mergeCell ref="I30:N31"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="Q33:R33"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="I6:N7"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="N9:O9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/reports/Results.xlsx
+++ b/reports/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/moe/Desktop/puf-auth-ml/reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{329358EC-BEE1-F240-B682-A50157BA6242}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3A18075-54DE-B44C-889E-E0264C622A44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{65BD7D84-E0D3-BF4C-8AA6-282CCD8082D7}"/>
   </bookViews>
@@ -73,9 +73,6 @@
     <t>Average Confidence</t>
   </si>
   <si>
-    <t xml:space="preserve"> 58.03%</t>
-  </si>
-  <si>
     <t>66.67%</t>
   </si>
   <si>
@@ -92,30 +89,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> 93.30%</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 92.86%</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 89.93%</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 85.88%</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 80.66%</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 74.26%</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 66.48%</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 51.88%</t>
-  </si>
-  <si>
     <t>99.04%</t>
   </si>
   <si>
@@ -258,9 +231,6 @@
     <t>46.54%</t>
   </si>
   <si>
-    <t>47.80%</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 93.63%</t>
   </si>
   <si>
@@ -302,20 +272,6 @@
   <si>
     <t>Intact
 RPi1: 8, RPi2:8, RPi3: 8</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">C-10
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>RPi1: 8 random 10p curropted, RPi2: 8 random 10p curropted, RPi3:  8 random 10p curropted</t>
-    </r>
   </si>
   <si>
     <t>Intact
@@ -366,6 +322,50 @@
       </rPr>
       <t>RPi1: 25 random 10p curropted, RPi2: 25 random 10p curropted, RPi3:  25 random 10p curropted</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> 94.31%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 93.33%</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">C-10
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>RPi1: 129 random 10p curropted, RPi2: 129 random 10p curropted, RPi3:  129 random 10p curropted</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> 90.52%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 81.33%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 74.90%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 67.12%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 58.53%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 52.38%</t>
+  </si>
+  <si>
+    <t>48.18%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 86.60%</t>
   </si>
 </sst>
 </file>
@@ -563,7 +563,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -639,56 +639,44 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1145,8 +1133,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F7AB769-A4AB-314C-9FAA-CEF8525B9786}">
   <dimension ref="G6:S90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J3" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+    <sheetView tabSelected="1" topLeftCell="C9" zoomScaleNormal="88" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1166,45 +1154,45 @@
   </cols>
   <sheetData>
     <row r="6" spans="7:19" x14ac:dyDescent="0.2">
-      <c r="I6" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="J6" s="31"/>
-      <c r="K6" s="32"/>
-      <c r="L6" s="32"/>
-      <c r="M6" s="32"/>
-      <c r="N6" s="32"/>
+      <c r="I6" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="J6" s="39"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="35"/>
+      <c r="N6" s="35"/>
     </row>
     <row r="7" spans="7:19" x14ac:dyDescent="0.2">
-      <c r="I7" s="32"/>
-      <c r="J7" s="32"/>
-      <c r="K7" s="32"/>
-      <c r="L7" s="32"/>
-      <c r="M7" s="32"/>
-      <c r="N7" s="32"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="35"/>
+      <c r="L7" s="35"/>
+      <c r="M7" s="35"/>
+      <c r="N7" s="35"/>
     </row>
     <row r="8" spans="7:19" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="7:19" ht="82" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G9" s="1"/>
-      <c r="H9" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="I9" s="34"/>
-      <c r="J9" s="39"/>
-      <c r="K9" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="L9" s="34"/>
-      <c r="M9" s="39"/>
-      <c r="N9" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="O9" s="34"/>
-      <c r="P9" s="39"/>
-      <c r="Q9" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="R9" s="34"/>
+      <c r="H9" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" s="33"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="L9" s="33"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="O9" s="33"/>
+      <c r="P9" s="29"/>
+      <c r="Q9" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="R9" s="33"/>
     </row>
     <row r="10" spans="7:19" ht="21" x14ac:dyDescent="0.25">
       <c r="G10" s="2"/>
@@ -1214,21 +1202,21 @@
       <c r="I10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J10" s="40"/>
+      <c r="J10" s="21"/>
       <c r="K10" s="8" t="s">
         <v>10</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="M10" s="40"/>
+        <v>13</v>
+      </c>
+      <c r="M10" s="21"/>
       <c r="N10" s="8" t="s">
         <v>10</v>
       </c>
       <c r="O10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="P10" s="40"/>
+      <c r="P10" s="21"/>
       <c r="Q10" s="8" t="s">
         <v>10</v>
       </c>
@@ -1239,76 +1227,76 @@
     </row>
     <row r="11" spans="7:19" ht="50" x14ac:dyDescent="0.3">
       <c r="G11" s="28" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H11" s="9">
         <v>1</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="J11" s="28" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K11" s="9">
         <v>1</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M11" s="28" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="N11" s="9">
         <v>1</v>
       </c>
       <c r="O11" s="5" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="P11" s="28" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="Q11" s="9">
         <v>1</v>
       </c>
       <c r="R11" s="22" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="7:19" ht="85" x14ac:dyDescent="0.25">
       <c r="G12" s="28" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H12" s="9">
         <v>1</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>19</v>
+        <v>83</v>
       </c>
       <c r="J12" s="28" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K12" s="9">
         <v>1</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M12" s="28" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="N12" s="9">
         <v>1</v>
       </c>
       <c r="O12" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="P12" s="41"/>
+        <v>26</v>
+      </c>
+      <c r="P12" s="24"/>
       <c r="Q12" s="9">
         <v>1</v>
       </c>
       <c r="R12" s="22" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="7:19" ht="24" x14ac:dyDescent="0.3">
@@ -1319,28 +1307,28 @@
         <v>1</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J13" s="41"/>
+        <v>85</v>
+      </c>
+      <c r="J13" s="24"/>
       <c r="K13" s="9">
         <v>1</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="M13" s="41"/>
+        <v>17</v>
+      </c>
+      <c r="M13" s="24"/>
       <c r="N13" s="9">
         <v>1</v>
       </c>
       <c r="O13" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="P13" s="41"/>
+        <v>27</v>
+      </c>
+      <c r="P13" s="24"/>
       <c r="Q13" s="9">
         <v>1</v>
       </c>
       <c r="R13" s="22" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="7:19" ht="86" x14ac:dyDescent="0.3">
@@ -1351,30 +1339,30 @@
         <v>1</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J14" s="41"/>
+        <v>92</v>
+      </c>
+      <c r="J14" s="24"/>
       <c r="K14" s="9">
         <v>1</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="M14" s="28" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="N14" s="9">
         <v>1</v>
       </c>
       <c r="O14" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="P14" s="41"/>
+        <v>28</v>
+      </c>
+      <c r="P14" s="24"/>
       <c r="Q14" s="9">
         <v>1</v>
       </c>
       <c r="R14" s="22" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="7:19" ht="24" x14ac:dyDescent="0.3">
@@ -1385,28 +1373,28 @@
         <v>1</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="J15" s="41"/>
+        <v>86</v>
+      </c>
+      <c r="J15" s="24"/>
       <c r="K15" s="9">
         <v>1</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="M15" s="41"/>
+        <v>19</v>
+      </c>
+      <c r="M15" s="24"/>
       <c r="N15" s="9">
         <v>1</v>
       </c>
       <c r="O15" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="P15" s="41"/>
+        <v>29</v>
+      </c>
+      <c r="P15" s="24"/>
       <c r="Q15" s="9">
         <v>1</v>
       </c>
       <c r="R15" s="22" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="7:19" ht="24" x14ac:dyDescent="0.3">
@@ -1417,28 +1405,28 @@
         <v>1</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J16" s="41"/>
+        <v>87</v>
+      </c>
+      <c r="J16" s="24"/>
       <c r="K16" s="9">
         <v>1</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="M16" s="41"/>
+        <v>20</v>
+      </c>
+      <c r="M16" s="24"/>
       <c r="N16" s="9">
         <v>1</v>
       </c>
       <c r="O16" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="P16" s="41"/>
+        <v>30</v>
+      </c>
+      <c r="P16" s="24"/>
       <c r="Q16" s="9">
         <v>1</v>
       </c>
       <c r="R16" s="22" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="7:18" ht="24" x14ac:dyDescent="0.3">
@@ -1449,28 +1437,28 @@
         <v>1</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J17" s="41"/>
+        <v>88</v>
+      </c>
+      <c r="J17" s="24"/>
       <c r="K17" s="9">
         <v>1</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="M17" s="41"/>
+        <v>21</v>
+      </c>
+      <c r="M17" s="24"/>
       <c r="N17" s="9">
         <v>1</v>
       </c>
       <c r="O17" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="P17" s="41"/>
+        <v>31</v>
+      </c>
+      <c r="P17" s="24"/>
       <c r="Q17" s="9">
         <v>1</v>
       </c>
       <c r="R17" s="22" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="7:18" ht="24" x14ac:dyDescent="0.3">
@@ -1481,28 +1469,28 @@
         <v>1</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J18" s="41"/>
+        <v>89</v>
+      </c>
+      <c r="J18" s="24"/>
       <c r="K18" s="9">
         <v>1</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="M18" s="41"/>
+        <v>22</v>
+      </c>
+      <c r="M18" s="24"/>
       <c r="N18" s="9">
         <v>1</v>
       </c>
       <c r="O18" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="P18" s="41"/>
+        <v>32</v>
+      </c>
+      <c r="P18" s="24"/>
       <c r="Q18" s="9">
         <v>1</v>
       </c>
       <c r="R18" s="22" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="7:18" ht="24" x14ac:dyDescent="0.3">
@@ -1510,31 +1498,31 @@
         <v>8</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="J19" s="41"/>
+        <v>90</v>
+      </c>
+      <c r="J19" s="24"/>
       <c r="K19" s="9">
         <v>1</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="M19" s="41"/>
+        <v>23</v>
+      </c>
+      <c r="M19" s="24"/>
       <c r="N19" s="9">
         <v>1</v>
       </c>
       <c r="O19" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="P19" s="41"/>
+        <v>33</v>
+      </c>
+      <c r="P19" s="24"/>
       <c r="Q19" s="9">
         <v>1</v>
       </c>
       <c r="R19" s="22" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="7:18" ht="25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1542,36 +1530,36 @@
         <v>9</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="J20" s="42"/>
+        <v>91</v>
+      </c>
+      <c r="J20" s="30"/>
       <c r="K20" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="M20" s="42"/>
+        <v>24</v>
+      </c>
+      <c r="M20" s="30"/>
       <c r="N20" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="P20" s="42"/>
+        <v>34</v>
+      </c>
+      <c r="P20" s="30"/>
       <c r="Q20" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R20" s="23" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="7:18" ht="52" thickBot="1" x14ac:dyDescent="0.25">
       <c r="G21" s="15" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="H21" s="14"/>
       <c r="I21" s="16">
@@ -1597,55 +1585,55 @@
       <c r="G25" s="12"/>
       <c r="H25" s="12"/>
       <c r="I25" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J25" s="13"/>
     </row>
     <row r="26" spans="7:18" ht="49" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G26" s="29"/>
-      <c r="H26" s="30"/>
-      <c r="I26" s="30"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="41"/>
       <c r="J26" s="27"/>
     </row>
     <row r="30" spans="7:18" x14ac:dyDescent="0.2">
-      <c r="I30" s="31"/>
-      <c r="J30" s="31"/>
-      <c r="K30" s="32"/>
-      <c r="L30" s="32"/>
-      <c r="M30" s="32"/>
-      <c r="N30" s="32"/>
+      <c r="I30" s="39"/>
+      <c r="J30" s="39"/>
+      <c r="K30" s="35"/>
+      <c r="L30" s="35"/>
+      <c r="M30" s="35"/>
+      <c r="N30" s="35"/>
     </row>
     <row r="31" spans="7:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="I31" s="32"/>
-      <c r="J31" s="32"/>
-      <c r="K31" s="32"/>
-      <c r="L31" s="32"/>
-      <c r="M31" s="32"/>
-      <c r="N31" s="32"/>
+      <c r="I31" s="35"/>
+      <c r="J31" s="35"/>
+      <c r="K31" s="35"/>
+      <c r="L31" s="35"/>
+      <c r="M31" s="35"/>
+      <c r="N31" s="35"/>
     </row>
     <row r="32" spans="7:18" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G32" s="36" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="H32" s="37"/>
       <c r="I32" s="38"/>
-      <c r="J32" s="43"/>
+      <c r="J32" s="31"/>
     </row>
     <row r="33" spans="7:18" ht="26" x14ac:dyDescent="0.2">
       <c r="G33" s="1"/>
-      <c r="H33" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="I33" s="34"/>
-      <c r="J33" s="44"/>
-      <c r="K33" s="35"/>
-      <c r="L33" s="32"/>
+      <c r="H33" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" s="33"/>
+      <c r="J33" s="19"/>
+      <c r="K33" s="34"/>
+      <c r="L33" s="35"/>
       <c r="M33" s="19"/>
-      <c r="N33" s="35"/>
-      <c r="O33" s="32"/>
+      <c r="N33" s="34"/>
+      <c r="O33" s="35"/>
       <c r="P33" s="19"/>
-      <c r="Q33" s="35"/>
-      <c r="R33" s="32"/>
+      <c r="Q33" s="34"/>
+      <c r="R33" s="35"/>
     </row>
     <row r="34" spans="7:18" ht="21" x14ac:dyDescent="0.25">
       <c r="G34" s="2"/>
@@ -1655,7 +1643,7 @@
       <c r="I34" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J34" s="40"/>
+      <c r="J34" s="21"/>
       <c r="K34" s="21"/>
       <c r="L34" s="21"/>
       <c r="M34" s="21"/>
@@ -1673,9 +1661,9 @@
         <v>1</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="J35" s="41"/>
+        <v>51</v>
+      </c>
+      <c r="J35" s="24"/>
       <c r="K35" s="25"/>
       <c r="L35" s="24"/>
       <c r="M35" s="24"/>
@@ -1693,9 +1681,9 @@
         <v>1</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="J36" s="41"/>
+        <v>52</v>
+      </c>
+      <c r="J36" s="24"/>
       <c r="K36" s="25"/>
       <c r="L36" s="24"/>
       <c r="M36" s="24"/>
@@ -1713,9 +1701,9 @@
         <v>1</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="J37" s="41"/>
+        <v>53</v>
+      </c>
+      <c r="J37" s="24"/>
       <c r="K37" s="25"/>
       <c r="L37" s="24"/>
       <c r="M37" s="24"/>
@@ -1733,9 +1721,9 @@
         <v>1</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="J38" s="41"/>
+        <v>54</v>
+      </c>
+      <c r="J38" s="24"/>
       <c r="K38" s="25"/>
       <c r="L38" s="24"/>
       <c r="M38" s="24"/>
@@ -1753,9 +1741,9 @@
         <v>1</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="J39" s="41"/>
+        <v>55</v>
+      </c>
+      <c r="J39" s="24"/>
       <c r="K39" s="25"/>
       <c r="L39" s="24"/>
       <c r="M39" s="24"/>
@@ -1773,9 +1761,9 @@
         <v>1</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="J40" s="41"/>
+        <v>56</v>
+      </c>
+      <c r="J40" s="24"/>
       <c r="K40" s="25"/>
       <c r="L40" s="24"/>
       <c r="M40" s="24"/>
@@ -1793,9 +1781,9 @@
         <v>0.75</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="J41" s="41"/>
+        <v>57</v>
+      </c>
+      <c r="J41" s="24"/>
       <c r="K41" s="25"/>
       <c r="L41" s="24"/>
       <c r="M41" s="24"/>
@@ -1813,9 +1801,9 @@
         <v>0.5</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="J42" s="41"/>
+        <v>58</v>
+      </c>
+      <c r="J42" s="24"/>
       <c r="K42" s="25"/>
       <c r="L42" s="24"/>
       <c r="M42" s="24"/>
@@ -1830,12 +1818,12 @@
         <v>8</v>
       </c>
       <c r="H43" s="11" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="J43" s="41"/>
+        <v>60</v>
+      </c>
+      <c r="J43" s="24"/>
       <c r="K43" s="25"/>
       <c r="L43" s="24"/>
       <c r="M43" s="24"/>
@@ -1850,12 +1838,12 @@
         <v>9</v>
       </c>
       <c r="H44" s="10" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="I44" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="J44" s="41"/>
+        <v>62</v>
+      </c>
+      <c r="J44" s="24"/>
       <c r="K44" s="24"/>
       <c r="L44" s="24"/>
       <c r="M44" s="24"/>
@@ -1867,13 +1855,13 @@
     </row>
     <row r="45" spans="7:18" ht="52" thickBot="1" x14ac:dyDescent="0.25">
       <c r="G45" s="15" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="H45" s="14"/>
       <c r="I45" s="18">
         <v>0.42</v>
       </c>
-      <c r="J45" s="45"/>
+      <c r="J45" s="26"/>
       <c r="K45" s="19"/>
       <c r="L45" s="26"/>
       <c r="M45" s="26"/>
@@ -1883,41 +1871,41 @@
       <c r="R45" s="26"/>
     </row>
     <row r="55" spans="7:16" x14ac:dyDescent="0.2">
-      <c r="I55" s="31"/>
-      <c r="J55" s="31"/>
-      <c r="K55" s="32"/>
-      <c r="L55" s="32"/>
-      <c r="M55" s="32"/>
-      <c r="N55" s="32"/>
+      <c r="I55" s="39"/>
+      <c r="J55" s="39"/>
+      <c r="K55" s="35"/>
+      <c r="L55" s="35"/>
+      <c r="M55" s="35"/>
+      <c r="N55" s="35"/>
     </row>
     <row r="56" spans="7:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="I56" s="32"/>
-      <c r="J56" s="32"/>
-      <c r="K56" s="32"/>
-      <c r="L56" s="32"/>
-      <c r="M56" s="32"/>
-      <c r="N56" s="32"/>
+      <c r="I56" s="35"/>
+      <c r="J56" s="35"/>
+      <c r="K56" s="35"/>
+      <c r="L56" s="35"/>
+      <c r="M56" s="35"/>
+      <c r="N56" s="35"/>
     </row>
     <row r="57" spans="7:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G57" s="36" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="H57" s="37"/>
       <c r="I57" s="38"/>
-      <c r="J57" s="43"/>
+      <c r="J57" s="31"/>
     </row>
     <row r="58" spans="7:16" ht="26" x14ac:dyDescent="0.2">
       <c r="G58" s="1"/>
-      <c r="H58" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="I58" s="34"/>
-      <c r="J58" s="44"/>
-      <c r="K58" s="35"/>
-      <c r="L58" s="32"/>
+      <c r="H58" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" s="33"/>
+      <c r="J58" s="19"/>
+      <c r="K58" s="34"/>
+      <c r="L58" s="35"/>
       <c r="M58" s="19"/>
-      <c r="N58" s="35"/>
-      <c r="O58" s="32"/>
+      <c r="N58" s="34"/>
+      <c r="O58" s="35"/>
       <c r="P58" s="19"/>
     </row>
     <row r="59" spans="7:16" ht="21" x14ac:dyDescent="0.25">
@@ -1928,7 +1916,7 @@
       <c r="I59" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J59" s="40"/>
+      <c r="J59" s="21"/>
       <c r="K59" s="21"/>
       <c r="L59" s="21"/>
       <c r="M59" s="21"/>
@@ -1944,9 +1932,9 @@
         <v>1</v>
       </c>
       <c r="I60" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="J60" s="41"/>
+        <v>63</v>
+      </c>
+      <c r="J60" s="24"/>
       <c r="K60" s="25"/>
       <c r="L60" s="24"/>
       <c r="M60" s="24"/>
@@ -1959,12 +1947,12 @@
         <v>2</v>
       </c>
       <c r="H61" s="9" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="I61" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="J61" s="41"/>
+        <v>65</v>
+      </c>
+      <c r="J61" s="24"/>
       <c r="K61" s="25"/>
       <c r="L61" s="24"/>
       <c r="M61" s="24"/>
@@ -1977,12 +1965,12 @@
         <v>3</v>
       </c>
       <c r="H62" s="9" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="I62" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="J62" s="41"/>
+        <v>67</v>
+      </c>
+      <c r="J62" s="24"/>
       <c r="K62" s="25"/>
       <c r="L62" s="24"/>
       <c r="M62" s="24"/>
@@ -1995,12 +1983,12 @@
         <v>1</v>
       </c>
       <c r="H63" s="9" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="I63" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="J63" s="41"/>
+        <v>68</v>
+      </c>
+      <c r="J63" s="24"/>
       <c r="K63" s="25"/>
       <c r="L63" s="24"/>
       <c r="M63" s="24"/>
@@ -2013,12 +2001,12 @@
         <v>4</v>
       </c>
       <c r="H64" s="9" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="I64" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="J64" s="41"/>
+        <v>70</v>
+      </c>
+      <c r="J64" s="24"/>
       <c r="K64" s="25"/>
       <c r="L64" s="24"/>
       <c r="M64" s="24"/>
@@ -2031,12 +2019,12 @@
         <v>5</v>
       </c>
       <c r="H65" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I65" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="J65" s="41"/>
+        <v>71</v>
+      </c>
+      <c r="J65" s="24"/>
       <c r="K65" s="25"/>
       <c r="L65" s="24"/>
       <c r="M65" s="24"/>
@@ -2048,7 +2036,7 @@
       <c r="G66" s="4"/>
       <c r="H66" s="9"/>
       <c r="I66" s="5"/>
-      <c r="J66" s="41"/>
+      <c r="J66" s="24"/>
       <c r="K66" s="25"/>
       <c r="L66" s="24"/>
       <c r="M66" s="24"/>
@@ -2060,7 +2048,7 @@
       <c r="G67" s="4"/>
       <c r="H67" s="9"/>
       <c r="I67" s="5"/>
-      <c r="J67" s="41"/>
+      <c r="J67" s="24"/>
       <c r="K67" s="25"/>
       <c r="L67" s="24"/>
       <c r="M67" s="24"/>
@@ -2072,7 +2060,7 @@
       <c r="G68" s="4"/>
       <c r="H68" s="11"/>
       <c r="I68" s="5"/>
-      <c r="J68" s="41"/>
+      <c r="J68" s="24"/>
       <c r="K68" s="25"/>
       <c r="L68" s="24"/>
       <c r="M68" s="24"/>
@@ -2084,7 +2072,7 @@
       <c r="G69" s="6"/>
       <c r="H69" s="10"/>
       <c r="I69" s="7"/>
-      <c r="J69" s="41"/>
+      <c r="J69" s="24"/>
       <c r="K69" s="24"/>
       <c r="L69" s="24"/>
       <c r="M69" s="24"/>
@@ -2096,7 +2084,7 @@
       <c r="G70" s="15"/>
       <c r="H70" s="14"/>
       <c r="I70" s="18"/>
-      <c r="J70" s="45"/>
+      <c r="J70" s="26"/>
       <c r="K70" s="19"/>
       <c r="L70" s="26"/>
       <c r="M70" s="26"/>
@@ -2105,41 +2093,41 @@
       <c r="P70" s="26"/>
     </row>
     <row r="75" spans="7:16" x14ac:dyDescent="0.2">
-      <c r="I75" s="31"/>
-      <c r="J75" s="31"/>
-      <c r="K75" s="32"/>
-      <c r="L75" s="32"/>
-      <c r="M75" s="32"/>
-      <c r="N75" s="32"/>
+      <c r="I75" s="39"/>
+      <c r="J75" s="39"/>
+      <c r="K75" s="35"/>
+      <c r="L75" s="35"/>
+      <c r="M75" s="35"/>
+      <c r="N75" s="35"/>
     </row>
     <row r="76" spans="7:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="I76" s="32"/>
-      <c r="J76" s="32"/>
-      <c r="K76" s="32"/>
-      <c r="L76" s="32"/>
-      <c r="M76" s="32"/>
-      <c r="N76" s="32"/>
+      <c r="I76" s="35"/>
+      <c r="J76" s="35"/>
+      <c r="K76" s="35"/>
+      <c r="L76" s="35"/>
+      <c r="M76" s="35"/>
+      <c r="N76" s="35"/>
     </row>
     <row r="77" spans="7:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G77" s="36" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="H77" s="37"/>
       <c r="I77" s="38"/>
-      <c r="J77" s="43"/>
+      <c r="J77" s="31"/>
     </row>
     <row r="78" spans="7:16" ht="26" x14ac:dyDescent="0.2">
       <c r="G78" s="1"/>
-      <c r="H78" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="I78" s="34"/>
-      <c r="J78" s="44"/>
-      <c r="K78" s="35"/>
-      <c r="L78" s="32"/>
+      <c r="H78" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" s="33"/>
+      <c r="J78" s="19"/>
+      <c r="K78" s="34"/>
+      <c r="L78" s="35"/>
       <c r="M78" s="19"/>
-      <c r="N78" s="35"/>
-      <c r="O78" s="32"/>
+      <c r="N78" s="34"/>
+      <c r="O78" s="35"/>
       <c r="P78" s="19"/>
     </row>
     <row r="79" spans="7:16" ht="21" x14ac:dyDescent="0.25">
@@ -2150,7 +2138,7 @@
       <c r="I79" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J79" s="40"/>
+      <c r="J79" s="21"/>
       <c r="K79" s="21"/>
       <c r="L79" s="21"/>
       <c r="M79" s="21"/>
@@ -2166,9 +2154,9 @@
         <v>1</v>
       </c>
       <c r="I80" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="J80" s="41"/>
+        <v>73</v>
+      </c>
+      <c r="J80" s="24"/>
       <c r="K80" s="25"/>
       <c r="L80" s="24"/>
       <c r="M80" s="24"/>
@@ -2180,7 +2168,7 @@
       <c r="G81" s="4"/>
       <c r="H81" s="9"/>
       <c r="I81" s="5"/>
-      <c r="J81" s="41"/>
+      <c r="J81" s="24"/>
       <c r="K81" s="25"/>
       <c r="L81" s="24"/>
       <c r="M81" s="24"/>
@@ -2192,7 +2180,7 @@
       <c r="G82" s="4"/>
       <c r="H82" s="9"/>
       <c r="I82" s="5"/>
-      <c r="J82" s="41"/>
+      <c r="J82" s="24"/>
       <c r="K82" s="25"/>
       <c r="L82" s="24"/>
       <c r="M82" s="24"/>
@@ -2204,7 +2192,7 @@
       <c r="G83" s="4"/>
       <c r="H83" s="9"/>
       <c r="I83" s="5"/>
-      <c r="J83" s="41"/>
+      <c r="J83" s="24"/>
       <c r="K83" s="25"/>
       <c r="L83" s="24"/>
       <c r="M83" s="24"/>
@@ -2216,7 +2204,7 @@
       <c r="G84" s="4"/>
       <c r="H84" s="9"/>
       <c r="I84" s="5"/>
-      <c r="J84" s="41"/>
+      <c r="J84" s="24"/>
       <c r="K84" s="25"/>
       <c r="L84" s="24"/>
       <c r="M84" s="24"/>
@@ -2228,7 +2216,7 @@
       <c r="G85" s="4"/>
       <c r="H85" s="9"/>
       <c r="I85" s="5"/>
-      <c r="J85" s="41"/>
+      <c r="J85" s="24"/>
       <c r="K85" s="25"/>
       <c r="L85" s="24"/>
       <c r="M85" s="24"/>
@@ -2240,7 +2228,7 @@
       <c r="G86" s="4"/>
       <c r="H86" s="9"/>
       <c r="I86" s="5"/>
-      <c r="J86" s="41"/>
+      <c r="J86" s="24"/>
       <c r="K86" s="25"/>
       <c r="L86" s="24"/>
       <c r="M86" s="24"/>
@@ -2252,7 +2240,7 @@
       <c r="G87" s="4"/>
       <c r="H87" s="9"/>
       <c r="I87" s="5"/>
-      <c r="J87" s="41"/>
+      <c r="J87" s="24"/>
       <c r="K87" s="25"/>
       <c r="L87" s="24"/>
       <c r="M87" s="24"/>
@@ -2264,7 +2252,7 @@
       <c r="G88" s="4"/>
       <c r="H88" s="11"/>
       <c r="I88" s="5"/>
-      <c r="J88" s="41"/>
+      <c r="J88" s="24"/>
       <c r="K88" s="25"/>
       <c r="L88" s="24"/>
       <c r="M88" s="24"/>
@@ -2276,7 +2264,7 @@
       <c r="G89" s="6"/>
       <c r="H89" s="10"/>
       <c r="I89" s="7"/>
-      <c r="J89" s="41"/>
+      <c r="J89" s="24"/>
       <c r="K89" s="24"/>
       <c r="L89" s="24"/>
       <c r="M89" s="24"/>
@@ -2288,7 +2276,7 @@
       <c r="G90" s="15"/>
       <c r="H90" s="14"/>
       <c r="I90" s="18"/>
-      <c r="J90" s="45"/>
+      <c r="J90" s="26"/>
       <c r="K90" s="19"/>
       <c r="L90" s="26"/>
       <c r="M90" s="26"/>
@@ -2298,6 +2286,17 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="I6:N7"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="I30:N31"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="Q33:R33"/>
     <mergeCell ref="H78:I78"/>
     <mergeCell ref="K78:L78"/>
     <mergeCell ref="N78:O78"/>
@@ -2309,17 +2308,6 @@
     <mergeCell ref="K58:L58"/>
     <mergeCell ref="N58:O58"/>
     <mergeCell ref="I75:N76"/>
-    <mergeCell ref="I30:N31"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="Q33:R33"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="I6:N7"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="N9:O9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/reports/Results.xlsx
+++ b/reports/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/moe/Desktop/puf-auth-ml/reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3A18075-54DE-B44C-889E-E0264C622A44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33758EF4-EF02-CA4E-B7A6-A2491E97FD0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{65BD7D84-E0D3-BF4C-8AA6-282CCD8082D7}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="94">
   <si>
     <t>Intact</t>
   </si>
@@ -366,6 +366,9 @@
   </si>
   <si>
     <t xml:space="preserve"> 86.60%</t>
+  </si>
+  <si>
+    <t>In case of Random Response which does not belong to any classes, models assing the response to a class with: Tested on 129 responses.</t>
   </si>
 </sst>
 </file>
@@ -1134,7 +1137,7 @@
   <dimension ref="G6:S90"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C9" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1557,9 +1560,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="7:18" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="7:18" ht="69" thickBot="1" x14ac:dyDescent="0.25">
       <c r="G21" s="15" t="s">
-        <v>35</v>
+        <v>93</v>
       </c>
       <c r="H21" s="14"/>
       <c r="I21" s="16">

--- a/reports/Results.xlsx
+++ b/reports/Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/moe/Desktop/puf-auth-ml/reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33758EF4-EF02-CA4E-B7A6-A2491E97FD0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AD03D56-14A4-F643-9146-7399D63913D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{65BD7D84-E0D3-BF4C-8AA6-282CCD8082D7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{65BD7D84-E0D3-BF4C-8AA6-282CCD8082D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="94">
   <si>
     <t>Intact</t>
   </si>
@@ -77,42 +77,12 @@
   </si>
   <si>
     <t xml:space="preserve"> Average Confidence</t>
-  </si>
-  <si>
-    <t>99.70%</t>
-  </si>
-  <si>
-    <t>99.48%</t>
   </si>
   <si>
     <t xml:space="preserve">
 </t>
   </si>
   <si>
-    <t>99.04%</t>
-  </si>
-  <si>
-    <t>97.75%</t>
-  </si>
-  <si>
-    <t>95.59%</t>
-  </si>
-  <si>
-    <t>92.00%</t>
-  </si>
-  <si>
-    <t>85.65%</t>
-  </si>
-  <si>
-    <t>73.53%</t>
-  </si>
-  <si>
-    <t>60.18%</t>
-  </si>
-  <si>
-    <t>53.06%</t>
-  </si>
-  <si>
     <t>99.68%</t>
   </si>
   <si>
@@ -272,24 +242,6 @@
   <si>
     <t>Intact
 RPi1: 8, RPi2:8, RPi3: 8</t>
-  </si>
-  <si>
-    <t>Intact
-RPi1: 25, RPi2:25, RPi3: 25</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">C-10
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>RPi1: 25 random 10p curropted, RPi2: 25 random 10p curropted, RPi3:  25 random 10p curropted</t>
-    </r>
   </si>
   <si>
     <t>Intact
@@ -369,6 +321,54 @@
   </si>
   <si>
     <t>In case of Random Response which does not belong to any classes, models assing the response to a class with: Tested on 129 responses.</t>
+  </si>
+  <si>
+    <t>99.73%</t>
+  </si>
+  <si>
+    <t>Intact
+RPi1: 43, RPi2:43, RPi3: 43</t>
+  </si>
+  <si>
+    <t>99.52%</t>
+  </si>
+  <si>
+    <t>99.12%</t>
+  </si>
+  <si>
+    <t>95.96%</t>
+  </si>
+  <si>
+    <t>92.44%</t>
+  </si>
+  <si>
+    <t>86.21%</t>
+  </si>
+  <si>
+    <t>74.43%</t>
+  </si>
+  <si>
+    <t>60.94%</t>
+  </si>
+  <si>
+    <t>52.91%</t>
+  </si>
+  <si>
+    <t>97.88%</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">C-30
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>RPi1: 26 random 10p curropted, RPi2: 26 random 10p curropted, RPi3:  26 random 10p curropted</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -566,7 +566,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -680,6 +680,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1136,8 +1139,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F7AB769-A4AB-314C-9FAA-CEF8525B9786}">
   <dimension ref="G6:S90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C9" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" topLeftCell="F6" zoomScaleNormal="88" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1158,7 +1161,7 @@
   <sheetData>
     <row r="6" spans="7:19" x14ac:dyDescent="0.2">
       <c r="I6" s="39" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="J6" s="39"/>
       <c r="K6" s="35"/>
@@ -1178,22 +1181,22 @@
     <row r="9" spans="7:19" ht="82" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G9" s="1"/>
       <c r="H9" s="32" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="I9" s="33"/>
       <c r="J9" s="29"/>
       <c r="K9" s="32" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="L9" s="33"/>
       <c r="M9" s="29"/>
       <c r="N9" s="32" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="O9" s="33"/>
       <c r="P9" s="29"/>
       <c r="Q9" s="32" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R9" s="33"/>
     </row>
@@ -1230,76 +1233,76 @@
     </row>
     <row r="11" spans="7:19" ht="50" x14ac:dyDescent="0.3">
       <c r="G11" s="28" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="H11" s="9">
         <v>1</v>
       </c>
       <c r="I11" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J11" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="K11" s="9">
+        <v>1</v>
+      </c>
+      <c r="L11" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="J11" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="K11" s="9">
-        <v>1</v>
-      </c>
-      <c r="L11" s="5" t="s">
-        <v>14</v>
-      </c>
       <c r="M11" s="28" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="N11" s="9">
         <v>1</v>
       </c>
       <c r="O11" s="5" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="P11" s="28" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="Q11" s="9">
         <v>1</v>
       </c>
       <c r="R11" s="22" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="7:19" ht="85" x14ac:dyDescent="0.25">
       <c r="G12" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="H12" s="9">
+        <v>1</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="J12" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="K12" s="9">
+        <v>1</v>
+      </c>
+      <c r="L12" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="H12" s="9">
-        <v>1</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="J12" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="K12" s="9">
-        <v>1</v>
-      </c>
-      <c r="L12" s="5" t="s">
-        <v>15</v>
-      </c>
       <c r="M12" s="28" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="N12" s="9">
         <v>1</v>
       </c>
       <c r="O12" s="5" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="P12" s="24"/>
       <c r="Q12" s="9">
         <v>1</v>
       </c>
       <c r="R12" s="22" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="7:19" ht="24" x14ac:dyDescent="0.3">
@@ -1310,62 +1313,64 @@
         <v>1</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="J13" s="24"/>
       <c r="K13" s="9">
         <v>1</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>17</v>
+        <v>85</v>
       </c>
       <c r="M13" s="24"/>
       <c r="N13" s="9">
         <v>1</v>
       </c>
       <c r="O13" s="5" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="P13" s="24"/>
       <c r="Q13" s="9">
         <v>1</v>
       </c>
       <c r="R13" s="22" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="7:19" ht="86" x14ac:dyDescent="0.3">
-      <c r="G14" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="7:19" ht="85" x14ac:dyDescent="0.25">
+      <c r="G14" s="42" t="s">
         <v>1</v>
       </c>
       <c r="H14" s="9">
         <v>1</v>
       </c>
       <c r="I14" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="J14" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="K14" s="9">
+        <v>1</v>
+      </c>
+      <c r="L14" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="J14" s="24"/>
-      <c r="K14" s="9">
-        <v>1</v>
-      </c>
-      <c r="L14" s="5" t="s">
+      <c r="M14" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="N14" s="9">
+        <v>1</v>
+      </c>
+      <c r="O14" s="5" t="s">
         <v>18</v>
-      </c>
-      <c r="M14" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="N14" s="9">
-        <v>1</v>
-      </c>
-      <c r="O14" s="5" t="s">
-        <v>28</v>
       </c>
       <c r="P14" s="24"/>
       <c r="Q14" s="9">
         <v>1</v>
       </c>
       <c r="R14" s="22" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="7:19" ht="24" x14ac:dyDescent="0.3">
@@ -1376,28 +1381,28 @@
         <v>1</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="J15" s="24"/>
       <c r="K15" s="9">
         <v>1</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>19</v>
+        <v>86</v>
       </c>
       <c r="M15" s="24"/>
       <c r="N15" s="9">
         <v>1</v>
       </c>
       <c r="O15" s="5" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="P15" s="24"/>
       <c r="Q15" s="9">
         <v>1</v>
       </c>
       <c r="R15" s="22" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="7:19" ht="24" x14ac:dyDescent="0.3">
@@ -1408,28 +1413,28 @@
         <v>1</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="J16" s="24"/>
       <c r="K16" s="9">
         <v>1</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="M16" s="24"/>
       <c r="N16" s="9">
         <v>1</v>
       </c>
       <c r="O16" s="5" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="P16" s="24"/>
       <c r="Q16" s="9">
         <v>1</v>
       </c>
       <c r="R16" s="22" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="7:18" ht="24" x14ac:dyDescent="0.3">
@@ -1440,28 +1445,28 @@
         <v>1</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="J17" s="24"/>
       <c r="K17" s="9">
         <v>1</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>21</v>
+        <v>88</v>
       </c>
       <c r="M17" s="24"/>
       <c r="N17" s="9">
         <v>1</v>
       </c>
       <c r="O17" s="5" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="P17" s="24"/>
       <c r="Q17" s="9">
         <v>1</v>
       </c>
       <c r="R17" s="22" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="7:18" ht="24" x14ac:dyDescent="0.3">
@@ -1472,28 +1477,28 @@
         <v>1</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="J18" s="24"/>
       <c r="K18" s="9">
         <v>1</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="M18" s="24"/>
       <c r="N18" s="9">
         <v>1</v>
       </c>
       <c r="O18" s="5" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="P18" s="24"/>
       <c r="Q18" s="9">
         <v>1</v>
       </c>
       <c r="R18" s="22" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="7:18" ht="24" x14ac:dyDescent="0.3">
@@ -1504,28 +1509,28 @@
         <v>12</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="J19" s="24"/>
       <c r="K19" s="9">
         <v>1</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="M19" s="24"/>
       <c r="N19" s="9">
         <v>1</v>
       </c>
       <c r="O19" s="5" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="P19" s="24"/>
       <c r="Q19" s="9">
         <v>1</v>
       </c>
       <c r="R19" s="22" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="7:18" ht="25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1536,33 +1541,33 @@
         <v>12</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="J20" s="30"/>
       <c r="K20" s="10" t="s">
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>24</v>
+        <v>91</v>
       </c>
       <c r="M20" s="30"/>
       <c r="N20" s="10" t="s">
         <v>12</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="P20" s="30"/>
       <c r="Q20" s="10" t="s">
         <v>12</v>
       </c>
       <c r="R20" s="23" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="7:18" ht="69" thickBot="1" x14ac:dyDescent="0.25">
       <c r="G21" s="15" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H21" s="14"/>
       <c r="I21" s="16">
@@ -1588,7 +1593,7 @@
       <c r="G25" s="12"/>
       <c r="H25" s="12"/>
       <c r="I25" s="13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J25" s="13"/>
     </row>
@@ -1616,7 +1621,7 @@
     </row>
     <row r="32" spans="7:18" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G32" s="36" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="H32" s="37"/>
       <c r="I32" s="38"/>
@@ -1625,7 +1630,7 @@
     <row r="33" spans="7:18" ht="26" x14ac:dyDescent="0.2">
       <c r="G33" s="1"/>
       <c r="H33" s="32" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="I33" s="33"/>
       <c r="J33" s="19"/>
@@ -1664,7 +1669,7 @@
         <v>1</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J35" s="24"/>
       <c r="K35" s="25"/>
@@ -1684,7 +1689,7 @@
         <v>1</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J36" s="24"/>
       <c r="K36" s="25"/>
@@ -1704,7 +1709,7 @@
         <v>1</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="J37" s="24"/>
       <c r="K37" s="25"/>
@@ -1724,7 +1729,7 @@
         <v>1</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="J38" s="24"/>
       <c r="K38" s="25"/>
@@ -1744,7 +1749,7 @@
         <v>1</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="J39" s="24"/>
       <c r="K39" s="25"/>
@@ -1764,7 +1769,7 @@
         <v>1</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="J40" s="24"/>
       <c r="K40" s="25"/>
@@ -1784,7 +1789,7 @@
         <v>0.75</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="J41" s="24"/>
       <c r="K41" s="25"/>
@@ -1804,7 +1809,7 @@
         <v>0.5</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="J42" s="24"/>
       <c r="K42" s="25"/>
@@ -1821,10 +1826,10 @@
         <v>8</v>
       </c>
       <c r="H43" s="11" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="J43" s="24"/>
       <c r="K43" s="25"/>
@@ -1841,10 +1846,10 @@
         <v>9</v>
       </c>
       <c r="H44" s="10" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="I44" s="7" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="J44" s="24"/>
       <c r="K44" s="24"/>
@@ -1858,7 +1863,7 @@
     </row>
     <row r="45" spans="7:18" ht="52" thickBot="1" x14ac:dyDescent="0.25">
       <c r="G45" s="15" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="H45" s="14"/>
       <c r="I45" s="18">
@@ -1891,7 +1896,7 @@
     </row>
     <row r="57" spans="7:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G57" s="36" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="H57" s="37"/>
       <c r="I57" s="38"/>
@@ -1900,7 +1905,7 @@
     <row r="58" spans="7:16" ht="26" x14ac:dyDescent="0.2">
       <c r="G58" s="1"/>
       <c r="H58" s="32" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="I58" s="33"/>
       <c r="J58" s="19"/>
@@ -1935,7 +1940,7 @@
         <v>1</v>
       </c>
       <c r="I60" s="5" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="J60" s="24"/>
       <c r="K60" s="25"/>
@@ -1950,10 +1955,10 @@
         <v>2</v>
       </c>
       <c r="H61" s="9" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="I61" s="5" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="J61" s="24"/>
       <c r="K61" s="25"/>
@@ -1968,10 +1973,10 @@
         <v>3</v>
       </c>
       <c r="H62" s="9" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="I62" s="5" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="J62" s="24"/>
       <c r="K62" s="25"/>
@@ -1986,10 +1991,10 @@
         <v>1</v>
       </c>
       <c r="H63" s="9" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="I63" s="5" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="J63" s="24"/>
       <c r="K63" s="25"/>
@@ -2004,10 +2009,10 @@
         <v>4</v>
       </c>
       <c r="H64" s="9" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="I64" s="5" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="J64" s="24"/>
       <c r="K64" s="25"/>
@@ -2025,7 +2030,7 @@
         <v>12</v>
       </c>
       <c r="I65" s="5" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="J65" s="24"/>
       <c r="K65" s="25"/>
@@ -2113,7 +2118,7 @@
     </row>
     <row r="77" spans="7:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G77" s="36" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="H77" s="37"/>
       <c r="I77" s="38"/>
@@ -2122,7 +2127,7 @@
     <row r="78" spans="7:16" ht="26" x14ac:dyDescent="0.2">
       <c r="G78" s="1"/>
       <c r="H78" s="32" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="I78" s="33"/>
       <c r="J78" s="19"/>
@@ -2157,7 +2162,7 @@
         <v>1</v>
       </c>
       <c r="I80" s="5" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="J80" s="24"/>
       <c r="K80" s="25"/>

--- a/reports/Results.xlsx
+++ b/reports/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/moe/Desktop/puf-auth-ml/reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AD03D56-14A4-F643-9146-7399D63913D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55037D78-1D9F-3747-AD8E-943224D1577A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{65BD7D84-E0D3-BF4C-8AA6-282CCD8082D7}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="93">
   <si>
     <t>Intact</t>
   </si>
@@ -83,36 +83,6 @@
 </t>
   </si>
   <si>
-    <t>99.68%</t>
-  </si>
-  <si>
-    <t>99.47%</t>
-  </si>
-  <si>
-    <t>99.02%</t>
-  </si>
-  <si>
-    <t>97.65%</t>
-  </si>
-  <si>
-    <t>95.69%</t>
-  </si>
-  <si>
-    <t>91.95%</t>
-  </si>
-  <si>
-    <t>85.81%</t>
-  </si>
-  <si>
-    <t>74.02%</t>
-  </si>
-  <si>
-    <t>60.67%</t>
-  </si>
-  <si>
-    <t>53.60</t>
-  </si>
-  <si>
     <t>In case of Random Response which does not belong to any classes, models assing the response to a class with:</t>
   </si>
   <si>
@@ -242,10 +212,6 @@
   <si>
     <t>Intact
 RPi1: 8, RPi2:8, RPi3: 8</t>
-  </si>
-  <si>
-    <t>Intact
-RPi1: 34, RPi2:34, RPi3: 34</t>
   </si>
   <si>
     <r>
@@ -369,6 +335,36 @@
       </rPr>
       <t>RPi1: 26 random 10p curropted, RPi2: 26 random 10p curropted, RPi3:  26 random 10p curropted</t>
     </r>
+  </si>
+  <si>
+    <t>99.72%</t>
+  </si>
+  <si>
+    <t>97.96%</t>
+  </si>
+  <si>
+    <t>99.51%</t>
+  </si>
+  <si>
+    <t>99.11%</t>
+  </si>
+  <si>
+    <t>95.95%</t>
+  </si>
+  <si>
+    <t>92.48%</t>
+  </si>
+  <si>
+    <t>86.36%</t>
+  </si>
+  <si>
+    <t>74.70%</t>
+  </si>
+  <si>
+    <t>61.11%</t>
+  </si>
+  <si>
+    <t>53.70%</t>
   </si>
 </sst>
 </file>
@@ -651,6 +647,21 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -660,9 +671,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -671,18 +679,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1139,8 +1135,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F7AB769-A4AB-314C-9FAA-CEF8525B9786}">
   <dimension ref="G6:S90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F6" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" topLeftCell="K8" zoomScaleNormal="88" workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1160,45 +1156,45 @@
   </cols>
   <sheetData>
     <row r="6" spans="7:19" x14ac:dyDescent="0.2">
-      <c r="I6" s="39" t="s">
-        <v>36</v>
-      </c>
-      <c r="J6" s="39"/>
-      <c r="K6" s="35"/>
-      <c r="L6" s="35"/>
-      <c r="M6" s="35"/>
-      <c r="N6" s="35"/>
+      <c r="I6" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" s="35"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="36"/>
     </row>
     <row r="7" spans="7:19" x14ac:dyDescent="0.2">
-      <c r="I7" s="35"/>
-      <c r="J7" s="35"/>
-      <c r="K7" s="35"/>
-      <c r="L7" s="35"/>
-      <c r="M7" s="35"/>
-      <c r="N7" s="35"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36"/>
     </row>
     <row r="8" spans="7:19" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="7:19" ht="82" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G9" s="1"/>
-      <c r="H9" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="I9" s="33"/>
+      <c r="H9" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" s="38"/>
       <c r="J9" s="29"/>
-      <c r="K9" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="L9" s="33"/>
+      <c r="K9" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="L9" s="38"/>
       <c r="M9" s="29"/>
-      <c r="N9" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="O9" s="33"/>
+      <c r="N9" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="O9" s="38"/>
       <c r="P9" s="29"/>
-      <c r="Q9" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="R9" s="33"/>
+      <c r="Q9" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="R9" s="38"/>
     </row>
     <row r="10" spans="7:19" ht="21" x14ac:dyDescent="0.25">
       <c r="G10" s="2"/>
@@ -1233,76 +1229,76 @@
     </row>
     <row r="11" spans="7:19" ht="50" x14ac:dyDescent="0.3">
       <c r="G11" s="28" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="H11" s="9">
         <v>1</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="J11" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="K11" s="9">
+        <v>1</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="M11" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="N11" s="9">
+        <v>1</v>
+      </c>
+      <c r="O11" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="K11" s="9">
-        <v>1</v>
-      </c>
-      <c r="L11" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="M11" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="N11" s="9">
-        <v>1</v>
-      </c>
-      <c r="O11" s="5" t="s">
-        <v>15</v>
-      </c>
       <c r="P11" s="28" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="Q11" s="9">
         <v>1</v>
       </c>
       <c r="R11" s="22" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="7:19" ht="85" x14ac:dyDescent="0.25">
       <c r="G12" s="28" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="H12" s="9">
         <v>1</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="J12" s="28" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="K12" s="9">
         <v>1</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="M12" s="28" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="N12" s="9">
         <v>1</v>
       </c>
       <c r="O12" s="5" t="s">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="P12" s="24"/>
       <c r="Q12" s="9">
         <v>1</v>
       </c>
       <c r="R12" s="22" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="7:19" ht="24" x14ac:dyDescent="0.3">
@@ -1313,64 +1309,64 @@
         <v>1</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="J13" s="24"/>
       <c r="K13" s="9">
         <v>1</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="M13" s="24"/>
       <c r="N13" s="9">
         <v>1</v>
       </c>
       <c r="O13" s="5" t="s">
-        <v>17</v>
+        <v>86</v>
       </c>
       <c r="P13" s="24"/>
       <c r="Q13" s="9">
         <v>1</v>
       </c>
       <c r="R13" s="22" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="7:19" ht="85" x14ac:dyDescent="0.25">
-      <c r="G14" s="42" t="s">
+      <c r="G14" s="32" t="s">
         <v>1</v>
       </c>
       <c r="H14" s="9">
         <v>1</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="J14" s="28" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K14" s="9">
         <v>1</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="M14" s="28" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="N14" s="9">
         <v>1</v>
       </c>
       <c r="O14" s="5" t="s">
-        <v>18</v>
+        <v>84</v>
       </c>
       <c r="P14" s="24"/>
       <c r="Q14" s="9">
         <v>1</v>
       </c>
       <c r="R14" s="22" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="7:19" ht="24" x14ac:dyDescent="0.3">
@@ -1381,28 +1377,28 @@
         <v>1</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="J15" s="24"/>
       <c r="K15" s="9">
         <v>1</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="M15" s="24"/>
       <c r="N15" s="9">
         <v>1</v>
       </c>
       <c r="O15" s="5" t="s">
-        <v>19</v>
+        <v>87</v>
       </c>
       <c r="P15" s="24"/>
       <c r="Q15" s="9">
         <v>1</v>
       </c>
       <c r="R15" s="22" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="7:19" ht="24" x14ac:dyDescent="0.3">
@@ -1413,28 +1409,28 @@
         <v>1</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="J16" s="24"/>
       <c r="K16" s="9">
         <v>1</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="M16" s="24"/>
       <c r="N16" s="9">
         <v>1</v>
       </c>
       <c r="O16" s="5" t="s">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="P16" s="24"/>
       <c r="Q16" s="9">
         <v>1</v>
       </c>
       <c r="R16" s="22" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="7:18" ht="24" x14ac:dyDescent="0.3">
@@ -1445,28 +1441,28 @@
         <v>1</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="J17" s="24"/>
       <c r="K17" s="9">
         <v>1</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="M17" s="24"/>
       <c r="N17" s="9">
         <v>1</v>
       </c>
       <c r="O17" s="5" t="s">
-        <v>21</v>
+        <v>89</v>
       </c>
       <c r="P17" s="24"/>
       <c r="Q17" s="9">
         <v>1</v>
       </c>
       <c r="R17" s="22" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="7:18" ht="24" x14ac:dyDescent="0.3">
@@ -1477,28 +1473,28 @@
         <v>1</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="J18" s="24"/>
       <c r="K18" s="9">
         <v>1</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="M18" s="24"/>
       <c r="N18" s="9">
         <v>1</v>
       </c>
       <c r="O18" s="5" t="s">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="P18" s="24"/>
       <c r="Q18" s="9">
         <v>1</v>
       </c>
       <c r="R18" s="22" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="7:18" ht="24" x14ac:dyDescent="0.3">
@@ -1509,28 +1505,28 @@
         <v>12</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="J19" s="24"/>
       <c r="K19" s="9">
         <v>1</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="M19" s="24"/>
       <c r="N19" s="9">
         <v>1</v>
       </c>
       <c r="O19" s="5" t="s">
-        <v>23</v>
+        <v>91</v>
       </c>
       <c r="P19" s="24"/>
       <c r="Q19" s="9">
         <v>1</v>
       </c>
       <c r="R19" s="22" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="7:18" ht="25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1541,33 +1537,33 @@
         <v>12</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="J20" s="30"/>
       <c r="K20" s="10" t="s">
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="M20" s="30"/>
       <c r="N20" s="10" t="s">
         <v>12</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>24</v>
+        <v>92</v>
       </c>
       <c r="P20" s="30"/>
       <c r="Q20" s="10" t="s">
         <v>12</v>
       </c>
       <c r="R20" s="23" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="7:18" ht="69" thickBot="1" x14ac:dyDescent="0.25">
       <c r="G21" s="15" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="H21" s="14"/>
       <c r="I21" s="16">
@@ -1576,7 +1572,7 @@
       <c r="J21" s="16"/>
       <c r="K21" s="17"/>
       <c r="L21" s="16">
-        <v>0.49</v>
+        <v>0.46</v>
       </c>
       <c r="M21" s="16"/>
       <c r="N21" s="17"/>
@@ -1598,50 +1594,50 @@
       <c r="J25" s="13"/>
     </row>
     <row r="26" spans="7:18" ht="49" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G26" s="40"/>
-      <c r="H26" s="41"/>
-      <c r="I26" s="41"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
       <c r="J26" s="27"/>
     </row>
     <row r="30" spans="7:18" x14ac:dyDescent="0.2">
-      <c r="I30" s="39"/>
-      <c r="J30" s="39"/>
-      <c r="K30" s="35"/>
-      <c r="L30" s="35"/>
-      <c r="M30" s="35"/>
-      <c r="N30" s="35"/>
+      <c r="I30" s="35"/>
+      <c r="J30" s="35"/>
+      <c r="K30" s="36"/>
+      <c r="L30" s="36"/>
+      <c r="M30" s="36"/>
+      <c r="N30" s="36"/>
     </row>
     <row r="31" spans="7:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="I31" s="35"/>
-      <c r="J31" s="35"/>
-      <c r="K31" s="35"/>
-      <c r="L31" s="35"/>
-      <c r="M31" s="35"/>
-      <c r="N31" s="35"/>
+      <c r="I31" s="36"/>
+      <c r="J31" s="36"/>
+      <c r="K31" s="36"/>
+      <c r="L31" s="36"/>
+      <c r="M31" s="36"/>
+      <c r="N31" s="36"/>
     </row>
     <row r="32" spans="7:18" ht="25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G32" s="36" t="s">
-        <v>64</v>
-      </c>
-      <c r="H32" s="37"/>
-      <c r="I32" s="38"/>
+      <c r="G32" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="H32" s="41"/>
+      <c r="I32" s="42"/>
       <c r="J32" s="31"/>
     </row>
     <row r="33" spans="7:18" ht="26" x14ac:dyDescent="0.2">
       <c r="G33" s="1"/>
-      <c r="H33" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="I33" s="33"/>
+      <c r="H33" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="I33" s="38"/>
       <c r="J33" s="19"/>
-      <c r="K33" s="34"/>
-      <c r="L33" s="35"/>
+      <c r="K33" s="39"/>
+      <c r="L33" s="36"/>
       <c r="M33" s="19"/>
-      <c r="N33" s="34"/>
-      <c r="O33" s="35"/>
+      <c r="N33" s="39"/>
+      <c r="O33" s="36"/>
       <c r="P33" s="19"/>
-      <c r="Q33" s="34"/>
-      <c r="R33" s="35"/>
+      <c r="Q33" s="39"/>
+      <c r="R33" s="36"/>
     </row>
     <row r="34" spans="7:18" ht="21" x14ac:dyDescent="0.25">
       <c r="G34" s="2"/>
@@ -1669,7 +1665,7 @@
         <v>1</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="J35" s="24"/>
       <c r="K35" s="25"/>
@@ -1689,7 +1685,7 @@
         <v>1</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="J36" s="24"/>
       <c r="K36" s="25"/>
@@ -1709,7 +1705,7 @@
         <v>1</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="J37" s="24"/>
       <c r="K37" s="25"/>
@@ -1729,7 +1725,7 @@
         <v>1</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="J38" s="24"/>
       <c r="K38" s="25"/>
@@ -1749,7 +1745,7 @@
         <v>1</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="J39" s="24"/>
       <c r="K39" s="25"/>
@@ -1769,7 +1765,7 @@
         <v>1</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="J40" s="24"/>
       <c r="K40" s="25"/>
@@ -1789,7 +1785,7 @@
         <v>0.75</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="J41" s="24"/>
       <c r="K41" s="25"/>
@@ -1809,7 +1805,7 @@
         <v>0.5</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="J42" s="24"/>
       <c r="K42" s="25"/>
@@ -1826,10 +1822,10 @@
         <v>8</v>
       </c>
       <c r="H43" s="11" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J43" s="24"/>
       <c r="K43" s="25"/>
@@ -1846,10 +1842,10 @@
         <v>9</v>
       </c>
       <c r="H44" s="10" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="I44" s="7" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J44" s="24"/>
       <c r="K44" s="24"/>
@@ -1863,7 +1859,7 @@
     </row>
     <row r="45" spans="7:18" ht="52" thickBot="1" x14ac:dyDescent="0.25">
       <c r="G45" s="15" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="H45" s="14"/>
       <c r="I45" s="18">
@@ -1879,41 +1875,41 @@
       <c r="R45" s="26"/>
     </row>
     <row r="55" spans="7:16" x14ac:dyDescent="0.2">
-      <c r="I55" s="39"/>
-      <c r="J55" s="39"/>
-      <c r="K55" s="35"/>
-      <c r="L55" s="35"/>
-      <c r="M55" s="35"/>
-      <c r="N55" s="35"/>
+      <c r="I55" s="35"/>
+      <c r="J55" s="35"/>
+      <c r="K55" s="36"/>
+      <c r="L55" s="36"/>
+      <c r="M55" s="36"/>
+      <c r="N55" s="36"/>
     </row>
     <row r="56" spans="7:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="I56" s="35"/>
-      <c r="J56" s="35"/>
-      <c r="K56" s="35"/>
-      <c r="L56" s="35"/>
-      <c r="M56" s="35"/>
-      <c r="N56" s="35"/>
+      <c r="I56" s="36"/>
+      <c r="J56" s="36"/>
+      <c r="K56" s="36"/>
+      <c r="L56" s="36"/>
+      <c r="M56" s="36"/>
+      <c r="N56" s="36"/>
     </row>
     <row r="57" spans="7:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G57" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="H57" s="37"/>
-      <c r="I57" s="38"/>
+      <c r="G57" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="H57" s="41"/>
+      <c r="I57" s="42"/>
       <c r="J57" s="31"/>
     </row>
     <row r="58" spans="7:16" ht="26" x14ac:dyDescent="0.2">
       <c r="G58" s="1"/>
-      <c r="H58" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="I58" s="33"/>
+      <c r="H58" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="I58" s="38"/>
       <c r="J58" s="19"/>
-      <c r="K58" s="34"/>
-      <c r="L58" s="35"/>
+      <c r="K58" s="39"/>
+      <c r="L58" s="36"/>
       <c r="M58" s="19"/>
-      <c r="N58" s="34"/>
-      <c r="O58" s="35"/>
+      <c r="N58" s="39"/>
+      <c r="O58" s="36"/>
       <c r="P58" s="19"/>
     </row>
     <row r="59" spans="7:16" ht="21" x14ac:dyDescent="0.25">
@@ -1940,7 +1936,7 @@
         <v>1</v>
       </c>
       <c r="I60" s="5" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="J60" s="24"/>
       <c r="K60" s="25"/>
@@ -1955,10 +1951,10 @@
         <v>2</v>
       </c>
       <c r="H61" s="9" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="I61" s="5" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="J61" s="24"/>
       <c r="K61" s="25"/>
@@ -1973,10 +1969,10 @@
         <v>3</v>
       </c>
       <c r="H62" s="9" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="I62" s="5" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="J62" s="24"/>
       <c r="K62" s="25"/>
@@ -1991,10 +1987,10 @@
         <v>1</v>
       </c>
       <c r="H63" s="9" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="I63" s="5" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="J63" s="24"/>
       <c r="K63" s="25"/>
@@ -2009,10 +2005,10 @@
         <v>4</v>
       </c>
       <c r="H64" s="9" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="I64" s="5" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="J64" s="24"/>
       <c r="K64" s="25"/>
@@ -2030,7 +2026,7 @@
         <v>12</v>
       </c>
       <c r="I65" s="5" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="J65" s="24"/>
       <c r="K65" s="25"/>
@@ -2101,41 +2097,41 @@
       <c r="P70" s="26"/>
     </row>
     <row r="75" spans="7:16" x14ac:dyDescent="0.2">
-      <c r="I75" s="39"/>
-      <c r="J75" s="39"/>
-      <c r="K75" s="35"/>
-      <c r="L75" s="35"/>
-      <c r="M75" s="35"/>
-      <c r="N75" s="35"/>
+      <c r="I75" s="35"/>
+      <c r="J75" s="35"/>
+      <c r="K75" s="36"/>
+      <c r="L75" s="36"/>
+      <c r="M75" s="36"/>
+      <c r="N75" s="36"/>
     </row>
     <row r="76" spans="7:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="I76" s="35"/>
-      <c r="J76" s="35"/>
-      <c r="K76" s="35"/>
-      <c r="L76" s="35"/>
-      <c r="M76" s="35"/>
-      <c r="N76" s="35"/>
+      <c r="I76" s="36"/>
+      <c r="J76" s="36"/>
+      <c r="K76" s="36"/>
+      <c r="L76" s="36"/>
+      <c r="M76" s="36"/>
+      <c r="N76" s="36"/>
     </row>
     <row r="77" spans="7:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G77" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="H77" s="37"/>
-      <c r="I77" s="38"/>
+      <c r="G77" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="H77" s="41"/>
+      <c r="I77" s="42"/>
       <c r="J77" s="31"/>
     </row>
     <row r="78" spans="7:16" ht="26" x14ac:dyDescent="0.2">
       <c r="G78" s="1"/>
-      <c r="H78" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="I78" s="33"/>
+      <c r="H78" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="I78" s="38"/>
       <c r="J78" s="19"/>
-      <c r="K78" s="34"/>
-      <c r="L78" s="35"/>
+      <c r="K78" s="39"/>
+      <c r="L78" s="36"/>
       <c r="M78" s="19"/>
-      <c r="N78" s="34"/>
-      <c r="O78" s="35"/>
+      <c r="N78" s="39"/>
+      <c r="O78" s="36"/>
       <c r="P78" s="19"/>
     </row>
     <row r="79" spans="7:16" ht="21" x14ac:dyDescent="0.25">
@@ -2162,7 +2158,7 @@
         <v>1</v>
       </c>
       <c r="I80" s="5" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="J80" s="24"/>
       <c r="K80" s="25"/>
@@ -2294,17 +2290,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="I6:N7"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="I30:N31"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="Q33:R33"/>
     <mergeCell ref="H78:I78"/>
     <mergeCell ref="K78:L78"/>
     <mergeCell ref="N78:O78"/>
@@ -2316,6 +2301,17 @@
     <mergeCell ref="K58:L58"/>
     <mergeCell ref="N58:O58"/>
     <mergeCell ref="I75:N76"/>
+    <mergeCell ref="I30:N31"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="Q33:R33"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="I6:N7"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="N9:O9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/reports/Results.xlsx
+++ b/reports/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/moe/Desktop/puf-auth-ml/reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55037D78-1D9F-3747-AD8E-943224D1577A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CCD5648-EE05-E54C-ADDC-FFBC8CD0FEC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{65BD7D84-E0D3-BF4C-8AA6-282CCD8082D7}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="101">
   <si>
     <t>Intact</t>
   </si>
@@ -89,33 +89,6 @@
     <t>99.93%</t>
   </si>
   <si>
-    <t>99.65%</t>
-  </si>
-  <si>
-    <t>99.33%</t>
-  </si>
-  <si>
-    <t>96.52%</t>
-  </si>
-  <si>
-    <t>93.18%</t>
-  </si>
-  <si>
-    <t>87.08%</t>
-  </si>
-  <si>
-    <t>75.02%</t>
-  </si>
-  <si>
-    <t>61.45%</t>
-  </si>
-  <si>
-    <t>54.20%</t>
-  </si>
-  <si>
-    <t>98.49%</t>
-  </si>
-  <si>
     <t>RPI1,RPI2,RPI3 full length: 8388608 bits</t>
   </si>
   <si>
@@ -212,20 +185,6 @@
   <si>
     <t>Intact
 RPi1: 8, RPi2:8, RPi3: 8</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">C-10
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>RPi1: 34 random 10p curropted, RPi2: 34 random 10p curropted, RPi3:  34 random 10p curropted</t>
-    </r>
   </si>
   <si>
     <r>
@@ -366,12 +325,95 @@
   <si>
     <t>53.70%</t>
   </si>
+  <si>
+    <t>99.69%</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">C-10
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>RPi1: 129 random 10p curropted, RPi2: 129random 10p curropted, RPi3:  129 random 10p curropted</t>
+    </r>
+  </si>
+  <si>
+    <t>99.39%</t>
+  </si>
+  <si>
+    <t>c-20</t>
+  </si>
+  <si>
+    <t>c-40</t>
+  </si>
+  <si>
+    <t>c-50</t>
+  </si>
+  <si>
+    <t>c-60</t>
+  </si>
+  <si>
+    <t>c-70</t>
+  </si>
+  <si>
+    <t>c-80</t>
+  </si>
+  <si>
+    <t>c-90</t>
+  </si>
+  <si>
+    <t>96.78%</t>
+  </si>
+  <si>
+    <t>93.64%</t>
+  </si>
+  <si>
+    <t>87.74%</t>
+  </si>
+  <si>
+    <t>76.01%</t>
+  </si>
+  <si>
+    <t>62.25%</t>
+  </si>
+  <si>
+    <t>53.92%</t>
+  </si>
+  <si>
+    <t>98.59%</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="22"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>c-30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+RPi1: 25 random 10p curropted, RPi2: 25 random 10p curropted, RPi3:  25 random 10p curropted</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -421,6 +463,11 @@
     </font>
     <font>
       <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="22"/>
       <color theme="1"/>
       <name val="Calibri (Body)"/>
     </font>
@@ -562,7 +609,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -650,35 +697,38 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1135,8 +1185,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F7AB769-A4AB-314C-9FAA-CEF8525B9786}">
   <dimension ref="G6:S90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K8" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+    <sheetView tabSelected="1" topLeftCell="L6" zoomScaleNormal="88" workbookViewId="0">
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1156,10 +1206,10 @@
   </cols>
   <sheetData>
     <row r="6" spans="7:19" x14ac:dyDescent="0.2">
-      <c r="I6" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="J6" s="35"/>
+      <c r="I6" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="40"/>
       <c r="K6" s="36"/>
       <c r="L6" s="36"/>
       <c r="M6" s="36"/>
@@ -1176,25 +1226,25 @@
     <row r="8" spans="7:19" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="7:19" ht="82" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G9" s="1"/>
-      <c r="H9" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="I9" s="38"/>
+      <c r="H9" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="34"/>
       <c r="J9" s="29"/>
-      <c r="K9" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="L9" s="38"/>
+      <c r="K9" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="L9" s="34"/>
       <c r="M9" s="29"/>
-      <c r="N9" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="O9" s="38"/>
+      <c r="N9" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="O9" s="34"/>
       <c r="P9" s="29"/>
-      <c r="Q9" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="R9" s="38"/>
+      <c r="Q9" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="R9" s="34"/>
     </row>
     <row r="10" spans="7:19" ht="21" x14ac:dyDescent="0.25">
       <c r="G10" s="2"/>
@@ -1229,34 +1279,34 @@
     </row>
     <row r="11" spans="7:19" ht="50" x14ac:dyDescent="0.3">
       <c r="G11" s="28" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="H11" s="9">
         <v>1</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="J11" s="28" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="K11" s="9">
         <v>1</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="M11" s="28" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="N11" s="9">
         <v>1</v>
       </c>
       <c r="O11" s="5" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="P11" s="28" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="Q11" s="9">
         <v>1</v>
@@ -1267,38 +1317,40 @@
     </row>
     <row r="12" spans="7:19" ht="85" x14ac:dyDescent="0.25">
       <c r="G12" s="28" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="H12" s="9">
         <v>1</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="J12" s="28" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="K12" s="9">
         <v>1</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="M12" s="28" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="N12" s="9">
         <v>1</v>
       </c>
       <c r="O12" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="P12" s="24"/>
+        <v>75</v>
+      </c>
+      <c r="P12" s="28" t="s">
+        <v>84</v>
+      </c>
       <c r="Q12" s="9">
         <v>1</v>
       </c>
       <c r="R12" s="22" t="s">
-        <v>17</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="7:19" ht="24" x14ac:dyDescent="0.3">
@@ -1309,31 +1361,33 @@
         <v>1</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="J13" s="24"/>
       <c r="K13" s="9">
         <v>1</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="M13" s="24"/>
       <c r="N13" s="9">
         <v>1</v>
       </c>
       <c r="O13" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="P13" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="P13" s="24"/>
       <c r="Q13" s="9">
         <v>1</v>
       </c>
       <c r="R13" s="22" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="7:19" ht="85" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="7:19" ht="118" x14ac:dyDescent="0.25">
       <c r="G14" s="32" t="s">
         <v>1</v>
       </c>
@@ -1341,32 +1395,34 @@
         <v>1</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="J14" s="28" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="K14" s="9">
         <v>1</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="M14" s="28" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="N14" s="9">
         <v>1</v>
       </c>
       <c r="O14" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="P14" s="24"/>
+        <v>74</v>
+      </c>
+      <c r="P14" s="43" t="s">
+        <v>100</v>
+      </c>
       <c r="Q14" s="9">
         <v>1</v>
       </c>
       <c r="R14" s="22" t="s">
-        <v>25</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="7:19" ht="24" x14ac:dyDescent="0.3">
@@ -1377,28 +1433,30 @@
         <v>1</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="J15" s="24"/>
       <c r="K15" s="9">
         <v>1</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="M15" s="24"/>
       <c r="N15" s="9">
         <v>1</v>
       </c>
       <c r="O15" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="P15" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="P15" s="24"/>
       <c r="Q15" s="9">
         <v>1</v>
       </c>
       <c r="R15" s="22" t="s">
-        <v>19</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="7:19" ht="24" x14ac:dyDescent="0.3">
@@ -1409,28 +1467,30 @@
         <v>1</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="J16" s="24"/>
       <c r="K16" s="9">
         <v>1</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="M16" s="24"/>
       <c r="N16" s="9">
         <v>1</v>
       </c>
       <c r="O16" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="P16" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="P16" s="24"/>
       <c r="Q16" s="9">
         <v>1</v>
       </c>
       <c r="R16" s="22" t="s">
-        <v>20</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="7:18" ht="24" x14ac:dyDescent="0.3">
@@ -1441,28 +1501,30 @@
         <v>1</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="J17" s="24"/>
       <c r="K17" s="9">
         <v>1</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="M17" s="24"/>
       <c r="N17" s="9">
         <v>1</v>
       </c>
       <c r="O17" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="P17" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="P17" s="24"/>
       <c r="Q17" s="9">
         <v>1</v>
       </c>
       <c r="R17" s="22" t="s">
-        <v>21</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="7:18" ht="24" x14ac:dyDescent="0.3">
@@ -1473,28 +1535,30 @@
         <v>1</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="J18" s="24"/>
       <c r="K18" s="9">
         <v>1</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="M18" s="24"/>
       <c r="N18" s="9">
         <v>1</v>
       </c>
       <c r="O18" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="P18" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="P18" s="24"/>
       <c r="Q18" s="9">
         <v>1</v>
       </c>
       <c r="R18" s="22" t="s">
-        <v>22</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" spans="7:18" ht="24" x14ac:dyDescent="0.3">
@@ -1505,28 +1569,30 @@
         <v>12</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="J19" s="24"/>
       <c r="K19" s="9">
         <v>1</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="M19" s="24"/>
       <c r="N19" s="9">
         <v>1</v>
       </c>
       <c r="O19" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="P19" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="P19" s="24"/>
       <c r="Q19" s="9">
         <v>1</v>
       </c>
       <c r="R19" s="22" t="s">
-        <v>23</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="7:18" ht="25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1537,33 +1603,35 @@
         <v>12</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="J20" s="30"/>
       <c r="K20" s="10" t="s">
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="M20" s="30"/>
       <c r="N20" s="10" t="s">
         <v>12</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P20" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="P20" s="30"/>
       <c r="Q20" s="10" t="s">
         <v>12</v>
       </c>
       <c r="R20" s="23" t="s">
-        <v>24</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="7:18" ht="69" thickBot="1" x14ac:dyDescent="0.25">
       <c r="G21" s="15" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="H21" s="14"/>
       <c r="I21" s="16">
@@ -1582,7 +1650,7 @@
       <c r="P21" s="16"/>
       <c r="Q21" s="20"/>
       <c r="R21" s="18">
-        <v>0.51</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="25" spans="7:18" ht="34" x14ac:dyDescent="0.2">
@@ -1594,14 +1662,14 @@
       <c r="J25" s="13"/>
     </row>
     <row r="26" spans="7:18" ht="49" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G26" s="33"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="34"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="42"/>
       <c r="J26" s="27"/>
     </row>
     <row r="30" spans="7:18" x14ac:dyDescent="0.2">
-      <c r="I30" s="35"/>
-      <c r="J30" s="35"/>
+      <c r="I30" s="40"/>
+      <c r="J30" s="40"/>
       <c r="K30" s="36"/>
       <c r="L30" s="36"/>
       <c r="M30" s="36"/>
@@ -1616,27 +1684,27 @@
       <c r="N31" s="36"/>
     </row>
     <row r="32" spans="7:18" ht="25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G32" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="H32" s="41"/>
-      <c r="I32" s="42"/>
+      <c r="G32" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" s="38"/>
+      <c r="I32" s="39"/>
       <c r="J32" s="31"/>
     </row>
     <row r="33" spans="7:18" ht="26" x14ac:dyDescent="0.2">
       <c r="G33" s="1"/>
-      <c r="H33" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="I33" s="38"/>
+      <c r="H33" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="I33" s="34"/>
       <c r="J33" s="19"/>
-      <c r="K33" s="39"/>
+      <c r="K33" s="35"/>
       <c r="L33" s="36"/>
       <c r="M33" s="19"/>
-      <c r="N33" s="39"/>
+      <c r="N33" s="35"/>
       <c r="O33" s="36"/>
       <c r="P33" s="19"/>
-      <c r="Q33" s="39"/>
+      <c r="Q33" s="35"/>
       <c r="R33" s="36"/>
     </row>
     <row r="34" spans="7:18" ht="21" x14ac:dyDescent="0.25">
@@ -1665,7 +1733,7 @@
         <v>1</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="J35" s="24"/>
       <c r="K35" s="25"/>
@@ -1685,7 +1753,7 @@
         <v>1</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="J36" s="24"/>
       <c r="K36" s="25"/>
@@ -1705,7 +1773,7 @@
         <v>1</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="J37" s="24"/>
       <c r="K37" s="25"/>
@@ -1725,7 +1793,7 @@
         <v>1</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="J38" s="24"/>
       <c r="K38" s="25"/>
@@ -1745,7 +1813,7 @@
         <v>1</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="J39" s="24"/>
       <c r="K39" s="25"/>
@@ -1765,7 +1833,7 @@
         <v>1</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="J40" s="24"/>
       <c r="K40" s="25"/>
@@ -1785,7 +1853,7 @@
         <v>0.75</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="J41" s="24"/>
       <c r="K41" s="25"/>
@@ -1805,7 +1873,7 @@
         <v>0.5</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="J42" s="24"/>
       <c r="K42" s="25"/>
@@ -1822,10 +1890,10 @@
         <v>8</v>
       </c>
       <c r="H43" s="11" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="J43" s="24"/>
       <c r="K43" s="25"/>
@@ -1842,10 +1910,10 @@
         <v>9</v>
       </c>
       <c r="H44" s="10" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="I44" s="7" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="J44" s="24"/>
       <c r="K44" s="24"/>
@@ -1875,8 +1943,8 @@
       <c r="R45" s="26"/>
     </row>
     <row r="55" spans="7:16" x14ac:dyDescent="0.2">
-      <c r="I55" s="35"/>
-      <c r="J55" s="35"/>
+      <c r="I55" s="40"/>
+      <c r="J55" s="40"/>
       <c r="K55" s="36"/>
       <c r="L55" s="36"/>
       <c r="M55" s="36"/>
@@ -1891,24 +1959,24 @@
       <c r="N56" s="36"/>
     </row>
     <row r="57" spans="7:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G57" s="40" t="s">
-        <v>55</v>
-      </c>
-      <c r="H57" s="41"/>
-      <c r="I57" s="42"/>
+      <c r="G57" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" s="38"/>
+      <c r="I57" s="39"/>
       <c r="J57" s="31"/>
     </row>
     <row r="58" spans="7:16" ht="26" x14ac:dyDescent="0.2">
       <c r="G58" s="1"/>
-      <c r="H58" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="I58" s="38"/>
+      <c r="H58" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="I58" s="34"/>
       <c r="J58" s="19"/>
-      <c r="K58" s="39"/>
+      <c r="K58" s="35"/>
       <c r="L58" s="36"/>
       <c r="M58" s="19"/>
-      <c r="N58" s="39"/>
+      <c r="N58" s="35"/>
       <c r="O58" s="36"/>
       <c r="P58" s="19"/>
     </row>
@@ -1936,7 +2004,7 @@
         <v>1</v>
       </c>
       <c r="I60" s="5" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="J60" s="24"/>
       <c r="K60" s="25"/>
@@ -1951,10 +2019,10 @@
         <v>2</v>
       </c>
       <c r="H61" s="9" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="I61" s="5" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="J61" s="24"/>
       <c r="K61" s="25"/>
@@ -1969,10 +2037,10 @@
         <v>3</v>
       </c>
       <c r="H62" s="9" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="I62" s="5" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="J62" s="24"/>
       <c r="K62" s="25"/>
@@ -1987,10 +2055,10 @@
         <v>1</v>
       </c>
       <c r="H63" s="9" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="I63" s="5" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="J63" s="24"/>
       <c r="K63" s="25"/>
@@ -2005,10 +2073,10 @@
         <v>4</v>
       </c>
       <c r="H64" s="9" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="I64" s="5" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="J64" s="24"/>
       <c r="K64" s="25"/>
@@ -2026,7 +2094,7 @@
         <v>12</v>
       </c>
       <c r="I65" s="5" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J65" s="24"/>
       <c r="K65" s="25"/>
@@ -2097,8 +2165,8 @@
       <c r="P70" s="26"/>
     </row>
     <row r="75" spans="7:16" x14ac:dyDescent="0.2">
-      <c r="I75" s="35"/>
-      <c r="J75" s="35"/>
+      <c r="I75" s="40"/>
+      <c r="J75" s="40"/>
       <c r="K75" s="36"/>
       <c r="L75" s="36"/>
       <c r="M75" s="36"/>
@@ -2113,24 +2181,24 @@
       <c r="N76" s="36"/>
     </row>
     <row r="77" spans="7:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G77" s="40" t="s">
-        <v>52</v>
-      </c>
-      <c r="H77" s="41"/>
-      <c r="I77" s="42"/>
+      <c r="G77" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="H77" s="38"/>
+      <c r="I77" s="39"/>
       <c r="J77" s="31"/>
     </row>
     <row r="78" spans="7:16" ht="26" x14ac:dyDescent="0.2">
       <c r="G78" s="1"/>
-      <c r="H78" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="I78" s="38"/>
+      <c r="H78" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="I78" s="34"/>
       <c r="J78" s="19"/>
-      <c r="K78" s="39"/>
+      <c r="K78" s="35"/>
       <c r="L78" s="36"/>
       <c r="M78" s="19"/>
-      <c r="N78" s="39"/>
+      <c r="N78" s="35"/>
       <c r="O78" s="36"/>
       <c r="P78" s="19"/>
     </row>
@@ -2158,7 +2226,7 @@
         <v>1</v>
       </c>
       <c r="I80" s="5" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J80" s="24"/>
       <c r="K80" s="25"/>
@@ -2290,6 +2358,17 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="I6:N7"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="I30:N31"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="Q33:R33"/>
     <mergeCell ref="H78:I78"/>
     <mergeCell ref="K78:L78"/>
     <mergeCell ref="N78:O78"/>
@@ -2301,17 +2380,6 @@
     <mergeCell ref="K58:L58"/>
     <mergeCell ref="N58:O58"/>
     <mergeCell ref="I75:N76"/>
-    <mergeCell ref="I30:N31"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="Q33:R33"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="I6:N7"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="N9:O9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/reports/Results.xlsx
+++ b/reports/Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/moe/Desktop/puf-auth-ml/reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CCD5648-EE05-E54C-ADDC-FFBC8CD0FEC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C75089CD-9EDC-504C-B2BD-4F5CF733A996}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{65BD7D84-E0D3-BF4C-8AA6-282CCD8082D7}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{65BD7D84-E0D3-BF4C-8AA6-282CCD8082D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="112">
   <si>
     <t>Intact</t>
   </si>
@@ -408,12 +408,45 @@
 RPi1: 25 random 10p curropted, RPi2: 25 random 10p curropted, RPi3:  25 random 10p curropted</t>
     </r>
   </si>
+  <si>
+    <t>Augmented</t>
+  </si>
+  <si>
+    <t>99.58%</t>
+  </si>
+  <si>
+    <t>99.22%</t>
+  </si>
+  <si>
+    <t>98.45%</t>
+  </si>
+  <si>
+    <t>97.03%</t>
+  </si>
+  <si>
+    <t>94.32%</t>
+  </si>
+  <si>
+    <t>89.55%</t>
+  </si>
+  <si>
+    <t>81.85%</t>
+  </si>
+  <si>
+    <t>70.90%</t>
+  </si>
+  <si>
+    <t>61.25%</t>
+  </si>
+  <si>
+    <t>55.07%</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -471,6 +504,13 @@
       <color theme="1"/>
       <name val="Calibri (Body)"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -480,7 +520,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -605,11 +645,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -664,12 +715,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -729,6 +774,25 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1183,10 +1247,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F7AB769-A4AB-314C-9FAA-CEF8525B9786}">
-  <dimension ref="G6:S90"/>
+  <dimension ref="G6:U90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L6" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+    <sheetView tabSelected="1" topLeftCell="J11" zoomScaleNormal="88" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1203,50 +1267,59 @@
     <col min="16" max="16" width="35.5" customWidth="1"/>
     <col min="17" max="17" width="16" customWidth="1"/>
     <col min="18" max="18" width="36.33203125" customWidth="1"/>
+    <col min="19" max="19" width="23.1640625" customWidth="1"/>
+    <col min="20" max="20" width="26.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="7:19" x14ac:dyDescent="0.2">
-      <c r="I6" s="40" t="s">
+    <row r="6" spans="7:21" x14ac:dyDescent="0.2">
+      <c r="I6" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="J6" s="40"/>
-      <c r="K6" s="36"/>
-      <c r="L6" s="36"/>
-      <c r="M6" s="36"/>
-      <c r="N6" s="36"/>
-    </row>
-    <row r="7" spans="7:19" x14ac:dyDescent="0.2">
-      <c r="I7" s="36"/>
-      <c r="J7" s="36"/>
-      <c r="K7" s="36"/>
-      <c r="L7" s="36"/>
-      <c r="M7" s="36"/>
-      <c r="N7" s="36"/>
-    </row>
-    <row r="8" spans="7:19" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="7:19" ht="82" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J6" s="38"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="34"/>
+      <c r="N6" s="34"/>
+    </row>
+    <row r="7" spans="7:21" x14ac:dyDescent="0.2">
+      <c r="I7" s="34"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="34"/>
+      <c r="N7" s="34"/>
+    </row>
+    <row r="8" spans="7:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="S8" s="45"/>
+    </row>
+    <row r="9" spans="7:21" ht="82" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G9" s="1"/>
-      <c r="H9" s="33" t="s">
+      <c r="H9" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="I9" s="34"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="33" t="s">
+      <c r="I9" s="32"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="L9" s="34"/>
-      <c r="M9" s="29"/>
-      <c r="N9" s="33" t="s">
+      <c r="L9" s="32"/>
+      <c r="M9" s="27"/>
+      <c r="N9" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="O9" s="34"/>
-      <c r="P9" s="29"/>
-      <c r="Q9" s="33" t="s">
+      <c r="O9" s="32"/>
+      <c r="P9" s="27"/>
+      <c r="Q9" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="R9" s="34"/>
-    </row>
-    <row r="10" spans="7:19" ht="21" x14ac:dyDescent="0.25">
+      <c r="R9" s="42"/>
+      <c r="S9" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="T9" s="32"/>
+      <c r="U9" s="2"/>
+    </row>
+    <row r="10" spans="7:21" ht="21" x14ac:dyDescent="0.25">
       <c r="G10" s="2"/>
       <c r="H10" s="8" t="s">
         <v>10</v>
@@ -1275,10 +1348,16 @@
       <c r="R10" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="S10" s="2"/>
-    </row>
-    <row r="11" spans="7:19" ht="50" x14ac:dyDescent="0.3">
-      <c r="G11" s="28" t="s">
+      <c r="S10" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="T10" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="U10" s="2"/>
+    </row>
+    <row r="11" spans="7:21" ht="50" x14ac:dyDescent="0.3">
+      <c r="G11" s="26" t="s">
         <v>47</v>
       </c>
       <c r="H11" s="9">
@@ -1287,7 +1366,7 @@
       <c r="I11" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="J11" s="28" t="s">
+      <c r="J11" s="26" t="s">
         <v>62</v>
       </c>
       <c r="K11" s="9">
@@ -1296,7 +1375,7 @@
       <c r="L11" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="M11" s="28" t="s">
+      <c r="M11" s="26" t="s">
         <v>47</v>
       </c>
       <c r="N11" s="9">
@@ -1305,18 +1384,24 @@
       <c r="O11" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="P11" s="28" t="s">
+      <c r="P11" s="26" t="s">
         <v>47</v>
       </c>
       <c r="Q11" s="9">
         <v>1</v>
       </c>
-      <c r="R11" s="22" t="s">
+      <c r="R11" s="43" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="12" spans="7:19" ht="85" x14ac:dyDescent="0.25">
-      <c r="G12" s="28" t="s">
+      <c r="S11" s="9">
+        <v>1</v>
+      </c>
+      <c r="T11" s="46" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="7:21" ht="85" x14ac:dyDescent="0.25">
+      <c r="G12" s="26" t="s">
         <v>51</v>
       </c>
       <c r="H12" s="9">
@@ -1325,7 +1410,7 @@
       <c r="I12" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="J12" s="28" t="s">
+      <c r="J12" s="26" t="s">
         <v>51</v>
       </c>
       <c r="K12" s="9">
@@ -1334,7 +1419,7 @@
       <c r="L12" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="M12" s="28" t="s">
+      <c r="M12" s="26" t="s">
         <v>51</v>
       </c>
       <c r="N12" s="9">
@@ -1343,17 +1428,23 @@
       <c r="O12" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="P12" s="28" t="s">
+      <c r="P12" s="26" t="s">
         <v>84</v>
       </c>
       <c r="Q12" s="9">
         <v>1</v>
       </c>
-      <c r="R12" s="22" t="s">
+      <c r="R12" s="43" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="13" spans="7:19" ht="24" x14ac:dyDescent="0.3">
+      <c r="S12" s="9">
+        <v>1</v>
+      </c>
+      <c r="T12" s="46" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="7:21" ht="24" x14ac:dyDescent="0.3">
       <c r="G13" s="4" t="s">
         <v>3</v>
       </c>
@@ -1363,32 +1454,38 @@
       <c r="I13" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="J13" s="24"/>
+      <c r="J13" s="22"/>
       <c r="K13" s="9">
         <v>1</v>
       </c>
       <c r="L13" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="M13" s="24"/>
+      <c r="M13" s="22"/>
       <c r="N13" s="9">
         <v>1</v>
       </c>
       <c r="O13" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="P13" s="24" t="s">
+      <c r="P13" s="22" t="s">
         <v>86</v>
       </c>
       <c r="Q13" s="9">
         <v>1</v>
       </c>
-      <c r="R13" s="22" t="s">
+      <c r="R13" s="43" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="14" spans="7:19" ht="118" x14ac:dyDescent="0.25">
-      <c r="G14" s="32" t="s">
+      <c r="S13" s="9">
+        <v>1</v>
+      </c>
+      <c r="T13" s="46" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="14" spans="7:21" ht="118" x14ac:dyDescent="0.25">
+      <c r="G14" s="30" t="s">
         <v>1</v>
       </c>
       <c r="H14" s="9">
@@ -1397,7 +1494,7 @@
       <c r="I14" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="J14" s="28" t="s">
+      <c r="J14" s="26" t="s">
         <v>72</v>
       </c>
       <c r="K14" s="9">
@@ -1406,7 +1503,7 @@
       <c r="L14" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="M14" s="28" t="s">
+      <c r="M14" s="26" t="s">
         <v>48</v>
       </c>
       <c r="N14" s="9">
@@ -1415,17 +1512,23 @@
       <c r="O14" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="P14" s="43" t="s">
+      <c r="P14" s="41" t="s">
         <v>100</v>
       </c>
       <c r="Q14" s="9">
         <v>1</v>
       </c>
-      <c r="R14" s="22" t="s">
+      <c r="R14" s="43" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="15" spans="7:19" ht="24" x14ac:dyDescent="0.3">
+      <c r="S14" s="9">
+        <v>1</v>
+      </c>
+      <c r="T14" s="46" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="15" spans="7:21" ht="24" x14ac:dyDescent="0.3">
       <c r="G15" s="4" t="s">
         <v>4</v>
       </c>
@@ -1435,31 +1538,37 @@
       <c r="I15" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="J15" s="24"/>
+      <c r="J15" s="22"/>
       <c r="K15" s="9">
         <v>1</v>
       </c>
       <c r="L15" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="M15" s="24"/>
+      <c r="M15" s="22"/>
       <c r="N15" s="9">
         <v>1</v>
       </c>
       <c r="O15" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="P15" s="24" t="s">
+      <c r="P15" s="22" t="s">
         <v>87</v>
       </c>
       <c r="Q15" s="9">
         <v>1</v>
       </c>
-      <c r="R15" s="22" t="s">
+      <c r="R15" s="43" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="16" spans="7:19" ht="24" x14ac:dyDescent="0.3">
+      <c r="S15" s="9">
+        <v>1</v>
+      </c>
+      <c r="T15" s="46" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="16" spans="7:21" ht="24" x14ac:dyDescent="0.3">
       <c r="G16" s="4" t="s">
         <v>5</v>
       </c>
@@ -1469,31 +1578,37 @@
       <c r="I16" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="J16" s="24"/>
+      <c r="J16" s="22"/>
       <c r="K16" s="9">
         <v>1</v>
       </c>
       <c r="L16" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="M16" s="24"/>
+      <c r="M16" s="22"/>
       <c r="N16" s="9">
         <v>1</v>
       </c>
       <c r="O16" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="P16" s="24" t="s">
+      <c r="P16" s="22" t="s">
         <v>88</v>
       </c>
       <c r="Q16" s="9">
         <v>1</v>
       </c>
-      <c r="R16" s="22" t="s">
+      <c r="R16" s="43" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="17" spans="7:18" ht="24" x14ac:dyDescent="0.3">
+      <c r="S16" s="9">
+        <v>1</v>
+      </c>
+      <c r="T16" s="46" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="17" spans="7:20" ht="24" x14ac:dyDescent="0.3">
       <c r="G17" s="4" t="s">
         <v>6</v>
       </c>
@@ -1503,31 +1618,37 @@
       <c r="I17" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="J17" s="24"/>
+      <c r="J17" s="22"/>
       <c r="K17" s="9">
         <v>1</v>
       </c>
       <c r="L17" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="M17" s="24"/>
+      <c r="M17" s="22"/>
       <c r="N17" s="9">
         <v>1</v>
       </c>
       <c r="O17" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="P17" s="24" t="s">
+      <c r="P17" s="22" t="s">
         <v>89</v>
       </c>
       <c r="Q17" s="9">
         <v>1</v>
       </c>
-      <c r="R17" s="22" t="s">
+      <c r="R17" s="43" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="18" spans="7:18" ht="24" x14ac:dyDescent="0.3">
+      <c r="S17" s="9">
+        <v>1</v>
+      </c>
+      <c r="T17" s="46" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="18" spans="7:20" ht="24" x14ac:dyDescent="0.3">
       <c r="G18" s="4" t="s">
         <v>7</v>
       </c>
@@ -1537,31 +1658,37 @@
       <c r="I18" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="J18" s="24"/>
+      <c r="J18" s="22"/>
       <c r="K18" s="9">
         <v>1</v>
       </c>
       <c r="L18" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="M18" s="24"/>
+      <c r="M18" s="22"/>
       <c r="N18" s="9">
         <v>1</v>
       </c>
       <c r="O18" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="P18" s="24" t="s">
+      <c r="P18" s="22" t="s">
         <v>90</v>
       </c>
       <c r="Q18" s="9">
         <v>1</v>
       </c>
-      <c r="R18" s="22" t="s">
+      <c r="R18" s="43" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="19" spans="7:18" ht="24" x14ac:dyDescent="0.3">
+      <c r="S18" s="9">
+        <v>1</v>
+      </c>
+      <c r="T18" s="46" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="19" spans="7:20" ht="24" x14ac:dyDescent="0.3">
       <c r="G19" s="4" t="s">
         <v>8</v>
       </c>
@@ -1571,31 +1698,37 @@
       <c r="I19" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="J19" s="24"/>
+      <c r="J19" s="22"/>
       <c r="K19" s="9">
         <v>1</v>
       </c>
       <c r="L19" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="M19" s="24"/>
+      <c r="M19" s="22"/>
       <c r="N19" s="9">
         <v>1</v>
       </c>
       <c r="O19" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="P19" s="24" t="s">
+      <c r="P19" s="22" t="s">
         <v>91</v>
       </c>
       <c r="Q19" s="9">
         <v>1</v>
       </c>
-      <c r="R19" s="22" t="s">
+      <c r="R19" s="43" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="20" spans="7:18" ht="25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S19" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="T19" s="46" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="20" spans="7:20" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G20" s="6" t="s">
         <v>9</v>
       </c>
@@ -1605,31 +1738,37 @@
       <c r="I20" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="J20" s="30"/>
+      <c r="J20" s="28"/>
       <c r="K20" s="10" t="s">
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="M20" s="30"/>
+      <c r="M20" s="28"/>
       <c r="N20" s="10" t="s">
         <v>12</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="P20" s="30" t="s">
+      <c r="P20" s="28" t="s">
         <v>92</v>
       </c>
       <c r="Q20" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="R20" s="23" t="s">
+      <c r="R20" s="44" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="21" spans="7:18" ht="69" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="S20" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="T20" s="46" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="21" spans="7:20" ht="69" thickBot="1" x14ac:dyDescent="0.25">
       <c r="G21" s="15" t="s">
         <v>60</v>
       </c>
@@ -1639,21 +1778,25 @@
       </c>
       <c r="J21" s="16"/>
       <c r="K21" s="17"/>
-      <c r="L21" s="16">
+      <c r="L21" s="48">
         <v>0.46</v>
       </c>
       <c r="M21" s="16"/>
       <c r="N21" s="17"/>
-      <c r="O21" s="18">
+      <c r="O21" s="47">
         <v>0.5</v>
       </c>
       <c r="P21" s="16"/>
       <c r="Q21" s="20"/>
-      <c r="R21" s="18">
+      <c r="R21" s="47">
         <v>0.44</v>
       </c>
-    </row>
-    <row r="25" spans="7:18" ht="34" x14ac:dyDescent="0.2">
+      <c r="S21" s="20"/>
+      <c r="T21" s="47">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="25" spans="7:20" ht="34" x14ac:dyDescent="0.2">
       <c r="G25" s="12"/>
       <c r="H25" s="12"/>
       <c r="I25" s="13" t="s">
@@ -1661,51 +1804,51 @@
       </c>
       <c r="J25" s="13"/>
     </row>
-    <row r="26" spans="7:18" ht="49" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G26" s="41"/>
-      <c r="H26" s="42"/>
-      <c r="I26" s="42"/>
-      <c r="J26" s="27"/>
-    </row>
-    <row r="30" spans="7:18" x14ac:dyDescent="0.2">
-      <c r="I30" s="40"/>
-      <c r="J30" s="40"/>
-      <c r="K30" s="36"/>
-      <c r="L30" s="36"/>
-      <c r="M30" s="36"/>
-      <c r="N30" s="36"/>
-    </row>
-    <row r="31" spans="7:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-      <c r="K31" s="36"/>
-      <c r="L31" s="36"/>
-      <c r="M31" s="36"/>
-      <c r="N31" s="36"/>
-    </row>
-    <row r="32" spans="7:18" ht="25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G32" s="37" t="s">
+    <row r="26" spans="7:20" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G26" s="39"/>
+      <c r="H26" s="40"/>
+      <c r="I26" s="40"/>
+      <c r="J26" s="25"/>
+    </row>
+    <row r="30" spans="7:20" x14ac:dyDescent="0.2">
+      <c r="I30" s="38"/>
+      <c r="J30" s="38"/>
+      <c r="K30" s="34"/>
+      <c r="L30" s="34"/>
+      <c r="M30" s="34"/>
+      <c r="N30" s="34"/>
+    </row>
+    <row r="31" spans="7:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I31" s="34"/>
+      <c r="J31" s="34"/>
+      <c r="K31" s="34"/>
+      <c r="L31" s="34"/>
+      <c r="M31" s="34"/>
+      <c r="N31" s="34"/>
+    </row>
+    <row r="32" spans="7:20" ht="25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G32" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="H32" s="38"/>
-      <c r="I32" s="39"/>
-      <c r="J32" s="31"/>
+      <c r="H32" s="36"/>
+      <c r="I32" s="37"/>
+      <c r="J32" s="29"/>
     </row>
     <row r="33" spans="7:18" ht="26" x14ac:dyDescent="0.2">
       <c r="G33" s="1"/>
-      <c r="H33" s="33" t="s">
+      <c r="H33" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="I33" s="34"/>
+      <c r="I33" s="32"/>
       <c r="J33" s="19"/>
-      <c r="K33" s="35"/>
-      <c r="L33" s="36"/>
+      <c r="K33" s="33"/>
+      <c r="L33" s="34"/>
       <c r="M33" s="19"/>
-      <c r="N33" s="35"/>
-      <c r="O33" s="36"/>
+      <c r="N33" s="33"/>
+      <c r="O33" s="34"/>
       <c r="P33" s="19"/>
-      <c r="Q33" s="35"/>
-      <c r="R33" s="36"/>
+      <c r="Q33" s="33"/>
+      <c r="R33" s="34"/>
     </row>
     <row r="34" spans="7:18" ht="21" x14ac:dyDescent="0.25">
       <c r="G34" s="2"/>
@@ -1735,15 +1878,15 @@
       <c r="I35" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J35" s="24"/>
-      <c r="K35" s="25"/>
-      <c r="L35" s="24"/>
-      <c r="M35" s="24"/>
-      <c r="N35" s="25"/>
-      <c r="O35" s="24"/>
-      <c r="P35" s="24"/>
-      <c r="Q35" s="25"/>
-      <c r="R35" s="25"/>
+      <c r="J35" s="22"/>
+      <c r="K35" s="23"/>
+      <c r="L35" s="22"/>
+      <c r="M35" s="22"/>
+      <c r="N35" s="23"/>
+      <c r="O35" s="22"/>
+      <c r="P35" s="22"/>
+      <c r="Q35" s="23"/>
+      <c r="R35" s="23"/>
     </row>
     <row r="36" spans="7:18" ht="24" x14ac:dyDescent="0.3">
       <c r="G36" s="4" t="s">
@@ -1755,15 +1898,15 @@
       <c r="I36" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="J36" s="24"/>
-      <c r="K36" s="25"/>
-      <c r="L36" s="24"/>
-      <c r="M36" s="24"/>
-      <c r="N36" s="25"/>
-      <c r="O36" s="24"/>
-      <c r="P36" s="24"/>
-      <c r="Q36" s="25"/>
-      <c r="R36" s="25"/>
+      <c r="J36" s="22"/>
+      <c r="K36" s="23"/>
+      <c r="L36" s="22"/>
+      <c r="M36" s="22"/>
+      <c r="N36" s="23"/>
+      <c r="O36" s="22"/>
+      <c r="P36" s="22"/>
+      <c r="Q36" s="23"/>
+      <c r="R36" s="23"/>
     </row>
     <row r="37" spans="7:18" ht="24" x14ac:dyDescent="0.3">
       <c r="G37" s="4" t="s">
@@ -1775,15 +1918,15 @@
       <c r="I37" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="J37" s="24"/>
-      <c r="K37" s="25"/>
-      <c r="L37" s="24"/>
-      <c r="M37" s="24"/>
-      <c r="N37" s="25"/>
-      <c r="O37" s="24"/>
-      <c r="P37" s="24"/>
-      <c r="Q37" s="25"/>
-      <c r="R37" s="25"/>
+      <c r="J37" s="22"/>
+      <c r="K37" s="23"/>
+      <c r="L37" s="22"/>
+      <c r="M37" s="22"/>
+      <c r="N37" s="23"/>
+      <c r="O37" s="22"/>
+      <c r="P37" s="22"/>
+      <c r="Q37" s="23"/>
+      <c r="R37" s="23"/>
     </row>
     <row r="38" spans="7:18" ht="24" x14ac:dyDescent="0.3">
       <c r="G38" s="4" t="s">
@@ -1795,15 +1938,15 @@
       <c r="I38" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J38" s="24"/>
-      <c r="K38" s="25"/>
-      <c r="L38" s="24"/>
-      <c r="M38" s="24"/>
-      <c r="N38" s="25"/>
-      <c r="O38" s="24"/>
-      <c r="P38" s="24"/>
-      <c r="Q38" s="25"/>
-      <c r="R38" s="25"/>
+      <c r="J38" s="22"/>
+      <c r="K38" s="23"/>
+      <c r="L38" s="22"/>
+      <c r="M38" s="22"/>
+      <c r="N38" s="23"/>
+      <c r="O38" s="22"/>
+      <c r="P38" s="22"/>
+      <c r="Q38" s="23"/>
+      <c r="R38" s="23"/>
     </row>
     <row r="39" spans="7:18" ht="24" x14ac:dyDescent="0.3">
       <c r="G39" s="4" t="s">
@@ -1815,15 +1958,15 @@
       <c r="I39" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="J39" s="24"/>
-      <c r="K39" s="25"/>
-      <c r="L39" s="24"/>
-      <c r="M39" s="24"/>
-      <c r="N39" s="25"/>
-      <c r="O39" s="24"/>
-      <c r="P39" s="24"/>
-      <c r="Q39" s="25"/>
-      <c r="R39" s="25"/>
+      <c r="J39" s="22"/>
+      <c r="K39" s="23"/>
+      <c r="L39" s="22"/>
+      <c r="M39" s="22"/>
+      <c r="N39" s="23"/>
+      <c r="O39" s="22"/>
+      <c r="P39" s="22"/>
+      <c r="Q39" s="23"/>
+      <c r="R39" s="23"/>
     </row>
     <row r="40" spans="7:18" ht="24" x14ac:dyDescent="0.3">
       <c r="G40" s="4" t="s">
@@ -1835,15 +1978,15 @@
       <c r="I40" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J40" s="24"/>
-      <c r="K40" s="25"/>
-      <c r="L40" s="24"/>
-      <c r="M40" s="24"/>
-      <c r="N40" s="25"/>
-      <c r="O40" s="24"/>
-      <c r="P40" s="24"/>
-      <c r="Q40" s="25"/>
-      <c r="R40" s="25"/>
+      <c r="J40" s="22"/>
+      <c r="K40" s="23"/>
+      <c r="L40" s="22"/>
+      <c r="M40" s="22"/>
+      <c r="N40" s="23"/>
+      <c r="O40" s="22"/>
+      <c r="P40" s="22"/>
+      <c r="Q40" s="23"/>
+      <c r="R40" s="23"/>
     </row>
     <row r="41" spans="7:18" ht="24" x14ac:dyDescent="0.3">
       <c r="G41" s="4" t="s">
@@ -1855,15 +1998,15 @@
       <c r="I41" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="J41" s="24"/>
-      <c r="K41" s="25"/>
-      <c r="L41" s="24"/>
-      <c r="M41" s="24"/>
-      <c r="N41" s="25"/>
-      <c r="O41" s="24"/>
-      <c r="P41" s="24"/>
-      <c r="Q41" s="25"/>
-      <c r="R41" s="25"/>
+      <c r="J41" s="22"/>
+      <c r="K41" s="23"/>
+      <c r="L41" s="22"/>
+      <c r="M41" s="22"/>
+      <c r="N41" s="23"/>
+      <c r="O41" s="22"/>
+      <c r="P41" s="22"/>
+      <c r="Q41" s="23"/>
+      <c r="R41" s="23"/>
     </row>
     <row r="42" spans="7:18" ht="24" x14ac:dyDescent="0.3">
       <c r="G42" s="4" t="s">
@@ -1875,15 +2018,15 @@
       <c r="I42" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="J42" s="24"/>
-      <c r="K42" s="25"/>
-      <c r="L42" s="24"/>
-      <c r="M42" s="24"/>
-      <c r="N42" s="25"/>
-      <c r="O42" s="24"/>
-      <c r="P42" s="24"/>
-      <c r="Q42" s="25"/>
-      <c r="R42" s="25"/>
+      <c r="J42" s="22"/>
+      <c r="K42" s="23"/>
+      <c r="L42" s="22"/>
+      <c r="M42" s="22"/>
+      <c r="N42" s="23"/>
+      <c r="O42" s="22"/>
+      <c r="P42" s="22"/>
+      <c r="Q42" s="23"/>
+      <c r="R42" s="23"/>
     </row>
     <row r="43" spans="7:18" ht="24" x14ac:dyDescent="0.3">
       <c r="G43" s="4" t="s">
@@ -1895,15 +2038,15 @@
       <c r="I43" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="J43" s="24"/>
-      <c r="K43" s="25"/>
-      <c r="L43" s="24"/>
-      <c r="M43" s="24"/>
-      <c r="N43" s="25"/>
-      <c r="O43" s="24"/>
-      <c r="P43" s="24"/>
-      <c r="Q43" s="25"/>
-      <c r="R43" s="25"/>
+      <c r="J43" s="22"/>
+      <c r="K43" s="23"/>
+      <c r="L43" s="22"/>
+      <c r="M43" s="22"/>
+      <c r="N43" s="23"/>
+      <c r="O43" s="22"/>
+      <c r="P43" s="22"/>
+      <c r="Q43" s="23"/>
+      <c r="R43" s="23"/>
     </row>
     <row r="44" spans="7:18" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G44" s="6" t="s">
@@ -1915,15 +2058,15 @@
       <c r="I44" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="J44" s="24"/>
-      <c r="K44" s="24"/>
-      <c r="L44" s="24"/>
-      <c r="M44" s="24"/>
-      <c r="N44" s="24"/>
-      <c r="O44" s="24"/>
-      <c r="P44" s="24"/>
-      <c r="Q44" s="24"/>
-      <c r="R44" s="25"/>
+      <c r="J44" s="22"/>
+      <c r="K44" s="22"/>
+      <c r="L44" s="22"/>
+      <c r="M44" s="22"/>
+      <c r="N44" s="22"/>
+      <c r="O44" s="22"/>
+      <c r="P44" s="22"/>
+      <c r="Q44" s="22"/>
+      <c r="R44" s="23"/>
     </row>
     <row r="45" spans="7:18" ht="52" thickBot="1" x14ac:dyDescent="0.25">
       <c r="G45" s="15" t="s">
@@ -1933,51 +2076,51 @@
       <c r="I45" s="18">
         <v>0.42</v>
       </c>
-      <c r="J45" s="26"/>
+      <c r="J45" s="24"/>
       <c r="K45" s="19"/>
-      <c r="L45" s="26"/>
-      <c r="M45" s="26"/>
+      <c r="L45" s="24"/>
+      <c r="M45" s="24"/>
       <c r="N45" s="19"/>
-      <c r="O45" s="26"/>
-      <c r="P45" s="26"/>
-      <c r="R45" s="26"/>
+      <c r="O45" s="24"/>
+      <c r="P45" s="24"/>
+      <c r="R45" s="24"/>
     </row>
     <row r="55" spans="7:16" x14ac:dyDescent="0.2">
-      <c r="I55" s="40"/>
-      <c r="J55" s="40"/>
-      <c r="K55" s="36"/>
-      <c r="L55" s="36"/>
-      <c r="M55" s="36"/>
-      <c r="N55" s="36"/>
+      <c r="I55" s="38"/>
+      <c r="J55" s="38"/>
+      <c r="K55" s="34"/>
+      <c r="L55" s="34"/>
+      <c r="M55" s="34"/>
+      <c r="N55" s="34"/>
     </row>
     <row r="56" spans="7:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="I56" s="36"/>
-      <c r="J56" s="36"/>
-      <c r="K56" s="36"/>
-      <c r="L56" s="36"/>
-      <c r="M56" s="36"/>
-      <c r="N56" s="36"/>
+      <c r="I56" s="34"/>
+      <c r="J56" s="34"/>
+      <c r="K56" s="34"/>
+      <c r="L56" s="34"/>
+      <c r="M56" s="34"/>
+      <c r="N56" s="34"/>
     </row>
     <row r="57" spans="7:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G57" s="37" t="s">
+      <c r="G57" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="H57" s="38"/>
-      <c r="I57" s="39"/>
-      <c r="J57" s="31"/>
+      <c r="H57" s="36"/>
+      <c r="I57" s="37"/>
+      <c r="J57" s="29"/>
     </row>
     <row r="58" spans="7:16" ht="26" x14ac:dyDescent="0.2">
       <c r="G58" s="1"/>
-      <c r="H58" s="33" t="s">
+      <c r="H58" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="I58" s="34"/>
+      <c r="I58" s="32"/>
       <c r="J58" s="19"/>
-      <c r="K58" s="35"/>
-      <c r="L58" s="36"/>
+      <c r="K58" s="33"/>
+      <c r="L58" s="34"/>
       <c r="M58" s="19"/>
-      <c r="N58" s="35"/>
-      <c r="O58" s="36"/>
+      <c r="N58" s="33"/>
+      <c r="O58" s="34"/>
       <c r="P58" s="19"/>
     </row>
     <row r="59" spans="7:16" ht="21" x14ac:dyDescent="0.25">
@@ -2006,13 +2149,13 @@
       <c r="I60" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="J60" s="24"/>
-      <c r="K60" s="25"/>
-      <c r="L60" s="24"/>
-      <c r="M60" s="24"/>
-      <c r="N60" s="25"/>
-      <c r="O60" s="24"/>
-      <c r="P60" s="24"/>
+      <c r="J60" s="22"/>
+      <c r="K60" s="23"/>
+      <c r="L60" s="22"/>
+      <c r="M60" s="22"/>
+      <c r="N60" s="23"/>
+      <c r="O60" s="22"/>
+      <c r="P60" s="22"/>
     </row>
     <row r="61" spans="7:16" ht="24" x14ac:dyDescent="0.3">
       <c r="G61" s="4" t="s">
@@ -2024,13 +2167,13 @@
       <c r="I61" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="J61" s="24"/>
-      <c r="K61" s="25"/>
-      <c r="L61" s="24"/>
-      <c r="M61" s="24"/>
-      <c r="N61" s="25"/>
-      <c r="O61" s="24"/>
-      <c r="P61" s="24"/>
+      <c r="J61" s="22"/>
+      <c r="K61" s="23"/>
+      <c r="L61" s="22"/>
+      <c r="M61" s="22"/>
+      <c r="N61" s="23"/>
+      <c r="O61" s="22"/>
+      <c r="P61" s="22"/>
     </row>
     <row r="62" spans="7:16" ht="24" x14ac:dyDescent="0.3">
       <c r="G62" s="4" t="s">
@@ -2042,13 +2185,13 @@
       <c r="I62" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="J62" s="24"/>
-      <c r="K62" s="25"/>
-      <c r="L62" s="24"/>
-      <c r="M62" s="24"/>
-      <c r="N62" s="25"/>
-      <c r="O62" s="24"/>
-      <c r="P62" s="24"/>
+      <c r="J62" s="22"/>
+      <c r="K62" s="23"/>
+      <c r="L62" s="22"/>
+      <c r="M62" s="22"/>
+      <c r="N62" s="23"/>
+      <c r="O62" s="22"/>
+      <c r="P62" s="22"/>
     </row>
     <row r="63" spans="7:16" ht="24" x14ac:dyDescent="0.3">
       <c r="G63" s="4" t="s">
@@ -2060,13 +2203,13 @@
       <c r="I63" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="J63" s="24"/>
-      <c r="K63" s="25"/>
-      <c r="L63" s="24"/>
-      <c r="M63" s="24"/>
-      <c r="N63" s="25"/>
-      <c r="O63" s="24"/>
-      <c r="P63" s="24"/>
+      <c r="J63" s="22"/>
+      <c r="K63" s="23"/>
+      <c r="L63" s="22"/>
+      <c r="M63" s="22"/>
+      <c r="N63" s="23"/>
+      <c r="O63" s="22"/>
+      <c r="P63" s="22"/>
     </row>
     <row r="64" spans="7:16" ht="24" x14ac:dyDescent="0.3">
       <c r="G64" s="4" t="s">
@@ -2078,13 +2221,13 @@
       <c r="I64" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="J64" s="24"/>
-      <c r="K64" s="25"/>
-      <c r="L64" s="24"/>
-      <c r="M64" s="24"/>
-      <c r="N64" s="25"/>
-      <c r="O64" s="24"/>
-      <c r="P64" s="24"/>
+      <c r="J64" s="22"/>
+      <c r="K64" s="23"/>
+      <c r="L64" s="22"/>
+      <c r="M64" s="22"/>
+      <c r="N64" s="23"/>
+      <c r="O64" s="22"/>
+      <c r="P64" s="22"/>
     </row>
     <row r="65" spans="7:16" ht="24" x14ac:dyDescent="0.3">
       <c r="G65" s="4" t="s">
@@ -2096,110 +2239,110 @@
       <c r="I65" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="J65" s="24"/>
-      <c r="K65" s="25"/>
-      <c r="L65" s="24"/>
-      <c r="M65" s="24"/>
-      <c r="N65" s="25"/>
-      <c r="O65" s="24"/>
-      <c r="P65" s="24"/>
+      <c r="J65" s="22"/>
+      <c r="K65" s="23"/>
+      <c r="L65" s="22"/>
+      <c r="M65" s="22"/>
+      <c r="N65" s="23"/>
+      <c r="O65" s="22"/>
+      <c r="P65" s="22"/>
     </row>
     <row r="66" spans="7:16" ht="24" x14ac:dyDescent="0.3">
       <c r="G66" s="4"/>
       <c r="H66" s="9"/>
       <c r="I66" s="5"/>
-      <c r="J66" s="24"/>
-      <c r="K66" s="25"/>
-      <c r="L66" s="24"/>
-      <c r="M66" s="24"/>
-      <c r="N66" s="25"/>
-      <c r="O66" s="24"/>
-      <c r="P66" s="24"/>
+      <c r="J66" s="22"/>
+      <c r="K66" s="23"/>
+      <c r="L66" s="22"/>
+      <c r="M66" s="22"/>
+      <c r="N66" s="23"/>
+      <c r="O66" s="22"/>
+      <c r="P66" s="22"/>
     </row>
     <row r="67" spans="7:16" ht="24" x14ac:dyDescent="0.3">
       <c r="G67" s="4"/>
       <c r="H67" s="9"/>
       <c r="I67" s="5"/>
-      <c r="J67" s="24"/>
-      <c r="K67" s="25"/>
-      <c r="L67" s="24"/>
-      <c r="M67" s="24"/>
-      <c r="N67" s="25"/>
-      <c r="O67" s="24"/>
-      <c r="P67" s="24"/>
+      <c r="J67" s="22"/>
+      <c r="K67" s="23"/>
+      <c r="L67" s="22"/>
+      <c r="M67" s="22"/>
+      <c r="N67" s="23"/>
+      <c r="O67" s="22"/>
+      <c r="P67" s="22"/>
     </row>
     <row r="68" spans="7:16" ht="24" x14ac:dyDescent="0.3">
       <c r="G68" s="4"/>
       <c r="H68" s="11"/>
       <c r="I68" s="5"/>
-      <c r="J68" s="24"/>
-      <c r="K68" s="25"/>
-      <c r="L68" s="24"/>
-      <c r="M68" s="24"/>
-      <c r="N68" s="25"/>
-      <c r="O68" s="24"/>
-      <c r="P68" s="24"/>
+      <c r="J68" s="22"/>
+      <c r="K68" s="23"/>
+      <c r="L68" s="22"/>
+      <c r="M68" s="22"/>
+      <c r="N68" s="23"/>
+      <c r="O68" s="22"/>
+      <c r="P68" s="22"/>
     </row>
     <row r="69" spans="7:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G69" s="6"/>
       <c r="H69" s="10"/>
       <c r="I69" s="7"/>
-      <c r="J69" s="24"/>
-      <c r="K69" s="24"/>
-      <c r="L69" s="24"/>
-      <c r="M69" s="24"/>
-      <c r="N69" s="24"/>
-      <c r="O69" s="24"/>
-      <c r="P69" s="24"/>
+      <c r="J69" s="22"/>
+      <c r="K69" s="22"/>
+      <c r="L69" s="22"/>
+      <c r="M69" s="22"/>
+      <c r="N69" s="22"/>
+      <c r="O69" s="22"/>
+      <c r="P69" s="22"/>
     </row>
     <row r="70" spans="7:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="G70" s="15"/>
       <c r="H70" s="14"/>
       <c r="I70" s="18"/>
-      <c r="J70" s="26"/>
+      <c r="J70" s="24"/>
       <c r="K70" s="19"/>
-      <c r="L70" s="26"/>
-      <c r="M70" s="26"/>
+      <c r="L70" s="24"/>
+      <c r="M70" s="24"/>
       <c r="N70" s="19"/>
-      <c r="O70" s="26"/>
-      <c r="P70" s="26"/>
+      <c r="O70" s="24"/>
+      <c r="P70" s="24"/>
     </row>
     <row r="75" spans="7:16" x14ac:dyDescent="0.2">
-      <c r="I75" s="40"/>
-      <c r="J75" s="40"/>
-      <c r="K75" s="36"/>
-      <c r="L75" s="36"/>
-      <c r="M75" s="36"/>
-      <c r="N75" s="36"/>
+      <c r="I75" s="38"/>
+      <c r="J75" s="38"/>
+      <c r="K75" s="34"/>
+      <c r="L75" s="34"/>
+      <c r="M75" s="34"/>
+      <c r="N75" s="34"/>
     </row>
     <row r="76" spans="7:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="I76" s="36"/>
-      <c r="J76" s="36"/>
-      <c r="K76" s="36"/>
-      <c r="L76" s="36"/>
-      <c r="M76" s="36"/>
-      <c r="N76" s="36"/>
+      <c r="I76" s="34"/>
+      <c r="J76" s="34"/>
+      <c r="K76" s="34"/>
+      <c r="L76" s="34"/>
+      <c r="M76" s="34"/>
+      <c r="N76" s="34"/>
     </row>
     <row r="77" spans="7:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G77" s="37" t="s">
+      <c r="G77" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="H77" s="38"/>
-      <c r="I77" s="39"/>
-      <c r="J77" s="31"/>
+      <c r="H77" s="36"/>
+      <c r="I77" s="37"/>
+      <c r="J77" s="29"/>
     </row>
     <row r="78" spans="7:16" ht="26" x14ac:dyDescent="0.2">
       <c r="G78" s="1"/>
-      <c r="H78" s="33" t="s">
+      <c r="H78" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="I78" s="34"/>
+      <c r="I78" s="32"/>
       <c r="J78" s="19"/>
-      <c r="K78" s="35"/>
-      <c r="L78" s="36"/>
+      <c r="K78" s="33"/>
+      <c r="L78" s="34"/>
       <c r="M78" s="19"/>
-      <c r="N78" s="35"/>
-      <c r="O78" s="36"/>
+      <c r="N78" s="33"/>
+      <c r="O78" s="34"/>
       <c r="P78" s="19"/>
     </row>
     <row r="79" spans="7:16" ht="21" x14ac:dyDescent="0.25">
@@ -2228,136 +2371,137 @@
       <c r="I80" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="J80" s="24"/>
-      <c r="K80" s="25"/>
-      <c r="L80" s="24"/>
-      <c r="M80" s="24"/>
-      <c r="N80" s="25"/>
-      <c r="O80" s="24"/>
-      <c r="P80" s="24"/>
+      <c r="J80" s="22"/>
+      <c r="K80" s="23"/>
+      <c r="L80" s="22"/>
+      <c r="M80" s="22"/>
+      <c r="N80" s="23"/>
+      <c r="O80" s="22"/>
+      <c r="P80" s="22"/>
     </row>
     <row r="81" spans="7:16" ht="24" x14ac:dyDescent="0.3">
       <c r="G81" s="4"/>
       <c r="H81" s="9"/>
       <c r="I81" s="5"/>
-      <c r="J81" s="24"/>
-      <c r="K81" s="25"/>
-      <c r="L81" s="24"/>
-      <c r="M81" s="24"/>
-      <c r="N81" s="25"/>
-      <c r="O81" s="24"/>
-      <c r="P81" s="24"/>
+      <c r="J81" s="22"/>
+      <c r="K81" s="23"/>
+      <c r="L81" s="22"/>
+      <c r="M81" s="22"/>
+      <c r="N81" s="23"/>
+      <c r="O81" s="22"/>
+      <c r="P81" s="22"/>
     </row>
     <row r="82" spans="7:16" ht="24" x14ac:dyDescent="0.3">
       <c r="G82" s="4"/>
       <c r="H82" s="9"/>
       <c r="I82" s="5"/>
-      <c r="J82" s="24"/>
-      <c r="K82" s="25"/>
-      <c r="L82" s="24"/>
-      <c r="M82" s="24"/>
-      <c r="N82" s="25"/>
-      <c r="O82" s="24"/>
-      <c r="P82" s="24"/>
+      <c r="J82" s="22"/>
+      <c r="K82" s="23"/>
+      <c r="L82" s="22"/>
+      <c r="M82" s="22"/>
+      <c r="N82" s="23"/>
+      <c r="O82" s="22"/>
+      <c r="P82" s="22"/>
     </row>
     <row r="83" spans="7:16" ht="24" x14ac:dyDescent="0.3">
       <c r="G83" s="4"/>
       <c r="H83" s="9"/>
       <c r="I83" s="5"/>
-      <c r="J83" s="24"/>
-      <c r="K83" s="25"/>
-      <c r="L83" s="24"/>
-      <c r="M83" s="24"/>
-      <c r="N83" s="25"/>
-      <c r="O83" s="24"/>
-      <c r="P83" s="24"/>
+      <c r="J83" s="22"/>
+      <c r="K83" s="23"/>
+      <c r="L83" s="22"/>
+      <c r="M83" s="22"/>
+      <c r="N83" s="23"/>
+      <c r="O83" s="22"/>
+      <c r="P83" s="22"/>
     </row>
     <row r="84" spans="7:16" ht="24" x14ac:dyDescent="0.3">
       <c r="G84" s="4"/>
       <c r="H84" s="9"/>
       <c r="I84" s="5"/>
-      <c r="J84" s="24"/>
-      <c r="K84" s="25"/>
-      <c r="L84" s="24"/>
-      <c r="M84" s="24"/>
-      <c r="N84" s="25"/>
-      <c r="O84" s="24"/>
-      <c r="P84" s="24"/>
+      <c r="J84" s="22"/>
+      <c r="K84" s="23"/>
+      <c r="L84" s="22"/>
+      <c r="M84" s="22"/>
+      <c r="N84" s="23"/>
+      <c r="O84" s="22"/>
+      <c r="P84" s="22"/>
     </row>
     <row r="85" spans="7:16" ht="24" x14ac:dyDescent="0.3">
       <c r="G85" s="4"/>
       <c r="H85" s="9"/>
       <c r="I85" s="5"/>
-      <c r="J85" s="24"/>
-      <c r="K85" s="25"/>
-      <c r="L85" s="24"/>
-      <c r="M85" s="24"/>
-      <c r="N85" s="25"/>
-      <c r="O85" s="24"/>
-      <c r="P85" s="24"/>
+      <c r="J85" s="22"/>
+      <c r="K85" s="23"/>
+      <c r="L85" s="22"/>
+      <c r="M85" s="22"/>
+      <c r="N85" s="23"/>
+      <c r="O85" s="22"/>
+      <c r="P85" s="22"/>
     </row>
     <row r="86" spans="7:16" ht="24" x14ac:dyDescent="0.3">
       <c r="G86" s="4"/>
       <c r="H86" s="9"/>
       <c r="I86" s="5"/>
-      <c r="J86" s="24"/>
-      <c r="K86" s="25"/>
-      <c r="L86" s="24"/>
-      <c r="M86" s="24"/>
-      <c r="N86" s="25"/>
-      <c r="O86" s="24"/>
-      <c r="P86" s="24"/>
+      <c r="J86" s="22"/>
+      <c r="K86" s="23"/>
+      <c r="L86" s="22"/>
+      <c r="M86" s="22"/>
+      <c r="N86" s="23"/>
+      <c r="O86" s="22"/>
+      <c r="P86" s="22"/>
     </row>
     <row r="87" spans="7:16" ht="24" x14ac:dyDescent="0.3">
       <c r="G87" s="4"/>
       <c r="H87" s="9"/>
       <c r="I87" s="5"/>
-      <c r="J87" s="24"/>
-      <c r="K87" s="25"/>
-      <c r="L87" s="24"/>
-      <c r="M87" s="24"/>
-      <c r="N87" s="25"/>
-      <c r="O87" s="24"/>
-      <c r="P87" s="24"/>
+      <c r="J87" s="22"/>
+      <c r="K87" s="23"/>
+      <c r="L87" s="22"/>
+      <c r="M87" s="22"/>
+      <c r="N87" s="23"/>
+      <c r="O87" s="22"/>
+      <c r="P87" s="22"/>
     </row>
     <row r="88" spans="7:16" ht="24" x14ac:dyDescent="0.3">
       <c r="G88" s="4"/>
       <c r="H88" s="11"/>
       <c r="I88" s="5"/>
-      <c r="J88" s="24"/>
-      <c r="K88" s="25"/>
-      <c r="L88" s="24"/>
-      <c r="M88" s="24"/>
-      <c r="N88" s="25"/>
-      <c r="O88" s="24"/>
-      <c r="P88" s="24"/>
+      <c r="J88" s="22"/>
+      <c r="K88" s="23"/>
+      <c r="L88" s="22"/>
+      <c r="M88" s="22"/>
+      <c r="N88" s="23"/>
+      <c r="O88" s="22"/>
+      <c r="P88" s="22"/>
     </row>
     <row r="89" spans="7:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G89" s="6"/>
       <c r="H89" s="10"/>
       <c r="I89" s="7"/>
-      <c r="J89" s="24"/>
-      <c r="K89" s="24"/>
-      <c r="L89" s="24"/>
-      <c r="M89" s="24"/>
-      <c r="N89" s="24"/>
-      <c r="O89" s="24"/>
-      <c r="P89" s="24"/>
+      <c r="J89" s="22"/>
+      <c r="K89" s="22"/>
+      <c r="L89" s="22"/>
+      <c r="M89" s="22"/>
+      <c r="N89" s="22"/>
+      <c r="O89" s="22"/>
+      <c r="P89" s="22"/>
     </row>
     <row r="90" spans="7:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="G90" s="15"/>
       <c r="H90" s="14"/>
       <c r="I90" s="18"/>
-      <c r="J90" s="26"/>
+      <c r="J90" s="24"/>
       <c r="K90" s="19"/>
-      <c r="L90" s="26"/>
-      <c r="M90" s="26"/>
+      <c r="L90" s="24"/>
+      <c r="M90" s="24"/>
       <c r="N90" s="19"/>
-      <c r="O90" s="26"/>
-      <c r="P90" s="26"/>
+      <c r="O90" s="24"/>
+      <c r="P90" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="23">
+    <mergeCell ref="S9:T9"/>
     <mergeCell ref="G26:I26"/>
     <mergeCell ref="I6:N7"/>
     <mergeCell ref="Q9:R9"/>

--- a/reports/Results.xlsx
+++ b/reports/Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/moe/Desktop/puf-auth-ml/reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C75089CD-9EDC-504C-B2BD-4F5CF733A996}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96EF1CEF-4168-124A-8603-4556470527F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{65BD7D84-E0D3-BF4C-8AA6-282CCD8082D7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{65BD7D84-E0D3-BF4C-8AA6-282CCD8082D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="137">
   <si>
     <t>Intact</t>
   </si>
@@ -108,73 +108,10 @@
 (1806 responses for 3 classes)</t>
   </si>
   <si>
-    <t xml:space="preserve"> 93.65%</t>
-  </si>
-  <si>
-    <t>89.76%</t>
-  </si>
-  <si>
-    <t>85.73%</t>
-  </si>
-  <si>
-    <t>83.43%</t>
-  </si>
-  <si>
-    <t>80.60%</t>
-  </si>
-  <si>
-    <t>73.13%</t>
-  </si>
-  <si>
-    <t>61.85%</t>
-  </si>
-  <si>
-    <t>57.28%</t>
-  </si>
-  <si>
-    <t>45.83%</t>
-  </si>
-  <si>
-    <t>49.72%</t>
-  </si>
-  <si>
     <t>33.33%</t>
   </si>
   <si>
-    <t>46.54%</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 93.63%</t>
-  </si>
-  <si>
-    <t>87.50%</t>
-  </si>
-  <si>
-    <t>88.33%</t>
-  </si>
-  <si>
-    <t>83.33%</t>
-  </si>
-  <si>
-    <t>86.96%</t>
-  </si>
-  <si>
-    <t>76.68%</t>
-  </si>
-  <si>
-    <t>75.00%</t>
-  </si>
-  <si>
-    <t>66.09%</t>
-  </si>
-  <si>
-    <t>50.90%</t>
-  </si>
-  <si>
     <t>RPI1,RPI2,RPI3 full length: 256 bits</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 94.25%</t>
   </si>
   <si>
     <t>RPI1,RPI2,RPI3 length: 1024 bits</t>
@@ -386,6 +323,36 @@
   </si>
   <si>
     <t>98.59%</t>
+  </si>
+  <si>
+    <t>99.58%</t>
+  </si>
+  <si>
+    <t>99.22%</t>
+  </si>
+  <si>
+    <t>98.45%</t>
+  </si>
+  <si>
+    <t>97.03%</t>
+  </si>
+  <si>
+    <t>94.32%</t>
+  </si>
+  <si>
+    <t>89.55%</t>
+  </si>
+  <si>
+    <t>81.85%</t>
+  </si>
+  <si>
+    <t>70.90%</t>
+  </si>
+  <si>
+    <t>61.25%</t>
+  </si>
+  <si>
+    <t>55.07%</t>
   </si>
   <si>
     <r>
@@ -405,41 +372,151 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-RPi1: 25 random 10p curropted, RPi2: 25 random 10p curropted, RPi3:  25 random 10p curropted</t>
+RPi1: 25 random 30p curropted, RPi2: 25 random 30p curropted, RPi3:  25 random 30p curropted</t>
     </r>
   </si>
   <si>
-    <t>Augmented</t>
-  </si>
-  <si>
-    <t>99.58%</t>
-  </si>
-  <si>
-    <t>99.22%</t>
-  </si>
-  <si>
-    <t>98.45%</t>
-  </si>
-  <si>
-    <t>97.03%</t>
-  </si>
-  <si>
-    <t>94.32%</t>
-  </si>
-  <si>
-    <t>89.55%</t>
-  </si>
-  <si>
-    <t>81.85%</t>
-  </si>
-  <si>
-    <t>70.90%</t>
-  </si>
-  <si>
-    <t>61.25%</t>
-  </si>
-  <si>
-    <t>55.07%</t>
+    <t xml:space="preserve"> 99.61%</t>
+  </si>
+  <si>
+    <t>97.28%</t>
+  </si>
+  <si>
+    <t>96.00%</t>
+  </si>
+  <si>
+    <t>93.05%</t>
+  </si>
+  <si>
+    <t>90.18%</t>
+  </si>
+  <si>
+    <t>84.15%</t>
+  </si>
+  <si>
+    <t>72.46%</t>
+  </si>
+  <si>
+    <t>88.89%</t>
+  </si>
+  <si>
+    <t>68.10%</t>
+  </si>
+  <si>
+    <t>55.56%</t>
+  </si>
+  <si>
+    <t>69.50%</t>
+  </si>
+  <si>
+    <t>70.54%</t>
+  </si>
+  <si>
+    <t>Augmented 
+(1290 responses for  classes)</t>
+  </si>
+  <si>
+    <t>Augmented
+1290 responses for 3 classes</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 99.64%</t>
+  </si>
+  <si>
+    <t>98.38%</t>
+  </si>
+  <si>
+    <t>96.35%</t>
+  </si>
+  <si>
+    <t>93.31%</t>
+  </si>
+  <si>
+    <t>92.18%</t>
+  </si>
+  <si>
+    <t>86.60%</t>
+  </si>
+  <si>
+    <t>80.07%</t>
+  </si>
+  <si>
+    <t>82.90%</t>
+  </si>
+  <si>
+    <t>91.11%</t>
+  </si>
+  <si>
+    <t>95.10%</t>
+  </si>
+  <si>
+    <t>44.44%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 99.13%</t>
+  </si>
+  <si>
+    <t>98.23</t>
+  </si>
+  <si>
+    <t>90.40%</t>
+  </si>
+  <si>
+    <t>93.26%</t>
+  </si>
+  <si>
+    <t>93.24%</t>
+  </si>
+  <si>
+    <t>RPI1,RPI2,RPI3 full length: 128 bits</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 97.98%</t>
+  </si>
+  <si>
+    <t>99.74%</t>
+  </si>
+  <si>
+    <t>95.61%</t>
+  </si>
+  <si>
+    <t>88.63%</t>
+  </si>
+  <si>
+    <t>93.68%</t>
+  </si>
+  <si>
+    <t>91.31%</t>
+  </si>
+  <si>
+    <t>86.69%</t>
+  </si>
+  <si>
+    <t>88.37%</t>
+  </si>
+  <si>
+    <t>84.31%</t>
+  </si>
+  <si>
+    <t>77.78%</t>
+  </si>
+  <si>
+    <t>93.76%</t>
+  </si>
+  <si>
+    <t>99.48%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 96.28%</t>
+  </si>
+  <si>
+    <t>94.81%</t>
+  </si>
+  <si>
+    <t>77.27%</t>
+  </si>
+  <si>
+    <t>93.55%</t>
   </si>
 </sst>
 </file>
@@ -512,12 +589,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="13">
@@ -660,7 +743,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -733,27 +816,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -763,36 +864,40 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1247,10 +1352,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F7AB769-A4AB-314C-9FAA-CEF8525B9786}">
-  <dimension ref="G6:U90"/>
+  <dimension ref="G6:V130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J11" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView tabSelected="1" topLeftCell="A99" zoomScale="75" zoomScaleNormal="88" workbookViewId="0">
+      <selection activeCell="J126" sqref="J126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1266,60 +1371,59 @@
     <col min="15" max="15" width="27.33203125" customWidth="1"/>
     <col min="16" max="16" width="35.5" customWidth="1"/>
     <col min="17" max="17" width="16" customWidth="1"/>
-    <col min="18" max="18" width="36.33203125" customWidth="1"/>
-    <col min="19" max="19" width="23.1640625" customWidth="1"/>
-    <col min="20" max="20" width="26.6640625" customWidth="1"/>
+    <col min="18" max="19" width="36.33203125" customWidth="1"/>
+    <col min="20" max="20" width="23.1640625" customWidth="1"/>
+    <col min="21" max="21" width="26.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="7:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="7:22" x14ac:dyDescent="0.2">
       <c r="I6" s="38" t="s">
         <v>17</v>
       </c>
       <c r="J6" s="38"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="34"/>
-      <c r="M6" s="34"/>
-      <c r="N6" s="34"/>
-    </row>
-    <row r="7" spans="7:21" x14ac:dyDescent="0.2">
-      <c r="I7" s="34"/>
-      <c r="J7" s="34"/>
-      <c r="K7" s="34"/>
-      <c r="L7" s="34"/>
-      <c r="M7" s="34"/>
-      <c r="N7" s="34"/>
-    </row>
-    <row r="8" spans="7:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="S8" s="45"/>
-    </row>
-    <row r="9" spans="7:21" ht="82" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K6" s="39"/>
+      <c r="L6" s="39"/>
+      <c r="M6" s="39"/>
+      <c r="N6" s="39"/>
+    </row>
+    <row r="7" spans="7:22" x14ac:dyDescent="0.2">
+      <c r="I7" s="39"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="39"/>
+      <c r="N7" s="39"/>
+    </row>
+    <row r="8" spans="7:22" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="7:22" ht="82" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G9" s="1"/>
-      <c r="H9" s="31" t="s">
+      <c r="H9" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="I9" s="32"/>
+      <c r="I9" s="35"/>
       <c r="J9" s="27"/>
-      <c r="K9" s="31" t="s">
+      <c r="K9" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="L9" s="32"/>
+      <c r="L9" s="35"/>
       <c r="M9" s="27"/>
-      <c r="N9" s="31" t="s">
+      <c r="N9" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="O9" s="32"/>
+      <c r="O9" s="35"/>
       <c r="P9" s="27"/>
-      <c r="Q9" s="31" t="s">
+      <c r="Q9" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="R9" s="42"/>
-      <c r="S9" s="31" t="s">
-        <v>101</v>
-      </c>
-      <c r="T9" s="32"/>
-      <c r="U9" s="2"/>
-    </row>
-    <row r="10" spans="7:21" ht="21" x14ac:dyDescent="0.25">
+      <c r="R9" s="35"/>
+      <c r="S9" s="27"/>
+      <c r="T9" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="U9" s="35"/>
+      <c r="V9" s="2"/>
+    </row>
+    <row r="10" spans="7:22" ht="21" x14ac:dyDescent="0.25">
       <c r="G10" s="2"/>
       <c r="H10" s="8" t="s">
         <v>10</v>
@@ -1345,106 +1449,113 @@
       <c r="Q10" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="R10" s="21" t="s">
+      <c r="R10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="S10" s="8" t="s">
+      <c r="S10" s="21"/>
+      <c r="T10" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="T10" s="21" t="s">
+      <c r="U10" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="U10" s="2"/>
-    </row>
-    <row r="11" spans="7:21" ht="50" x14ac:dyDescent="0.3">
+      <c r="V10" s="2"/>
+    </row>
+    <row r="11" spans="7:22" ht="50" x14ac:dyDescent="0.3">
       <c r="G11" s="26" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="H11" s="9">
         <v>1</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="J11" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="K11" s="9">
+        <v>1</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="M11" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="N11" s="9">
+        <v>1</v>
+      </c>
+      <c r="O11" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="P11" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q11" s="9">
+        <v>1</v>
+      </c>
+      <c r="R11" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="S11" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="T11" s="9">
+        <v>1</v>
+      </c>
+      <c r="U11" s="31" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="7:22" ht="85" x14ac:dyDescent="0.25">
+      <c r="G12" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="9">
+        <v>1</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J12" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="K12" s="9">
+        <v>1</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="M12" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="N12" s="9">
+        <v>1</v>
+      </c>
+      <c r="O12" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="P12" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q12" s="9">
+        <v>1</v>
+      </c>
+      <c r="R12" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="K11" s="9">
-        <v>1</v>
-      </c>
-      <c r="L11" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="M11" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="N11" s="9">
-        <v>1</v>
-      </c>
-      <c r="O11" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="P11" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q11" s="9">
-        <v>1</v>
-      </c>
-      <c r="R11" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="S11" s="9">
-        <v>1</v>
-      </c>
-      <c r="T11" s="46" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="12" spans="7:21" ht="85" x14ac:dyDescent="0.25">
-      <c r="G12" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="H12" s="9">
-        <v>1</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="J12" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="K12" s="9">
-        <v>1</v>
-      </c>
-      <c r="L12" s="5" t="s">
+      <c r="S12" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="M12" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="N12" s="9">
-        <v>1</v>
-      </c>
-      <c r="O12" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="P12" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q12" s="9">
-        <v>1</v>
-      </c>
-      <c r="R12" s="43" t="s">
-        <v>83</v>
-      </c>
-      <c r="S12" s="9">
-        <v>1</v>
-      </c>
-      <c r="T12" s="46" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="13" spans="7:21" ht="24" x14ac:dyDescent="0.3">
+      <c r="T12" s="9">
+        <v>1</v>
+      </c>
+      <c r="U12" s="31" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="7:22" ht="24" x14ac:dyDescent="0.3">
       <c r="G13" s="4" t="s">
         <v>3</v>
       </c>
@@ -1452,83 +1563,85 @@
         <v>1</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="J13" s="22"/>
       <c r="K13" s="9">
         <v>1</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="M13" s="22"/>
       <c r="N13" s="9">
         <v>1</v>
       </c>
       <c r="O13" s="5" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="P13" s="22" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="Q13" s="9">
         <v>1</v>
       </c>
-      <c r="R13" s="43" t="s">
-        <v>85</v>
-      </c>
-      <c r="S13" s="9">
-        <v>1</v>
-      </c>
-      <c r="T13" s="46" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="14" spans="7:21" ht="118" x14ac:dyDescent="0.25">
-      <c r="G14" s="30" t="s">
+      <c r="R13" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="S13" s="23"/>
+      <c r="T13" s="9">
+        <v>1</v>
+      </c>
+      <c r="U13" s="31" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="7:22" ht="118" x14ac:dyDescent="0.25">
+      <c r="G14" s="29" t="s">
         <v>1</v>
       </c>
       <c r="H14" s="9">
         <v>1</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="J14" s="26" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="K14" s="9">
         <v>1</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="M14" s="26" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="N14" s="9">
         <v>1</v>
       </c>
       <c r="O14" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="P14" s="41" t="s">
-        <v>100</v>
+        <v>53</v>
+      </c>
+      <c r="P14" s="30" t="s">
+        <v>89</v>
       </c>
       <c r="Q14" s="9">
         <v>1</v>
       </c>
-      <c r="R14" s="43" t="s">
-        <v>99</v>
-      </c>
-      <c r="S14" s="9">
-        <v>1</v>
-      </c>
-      <c r="T14" s="46" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="15" spans="7:21" ht="24" x14ac:dyDescent="0.3">
+      <c r="R14" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="S14" s="23"/>
+      <c r="T14" s="9">
+        <v>1</v>
+      </c>
+      <c r="U14" s="31" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="7:22" ht="24" x14ac:dyDescent="0.3">
       <c r="G15" s="4" t="s">
         <v>4</v>
       </c>
@@ -1536,39 +1649,40 @@
         <v>1</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="J15" s="22"/>
       <c r="K15" s="9">
         <v>1</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="M15" s="22"/>
       <c r="N15" s="9">
         <v>1</v>
       </c>
       <c r="O15" s="5" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="P15" s="22" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="Q15" s="9">
         <v>1</v>
       </c>
-      <c r="R15" s="43" t="s">
-        <v>93</v>
-      </c>
-      <c r="S15" s="9">
-        <v>1</v>
-      </c>
-      <c r="T15" s="46" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="16" spans="7:21" ht="24" x14ac:dyDescent="0.3">
+      <c r="R15" s="44" t="s">
+        <v>72</v>
+      </c>
+      <c r="S15" s="23"/>
+      <c r="T15" s="9">
+        <v>1</v>
+      </c>
+      <c r="U15" s="31" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="7:22" ht="24" x14ac:dyDescent="0.3">
       <c r="G16" s="4" t="s">
         <v>5</v>
       </c>
@@ -1576,39 +1690,40 @@
         <v>1</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="J16" s="22"/>
       <c r="K16" s="9">
         <v>1</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="M16" s="22"/>
       <c r="N16" s="9">
         <v>1</v>
       </c>
       <c r="O16" s="5" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="P16" s="22" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="Q16" s="9">
         <v>1</v>
       </c>
-      <c r="R16" s="43" t="s">
-        <v>94</v>
-      </c>
-      <c r="S16" s="9">
-        <v>1</v>
-      </c>
-      <c r="T16" s="46" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="17" spans="7:20" ht="24" x14ac:dyDescent="0.3">
+      <c r="R16" s="44" t="s">
+        <v>73</v>
+      </c>
+      <c r="S16" s="23"/>
+      <c r="T16" s="9">
+        <v>1</v>
+      </c>
+      <c r="U16" s="31" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="7:21" ht="24" x14ac:dyDescent="0.3">
       <c r="G17" s="4" t="s">
         <v>6</v>
       </c>
@@ -1616,39 +1731,40 @@
         <v>1</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="J17" s="22"/>
       <c r="K17" s="9">
         <v>1</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="M17" s="22"/>
       <c r="N17" s="9">
         <v>1</v>
       </c>
       <c r="O17" s="5" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="P17" s="22" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="Q17" s="9">
         <v>1</v>
       </c>
-      <c r="R17" s="43" t="s">
-        <v>95</v>
-      </c>
-      <c r="S17" s="9">
-        <v>1</v>
-      </c>
-      <c r="T17" s="46" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="18" spans="7:20" ht="24" x14ac:dyDescent="0.3">
+      <c r="R17" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="S17" s="23"/>
+      <c r="T17" s="9">
+        <v>1</v>
+      </c>
+      <c r="U17" s="31" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="7:21" ht="24" x14ac:dyDescent="0.3">
       <c r="G18" s="4" t="s">
         <v>7</v>
       </c>
@@ -1656,121 +1772,124 @@
         <v>1</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="J18" s="22"/>
       <c r="K18" s="9">
         <v>1</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="M18" s="22"/>
       <c r="N18" s="9">
         <v>1</v>
       </c>
       <c r="O18" s="5" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="P18" s="22" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="Q18" s="9">
         <v>1</v>
       </c>
-      <c r="R18" s="43" t="s">
-        <v>96</v>
-      </c>
-      <c r="S18" s="9">
-        <v>1</v>
-      </c>
-      <c r="T18" s="46" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="19" spans="7:20" ht="24" x14ac:dyDescent="0.3">
-      <c r="G19" s="4" t="s">
+      <c r="R18" s="44" t="s">
+        <v>75</v>
+      </c>
+      <c r="S18" s="23"/>
+      <c r="T18" s="9">
+        <v>1</v>
+      </c>
+      <c r="U18" s="31" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="7:21" ht="24" x14ac:dyDescent="0.3">
+      <c r="G19" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="H19" s="11" t="s">
+      <c r="H19" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="I19" s="5" t="s">
-        <v>57</v>
+      <c r="I19" s="47" t="s">
+        <v>36</v>
       </c>
       <c r="J19" s="22"/>
       <c r="K19" s="9">
         <v>1</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="M19" s="22"/>
       <c r="N19" s="9">
         <v>1</v>
       </c>
       <c r="O19" s="5" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="P19" s="22" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="Q19" s="9">
         <v>1</v>
       </c>
-      <c r="R19" s="43" t="s">
-        <v>97</v>
-      </c>
-      <c r="S19" s="9" t="s">
+      <c r="R19" s="44" t="s">
+        <v>76</v>
+      </c>
+      <c r="S19" s="54"/>
+      <c r="T19" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="T19" s="46" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="20" spans="7:20" ht="25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G20" s="6" t="s">
+      <c r="U19" s="55" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" spans="7:21" ht="25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G20" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="H20" s="10" t="s">
+      <c r="H20" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="I20" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="J20" s="28"/>
-      <c r="K20" s="10" t="s">
+      <c r="I20" s="51" t="s">
+        <v>37</v>
+      </c>
+      <c r="J20" s="52"/>
+      <c r="K20" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="L20" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="M20" s="28"/>
-      <c r="N20" s="10" t="s">
+      <c r="L20" s="51" t="s">
+        <v>49</v>
+      </c>
+      <c r="M20" s="52"/>
+      <c r="N20" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="O20" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="P20" s="28" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q20" s="10" t="s">
+      <c r="O20" s="51" t="s">
+        <v>61</v>
+      </c>
+      <c r="P20" s="52" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q20" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="R20" s="44" t="s">
-        <v>98</v>
-      </c>
-      <c r="S20" s="9" t="s">
+      <c r="R20" s="53" t="s">
+        <v>77</v>
+      </c>
+      <c r="S20" s="56"/>
+      <c r="T20" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="T20" s="46" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="21" spans="7:20" ht="69" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="U20" s="55" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21" spans="7:21" ht="69" thickBot="1" x14ac:dyDescent="0.25">
       <c r="G21" s="15" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="H21" s="14"/>
       <c r="I21" s="16">
@@ -1778,25 +1897,26 @@
       </c>
       <c r="J21" s="16"/>
       <c r="K21" s="17"/>
-      <c r="L21" s="48">
+      <c r="L21" s="33">
         <v>0.46</v>
       </c>
       <c r="M21" s="16"/>
       <c r="N21" s="17"/>
-      <c r="O21" s="47">
+      <c r="O21" s="32">
         <v>0.5</v>
       </c>
       <c r="P21" s="16"/>
       <c r="Q21" s="20"/>
-      <c r="R21" s="47">
+      <c r="R21" s="32">
         <v>0.44</v>
       </c>
-      <c r="S21" s="20"/>
-      <c r="T21" s="47">
+      <c r="S21" s="33"/>
+      <c r="T21" s="20"/>
+      <c r="U21" s="32">
         <v>0.49</v>
       </c>
     </row>
-    <row r="25" spans="7:20" ht="34" x14ac:dyDescent="0.2">
+    <row r="25" spans="7:21" ht="34" x14ac:dyDescent="0.2">
       <c r="G25" s="12"/>
       <c r="H25" s="12"/>
       <c r="I25" s="13" t="s">
@@ -1804,53 +1924,54 @@
       </c>
       <c r="J25" s="13"/>
     </row>
-    <row r="26" spans="7:20" ht="49" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G26" s="39"/>
-      <c r="H26" s="40"/>
-      <c r="I26" s="40"/>
+    <row r="26" spans="7:21" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G26" s="36"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="37"/>
       <c r="J26" s="25"/>
     </row>
-    <row r="30" spans="7:20" x14ac:dyDescent="0.2">
+    <row r="30" spans="7:21" x14ac:dyDescent="0.2">
       <c r="I30" s="38"/>
       <c r="J30" s="38"/>
-      <c r="K30" s="34"/>
-      <c r="L30" s="34"/>
-      <c r="M30" s="34"/>
-      <c r="N30" s="34"/>
-    </row>
-    <row r="31" spans="7:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="I31" s="34"/>
-      <c r="J31" s="34"/>
-      <c r="K31" s="34"/>
-      <c r="L31" s="34"/>
-      <c r="M31" s="34"/>
-      <c r="N31" s="34"/>
-    </row>
-    <row r="32" spans="7:20" ht="25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G32" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="H32" s="36"/>
-      <c r="I32" s="37"/>
-      <c r="J32" s="29"/>
-    </row>
-    <row r="33" spans="7:18" ht="26" x14ac:dyDescent="0.2">
+      <c r="K30" s="39"/>
+      <c r="L30" s="39"/>
+      <c r="M30" s="39"/>
+      <c r="N30" s="39"/>
+    </row>
+    <row r="31" spans="7:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I31" s="39"/>
+      <c r="J31" s="39"/>
+      <c r="K31" s="39"/>
+      <c r="L31" s="39"/>
+      <c r="M31" s="39"/>
+      <c r="N31" s="39"/>
+    </row>
+    <row r="32" spans="7:21" ht="25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G32" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="H32" s="42"/>
+      <c r="I32" s="43"/>
+      <c r="J32" s="28"/>
+    </row>
+    <row r="33" spans="7:19" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G33" s="1"/>
-      <c r="H33" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="I33" s="32"/>
+      <c r="H33" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="I33" s="35"/>
       <c r="J33" s="19"/>
-      <c r="K33" s="33"/>
-      <c r="L33" s="34"/>
+      <c r="K33" s="40"/>
+      <c r="L33" s="39"/>
       <c r="M33" s="19"/>
-      <c r="N33" s="33"/>
-      <c r="O33" s="34"/>
+      <c r="N33" s="40"/>
+      <c r="O33" s="39"/>
       <c r="P33" s="19"/>
-      <c r="Q33" s="33"/>
-      <c r="R33" s="34"/>
-    </row>
-    <row r="34" spans="7:18" ht="21" x14ac:dyDescent="0.25">
+      <c r="Q33" s="40"/>
+      <c r="R33" s="39"/>
+      <c r="S33" s="19"/>
+    </row>
+    <row r="34" spans="7:19" ht="21" x14ac:dyDescent="0.25">
       <c r="G34" s="2"/>
       <c r="H34" s="8" t="s">
         <v>10</v>
@@ -1867,8 +1988,9 @@
       <c r="P34" s="21"/>
       <c r="Q34" s="21"/>
       <c r="R34" s="21"/>
-    </row>
-    <row r="35" spans="7:18" ht="24" x14ac:dyDescent="0.3">
+      <c r="S34" s="21"/>
+    </row>
+    <row r="35" spans="7:19" ht="24" x14ac:dyDescent="0.3">
       <c r="G35" s="4" t="s">
         <v>0</v>
       </c>
@@ -1876,7 +1998,7 @@
         <v>1</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="J35" s="22"/>
       <c r="K35" s="23"/>
@@ -1887,8 +2009,9 @@
       <c r="P35" s="22"/>
       <c r="Q35" s="23"/>
       <c r="R35" s="23"/>
-    </row>
-    <row r="36" spans="7:18" ht="24" x14ac:dyDescent="0.3">
+      <c r="S35" s="23"/>
+    </row>
+    <row r="36" spans="7:19" ht="24" x14ac:dyDescent="0.3">
       <c r="G36" s="4" t="s">
         <v>2</v>
       </c>
@@ -1896,7 +2019,7 @@
         <v>1</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>23</v>
+        <v>91</v>
       </c>
       <c r="J36" s="22"/>
       <c r="K36" s="23"/>
@@ -1907,8 +2030,9 @@
       <c r="P36" s="22"/>
       <c r="Q36" s="23"/>
       <c r="R36" s="23"/>
-    </row>
-    <row r="37" spans="7:18" ht="24" x14ac:dyDescent="0.3">
+      <c r="S36" s="23"/>
+    </row>
+    <row r="37" spans="7:19" ht="24" x14ac:dyDescent="0.3">
       <c r="G37" s="4" t="s">
         <v>3</v>
       </c>
@@ -1916,7 +2040,7 @@
         <v>1</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>24</v>
+        <v>92</v>
       </c>
       <c r="J37" s="22"/>
       <c r="K37" s="23"/>
@@ -1927,8 +2051,9 @@
       <c r="P37" s="22"/>
       <c r="Q37" s="23"/>
       <c r="R37" s="23"/>
-    </row>
-    <row r="38" spans="7:18" ht="24" x14ac:dyDescent="0.3">
+      <c r="S37" s="23"/>
+    </row>
+    <row r="38" spans="7:19" ht="24" x14ac:dyDescent="0.3">
       <c r="G38" s="4" t="s">
         <v>1</v>
       </c>
@@ -1936,7 +2061,7 @@
         <v>1</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>25</v>
+        <v>93</v>
       </c>
       <c r="J38" s="22"/>
       <c r="K38" s="23"/>
@@ -1947,8 +2072,9 @@
       <c r="P38" s="22"/>
       <c r="Q38" s="23"/>
       <c r="R38" s="23"/>
-    </row>
-    <row r="39" spans="7:18" ht="24" x14ac:dyDescent="0.3">
+      <c r="S38" s="23"/>
+    </row>
+    <row r="39" spans="7:19" ht="24" x14ac:dyDescent="0.3">
       <c r="G39" s="4" t="s">
         <v>4</v>
       </c>
@@ -1956,7 +2082,7 @@
         <v>1</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>26</v>
+        <v>94</v>
       </c>
       <c r="J39" s="22"/>
       <c r="K39" s="23"/>
@@ -1967,8 +2093,9 @@
       <c r="P39" s="22"/>
       <c r="Q39" s="23"/>
       <c r="R39" s="23"/>
-    </row>
-    <row r="40" spans="7:18" ht="24" x14ac:dyDescent="0.3">
+      <c r="S39" s="23"/>
+    </row>
+    <row r="40" spans="7:19" ht="24" x14ac:dyDescent="0.3">
       <c r="G40" s="4" t="s">
         <v>5</v>
       </c>
@@ -1976,7 +2103,7 @@
         <v>1</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>27</v>
+        <v>95</v>
       </c>
       <c r="J40" s="22"/>
       <c r="K40" s="23"/>
@@ -1987,16 +2114,17 @@
       <c r="P40" s="22"/>
       <c r="Q40" s="23"/>
       <c r="R40" s="23"/>
-    </row>
-    <row r="41" spans="7:18" ht="24" x14ac:dyDescent="0.3">
-      <c r="G41" s="4" t="s">
+      <c r="S40" s="23"/>
+    </row>
+    <row r="41" spans="7:19" ht="24" x14ac:dyDescent="0.3">
+      <c r="G41" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="H41" s="9">
-        <v>0.75</v>
-      </c>
-      <c r="I41" s="5" t="s">
-        <v>28</v>
+      <c r="H41" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="I41" s="47" t="s">
+        <v>96</v>
       </c>
       <c r="J41" s="22"/>
       <c r="K41" s="23"/>
@@ -2007,16 +2135,17 @@
       <c r="P41" s="22"/>
       <c r="Q41" s="23"/>
       <c r="R41" s="23"/>
-    </row>
-    <row r="42" spans="7:18" ht="24" x14ac:dyDescent="0.3">
-      <c r="G42" s="4" t="s">
+      <c r="S41" s="23"/>
+    </row>
+    <row r="42" spans="7:19" ht="24" x14ac:dyDescent="0.3">
+      <c r="G42" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="H42" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="I42" s="5" t="s">
-        <v>29</v>
+      <c r="H42" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="I42" s="47" t="s">
+        <v>98</v>
       </c>
       <c r="J42" s="22"/>
       <c r="K42" s="23"/>
@@ -2027,16 +2156,17 @@
       <c r="P42" s="22"/>
       <c r="Q42" s="23"/>
       <c r="R42" s="23"/>
-    </row>
-    <row r="43" spans="7:18" ht="24" x14ac:dyDescent="0.3">
-      <c r="G43" s="4" t="s">
+      <c r="S42" s="23"/>
+    </row>
+    <row r="43" spans="7:19" ht="24" x14ac:dyDescent="0.3">
+      <c r="G43" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="H43" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="I43" s="5" t="s">
-        <v>31</v>
+      <c r="H43" s="48" t="s">
+        <v>99</v>
+      </c>
+      <c r="I43" s="47" t="s">
+        <v>100</v>
       </c>
       <c r="J43" s="22"/>
       <c r="K43" s="23"/>
@@ -2047,16 +2177,17 @@
       <c r="P43" s="22"/>
       <c r="Q43" s="23"/>
       <c r="R43" s="23"/>
-    </row>
-    <row r="44" spans="7:18" ht="25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G44" s="6" t="s">
+      <c r="S43" s="23"/>
+    </row>
+    <row r="44" spans="7:19" ht="25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G44" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="H44" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="I44" s="7" t="s">
-        <v>33</v>
+      <c r="H44" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="I44" s="51" t="s">
+        <v>101</v>
       </c>
       <c r="J44" s="22"/>
       <c r="K44" s="22"/>
@@ -2067,14 +2198,15 @@
       <c r="P44" s="22"/>
       <c r="Q44" s="22"/>
       <c r="R44" s="23"/>
-    </row>
-    <row r="45" spans="7:18" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="S44" s="23"/>
+    </row>
+    <row r="45" spans="7:19" ht="52" thickBot="1" x14ac:dyDescent="0.25">
       <c r="G45" s="15" t="s">
         <v>15</v>
       </c>
       <c r="H45" s="14"/>
       <c r="I45" s="18">
-        <v>0.42</v>
+        <v>0.69</v>
       </c>
       <c r="J45" s="24"/>
       <c r="K45" s="19"/>
@@ -2084,43 +2216,44 @@
       <c r="O45" s="24"/>
       <c r="P45" s="24"/>
       <c r="R45" s="24"/>
+      <c r="S45" s="24"/>
     </row>
     <row r="55" spans="7:16" x14ac:dyDescent="0.2">
       <c r="I55" s="38"/>
       <c r="J55" s="38"/>
-      <c r="K55" s="34"/>
-      <c r="L55" s="34"/>
-      <c r="M55" s="34"/>
-      <c r="N55" s="34"/>
+      <c r="K55" s="39"/>
+      <c r="L55" s="39"/>
+      <c r="M55" s="39"/>
+      <c r="N55" s="39"/>
     </row>
     <row r="56" spans="7:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="I56" s="34"/>
-      <c r="J56" s="34"/>
-      <c r="K56" s="34"/>
-      <c r="L56" s="34"/>
-      <c r="M56" s="34"/>
-      <c r="N56" s="34"/>
+      <c r="I56" s="39"/>
+      <c r="J56" s="39"/>
+      <c r="K56" s="39"/>
+      <c r="L56" s="39"/>
+      <c r="M56" s="39"/>
+      <c r="N56" s="39"/>
     </row>
     <row r="57" spans="7:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G57" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="H57" s="36"/>
-      <c r="I57" s="37"/>
-      <c r="J57" s="29"/>
-    </row>
-    <row r="58" spans="7:16" ht="26" x14ac:dyDescent="0.2">
+      <c r="G57" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="H57" s="42"/>
+      <c r="I57" s="43"/>
+      <c r="J57" s="28"/>
+    </row>
+    <row r="58" spans="7:16" ht="58" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G58" s="1"/>
-      <c r="H58" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="I58" s="32"/>
+      <c r="H58" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="I58" s="35"/>
       <c r="J58" s="19"/>
-      <c r="K58" s="33"/>
-      <c r="L58" s="34"/>
+      <c r="K58" s="40"/>
+      <c r="L58" s="39"/>
       <c r="M58" s="19"/>
-      <c r="N58" s="33"/>
-      <c r="O58" s="34"/>
+      <c r="N58" s="40"/>
+      <c r="O58" s="39"/>
       <c r="P58" s="19"/>
     </row>
     <row r="59" spans="7:16" ht="21" x14ac:dyDescent="0.25">
@@ -2147,7 +2280,7 @@
         <v>1</v>
       </c>
       <c r="I60" s="5" t="s">
-        <v>34</v>
+        <v>104</v>
       </c>
       <c r="J60" s="22"/>
       <c r="K60" s="23"/>
@@ -2161,11 +2294,11 @@
       <c r="G61" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H61" s="9" t="s">
-        <v>35</v>
+      <c r="H61" s="9">
+        <v>1</v>
       </c>
       <c r="I61" s="5" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="J61" s="22"/>
       <c r="K61" s="23"/>
@@ -2179,11 +2312,11 @@
       <c r="G62" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H62" s="9" t="s">
-        <v>37</v>
+      <c r="H62" s="9">
+        <v>1</v>
       </c>
       <c r="I62" s="5" t="s">
-        <v>38</v>
+        <v>106</v>
       </c>
       <c r="J62" s="22"/>
       <c r="K62" s="23"/>
@@ -2194,14 +2327,14 @@
       <c r="P62" s="22"/>
     </row>
     <row r="63" spans="7:16" ht="24" x14ac:dyDescent="0.3">
-      <c r="G63" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H63" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="I63" s="5" t="s">
-        <v>39</v>
+      <c r="G63" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="H63" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="I63" s="47" t="s">
+        <v>107</v>
       </c>
       <c r="J63" s="22"/>
       <c r="K63" s="23"/>
@@ -2212,14 +2345,14 @@
       <c r="P63" s="22"/>
     </row>
     <row r="64" spans="7:16" ht="24" x14ac:dyDescent="0.3">
-      <c r="G64" s="4" t="s">
+      <c r="G64" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="H64" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="I64" s="5" t="s">
-        <v>41</v>
+      <c r="H64" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="I64" s="47" t="s">
+        <v>108</v>
       </c>
       <c r="J64" s="22"/>
       <c r="K64" s="23"/>
@@ -2230,14 +2363,14 @@
       <c r="P64" s="22"/>
     </row>
     <row r="65" spans="7:16" ht="24" x14ac:dyDescent="0.3">
-      <c r="G65" s="4" t="s">
+      <c r="G65" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="H65" s="9" t="s">
+      <c r="H65" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="I65" s="5" t="s">
-        <v>42</v>
+      <c r="I65" s="47" t="s">
+        <v>109</v>
       </c>
       <c r="J65" s="22"/>
       <c r="K65" s="23"/>
@@ -2248,9 +2381,15 @@
       <c r="P65" s="22"/>
     </row>
     <row r="66" spans="7:16" ht="24" x14ac:dyDescent="0.3">
-      <c r="G66" s="4"/>
-      <c r="H66" s="9"/>
-      <c r="I66" s="5"/>
+      <c r="G66" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="H66" s="46" t="s">
+        <v>99</v>
+      </c>
+      <c r="I66" s="47" t="s">
+        <v>110</v>
+      </c>
       <c r="J66" s="22"/>
       <c r="K66" s="23"/>
       <c r="L66" s="22"/>
@@ -2260,9 +2399,15 @@
       <c r="P66" s="22"/>
     </row>
     <row r="67" spans="7:16" ht="24" x14ac:dyDescent="0.3">
-      <c r="G67" s="4"/>
-      <c r="H67" s="9"/>
-      <c r="I67" s="5"/>
+      <c r="G67" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="H67" s="46" t="s">
+        <v>99</v>
+      </c>
+      <c r="I67" s="47" t="s">
+        <v>111</v>
+      </c>
       <c r="J67" s="22"/>
       <c r="K67" s="23"/>
       <c r="L67" s="22"/>
@@ -2272,9 +2417,15 @@
       <c r="P67" s="22"/>
     </row>
     <row r="68" spans="7:16" ht="24" x14ac:dyDescent="0.3">
-      <c r="G68" s="4"/>
-      <c r="H68" s="11"/>
-      <c r="I68" s="5"/>
+      <c r="G68" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="H68" s="48" t="s">
+        <v>99</v>
+      </c>
+      <c r="I68" s="47" t="s">
+        <v>112</v>
+      </c>
       <c r="J68" s="22"/>
       <c r="K68" s="23"/>
       <c r="L68" s="22"/>
@@ -2284,9 +2435,15 @@
       <c r="P68" s="22"/>
     </row>
     <row r="69" spans="7:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G69" s="6"/>
-      <c r="H69" s="10"/>
-      <c r="I69" s="7"/>
+      <c r="G69" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="H69" s="50" t="s">
+        <v>114</v>
+      </c>
+      <c r="I69" s="51" t="s">
+        <v>113</v>
+      </c>
       <c r="J69" s="22"/>
       <c r="K69" s="22"/>
       <c r="L69" s="22"/>
@@ -2295,10 +2452,14 @@
       <c r="O69" s="22"/>
       <c r="P69" s="22"/>
     </row>
-    <row r="70" spans="7:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="G70" s="15"/>
+    <row r="70" spans="7:16" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G70" s="15" t="s">
+        <v>15</v>
+      </c>
       <c r="H70" s="14"/>
-      <c r="I70" s="18"/>
+      <c r="I70" s="18">
+        <v>0.94</v>
+      </c>
       <c r="J70" s="24"/>
       <c r="K70" s="19"/>
       <c r="L70" s="24"/>
@@ -2310,39 +2471,39 @@
     <row r="75" spans="7:16" x14ac:dyDescent="0.2">
       <c r="I75" s="38"/>
       <c r="J75" s="38"/>
-      <c r="K75" s="34"/>
-      <c r="L75" s="34"/>
-      <c r="M75" s="34"/>
-      <c r="N75" s="34"/>
+      <c r="K75" s="39"/>
+      <c r="L75" s="39"/>
+      <c r="M75" s="39"/>
+      <c r="N75" s="39"/>
     </row>
     <row r="76" spans="7:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="I76" s="34"/>
-      <c r="J76" s="34"/>
-      <c r="K76" s="34"/>
-      <c r="L76" s="34"/>
-      <c r="M76" s="34"/>
-      <c r="N76" s="34"/>
+      <c r="I76" s="39"/>
+      <c r="J76" s="39"/>
+      <c r="K76" s="39"/>
+      <c r="L76" s="39"/>
+      <c r="M76" s="39"/>
+      <c r="N76" s="39"/>
     </row>
     <row r="77" spans="7:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G77" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="H77" s="36"/>
-      <c r="I77" s="37"/>
-      <c r="J77" s="29"/>
-    </row>
-    <row r="78" spans="7:16" ht="26" x14ac:dyDescent="0.2">
+      <c r="G77" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="H77" s="42"/>
+      <c r="I77" s="43"/>
+      <c r="J77" s="28"/>
+    </row>
+    <row r="78" spans="7:16" ht="59" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G78" s="1"/>
-      <c r="H78" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="I78" s="32"/>
+      <c r="H78" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="I78" s="35"/>
       <c r="J78" s="19"/>
-      <c r="K78" s="33"/>
-      <c r="L78" s="34"/>
+      <c r="K78" s="40"/>
+      <c r="L78" s="39"/>
       <c r="M78" s="19"/>
-      <c r="N78" s="33"/>
-      <c r="O78" s="34"/>
+      <c r="N78" s="40"/>
+      <c r="O78" s="39"/>
       <c r="P78" s="19"/>
     </row>
     <row r="79" spans="7:16" ht="21" x14ac:dyDescent="0.25">
@@ -2369,7 +2530,7 @@
         <v>1</v>
       </c>
       <c r="I80" s="5" t="s">
-        <v>44</v>
+        <v>115</v>
       </c>
       <c r="J80" s="22"/>
       <c r="K80" s="23"/>
@@ -2380,9 +2541,15 @@
       <c r="P80" s="22"/>
     </row>
     <row r="81" spans="7:16" ht="24" x14ac:dyDescent="0.3">
-      <c r="G81" s="4"/>
-      <c r="H81" s="9"/>
-      <c r="I81" s="5"/>
+      <c r="G81" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H81" s="9">
+        <v>1</v>
+      </c>
+      <c r="I81" s="5" t="s">
+        <v>116</v>
+      </c>
       <c r="J81" s="22"/>
       <c r="K81" s="23"/>
       <c r="L81" s="22"/>
@@ -2392,9 +2559,15 @@
       <c r="P81" s="22"/>
     </row>
     <row r="82" spans="7:16" ht="24" x14ac:dyDescent="0.3">
-      <c r="G82" s="4"/>
-      <c r="H82" s="9"/>
-      <c r="I82" s="5"/>
+      <c r="G82" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="H82" s="46" t="s">
+        <v>132</v>
+      </c>
+      <c r="I82" s="47" t="s">
+        <v>117</v>
+      </c>
       <c r="J82" s="22"/>
       <c r="K82" s="23"/>
       <c r="L82" s="22"/>
@@ -2404,9 +2577,15 @@
       <c r="P82" s="22"/>
     </row>
     <row r="83" spans="7:16" ht="24" x14ac:dyDescent="0.3">
-      <c r="G83" s="4"/>
-      <c r="H83" s="9"/>
-      <c r="I83" s="5"/>
+      <c r="G83" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="H83" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="I83" s="47" t="s">
+        <v>118</v>
+      </c>
       <c r="J83" s="22"/>
       <c r="K83" s="23"/>
       <c r="L83" s="22"/>
@@ -2416,9 +2595,15 @@
       <c r="P83" s="22"/>
     </row>
     <row r="84" spans="7:16" ht="24" x14ac:dyDescent="0.3">
-      <c r="G84" s="4"/>
-      <c r="H84" s="9"/>
-      <c r="I84" s="5"/>
+      <c r="G84" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="H84" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="I84" s="47" t="s">
+        <v>119</v>
+      </c>
       <c r="J84" s="22"/>
       <c r="K84" s="23"/>
       <c r="L84" s="22"/>
@@ -2428,9 +2613,15 @@
       <c r="P84" s="22"/>
     </row>
     <row r="85" spans="7:16" ht="24" x14ac:dyDescent="0.3">
-      <c r="G85" s="4"/>
-      <c r="H85" s="9"/>
-      <c r="I85" s="5"/>
+      <c r="G85" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="H85" s="46" t="s">
+        <v>130</v>
+      </c>
+      <c r="I85" s="47" t="s">
+        <v>131</v>
+      </c>
       <c r="J85" s="22"/>
       <c r="K85" s="23"/>
       <c r="L85" s="22"/>
@@ -2440,7 +2631,9 @@
       <c r="P85" s="22"/>
     </row>
     <row r="86" spans="7:16" ht="24" x14ac:dyDescent="0.3">
-      <c r="G86" s="4"/>
+      <c r="G86" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="H86" s="9"/>
       <c r="I86" s="5"/>
       <c r="J86" s="22"/>
@@ -2452,7 +2645,9 @@
       <c r="P86" s="22"/>
     </row>
     <row r="87" spans="7:16" ht="24" x14ac:dyDescent="0.3">
-      <c r="G87" s="4"/>
+      <c r="G87" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="H87" s="9"/>
       <c r="I87" s="5"/>
       <c r="J87" s="22"/>
@@ -2464,7 +2659,9 @@
       <c r="P87" s="22"/>
     </row>
     <row r="88" spans="7:16" ht="24" x14ac:dyDescent="0.3">
-      <c r="G88" s="4"/>
+      <c r="G88" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="H88" s="11"/>
       <c r="I88" s="5"/>
       <c r="J88" s="22"/>
@@ -2476,7 +2673,9 @@
       <c r="P88" s="22"/>
     </row>
     <row r="89" spans="7:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G89" s="6"/>
+      <c r="G89" s="6" t="s">
+        <v>9</v>
+      </c>
       <c r="H89" s="10"/>
       <c r="I89" s="7"/>
       <c r="J89" s="22"/>
@@ -2487,10 +2686,14 @@
       <c r="O89" s="22"/>
       <c r="P89" s="22"/>
     </row>
-    <row r="90" spans="7:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="G90" s="15"/>
+    <row r="90" spans="7:16" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G90" s="15" t="s">
+        <v>15</v>
+      </c>
       <c r="H90" s="14"/>
-      <c r="I90" s="18"/>
+      <c r="I90" s="18">
+        <v>0.94</v>
+      </c>
       <c r="J90" s="24"/>
       <c r="K90" s="19"/>
       <c r="L90" s="24"/>
@@ -2499,20 +2702,266 @@
       <c r="O90" s="24"/>
       <c r="P90" s="24"/>
     </row>
+    <row r="97" spans="7:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="98" spans="7:9" ht="25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G98" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="H98" s="42"/>
+      <c r="I98" s="43"/>
+    </row>
+    <row r="99" spans="7:9" ht="62" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G99" s="1"/>
+      <c r="H99" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="I99" s="35"/>
+    </row>
+    <row r="100" spans="7:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="G100" s="2"/>
+      <c r="H100" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="101" spans="7:9" ht="24" x14ac:dyDescent="0.3">
+      <c r="G101" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H101" s="9">
+        <v>1</v>
+      </c>
+      <c r="I101" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="102" spans="7:9" ht="24" x14ac:dyDescent="0.3">
+      <c r="G102" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="H102" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="I102" s="47" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="103" spans="7:9" ht="24" x14ac:dyDescent="0.3">
+      <c r="G103" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="H103" s="46" t="s">
+        <v>124</v>
+      </c>
+      <c r="I103" s="47" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="104" spans="7:9" ht="24" x14ac:dyDescent="0.3">
+      <c r="G104" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="H104" s="46" t="s">
+        <v>124</v>
+      </c>
+      <c r="I104" s="47" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="105" spans="7:9" ht="24" x14ac:dyDescent="0.3">
+      <c r="G105" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="H105" s="46" t="s">
+        <v>124</v>
+      </c>
+      <c r="I105" s="47" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="106" spans="7:9" ht="24" x14ac:dyDescent="0.3">
+      <c r="G106" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="H106" s="46" t="s">
+        <v>128</v>
+      </c>
+      <c r="I106" s="47" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="107" spans="7:9" ht="24" x14ac:dyDescent="0.3">
+      <c r="G107" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H107" s="9"/>
+      <c r="I107" s="5"/>
+    </row>
+    <row r="108" spans="7:9" ht="24" x14ac:dyDescent="0.3">
+      <c r="G108" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H108" s="9"/>
+      <c r="I108" s="5"/>
+    </row>
+    <row r="109" spans="7:9" ht="24" x14ac:dyDescent="0.3">
+      <c r="G109" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H109" s="11"/>
+      <c r="I109" s="5"/>
+    </row>
+    <row r="110" spans="7:9" ht="25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G110" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H110" s="10"/>
+      <c r="I110" s="7"/>
+    </row>
+    <row r="111" spans="7:9" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G111" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H111" s="14"/>
+      <c r="I111" s="18">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="116" spans="7:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="117" spans="7:9" ht="25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G117" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="H117" s="42"/>
+      <c r="I117" s="43"/>
+    </row>
+    <row r="118" spans="7:9" ht="26" x14ac:dyDescent="0.2">
+      <c r="G118" s="1"/>
+      <c r="H118" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="I118" s="35"/>
+    </row>
+    <row r="119" spans="7:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="G119" s="2"/>
+      <c r="H119" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I119" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="120" spans="7:9" ht="24" x14ac:dyDescent="0.3">
+      <c r="G120" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="H120" s="46" t="s">
+        <v>80</v>
+      </c>
+      <c r="I120" s="47" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="121" spans="7:9" ht="24" x14ac:dyDescent="0.3">
+      <c r="G121" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="H121" s="46" t="s">
+        <v>128</v>
+      </c>
+      <c r="I121" s="47" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="122" spans="7:9" ht="24" x14ac:dyDescent="0.3">
+      <c r="G122" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="H122" s="46" t="s">
+        <v>128</v>
+      </c>
+      <c r="I122" s="47" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="123" spans="7:9" ht="24" x14ac:dyDescent="0.3">
+      <c r="G123" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="H123" s="46" t="s">
+        <v>124</v>
+      </c>
+      <c r="I123" s="47" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="124" spans="7:9" ht="24" x14ac:dyDescent="0.3">
+      <c r="G124" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="H124" s="46" t="s">
+        <v>135</v>
+      </c>
+      <c r="I124" s="47" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="125" spans="7:9" ht="24" x14ac:dyDescent="0.3">
+      <c r="G125" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="H125" s="46" t="s">
+        <v>128</v>
+      </c>
+      <c r="I125" s="47" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="126" spans="7:9" ht="24" x14ac:dyDescent="0.3">
+      <c r="G126" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H126" s="9"/>
+      <c r="I126" s="5"/>
+    </row>
+    <row r="127" spans="7:9" ht="24" x14ac:dyDescent="0.3">
+      <c r="G127" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H127" s="9"/>
+      <c r="I127" s="5"/>
+    </row>
+    <row r="128" spans="7:9" ht="24" x14ac:dyDescent="0.3">
+      <c r="G128" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H128" s="11"/>
+      <c r="I128" s="5"/>
+    </row>
+    <row r="129" spans="7:9" ht="25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G129" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H129" s="10"/>
+      <c r="I129" s="7"/>
+    </row>
+    <row r="130" spans="7:9" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G130" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H130" s="14"/>
+      <c r="I130" s="18">
+        <v>0.86</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="I6:N7"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="I30:N31"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="Q33:R33"/>
+  <mergeCells count="27">
+    <mergeCell ref="G98:I98"/>
+    <mergeCell ref="H99:I99"/>
+    <mergeCell ref="G117:I117"/>
+    <mergeCell ref="H118:I118"/>
     <mergeCell ref="H78:I78"/>
     <mergeCell ref="K78:L78"/>
     <mergeCell ref="N78:O78"/>
@@ -2524,6 +2973,18 @@
     <mergeCell ref="K58:L58"/>
     <mergeCell ref="N58:O58"/>
     <mergeCell ref="I75:N76"/>
+    <mergeCell ref="I30:N31"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="Q33:R33"/>
+    <mergeCell ref="T9:U9"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="I6:N7"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="N9:O9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/reports/Results.xlsx
+++ b/reports/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/moe/Desktop/puf-auth-ml/reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96EF1CEF-4168-124A-8603-4556470527F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1789F39C-2CB2-4949-B621-2EC3A0D223A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{65BD7D84-E0D3-BF4C-8AA6-282CCD8082D7}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="152">
   <si>
     <t>Intact</t>
   </si>
@@ -109,9 +109,6 @@
   </si>
   <si>
     <t>33.33%</t>
-  </si>
-  <si>
-    <t>RPI1,RPI2,RPI3 full length: 256 bits</t>
   </si>
   <si>
     <t>RPI1,RPI2,RPI3 length: 1024 bits</t>
@@ -462,15 +459,9 @@
     <t>90.40%</t>
   </si>
   <si>
-    <t>93.26%</t>
-  </si>
-  <si>
     <t>93.24%</t>
   </si>
   <si>
-    <t>RPI1,RPI2,RPI3 full length: 128 bits</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 97.98%</t>
   </si>
   <si>
@@ -517,6 +508,60 @@
   </si>
   <si>
     <t>93.55%</t>
+  </si>
+  <si>
+    <t>93.28%</t>
+  </si>
+  <si>
+    <t>C-10-all</t>
+  </si>
+  <si>
+    <t>C-20-all</t>
+  </si>
+  <si>
+    <t>C-30-all</t>
+  </si>
+  <si>
+    <t>C-40-all</t>
+  </si>
+  <si>
+    <t>C-50-all</t>
+  </si>
+  <si>
+    <t>C-60-all</t>
+  </si>
+  <si>
+    <t>C-70-all</t>
+  </si>
+  <si>
+    <t>C-80-all</t>
+  </si>
+  <si>
+    <t>C-90-all</t>
+  </si>
+  <si>
+    <t>C-30 Top</t>
+  </si>
+  <si>
+    <t>94.55%</t>
+  </si>
+  <si>
+    <t>C-30 Mid</t>
+  </si>
+  <si>
+    <t>90.72%</t>
+  </si>
+  <si>
+    <t>C-30 Bot</t>
+  </si>
+  <si>
+    <t>94.58%</t>
+  </si>
+  <si>
+    <t>RPI1,RPI2,RPI3 length: 256 bits</t>
+  </si>
+  <si>
+    <t>RPI1,RPI2,RPI3 length: 128 bits</t>
   </si>
 </sst>
 </file>
@@ -743,7 +788,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -897,6 +942,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1352,10 +1407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F7AB769-A4AB-314C-9FAA-CEF8525B9786}">
-  <dimension ref="G6:V130"/>
+  <dimension ref="F6:V133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A99" zoomScale="75" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="J126" sqref="J126"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="75" zoomScaleNormal="88" workbookViewId="0">
+      <selection activeCell="G120" sqref="G120:I120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1418,7 +1473,7 @@
       <c r="R9" s="35"/>
       <c r="S9" s="27"/>
       <c r="T9" s="34" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="U9" s="35"/>
       <c r="V9" s="2"/>
@@ -1463,34 +1518,34 @@
     </row>
     <row r="11" spans="7:22" ht="50" x14ac:dyDescent="0.3">
       <c r="G11" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H11" s="9">
         <v>1</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J11" s="26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K11" s="9">
         <v>1</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M11" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N11" s="9">
         <v>1</v>
       </c>
       <c r="O11" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P11" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q11" s="9">
         <v>1</v>
@@ -1499,60 +1554,60 @@
         <v>16</v>
       </c>
       <c r="S11" s="26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T11" s="9">
         <v>1</v>
       </c>
       <c r="U11" s="31" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="7:22" ht="85" x14ac:dyDescent="0.25">
       <c r="G12" s="26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H12" s="9">
         <v>1</v>
       </c>
       <c r="I12" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J12" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="J12" s="26" t="s">
-        <v>30</v>
-      </c>
       <c r="K12" s="9">
         <v>1</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M12" s="26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N12" s="9">
         <v>1</v>
       </c>
       <c r="O12" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P12" s="26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q12" s="9">
         <v>1</v>
       </c>
       <c r="R12" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="S12" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="S12" s="26" t="s">
-        <v>63</v>
-      </c>
       <c r="T12" s="9">
         <v>1</v>
       </c>
       <c r="U12" s="31" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="7:22" ht="24" x14ac:dyDescent="0.3">
@@ -1563,37 +1618,37 @@
         <v>1</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J13" s="22"/>
       <c r="K13" s="9">
         <v>1</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M13" s="22"/>
       <c r="N13" s="9">
         <v>1</v>
       </c>
       <c r="O13" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P13" s="22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Q13" s="9">
         <v>1</v>
       </c>
       <c r="R13" s="44" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="S13" s="23"/>
       <c r="T13" s="9">
         <v>1</v>
       </c>
       <c r="U13" s="31" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="7:22" ht="118" x14ac:dyDescent="0.25">
@@ -1604,41 +1659,41 @@
         <v>1</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J14" s="26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K14" s="9">
         <v>1</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M14" s="26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N14" s="9">
         <v>1</v>
       </c>
       <c r="O14" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P14" s="30" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Q14" s="9">
         <v>1</v>
       </c>
       <c r="R14" s="44" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="S14" s="23"/>
       <c r="T14" s="9">
         <v>1</v>
       </c>
       <c r="U14" s="31" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="7:22" ht="24" x14ac:dyDescent="0.3">
@@ -1649,37 +1704,37 @@
         <v>1</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J15" s="22"/>
       <c r="K15" s="9">
         <v>1</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M15" s="22"/>
       <c r="N15" s="9">
         <v>1</v>
       </c>
       <c r="O15" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P15" s="22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q15" s="9">
         <v>1</v>
       </c>
       <c r="R15" s="44" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="S15" s="23"/>
       <c r="T15" s="9">
         <v>1</v>
       </c>
       <c r="U15" s="31" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="7:22" ht="24" x14ac:dyDescent="0.3">
@@ -1690,37 +1745,37 @@
         <v>1</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J16" s="22"/>
       <c r="K16" s="9">
         <v>1</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M16" s="22"/>
       <c r="N16" s="9">
         <v>1</v>
       </c>
       <c r="O16" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P16" s="22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Q16" s="9">
         <v>1</v>
       </c>
       <c r="R16" s="44" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="S16" s="23"/>
       <c r="T16" s="9">
         <v>1</v>
       </c>
       <c r="U16" s="31" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="7:21" ht="24" x14ac:dyDescent="0.3">
@@ -1731,37 +1786,37 @@
         <v>1</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J17" s="22"/>
       <c r="K17" s="9">
         <v>1</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M17" s="22"/>
       <c r="N17" s="9">
         <v>1</v>
       </c>
       <c r="O17" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P17" s="22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q17" s="9">
         <v>1</v>
       </c>
       <c r="R17" s="44" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S17" s="23"/>
       <c r="T17" s="9">
         <v>1</v>
       </c>
       <c r="U17" s="31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="7:21" ht="24" x14ac:dyDescent="0.3">
@@ -1772,37 +1827,37 @@
         <v>1</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J18" s="22"/>
       <c r="K18" s="9">
         <v>1</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M18" s="22"/>
       <c r="N18" s="9">
         <v>1</v>
       </c>
       <c r="O18" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P18" s="22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Q18" s="9">
         <v>1</v>
       </c>
       <c r="R18" s="44" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="S18" s="23"/>
       <c r="T18" s="9">
         <v>1</v>
       </c>
       <c r="U18" s="31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="7:21" ht="24" x14ac:dyDescent="0.3">
@@ -1813,37 +1868,37 @@
         <v>12</v>
       </c>
       <c r="I19" s="47" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J19" s="22"/>
       <c r="K19" s="9">
         <v>1</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M19" s="22"/>
       <c r="N19" s="9">
         <v>1</v>
       </c>
       <c r="O19" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P19" s="22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q19" s="9">
         <v>1</v>
       </c>
       <c r="R19" s="44" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="S19" s="54"/>
       <c r="T19" s="46" t="s">
         <v>12</v>
       </c>
       <c r="U19" s="55" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="7:21" ht="25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1854,42 +1909,42 @@
         <v>12</v>
       </c>
       <c r="I20" s="51" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J20" s="52"/>
       <c r="K20" s="50" t="s">
         <v>12</v>
       </c>
       <c r="L20" s="51" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M20" s="52"/>
       <c r="N20" s="50" t="s">
         <v>12</v>
       </c>
       <c r="O20" s="51" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P20" s="52" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Q20" s="50" t="s">
         <v>12</v>
       </c>
       <c r="R20" s="53" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="S20" s="56"/>
       <c r="T20" s="46" t="s">
         <v>12</v>
       </c>
       <c r="U20" s="55" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="7:21" ht="69" thickBot="1" x14ac:dyDescent="0.25">
       <c r="G21" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H21" s="14"/>
       <c r="I21" s="16">
@@ -1948,7 +2003,7 @@
     </row>
     <row r="32" spans="7:21" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G32" s="41" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H32" s="42"/>
       <c r="I32" s="43"/>
@@ -1957,7 +2012,7 @@
     <row r="33" spans="7:19" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G33" s="1"/>
       <c r="H33" s="34" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I33" s="35"/>
       <c r="J33" s="19"/>
@@ -1998,7 +2053,7 @@
         <v>1</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J35" s="22"/>
       <c r="K35" s="23"/>
@@ -2019,7 +2074,7 @@
         <v>1</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J36" s="22"/>
       <c r="K36" s="23"/>
@@ -2040,7 +2095,7 @@
         <v>1</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J37" s="22"/>
       <c r="K37" s="23"/>
@@ -2061,7 +2116,7 @@
         <v>1</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J38" s="22"/>
       <c r="K38" s="23"/>
@@ -2082,7 +2137,7 @@
         <v>1</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J39" s="22"/>
       <c r="K39" s="23"/>
@@ -2103,7 +2158,7 @@
         <v>1</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J40" s="22"/>
       <c r="K40" s="23"/>
@@ -2121,10 +2176,10 @@
         <v>6</v>
       </c>
       <c r="H41" s="46" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I41" s="47" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J41" s="22"/>
       <c r="K41" s="23"/>
@@ -2142,10 +2197,10 @@
         <v>7</v>
       </c>
       <c r="H42" s="46" t="s">
+        <v>96</v>
+      </c>
+      <c r="I42" s="47" t="s">
         <v>97</v>
-      </c>
-      <c r="I42" s="47" t="s">
-        <v>98</v>
       </c>
       <c r="J42" s="22"/>
       <c r="K42" s="23"/>
@@ -2163,10 +2218,10 @@
         <v>8</v>
       </c>
       <c r="H43" s="48" t="s">
+        <v>98</v>
+      </c>
+      <c r="I43" s="47" t="s">
         <v>99</v>
-      </c>
-      <c r="I43" s="47" t="s">
-        <v>100</v>
       </c>
       <c r="J43" s="22"/>
       <c r="K43" s="23"/>
@@ -2187,7 +2242,7 @@
         <v>22</v>
       </c>
       <c r="I44" s="51" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J44" s="22"/>
       <c r="K44" s="22"/>
@@ -2236,7 +2291,7 @@
     </row>
     <row r="57" spans="7:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G57" s="41" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H57" s="42"/>
       <c r="I57" s="43"/>
@@ -2245,7 +2300,7 @@
     <row r="58" spans="7:16" ht="58" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G58" s="1"/>
       <c r="H58" s="34" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I58" s="35"/>
       <c r="J58" s="19"/>
@@ -2280,7 +2335,7 @@
         <v>1</v>
       </c>
       <c r="I60" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J60" s="22"/>
       <c r="K60" s="23"/>
@@ -2292,13 +2347,13 @@
     </row>
     <row r="61" spans="7:16" ht="24" x14ac:dyDescent="0.3">
       <c r="G61" s="4" t="s">
-        <v>2</v>
+        <v>135</v>
       </c>
       <c r="H61" s="9">
         <v>1</v>
       </c>
       <c r="I61" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J61" s="22"/>
       <c r="K61" s="23"/>
@@ -2310,13 +2365,13 @@
     </row>
     <row r="62" spans="7:16" ht="24" x14ac:dyDescent="0.3">
       <c r="G62" s="4" t="s">
-        <v>3</v>
+        <v>136</v>
       </c>
       <c r="H62" s="9">
         <v>1</v>
       </c>
       <c r="I62" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J62" s="22"/>
       <c r="K62" s="23"/>
@@ -2328,13 +2383,13 @@
     </row>
     <row r="63" spans="7:16" ht="24" x14ac:dyDescent="0.3">
       <c r="G63" s="45" t="s">
-        <v>1</v>
+        <v>137</v>
       </c>
       <c r="H63" s="46" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I63" s="47" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J63" s="22"/>
       <c r="K63" s="23"/>
@@ -2346,13 +2401,13 @@
     </row>
     <row r="64" spans="7:16" ht="24" x14ac:dyDescent="0.3">
       <c r="G64" s="45" t="s">
-        <v>4</v>
+        <v>138</v>
       </c>
       <c r="H64" s="46" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I64" s="47" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J64" s="22"/>
       <c r="K64" s="23"/>
@@ -2364,13 +2419,13 @@
     </row>
     <row r="65" spans="7:16" ht="24" x14ac:dyDescent="0.3">
       <c r="G65" s="45" t="s">
-        <v>5</v>
+        <v>139</v>
       </c>
       <c r="H65" s="46" t="s">
         <v>12</v>
       </c>
       <c r="I65" s="47" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J65" s="22"/>
       <c r="K65" s="23"/>
@@ -2382,13 +2437,13 @@
     </row>
     <row r="66" spans="7:16" ht="24" x14ac:dyDescent="0.3">
       <c r="G66" s="45" t="s">
-        <v>6</v>
+        <v>140</v>
       </c>
       <c r="H66" s="46" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I66" s="47" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J66" s="22"/>
       <c r="K66" s="23"/>
@@ -2400,13 +2455,13 @@
     </row>
     <row r="67" spans="7:16" ht="24" x14ac:dyDescent="0.3">
       <c r="G67" s="45" t="s">
-        <v>7</v>
+        <v>141</v>
       </c>
       <c r="H67" s="46" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I67" s="47" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J67" s="22"/>
       <c r="K67" s="23"/>
@@ -2418,13 +2473,13 @@
     </row>
     <row r="68" spans="7:16" ht="24" x14ac:dyDescent="0.3">
       <c r="G68" s="45" t="s">
-        <v>8</v>
+        <v>142</v>
       </c>
       <c r="H68" s="48" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I68" s="47" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J68" s="22"/>
       <c r="K68" s="23"/>
@@ -2436,13 +2491,13 @@
     </row>
     <row r="69" spans="7:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G69" s="49" t="s">
-        <v>9</v>
+        <v>143</v>
       </c>
       <c r="H69" s="50" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I69" s="51" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J69" s="22"/>
       <c r="K69" s="22"/>
@@ -2486,7 +2541,7 @@
     </row>
     <row r="77" spans="7:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G77" s="41" t="s">
-        <v>23</v>
+        <v>150</v>
       </c>
       <c r="H77" s="42"/>
       <c r="I77" s="43"/>
@@ -2495,7 +2550,7 @@
     <row r="78" spans="7:16" ht="59" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G78" s="1"/>
       <c r="H78" s="34" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I78" s="35"/>
       <c r="J78" s="19"/>
@@ -2530,7 +2585,7 @@
         <v>1</v>
       </c>
       <c r="I80" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J80" s="22"/>
       <c r="K80" s="23"/>
@@ -2540,15 +2595,15 @@
       <c r="O80" s="22"/>
       <c r="P80" s="22"/>
     </row>
-    <row r="81" spans="7:16" ht="24" x14ac:dyDescent="0.3">
+    <row r="81" spans="6:18" ht="24" x14ac:dyDescent="0.3">
       <c r="G81" s="4" t="s">
-        <v>2</v>
+        <v>135</v>
       </c>
       <c r="H81" s="9">
         <v>1</v>
       </c>
       <c r="I81" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J81" s="22"/>
       <c r="K81" s="23"/>
@@ -2558,15 +2613,15 @@
       <c r="O81" s="22"/>
       <c r="P81" s="22"/>
     </row>
-    <row r="82" spans="7:16" ht="24" x14ac:dyDescent="0.3">
+    <row r="82" spans="6:18" ht="24" x14ac:dyDescent="0.3">
       <c r="G82" s="45" t="s">
-        <v>3</v>
+        <v>136</v>
       </c>
       <c r="H82" s="46" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="I82" s="47" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J82" s="22"/>
       <c r="K82" s="23"/>
@@ -2576,15 +2631,15 @@
       <c r="O82" s="22"/>
       <c r="P82" s="22"/>
     </row>
-    <row r="83" spans="7:16" ht="24" x14ac:dyDescent="0.3">
+    <row r="83" spans="6:18" ht="24" x14ac:dyDescent="0.3">
       <c r="G83" s="45" t="s">
-        <v>1</v>
+        <v>137</v>
       </c>
       <c r="H83" s="46" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I83" s="47" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="J83" s="22"/>
       <c r="K83" s="23"/>
@@ -2593,16 +2648,19 @@
       <c r="N83" s="23"/>
       <c r="O83" s="22"/>
       <c r="P83" s="22"/>
-    </row>
-    <row r="84" spans="7:16" ht="24" x14ac:dyDescent="0.3">
-      <c r="G84" s="45" t="s">
-        <v>4</v>
-      </c>
-      <c r="H84" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="I84" s="47" t="s">
-        <v>119</v>
+      <c r="Q83" s="22"/>
+      <c r="R83" s="22"/>
+    </row>
+    <row r="84" spans="6:18" ht="21" x14ac:dyDescent="0.25">
+      <c r="F84" s="58"/>
+      <c r="G84" s="59" t="s">
+        <v>144</v>
+      </c>
+      <c r="H84" s="23">
+        <v>1</v>
+      </c>
+      <c r="I84" s="5" t="s">
+        <v>145</v>
       </c>
       <c r="J84" s="22"/>
       <c r="K84" s="23"/>
@@ -2611,16 +2669,19 @@
       <c r="N84" s="23"/>
       <c r="O84" s="22"/>
       <c r="P84" s="22"/>
-    </row>
-    <row r="85" spans="7:16" ht="24" x14ac:dyDescent="0.3">
-      <c r="G85" s="45" t="s">
-        <v>5</v>
-      </c>
-      <c r="H85" s="46" t="s">
-        <v>130</v>
-      </c>
-      <c r="I85" s="47" t="s">
-        <v>131</v>
+      <c r="Q84" s="22"/>
+      <c r="R84" s="22"/>
+    </row>
+    <row r="85" spans="6:18" ht="21" x14ac:dyDescent="0.25">
+      <c r="F85" s="58"/>
+      <c r="G85" s="59" t="s">
+        <v>146</v>
+      </c>
+      <c r="H85" s="23">
+        <v>1</v>
+      </c>
+      <c r="I85" s="5" t="s">
+        <v>147</v>
       </c>
       <c r="J85" s="22"/>
       <c r="K85" s="23"/>
@@ -2629,13 +2690,20 @@
       <c r="N85" s="23"/>
       <c r="O85" s="22"/>
       <c r="P85" s="22"/>
-    </row>
-    <row r="86" spans="7:16" ht="24" x14ac:dyDescent="0.3">
-      <c r="G86" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H86" s="9"/>
-      <c r="I86" s="5"/>
+      <c r="Q85" s="22"/>
+      <c r="R85" s="22"/>
+    </row>
+    <row r="86" spans="6:18" ht="21" x14ac:dyDescent="0.25">
+      <c r="F86" s="58"/>
+      <c r="G86" s="60" t="s">
+        <v>148</v>
+      </c>
+      <c r="H86" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="I86" s="47" t="s">
+        <v>149</v>
+      </c>
       <c r="J86" s="22"/>
       <c r="K86" s="23"/>
       <c r="L86" s="22"/>
@@ -2643,13 +2711,19 @@
       <c r="N86" s="23"/>
       <c r="O86" s="22"/>
       <c r="P86" s="22"/>
-    </row>
-    <row r="87" spans="7:16" ht="24" x14ac:dyDescent="0.3">
-      <c r="G87" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H87" s="9"/>
-      <c r="I87" s="5"/>
+      <c r="Q86" s="22"/>
+      <c r="R86" s="22"/>
+    </row>
+    <row r="87" spans="6:18" ht="24" x14ac:dyDescent="0.3">
+      <c r="G87" s="45" t="s">
+        <v>138</v>
+      </c>
+      <c r="H87" s="46" t="s">
+        <v>96</v>
+      </c>
+      <c r="I87" s="47" t="s">
+        <v>117</v>
+      </c>
       <c r="J87" s="22"/>
       <c r="K87" s="23"/>
       <c r="L87" s="22"/>
@@ -2658,12 +2732,16 @@
       <c r="O87" s="22"/>
       <c r="P87" s="22"/>
     </row>
-    <row r="88" spans="7:16" ht="24" x14ac:dyDescent="0.3">
-      <c r="G88" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H88" s="11"/>
-      <c r="I88" s="5"/>
+    <row r="88" spans="6:18" ht="24" x14ac:dyDescent="0.3">
+      <c r="G88" s="45" t="s">
+        <v>139</v>
+      </c>
+      <c r="H88" s="46" t="s">
+        <v>127</v>
+      </c>
+      <c r="I88" s="47" t="s">
+        <v>128</v>
+      </c>
       <c r="J88" s="22"/>
       <c r="K88" s="23"/>
       <c r="L88" s="22"/>
@@ -2672,296 +2750,338 @@
       <c r="O88" s="22"/>
       <c r="P88" s="22"/>
     </row>
-    <row r="89" spans="7:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G89" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="H89" s="10"/>
-      <c r="I89" s="7"/>
+    <row r="89" spans="6:18" ht="24" x14ac:dyDescent="0.3">
+      <c r="G89" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="H89" s="9"/>
+      <c r="I89" s="5"/>
       <c r="J89" s="22"/>
-      <c r="K89" s="22"/>
+      <c r="K89" s="23"/>
       <c r="L89" s="22"/>
       <c r="M89" s="22"/>
-      <c r="N89" s="22"/>
+      <c r="N89" s="23"/>
       <c r="O89" s="22"/>
       <c r="P89" s="22"/>
     </row>
-    <row r="90" spans="7:16" ht="52" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="G90" s="15" t="s">
+    <row r="90" spans="6:18" ht="24" x14ac:dyDescent="0.3">
+      <c r="G90" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="H90" s="9"/>
+      <c r="I90" s="5"/>
+      <c r="J90" s="22"/>
+      <c r="K90" s="23"/>
+      <c r="L90" s="22"/>
+      <c r="M90" s="22"/>
+      <c r="N90" s="23"/>
+      <c r="O90" s="22"/>
+      <c r="P90" s="22"/>
+    </row>
+    <row r="91" spans="6:18" ht="24" x14ac:dyDescent="0.3">
+      <c r="G91" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="H91" s="11"/>
+      <c r="I91" s="5"/>
+      <c r="J91" s="22"/>
+      <c r="K91" s="23"/>
+      <c r="L91" s="22"/>
+      <c r="M91" s="22"/>
+      <c r="N91" s="23"/>
+      <c r="O91" s="22"/>
+      <c r="P91" s="22"/>
+    </row>
+    <row r="92" spans="6:18" ht="25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G92" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="H92" s="10"/>
+      <c r="I92" s="7"/>
+      <c r="J92" s="22"/>
+      <c r="K92" s="22"/>
+      <c r="L92" s="22"/>
+      <c r="M92" s="22"/>
+      <c r="N92" s="22"/>
+      <c r="O92" s="22"/>
+      <c r="P92" s="22"/>
+    </row>
+    <row r="93" spans="6:18" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G93" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="H90" s="14"/>
-      <c r="I90" s="18">
+      <c r="H93" s="14"/>
+      <c r="I93" s="18">
         <v>0.94</v>
       </c>
-      <c r="J90" s="24"/>
-      <c r="K90" s="19"/>
-      <c r="L90" s="24"/>
-      <c r="M90" s="24"/>
-      <c r="N90" s="19"/>
-      <c r="O90" s="24"/>
-      <c r="P90" s="24"/>
-    </row>
-    <row r="97" spans="7:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="98" spans="7:9" ht="25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G98" s="41" t="s">
-        <v>120</v>
-      </c>
-      <c r="H98" s="42"/>
-      <c r="I98" s="43"/>
-    </row>
-    <row r="99" spans="7:9" ht="62" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G99" s="1"/>
-      <c r="H99" s="34" t="s">
-        <v>102</v>
-      </c>
-      <c r="I99" s="35"/>
-    </row>
-    <row r="100" spans="7:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="G100" s="2"/>
-      <c r="H100" s="8" t="s">
+      <c r="J93" s="24"/>
+      <c r="K93" s="19"/>
+      <c r="L93" s="24"/>
+      <c r="M93" s="24"/>
+      <c r="N93" s="19"/>
+      <c r="O93" s="24"/>
+      <c r="P93" s="24"/>
+    </row>
+    <row r="100" spans="7:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="101" spans="7:9" ht="25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G101" s="41" t="s">
+        <v>151</v>
+      </c>
+      <c r="H101" s="42"/>
+      <c r="I101" s="43"/>
+    </row>
+    <row r="102" spans="7:9" ht="62" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G102" s="1"/>
+      <c r="H102" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="I102" s="35"/>
+    </row>
+    <row r="103" spans="7:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="G103" s="2"/>
+      <c r="H103" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I100" s="3" t="s">
+      <c r="I103" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="101" spans="7:9" ht="24" x14ac:dyDescent="0.3">
-      <c r="G101" s="4" t="s">
+    <row r="104" spans="7:9" ht="24" x14ac:dyDescent="0.3">
+      <c r="G104" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="H101" s="9">
-        <v>1</v>
-      </c>
-      <c r="I101" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="102" spans="7:9" ht="24" x14ac:dyDescent="0.3">
-      <c r="G102" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="H102" s="46" t="s">
-        <v>122</v>
-      </c>
-      <c r="I102" s="47" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="103" spans="7:9" ht="24" x14ac:dyDescent="0.3">
-      <c r="G103" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="H103" s="46" t="s">
-        <v>124</v>
-      </c>
-      <c r="I103" s="47" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="104" spans="7:9" ht="24" x14ac:dyDescent="0.3">
-      <c r="G104" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="H104" s="46" t="s">
-        <v>124</v>
-      </c>
-      <c r="I104" s="47" t="s">
-        <v>126</v>
+      <c r="H104" s="9">
+        <v>1</v>
+      </c>
+      <c r="I104" s="5" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="105" spans="7:9" ht="24" x14ac:dyDescent="0.3">
       <c r="G105" s="45" t="s">
-        <v>4</v>
+        <v>135</v>
       </c>
       <c r="H105" s="46" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="I105" s="47" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="106" spans="7:9" ht="24" x14ac:dyDescent="0.3">
       <c r="G106" s="45" t="s">
-        <v>5</v>
+        <v>136</v>
       </c>
       <c r="H106" s="46" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="I106" s="47" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="107" spans="7:9" ht="24" x14ac:dyDescent="0.3">
-      <c r="G107" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H107" s="9"/>
-      <c r="I107" s="5"/>
+      <c r="G107" s="45" t="s">
+        <v>137</v>
+      </c>
+      <c r="H107" s="46" t="s">
+        <v>121</v>
+      </c>
+      <c r="I107" s="47" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="108" spans="7:9" ht="24" x14ac:dyDescent="0.3">
-      <c r="G108" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H108" s="9"/>
-      <c r="I108" s="5"/>
+      <c r="G108" s="45" t="s">
+        <v>138</v>
+      </c>
+      <c r="H108" s="46" t="s">
+        <v>121</v>
+      </c>
+      <c r="I108" s="47" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="109" spans="7:9" ht="24" x14ac:dyDescent="0.3">
-      <c r="G109" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H109" s="11"/>
-      <c r="I109" s="5"/>
-    </row>
-    <row r="110" spans="7:9" ht="25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G110" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="H110" s="10"/>
-      <c r="I110" s="7"/>
-    </row>
-    <row r="111" spans="7:9" ht="52" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="G111" s="15" t="s">
+      <c r="G109" s="45" t="s">
+        <v>139</v>
+      </c>
+      <c r="H109" s="46" t="s">
+        <v>125</v>
+      </c>
+      <c r="I109" s="47" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="110" spans="7:9" ht="24" x14ac:dyDescent="0.3">
+      <c r="G110" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="H110" s="9"/>
+      <c r="I110" s="5"/>
+    </row>
+    <row r="111" spans="7:9" ht="24" x14ac:dyDescent="0.3">
+      <c r="G111" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="H111" s="9"/>
+      <c r="I111" s="5"/>
+    </row>
+    <row r="112" spans="7:9" ht="24" x14ac:dyDescent="0.3">
+      <c r="G112" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="H112" s="11"/>
+      <c r="I112" s="5"/>
+    </row>
+    <row r="113" spans="7:9" ht="25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G113" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="H113" s="10"/>
+      <c r="I113" s="7"/>
+    </row>
+    <row r="114" spans="7:9" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G114" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="H111" s="14"/>
-      <c r="I111" s="18">
+      <c r="H114" s="14"/>
+      <c r="I114" s="18">
         <v>0.82</v>
       </c>
     </row>
-    <row r="116" spans="7:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="117" spans="7:9" ht="25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G117" s="41" t="s">
-        <v>120</v>
-      </c>
-      <c r="H117" s="42"/>
-      <c r="I117" s="43"/>
-    </row>
-    <row r="118" spans="7:9" ht="26" x14ac:dyDescent="0.2">
-      <c r="G118" s="1"/>
-      <c r="H118" s="34" t="s">
-        <v>102</v>
-      </c>
-      <c r="I118" s="35"/>
-    </row>
-    <row r="119" spans="7:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="G119" s="2"/>
-      <c r="H119" s="8" t="s">
+    <row r="119" spans="7:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="120" spans="7:9" ht="25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G120" s="41" t="s">
+        <v>151</v>
+      </c>
+      <c r="H120" s="42"/>
+      <c r="I120" s="43"/>
+    </row>
+    <row r="121" spans="7:9" ht="26" x14ac:dyDescent="0.2">
+      <c r="G121" s="1"/>
+      <c r="H121" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="I121" s="35"/>
+    </row>
+    <row r="122" spans="7:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="G122" s="2"/>
+      <c r="H122" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I119" s="3" t="s">
+      <c r="I122" s="3" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="120" spans="7:9" ht="24" x14ac:dyDescent="0.3">
-      <c r="G120" s="45" t="s">
-        <v>0</v>
-      </c>
-      <c r="H120" s="46" t="s">
-        <v>80</v>
-      </c>
-      <c r="I120" s="47" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="121" spans="7:9" ht="24" x14ac:dyDescent="0.3">
-      <c r="G121" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="H121" s="46" t="s">
-        <v>128</v>
-      </c>
-      <c r="I121" s="47" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="122" spans="7:9" ht="24" x14ac:dyDescent="0.3">
-      <c r="G122" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="H122" s="46" t="s">
-        <v>128</v>
-      </c>
-      <c r="I122" s="47" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="123" spans="7:9" ht="24" x14ac:dyDescent="0.3">
       <c r="G123" s="45" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H123" s="46" t="s">
-        <v>124</v>
+        <v>79</v>
       </c>
       <c r="I123" s="47" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="124" spans="7:9" ht="24" x14ac:dyDescent="0.3">
       <c r="G124" s="45" t="s">
-        <v>4</v>
+        <v>135</v>
       </c>
       <c r="H124" s="46" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="I124" s="47" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="125" spans="7:9" ht="24" x14ac:dyDescent="0.3">
       <c r="G125" s="45" t="s">
-        <v>5</v>
+        <v>136</v>
       </c>
       <c r="H125" s="46" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="I125" s="47" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="126" spans="7:9" ht="24" x14ac:dyDescent="0.3">
-      <c r="G126" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H126" s="9"/>
-      <c r="I126" s="5"/>
+      <c r="G126" s="45" t="s">
+        <v>137</v>
+      </c>
+      <c r="H126" s="46" t="s">
+        <v>121</v>
+      </c>
+      <c r="I126" s="47" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="127" spans="7:9" ht="24" x14ac:dyDescent="0.3">
-      <c r="G127" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H127" s="9"/>
-      <c r="I127" s="5"/>
+      <c r="G127" s="45" t="s">
+        <v>138</v>
+      </c>
+      <c r="H127" s="46" t="s">
+        <v>132</v>
+      </c>
+      <c r="I127" s="47" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="128" spans="7:9" ht="24" x14ac:dyDescent="0.3">
-      <c r="G128" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H128" s="11"/>
-      <c r="I128" s="5"/>
-    </row>
-    <row r="129" spans="7:9" ht="25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G129" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="H129" s="10"/>
-      <c r="I129" s="7"/>
-    </row>
-    <row r="130" spans="7:9" ht="52" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="G130" s="15" t="s">
+      <c r="G128" s="45" t="s">
+        <v>139</v>
+      </c>
+      <c r="H128" s="46" t="s">
+        <v>125</v>
+      </c>
+      <c r="I128" s="47" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="129" spans="7:9" ht="24" x14ac:dyDescent="0.3">
+      <c r="G129" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="H129" s="9"/>
+      <c r="I129" s="5"/>
+    </row>
+    <row r="130" spans="7:9" ht="24" x14ac:dyDescent="0.3">
+      <c r="G130" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="H130" s="9"/>
+      <c r="I130" s="5"/>
+    </row>
+    <row r="131" spans="7:9" ht="24" x14ac:dyDescent="0.3">
+      <c r="G131" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="H131" s="11"/>
+      <c r="I131" s="5"/>
+    </row>
+    <row r="132" spans="7:9" ht="25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G132" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="H132" s="10"/>
+      <c r="I132" s="7"/>
+    </row>
+    <row r="133" spans="7:9" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G133" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="H130" s="14"/>
-      <c r="I130" s="18">
+      <c r="H133" s="14"/>
+      <c r="I133" s="18">
         <v>0.86</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="G98:I98"/>
-    <mergeCell ref="H99:I99"/>
-    <mergeCell ref="G117:I117"/>
-    <mergeCell ref="H118:I118"/>
+    <mergeCell ref="G101:I101"/>
+    <mergeCell ref="H102:I102"/>
+    <mergeCell ref="G120:I120"/>
+    <mergeCell ref="H121:I121"/>
     <mergeCell ref="H78:I78"/>
     <mergeCell ref="K78:L78"/>
     <mergeCell ref="N78:O78"/>

--- a/reports/Results.xlsx
+++ b/reports/Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/moe/Desktop/puf-auth-ml/reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{667D5B91-34AE-1C41-A0FF-1C1D0FF44A70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CAFD7AD-0E13-F545-B169-A47437DD8824}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="3600" windowWidth="28800" windowHeight="18000" xr2:uid="{65BD7D84-E0D3-BF4C-8AA6-282CCD8082D7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{65BD7D84-E0D3-BF4C-8AA6-282CCD8082D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="151">
   <si>
     <t>Intact</t>
   </si>
@@ -1049,6 +1049,9 @@
       </rPr>
       <t>mid,top, and bot</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">   </t>
   </si>
 </sst>
 </file>
@@ -1396,7 +1399,69 @@
     <xf numFmtId="9" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1406,72 +1471,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1925,10 +1928,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F7AB769-A4AB-314C-9FAA-CEF8525B9786}">
-  <dimension ref="F6:V133"/>
+  <dimension ref="F6:V102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H16" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+    <sheetView tabSelected="1" topLeftCell="C20" zoomScale="68" zoomScaleNormal="88" workbookViewId="0">
+      <selection activeCell="J51" sqref="J51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1950,50 +1953,50 @@
   </cols>
   <sheetData>
     <row r="6" spans="7:22" x14ac:dyDescent="0.2">
-      <c r="I6" s="47" t="s">
+      <c r="I6" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="47"/>
-      <c r="K6" s="46"/>
-      <c r="L6" s="46"/>
-      <c r="M6" s="46"/>
-      <c r="N6" s="46"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="58"/>
+      <c r="L6" s="58"/>
+      <c r="M6" s="58"/>
+      <c r="N6" s="58"/>
     </row>
     <row r="7" spans="7:22" x14ac:dyDescent="0.2">
-      <c r="I7" s="46"/>
-      <c r="J7" s="46"/>
-      <c r="K7" s="46"/>
-      <c r="L7" s="46"/>
-      <c r="M7" s="46"/>
-      <c r="N7" s="46"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
+      <c r="K7" s="58"/>
+      <c r="L7" s="58"/>
+      <c r="M7" s="58"/>
+      <c r="N7" s="58"/>
     </row>
     <row r="8" spans="7:22" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="7:22" ht="82" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G9" s="1"/>
-      <c r="H9" s="43" t="s">
+      <c r="H9" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="I9" s="44"/>
+      <c r="I9" s="55"/>
       <c r="J9" s="25"/>
-      <c r="K9" s="43" t="s">
+      <c r="K9" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="L9" s="44"/>
+      <c r="L9" s="55"/>
       <c r="M9" s="25"/>
-      <c r="N9" s="43" t="s">
+      <c r="N9" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="O9" s="44"/>
+      <c r="O9" s="55"/>
       <c r="P9" s="25"/>
-      <c r="Q9" s="43" t="s">
+      <c r="Q9" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="R9" s="44"/>
+      <c r="R9" s="55"/>
       <c r="S9" s="25"/>
-      <c r="T9" s="43" t="s">
+      <c r="T9" s="54" t="s">
         <v>79</v>
       </c>
-      <c r="U9" s="44"/>
+      <c r="U9" s="55"/>
       <c r="V9" s="2"/>
     </row>
     <row r="10" spans="7:22" ht="21" x14ac:dyDescent="0.25">
@@ -2082,7 +2085,7 @@
       </c>
     </row>
     <row r="12" spans="7:22" ht="70" x14ac:dyDescent="0.25">
-      <c r="G12" s="56" t="s">
+      <c r="G12" s="45" t="s">
         <v>132</v>
       </c>
       <c r="H12" s="9">
@@ -2091,7 +2094,7 @@
       <c r="I12" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J12" s="56" t="s">
+      <c r="J12" s="45" t="s">
         <v>132</v>
       </c>
       <c r="K12" s="9">
@@ -2100,7 +2103,7 @@
       <c r="L12" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="M12" s="56" t="s">
+      <c r="M12" s="45" t="s">
         <v>132</v>
       </c>
       <c r="N12" s="9">
@@ -2109,7 +2112,7 @@
       <c r="O12" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="P12" s="56" t="s">
+      <c r="P12" s="45" t="s">
         <v>132</v>
       </c>
       <c r="Q12" s="9">
@@ -2118,7 +2121,7 @@
       <c r="R12" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="S12" s="56" t="s">
+      <c r="S12" s="45" t="s">
         <v>132</v>
       </c>
       <c r="T12" s="9">
@@ -2129,7 +2132,7 @@
       </c>
     </row>
     <row r="13" spans="7:22" ht="70" x14ac:dyDescent="0.25">
-      <c r="G13" s="56" t="s">
+      <c r="G13" s="45" t="s">
         <v>134</v>
       </c>
       <c r="H13" s="9">
@@ -2138,7 +2141,7 @@
       <c r="I13" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="J13" s="56" t="s">
+      <c r="J13" s="45" t="s">
         <v>134</v>
       </c>
       <c r="K13" s="9">
@@ -2147,7 +2150,7 @@
       <c r="L13" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="M13" s="57" t="s">
+      <c r="M13" s="46" t="s">
         <v>143</v>
       </c>
       <c r="N13" s="9">
@@ -2156,7 +2159,7 @@
       <c r="O13" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="P13" s="57" t="s">
+      <c r="P13" s="46" t="s">
         <v>143</v>
       </c>
       <c r="Q13" s="9">
@@ -2165,7 +2168,7 @@
       <c r="R13" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="S13" s="56" t="s">
+      <c r="S13" s="45" t="s">
         <v>134</v>
       </c>
       <c r="T13" s="9">
@@ -2176,7 +2179,7 @@
       </c>
     </row>
     <row r="14" spans="7:22" ht="70" x14ac:dyDescent="0.25">
-      <c r="G14" s="57" t="s">
+      <c r="G14" s="46" t="s">
         <v>135</v>
       </c>
       <c r="H14" s="9">
@@ -2185,7 +2188,7 @@
       <c r="I14" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J14" s="56" t="s">
+      <c r="J14" s="45" t="s">
         <v>133</v>
       </c>
       <c r="K14" s="9">
@@ -2194,7 +2197,7 @@
       <c r="L14" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="M14" s="56" t="s">
+      <c r="M14" s="45" t="s">
         <v>133</v>
       </c>
       <c r="N14" s="9">
@@ -2203,7 +2206,7 @@
       <c r="O14" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="P14" s="56" t="s">
+      <c r="P14" s="45" t="s">
         <v>133</v>
       </c>
       <c r="Q14" s="9">
@@ -2212,7 +2215,7 @@
       <c r="R14" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="S14" s="56" t="s">
+      <c r="S14" s="45" t="s">
         <v>144</v>
       </c>
       <c r="T14" s="9">
@@ -2223,7 +2226,7 @@
       </c>
     </row>
     <row r="15" spans="7:22" ht="70" x14ac:dyDescent="0.25">
-      <c r="G15" s="57" t="s">
+      <c r="G15" s="46" t="s">
         <v>136</v>
       </c>
       <c r="H15" s="9">
@@ -2232,7 +2235,7 @@
       <c r="I15" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J15" s="56" t="s">
+      <c r="J15" s="45" t="s">
         <v>142</v>
       </c>
       <c r="K15" s="9">
@@ -2241,7 +2244,7 @@
       <c r="L15" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="M15" s="57" t="s">
+      <c r="M15" s="46" t="s">
         <v>136</v>
       </c>
       <c r="N15" s="9">
@@ -2250,7 +2253,7 @@
       <c r="O15" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="P15" s="57" t="s">
+      <c r="P15" s="46" t="s">
         <v>136</v>
       </c>
       <c r="Q15" s="9">
@@ -2259,7 +2262,7 @@
       <c r="R15" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="S15" s="56" t="s">
+      <c r="S15" s="45" t="s">
         <v>142</v>
       </c>
       <c r="T15" s="9">
@@ -2270,7 +2273,7 @@
       </c>
     </row>
     <row r="16" spans="7:22" ht="70" x14ac:dyDescent="0.25">
-      <c r="G16" s="57" t="s">
+      <c r="G16" s="46" t="s">
         <v>137</v>
       </c>
       <c r="H16" s="9">
@@ -2279,7 +2282,7 @@
       <c r="I16" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J16" s="57" t="s">
+      <c r="J16" s="46" t="s">
         <v>137</v>
       </c>
       <c r="K16" s="9">
@@ -2288,7 +2291,7 @@
       <c r="L16" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="M16" s="57" t="s">
+      <c r="M16" s="46" t="s">
         <v>137</v>
       </c>
       <c r="N16" s="9">
@@ -2297,7 +2300,7 @@
       <c r="O16" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="P16" s="57" t="s">
+      <c r="P16" s="46" t="s">
         <v>137</v>
       </c>
       <c r="Q16" s="9">
@@ -2306,7 +2309,7 @@
       <c r="R16" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="S16" s="56" t="s">
+      <c r="S16" s="45" t="s">
         <v>145</v>
       </c>
       <c r="T16" s="9">
@@ -2317,7 +2320,7 @@
       </c>
     </row>
     <row r="17" spans="7:21" ht="70" x14ac:dyDescent="0.25">
-      <c r="G17" s="57" t="s">
+      <c r="G17" s="46" t="s">
         <v>138</v>
       </c>
       <c r="H17" s="9">
@@ -2326,7 +2329,7 @@
       <c r="I17" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J17" s="57" t="s">
+      <c r="J17" s="46" t="s">
         <v>138</v>
       </c>
       <c r="K17" s="9">
@@ -2335,7 +2338,7 @@
       <c r="L17" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="M17" s="57" t="s">
+      <c r="M17" s="46" t="s">
         <v>138</v>
       </c>
       <c r="N17" s="9">
@@ -2344,7 +2347,7 @@
       <c r="O17" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="P17" s="57" t="s">
+      <c r="P17" s="46" t="s">
         <v>138</v>
       </c>
       <c r="Q17" s="9">
@@ -2353,7 +2356,7 @@
       <c r="R17" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="S17" s="56" t="s">
+      <c r="S17" s="45" t="s">
         <v>146</v>
       </c>
       <c r="T17" s="9">
@@ -2364,7 +2367,7 @@
       </c>
     </row>
     <row r="18" spans="7:21" ht="70" x14ac:dyDescent="0.25">
-      <c r="G18" s="57" t="s">
+      <c r="G18" s="46" t="s">
         <v>139</v>
       </c>
       <c r="H18" s="9">
@@ -2373,7 +2376,7 @@
       <c r="I18" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J18" s="57" t="s">
+      <c r="J18" s="46" t="s">
         <v>139</v>
       </c>
       <c r="K18" s="9">
@@ -2382,7 +2385,7 @@
       <c r="L18" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="M18" s="57" t="s">
+      <c r="M18" s="46" t="s">
         <v>139</v>
       </c>
       <c r="N18" s="9">
@@ -2391,7 +2394,7 @@
       <c r="O18" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="P18" s="57" t="s">
+      <c r="P18" s="46" t="s">
         <v>139</v>
       </c>
       <c r="Q18" s="9">
@@ -2400,7 +2403,7 @@
       <c r="R18" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="S18" s="56" t="s">
+      <c r="S18" s="45" t="s">
         <v>147</v>
       </c>
       <c r="T18" s="9">
@@ -2411,7 +2414,7 @@
       </c>
     </row>
     <row r="19" spans="7:21" ht="70" x14ac:dyDescent="0.25">
-      <c r="G19" s="58" t="s">
+      <c r="G19" s="47" t="s">
         <v>140</v>
       </c>
       <c r="H19" s="33" t="s">
@@ -2420,7 +2423,7 @@
       <c r="I19" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="J19" s="57" t="s">
+      <c r="J19" s="46" t="s">
         <v>140</v>
       </c>
       <c r="K19" s="9">
@@ -2429,7 +2432,7 @@
       <c r="L19" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="M19" s="57" t="s">
+      <c r="M19" s="46" t="s">
         <v>140</v>
       </c>
       <c r="N19" s="9">
@@ -2438,7 +2441,7 @@
       <c r="O19" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="P19" s="57" t="s">
+      <c r="P19" s="46" t="s">
         <v>140</v>
       </c>
       <c r="Q19" s="9">
@@ -2447,7 +2450,7 @@
       <c r="R19" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="S19" s="59" t="s">
+      <c r="S19" s="48" t="s">
         <v>148</v>
       </c>
       <c r="T19" s="31" t="s">
@@ -2458,7 +2461,7 @@
       </c>
     </row>
     <row r="20" spans="7:21" ht="71" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G20" s="58" t="s">
+      <c r="G20" s="47" t="s">
         <v>141</v>
       </c>
       <c r="H20" s="35" t="s">
@@ -2467,7 +2470,7 @@
       <c r="I20" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="J20" s="58" t="s">
+      <c r="J20" s="47" t="s">
         <v>141</v>
       </c>
       <c r="K20" s="35" t="s">
@@ -2476,7 +2479,7 @@
       <c r="L20" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="M20" s="58" t="s">
+      <c r="M20" s="47" t="s">
         <v>141</v>
       </c>
       <c r="N20" s="35" t="s">
@@ -2485,7 +2488,7 @@
       <c r="O20" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="P20" s="58" t="s">
+      <c r="P20" s="47" t="s">
         <v>141</v>
       </c>
       <c r="Q20" s="35" t="s">
@@ -2494,7 +2497,7 @@
       <c r="R20" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="S20" s="60" t="s">
+      <c r="S20" s="49" t="s">
         <v>149</v>
       </c>
       <c r="T20" s="31" t="s">
@@ -2505,33 +2508,36 @@
       </c>
     </row>
     <row r="21" spans="7:21" ht="92" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="G21" s="50" t="s">
+      <c r="G21" s="39" t="s">
         <v>130</v>
       </c>
       <c r="H21" s="14"/>
-      <c r="I21" s="51">
+      <c r="I21" s="40">
         <v>0.45</v>
       </c>
       <c r="J21" s="15"/>
       <c r="K21" s="16"/>
-      <c r="L21" s="52">
+      <c r="L21" s="41">
         <v>0.46</v>
       </c>
       <c r="M21" s="15"/>
       <c r="N21" s="16"/>
-      <c r="O21" s="54">
+      <c r="O21" s="43">
         <v>0.5</v>
       </c>
       <c r="P21" s="15"/>
       <c r="Q21" s="18"/>
-      <c r="R21" s="54">
+      <c r="R21" s="43">
         <v>0.44</v>
       </c>
       <c r="S21" s="28"/>
       <c r="T21" s="18"/>
-      <c r="U21" s="54">
+      <c r="U21" s="43">
         <v>0.49</v>
       </c>
+    </row>
+    <row r="24" spans="7:21" x14ac:dyDescent="0.2">
+      <c r="L24" s="23"/>
     </row>
     <row r="25" spans="7:21" ht="34" x14ac:dyDescent="0.2">
       <c r="G25" s="12"/>
@@ -2542,53 +2548,84 @@
       <c r="J25" s="13"/>
     </row>
     <row r="26" spans="7:21" ht="49" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G26" s="48"/>
-      <c r="H26" s="49"/>
-      <c r="I26" s="49"/>
-      <c r="J26" s="23"/>
-    </row>
-    <row r="30" spans="7:21" x14ac:dyDescent="0.2">
-      <c r="I30" s="47"/>
-      <c r="J30" s="47"/>
-      <c r="K30" s="46"/>
-      <c r="L30" s="46"/>
-      <c r="M30" s="46"/>
-      <c r="N30" s="46"/>
+      <c r="G26" s="56"/>
+      <c r="H26" s="56"/>
+      <c r="I26" s="56"/>
+      <c r="L26" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="30" spans="7:21" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I30" s="57"/>
+      <c r="J30" s="57"/>
+      <c r="K30" s="57"/>
+      <c r="L30" s="57"/>
+      <c r="M30" s="57"/>
+      <c r="N30" s="57"/>
     </row>
     <row r="31" spans="7:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="I31" s="46"/>
-      <c r="J31" s="46"/>
-      <c r="K31" s="46"/>
-      <c r="L31" s="46"/>
-      <c r="M31" s="46"/>
-      <c r="N31" s="46"/>
+      <c r="I31" s="57"/>
+      <c r="J31" s="57"/>
+      <c r="K31" s="57"/>
+      <c r="L31" s="57"/>
+      <c r="M31" s="57"/>
+      <c r="N31" s="57"/>
     </row>
     <row r="32" spans="7:21" ht="25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G32" s="40" t="s">
+      <c r="G32" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="H32" s="41"/>
-      <c r="I32" s="42"/>
-      <c r="J32" s="26"/>
-    </row>
-    <row r="33" spans="7:19" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H32" s="61"/>
+      <c r="I32" s="62"/>
+      <c r="J32" s="60" t="s">
+        <v>14</v>
+      </c>
+      <c r="K32" s="61"/>
+      <c r="L32" s="62"/>
+      <c r="M32" s="60" t="s">
+        <v>127</v>
+      </c>
+      <c r="N32" s="61"/>
+      <c r="O32" s="62"/>
+      <c r="P32" s="60" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q32" s="61"/>
+      <c r="R32" s="62"/>
+      <c r="S32" s="60" t="s">
+        <v>129</v>
+      </c>
+      <c r="T32" s="61"/>
+      <c r="U32" s="62"/>
+    </row>
+    <row r="33" spans="7:21" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G33" s="1"/>
-      <c r="H33" s="43" t="s">
+      <c r="H33" s="54" t="s">
         <v>78</v>
       </c>
-      <c r="I33" s="44"/>
-      <c r="J33" s="17"/>
-      <c r="K33" s="45"/>
-      <c r="L33" s="46"/>
-      <c r="M33" s="17"/>
-      <c r="N33" s="45"/>
-      <c r="O33" s="46"/>
-      <c r="P33" s="17"/>
-      <c r="Q33" s="45"/>
-      <c r="R33" s="46"/>
-      <c r="S33" s="17"/>
-    </row>
-    <row r="34" spans="7:19" ht="21" x14ac:dyDescent="0.25">
+      <c r="I33" s="63"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="54" t="s">
+        <v>78</v>
+      </c>
+      <c r="L33" s="55"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="54" t="s">
+        <v>78</v>
+      </c>
+      <c r="O33" s="55"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="54" t="s">
+        <v>78</v>
+      </c>
+      <c r="R33" s="55"/>
+      <c r="S33" s="1"/>
+      <c r="T33" s="54" t="s">
+        <v>78</v>
+      </c>
+      <c r="U33" s="55"/>
+    </row>
+    <row r="34" spans="7:21" ht="21" x14ac:dyDescent="0.25">
       <c r="G34" s="2"/>
       <c r="H34" s="8" t="s">
         <v>1</v>
@@ -2596,18 +2633,36 @@
       <c r="I34" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J34" s="19"/>
-      <c r="K34" s="19"/>
-      <c r="L34" s="19"/>
-      <c r="M34" s="19"/>
-      <c r="N34" s="19"/>
-      <c r="O34" s="19"/>
-      <c r="P34" s="19"/>
-      <c r="Q34" s="19"/>
-      <c r="R34" s="19"/>
-      <c r="S34" s="19"/>
-    </row>
-    <row r="35" spans="7:19" ht="24" x14ac:dyDescent="0.3">
+      <c r="J34" s="2"/>
+      <c r="K34" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="L34" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="M34" s="2"/>
+      <c r="N34" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="O34" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="R34" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="S34" s="2"/>
+      <c r="T34" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="U34" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="7:21" ht="24" x14ac:dyDescent="0.3">
       <c r="G35" s="4" t="s">
         <v>0</v>
       </c>
@@ -2617,18 +2672,44 @@
       <c r="I35" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="J35" s="20"/>
-      <c r="K35" s="21"/>
-      <c r="L35" s="20"/>
-      <c r="M35" s="20"/>
-      <c r="N35" s="21"/>
-      <c r="O35" s="20"/>
-      <c r="P35" s="20"/>
-      <c r="Q35" s="21"/>
-      <c r="R35" s="21"/>
-      <c r="S35" s="21"/>
-    </row>
-    <row r="36" spans="7:19" ht="24" x14ac:dyDescent="0.3">
+      <c r="J35" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K35" s="9">
+        <v>1</v>
+      </c>
+      <c r="L35" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="M35" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="N35" s="9">
+        <v>1</v>
+      </c>
+      <c r="O35" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="P35" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="9">
+        <v>1</v>
+      </c>
+      <c r="R35" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="S35" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="T35" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="U35" s="32" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="36" spans="7:21" ht="24" x14ac:dyDescent="0.3">
       <c r="G36" s="4" t="s">
         <v>112</v>
       </c>
@@ -2638,18 +2719,44 @@
       <c r="I36" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="J36" s="20"/>
-      <c r="K36" s="21"/>
-      <c r="L36" s="20"/>
-      <c r="M36" s="20"/>
-      <c r="N36" s="21"/>
-      <c r="O36" s="20"/>
-      <c r="P36" s="20"/>
-      <c r="Q36" s="21"/>
-      <c r="R36" s="21"/>
-      <c r="S36" s="21"/>
-    </row>
-    <row r="37" spans="7:19" ht="24" x14ac:dyDescent="0.3">
+      <c r="J36" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="K36" s="9">
+        <v>1</v>
+      </c>
+      <c r="L36" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="M36" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="N36" s="9">
+        <v>1</v>
+      </c>
+      <c r="O36" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="P36" s="30" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q36" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="R36" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="S36" s="30" t="s">
+        <v>112</v>
+      </c>
+      <c r="T36" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="U36" s="32" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="37" spans="7:21" ht="24" x14ac:dyDescent="0.3">
       <c r="G37" s="4" t="s">
         <v>113</v>
       </c>
@@ -2659,18 +2766,44 @@
       <c r="I37" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="J37" s="20"/>
-      <c r="K37" s="21"/>
-      <c r="L37" s="20"/>
-      <c r="M37" s="20"/>
-      <c r="N37" s="21"/>
-      <c r="O37" s="20"/>
-      <c r="P37" s="20"/>
-      <c r="Q37" s="21"/>
-      <c r="R37" s="21"/>
-      <c r="S37" s="21"/>
-    </row>
-    <row r="38" spans="7:19" ht="24" x14ac:dyDescent="0.3">
+      <c r="J37" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="K37" s="9">
+        <v>1</v>
+      </c>
+      <c r="L37" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="M37" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="N37" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="O37" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="P37" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q37" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="R37" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="S37" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="T37" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="U37" s="32" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="38" spans="7:21" ht="24" x14ac:dyDescent="0.3">
       <c r="G38" s="4" t="s">
         <v>114</v>
       </c>
@@ -2680,18 +2813,44 @@
       <c r="I38" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="J38" s="20"/>
-      <c r="K38" s="21"/>
-      <c r="L38" s="20"/>
-      <c r="M38" s="20"/>
-      <c r="N38" s="21"/>
-      <c r="O38" s="20"/>
-      <c r="P38" s="20"/>
-      <c r="Q38" s="21"/>
-      <c r="R38" s="21"/>
-      <c r="S38" s="21"/>
-    </row>
-    <row r="39" spans="7:19" ht="24" x14ac:dyDescent="0.3">
+      <c r="J38" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="K38" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="L38" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="M38" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="N38" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="O38" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="P38" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q38" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="R38" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="S38" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="T38" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="U38" s="32" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="7:21" ht="24" x14ac:dyDescent="0.3">
       <c r="G39" s="4" t="s">
         <v>115</v>
       </c>
@@ -2701,18 +2860,44 @@
       <c r="I39" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="J39" s="20"/>
-      <c r="K39" s="21"/>
-      <c r="L39" s="20"/>
-      <c r="M39" s="20"/>
-      <c r="N39" s="21"/>
-      <c r="O39" s="20"/>
-      <c r="P39" s="20"/>
-      <c r="Q39" s="21"/>
-      <c r="R39" s="21"/>
-      <c r="S39" s="21"/>
-    </row>
-    <row r="40" spans="7:19" ht="24" x14ac:dyDescent="0.3">
+      <c r="J39" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="K39" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="L39" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="M39" s="50" t="s">
+        <v>121</v>
+      </c>
+      <c r="N39" s="51">
+        <v>1</v>
+      </c>
+      <c r="O39" s="52" t="s">
+        <v>122</v>
+      </c>
+      <c r="P39" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q39" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="R39" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="S39" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="T39" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="U39" s="32" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="40" spans="7:21" ht="24" x14ac:dyDescent="0.3">
       <c r="G40" s="4" t="s">
         <v>116</v>
       </c>
@@ -2722,18 +2907,44 @@
       <c r="I40" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="J40" s="20"/>
-      <c r="K40" s="21"/>
-      <c r="L40" s="20"/>
-      <c r="M40" s="20"/>
-      <c r="N40" s="21"/>
-      <c r="O40" s="20"/>
-      <c r="P40" s="20"/>
-      <c r="Q40" s="21"/>
-      <c r="R40" s="21"/>
-      <c r="S40" s="21"/>
-    </row>
-    <row r="41" spans="7:19" ht="24" x14ac:dyDescent="0.3">
+      <c r="J40" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="K40" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="L40" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="M40" s="50" t="s">
+        <v>123</v>
+      </c>
+      <c r="N40" s="51">
+        <v>1</v>
+      </c>
+      <c r="O40" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="P40" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q40" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="R40" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="S40" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="T40" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="U40" s="32" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="41" spans="7:21" ht="24" x14ac:dyDescent="0.3">
       <c r="G41" s="30" t="s">
         <v>117</v>
       </c>
@@ -2743,18 +2954,36 @@
       <c r="I41" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="J41" s="20"/>
-      <c r="K41" s="21"/>
-      <c r="L41" s="20"/>
-      <c r="M41" s="20"/>
-      <c r="N41" s="21"/>
-      <c r="O41" s="20"/>
-      <c r="P41" s="20"/>
-      <c r="Q41" s="21"/>
-      <c r="R41" s="21"/>
-      <c r="S41" s="21"/>
-    </row>
-    <row r="42" spans="7:19" ht="24" x14ac:dyDescent="0.3">
+      <c r="J41" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="K41" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="L41" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="M41" s="50" t="s">
+        <v>125</v>
+      </c>
+      <c r="N41" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="O41" s="52" t="s">
+        <v>126</v>
+      </c>
+      <c r="P41" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q41" s="9"/>
+      <c r="R41" s="5"/>
+      <c r="S41" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="T41" s="9"/>
+      <c r="U41" s="5"/>
+    </row>
+    <row r="42" spans="7:21" ht="24" x14ac:dyDescent="0.3">
       <c r="G42" s="30" t="s">
         <v>118</v>
       </c>
@@ -2764,18 +2993,36 @@
       <c r="I42" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="J42" s="20"/>
-      <c r="K42" s="21"/>
-      <c r="L42" s="20"/>
-      <c r="M42" s="20"/>
-      <c r="N42" s="21"/>
-      <c r="O42" s="20"/>
-      <c r="P42" s="20"/>
-      <c r="Q42" s="21"/>
-      <c r="R42" s="21"/>
-      <c r="S42" s="21"/>
-    </row>
-    <row r="43" spans="7:19" ht="24" x14ac:dyDescent="0.3">
+      <c r="J42" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="K42" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="L42" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="M42" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="N42" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="O42" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="P42" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q42" s="9"/>
+      <c r="R42" s="5"/>
+      <c r="S42" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="T42" s="9"/>
+      <c r="U42" s="5"/>
+    </row>
+    <row r="43" spans="7:21" ht="24" x14ac:dyDescent="0.3">
       <c r="G43" s="30" t="s">
         <v>119</v>
       </c>
@@ -2785,18 +3032,36 @@
       <c r="I43" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="J43" s="20"/>
-      <c r="K43" s="21"/>
-      <c r="L43" s="20"/>
-      <c r="M43" s="20"/>
-      <c r="N43" s="21"/>
-      <c r="O43" s="20"/>
-      <c r="P43" s="20"/>
-      <c r="Q43" s="21"/>
-      <c r="R43" s="21"/>
-      <c r="S43" s="21"/>
-    </row>
-    <row r="44" spans="7:19" ht="25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J43" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="K43" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="L43" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="M43" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="N43" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="O43" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="P43" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q43" s="11"/>
+      <c r="R43" s="5"/>
+      <c r="S43" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="T43" s="11"/>
+      <c r="U43" s="5"/>
+    </row>
+    <row r="44" spans="7:21" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G44" s="34" t="s">
         <v>120</v>
       </c>
@@ -2806,81 +3071,123 @@
       <c r="I44" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="J44" s="20"/>
-      <c r="K44" s="20"/>
-      <c r="L44" s="20"/>
-      <c r="M44" s="20"/>
-      <c r="N44" s="20"/>
-      <c r="O44" s="20"/>
-      <c r="P44" s="20"/>
-      <c r="Q44" s="20"/>
-      <c r="R44" s="21"/>
-      <c r="S44" s="21"/>
-    </row>
-    <row r="45" spans="7:19" ht="23" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G45" s="55" t="s">
+      <c r="J44" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="K44" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="L44" s="36" t="s">
+        <v>89</v>
+      </c>
+      <c r="M44" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="N44" s="9"/>
+      <c r="O44" s="5"/>
+      <c r="P44" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q44" s="10"/>
+      <c r="R44" s="7"/>
+      <c r="S44" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="T44" s="10"/>
+      <c r="U44" s="7"/>
+    </row>
+    <row r="45" spans="7:21" ht="25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G45" s="44" t="s">
         <v>131</v>
       </c>
       <c r="H45" s="14"/>
-      <c r="I45" s="53">
+      <c r="I45" s="42">
         <v>0.69</v>
       </c>
-      <c r="J45" s="22"/>
-      <c r="K45" s="17"/>
-      <c r="L45" s="22"/>
-      <c r="M45" s="22"/>
-      <c r="N45" s="17"/>
-      <c r="O45" s="22"/>
-      <c r="P45" s="22"/>
-      <c r="R45" s="22"/>
-      <c r="S45" s="22"/>
-    </row>
-    <row r="55" spans="7:16" x14ac:dyDescent="0.2">
-      <c r="I55" s="47"/>
-      <c r="J55" s="47"/>
-      <c r="K55" s="46"/>
-      <c r="L55" s="46"/>
-      <c r="M55" s="46"/>
-      <c r="N55" s="46"/>
-    </row>
-    <row r="56" spans="7:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="I56" s="46"/>
-      <c r="J56" s="46"/>
-      <c r="K56" s="46"/>
-      <c r="L56" s="46"/>
-      <c r="M56" s="46"/>
-      <c r="N56" s="46"/>
-    </row>
-    <row r="57" spans="7:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G57" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="H57" s="41"/>
-      <c r="I57" s="42"/>
+      <c r="J45" s="44" t="s">
+        <v>131</v>
+      </c>
+      <c r="K45" s="14"/>
+      <c r="L45" s="42">
+        <v>0.94</v>
+      </c>
+      <c r="M45" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="N45" s="9"/>
+      <c r="O45" s="5"/>
+      <c r="P45" s="44" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q45" s="14"/>
+      <c r="R45" s="42">
+        <v>0.82</v>
+      </c>
+      <c r="S45" s="44" t="s">
+        <v>131</v>
+      </c>
+      <c r="T45" s="14"/>
+      <c r="U45" s="42">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="46" spans="7:21" ht="24" x14ac:dyDescent="0.3">
+      <c r="M46" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="N46" s="11"/>
+      <c r="O46" s="5"/>
+    </row>
+    <row r="47" spans="7:21" ht="25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M47" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="N47" s="10"/>
+      <c r="O47" s="7"/>
+    </row>
+    <row r="48" spans="7:21" ht="23" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M48" s="44" t="s">
+        <v>131</v>
+      </c>
+      <c r="N48" s="14"/>
+      <c r="O48" s="42">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="53" spans="9:16" x14ac:dyDescent="0.2">
+      <c r="I53" s="64"/>
+    </row>
+    <row r="55" spans="9:16" x14ac:dyDescent="0.2">
+      <c r="I55" s="57"/>
+      <c r="J55" s="57"/>
+      <c r="K55" s="58"/>
+      <c r="L55" s="58"/>
+      <c r="M55" s="58"/>
+      <c r="N55" s="58"/>
+    </row>
+    <row r="56" spans="9:16" x14ac:dyDescent="0.2">
+      <c r="I56" s="58"/>
+      <c r="J56" s="58"/>
+      <c r="K56" s="58"/>
+      <c r="L56" s="58"/>
+      <c r="M56" s="58"/>
+      <c r="N56" s="58"/>
+    </row>
+    <row r="57" spans="9:16" ht="24" x14ac:dyDescent="0.3">
       <c r="J57" s="26"/>
-    </row>
-    <row r="58" spans="7:16" ht="58" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G58" s="1"/>
-      <c r="H58" s="43" t="s">
-        <v>78</v>
-      </c>
-      <c r="I58" s="44"/>
+      <c r="K57" s="64"/>
+      <c r="M57" s="64"/>
+    </row>
+    <row r="58" spans="9:16" ht="58" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J58" s="17"/>
-      <c r="K58" s="45"/>
-      <c r="L58" s="46"/>
+      <c r="K58" s="59"/>
+      <c r="L58" s="58"/>
       <c r="M58" s="17"/>
-      <c r="N58" s="45"/>
-      <c r="O58" s="46"/>
+      <c r="N58" s="59"/>
+      <c r="O58" s="58"/>
       <c r="P58" s="17"/>
     </row>
-    <row r="59" spans="7:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="G59" s="2"/>
-      <c r="H59" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>2</v>
-      </c>
+    <row r="59" spans="9:16" ht="21" x14ac:dyDescent="0.25">
       <c r="J59" s="19"/>
       <c r="K59" s="19"/>
       <c r="L59" s="19"/>
@@ -2889,16 +3196,7 @@
       <c r="O59" s="19"/>
       <c r="P59" s="19"/>
     </row>
-    <row r="60" spans="7:16" ht="24" x14ac:dyDescent="0.3">
-      <c r="G60" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="H60" s="9">
-        <v>1</v>
-      </c>
-      <c r="I60" s="5" t="s">
-        <v>80</v>
-      </c>
+    <row r="60" spans="9:16" ht="21" x14ac:dyDescent="0.25">
       <c r="J60" s="20"/>
       <c r="K60" s="21"/>
       <c r="L60" s="20"/>
@@ -2907,16 +3205,7 @@
       <c r="O60" s="20"/>
       <c r="P60" s="20"/>
     </row>
-    <row r="61" spans="7:16" ht="24" x14ac:dyDescent="0.3">
-      <c r="G61" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="H61" s="9">
-        <v>1</v>
-      </c>
-      <c r="I61" s="5" t="s">
-        <v>81</v>
-      </c>
+    <row r="61" spans="9:16" ht="21" x14ac:dyDescent="0.25">
       <c r="J61" s="20"/>
       <c r="K61" s="21"/>
       <c r="L61" s="20"/>
@@ -2925,16 +3214,7 @@
       <c r="O61" s="20"/>
       <c r="P61" s="20"/>
     </row>
-    <row r="62" spans="7:16" ht="24" x14ac:dyDescent="0.3">
-      <c r="G62" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="H62" s="9">
-        <v>1</v>
-      </c>
-      <c r="I62" s="5" t="s">
-        <v>82</v>
-      </c>
+    <row r="62" spans="9:16" ht="21" x14ac:dyDescent="0.25">
       <c r="J62" s="20"/>
       <c r="K62" s="21"/>
       <c r="L62" s="20"/>
@@ -2943,16 +3223,7 @@
       <c r="O62" s="20"/>
       <c r="P62" s="20"/>
     </row>
-    <row r="63" spans="7:16" ht="24" x14ac:dyDescent="0.3">
-      <c r="G63" s="30" t="s">
-        <v>114</v>
-      </c>
-      <c r="H63" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="I63" s="32" t="s">
-        <v>83</v>
-      </c>
+    <row r="63" spans="9:16" ht="21" x14ac:dyDescent="0.25">
       <c r="J63" s="20"/>
       <c r="K63" s="21"/>
       <c r="L63" s="20"/>
@@ -2961,16 +3232,7 @@
       <c r="O63" s="20"/>
       <c r="P63" s="20"/>
     </row>
-    <row r="64" spans="7:16" ht="24" x14ac:dyDescent="0.3">
-      <c r="G64" s="30" t="s">
-        <v>115</v>
-      </c>
-      <c r="H64" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="I64" s="32" t="s">
-        <v>84</v>
-      </c>
+    <row r="64" spans="9:16" ht="21" x14ac:dyDescent="0.25">
       <c r="J64" s="20"/>
       <c r="K64" s="21"/>
       <c r="L64" s="20"/>
@@ -2979,16 +3241,7 @@
       <c r="O64" s="20"/>
       <c r="P64" s="20"/>
     </row>
-    <row r="65" spans="7:16" ht="24" x14ac:dyDescent="0.3">
-      <c r="G65" s="30" t="s">
-        <v>116</v>
-      </c>
-      <c r="H65" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="I65" s="32" t="s">
-        <v>85</v>
-      </c>
+    <row r="65" spans="9:16" ht="21" x14ac:dyDescent="0.25">
       <c r="J65" s="20"/>
       <c r="K65" s="21"/>
       <c r="L65" s="20"/>
@@ -2997,16 +3250,7 @@
       <c r="O65" s="20"/>
       <c r="P65" s="20"/>
     </row>
-    <row r="66" spans="7:16" ht="24" x14ac:dyDescent="0.3">
-      <c r="G66" s="30" t="s">
-        <v>117</v>
-      </c>
-      <c r="H66" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="I66" s="32" t="s">
-        <v>86</v>
-      </c>
+    <row r="66" spans="9:16" ht="21" x14ac:dyDescent="0.25">
       <c r="J66" s="20"/>
       <c r="K66" s="21"/>
       <c r="L66" s="20"/>
@@ -3015,16 +3259,7 @@
       <c r="O66" s="20"/>
       <c r="P66" s="20"/>
     </row>
-    <row r="67" spans="7:16" ht="24" x14ac:dyDescent="0.3">
-      <c r="G67" s="30" t="s">
-        <v>118</v>
-      </c>
-      <c r="H67" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="I67" s="32" t="s">
-        <v>87</v>
-      </c>
+    <row r="67" spans="9:16" ht="21" x14ac:dyDescent="0.25">
       <c r="J67" s="20"/>
       <c r="K67" s="21"/>
       <c r="L67" s="20"/>
@@ -3033,16 +3268,7 @@
       <c r="O67" s="20"/>
       <c r="P67" s="20"/>
     </row>
-    <row r="68" spans="7:16" ht="24" x14ac:dyDescent="0.3">
-      <c r="G68" s="30" t="s">
-        <v>119</v>
-      </c>
-      <c r="H68" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="I68" s="32" t="s">
-        <v>88</v>
-      </c>
+    <row r="68" spans="9:16" ht="21" x14ac:dyDescent="0.25">
       <c r="J68" s="20"/>
       <c r="K68" s="21"/>
       <c r="L68" s="20"/>
@@ -3051,16 +3277,7 @@
       <c r="O68" s="20"/>
       <c r="P68" s="20"/>
     </row>
-    <row r="69" spans="7:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G69" s="34" t="s">
-        <v>120</v>
-      </c>
-      <c r="H69" s="35" t="s">
-        <v>90</v>
-      </c>
-      <c r="I69" s="36" t="s">
-        <v>89</v>
-      </c>
+    <row r="69" spans="9:16" ht="21" x14ac:dyDescent="0.25">
       <c r="J69" s="20"/>
       <c r="K69" s="20"/>
       <c r="L69" s="20"/>
@@ -3069,14 +3286,7 @@
       <c r="O69" s="20"/>
       <c r="P69" s="20"/>
     </row>
-    <row r="70" spans="7:16" ht="23" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G70" s="55" t="s">
-        <v>131</v>
-      </c>
-      <c r="H70" s="14"/>
-      <c r="I70" s="53">
-        <v>0.94</v>
-      </c>
+    <row r="70" spans="9:16" x14ac:dyDescent="0.2">
       <c r="J70" s="22"/>
       <c r="K70" s="17"/>
       <c r="L70" s="22"/>
@@ -3085,52 +3295,35 @@
       <c r="O70" s="22"/>
       <c r="P70" s="22"/>
     </row>
-    <row r="75" spans="7:16" x14ac:dyDescent="0.2">
-      <c r="I75" s="47"/>
-      <c r="J75" s="47"/>
-      <c r="K75" s="46"/>
-      <c r="L75" s="46"/>
-      <c r="M75" s="46"/>
-      <c r="N75" s="46"/>
-    </row>
-    <row r="76" spans="7:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="I76" s="46"/>
-      <c r="J76" s="46"/>
-      <c r="K76" s="46"/>
-      <c r="L76" s="46"/>
-      <c r="M76" s="46"/>
-      <c r="N76" s="46"/>
-    </row>
-    <row r="77" spans="7:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G77" s="40" t="s">
-        <v>127</v>
-      </c>
-      <c r="H77" s="41"/>
-      <c r="I77" s="42"/>
+    <row r="75" spans="9:16" x14ac:dyDescent="0.2">
+      <c r="I75" s="57"/>
+      <c r="J75" s="57"/>
+      <c r="K75" s="58"/>
+      <c r="L75" s="58"/>
+      <c r="M75" s="58"/>
+      <c r="N75" s="58"/>
+    </row>
+    <row r="76" spans="9:16" x14ac:dyDescent="0.2">
+      <c r="I76" s="58"/>
+      <c r="J76" s="58"/>
+      <c r="K76" s="58"/>
+      <c r="L76" s="58"/>
+      <c r="M76" s="58"/>
+      <c r="N76" s="58"/>
+    </row>
+    <row r="77" spans="9:16" ht="24" x14ac:dyDescent="0.3">
       <c r="J77" s="26"/>
     </row>
-    <row r="78" spans="7:16" ht="59" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G78" s="1"/>
-      <c r="H78" s="43" t="s">
-        <v>78</v>
-      </c>
-      <c r="I78" s="44"/>
+    <row r="78" spans="9:16" ht="59" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J78" s="17"/>
-      <c r="K78" s="45"/>
-      <c r="L78" s="46"/>
+      <c r="K78" s="59"/>
+      <c r="L78" s="58"/>
       <c r="M78" s="17"/>
-      <c r="N78" s="45"/>
-      <c r="O78" s="46"/>
+      <c r="N78" s="59"/>
+      <c r="O78" s="58"/>
       <c r="P78" s="17"/>
     </row>
-    <row r="79" spans="7:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="G79" s="2"/>
-      <c r="H79" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="I79" s="3" t="s">
-        <v>2</v>
-      </c>
+    <row r="79" spans="9:16" ht="21" x14ac:dyDescent="0.25">
       <c r="J79" s="19"/>
       <c r="K79" s="19"/>
       <c r="L79" s="19"/>
@@ -3139,16 +3332,7 @@
       <c r="O79" s="19"/>
       <c r="P79" s="19"/>
     </row>
-    <row r="80" spans="7:16" ht="24" x14ac:dyDescent="0.3">
-      <c r="G80" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="H80" s="9">
-        <v>1</v>
-      </c>
-      <c r="I80" s="5" t="s">
-        <v>91</v>
-      </c>
+    <row r="80" spans="9:16" ht="21" x14ac:dyDescent="0.25">
       <c r="J80" s="20"/>
       <c r="K80" s="21"/>
       <c r="L80" s="20"/>
@@ -3157,16 +3341,7 @@
       <c r="O80" s="20"/>
       <c r="P80" s="20"/>
     </row>
-    <row r="81" spans="6:18" ht="24" x14ac:dyDescent="0.3">
-      <c r="G81" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="H81" s="9">
-        <v>1</v>
-      </c>
-      <c r="I81" s="5" t="s">
-        <v>92</v>
-      </c>
+    <row r="81" spans="6:18" ht="21" x14ac:dyDescent="0.25">
       <c r="J81" s="20"/>
       <c r="K81" s="21"/>
       <c r="L81" s="20"/>
@@ -3175,16 +3350,8 @@
       <c r="O81" s="20"/>
       <c r="P81" s="20"/>
     </row>
-    <row r="82" spans="6:18" ht="24" x14ac:dyDescent="0.3">
-      <c r="G82" s="30" t="s">
-        <v>113</v>
-      </c>
-      <c r="H82" s="31" t="s">
-        <v>106</v>
-      </c>
-      <c r="I82" s="32" t="s">
-        <v>93</v>
-      </c>
+    <row r="82" spans="6:18" ht="21" x14ac:dyDescent="0.25">
+      <c r="G82" s="64"/>
       <c r="J82" s="20"/>
       <c r="K82" s="21"/>
       <c r="L82" s="20"/>
@@ -3193,16 +3360,8 @@
       <c r="O82" s="20"/>
       <c r="P82" s="20"/>
     </row>
-    <row r="83" spans="6:18" ht="24" x14ac:dyDescent="0.3">
-      <c r="G83" s="30" t="s">
-        <v>114</v>
-      </c>
-      <c r="H83" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="I83" s="32" t="s">
-        <v>111</v>
-      </c>
+    <row r="83" spans="6:18" ht="21" x14ac:dyDescent="0.25">
+      <c r="G83" s="64"/>
       <c r="J83" s="20"/>
       <c r="K83" s="21"/>
       <c r="L83" s="20"/>
@@ -3214,16 +3373,8 @@
       <c r="R83" s="20"/>
     </row>
     <row r="84" spans="6:18" ht="21" x14ac:dyDescent="0.25">
-      <c r="F84" s="39"/>
-      <c r="G84" s="61" t="s">
-        <v>121</v>
-      </c>
-      <c r="H84" s="62">
-        <v>1</v>
-      </c>
-      <c r="I84" s="63" t="s">
-        <v>122</v>
-      </c>
+      <c r="F84" s="64"/>
+      <c r="G84" s="64"/>
       <c r="J84" s="20"/>
       <c r="K84" s="21"/>
       <c r="L84" s="20"/>
@@ -3235,16 +3386,8 @@
       <c r="R84" s="20"/>
     </row>
     <row r="85" spans="6:18" ht="21" x14ac:dyDescent="0.25">
-      <c r="F85" s="39"/>
-      <c r="G85" s="61" t="s">
-        <v>123</v>
-      </c>
-      <c r="H85" s="62">
-        <v>1</v>
-      </c>
-      <c r="I85" s="63" t="s">
-        <v>124</v>
-      </c>
+      <c r="F85" s="64"/>
+      <c r="G85" s="64"/>
       <c r="J85" s="20"/>
       <c r="K85" s="21"/>
       <c r="L85" s="20"/>
@@ -3256,16 +3399,8 @@
       <c r="R85" s="20"/>
     </row>
     <row r="86" spans="6:18" ht="21" x14ac:dyDescent="0.25">
-      <c r="F86" s="39"/>
-      <c r="G86" s="61" t="s">
-        <v>125</v>
-      </c>
-      <c r="H86" s="64" t="s">
-        <v>3</v>
-      </c>
-      <c r="I86" s="63" t="s">
-        <v>126</v>
-      </c>
+      <c r="F86" s="64"/>
+      <c r="G86" s="64"/>
       <c r="J86" s="20"/>
       <c r="K86" s="21"/>
       <c r="L86" s="20"/>
@@ -3276,16 +3411,7 @@
       <c r="Q86" s="20"/>
       <c r="R86" s="20"/>
     </row>
-    <row r="87" spans="6:18" ht="24" x14ac:dyDescent="0.3">
-      <c r="G87" s="30" t="s">
-        <v>115</v>
-      </c>
-      <c r="H87" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="I87" s="32" t="s">
-        <v>94</v>
-      </c>
+    <row r="87" spans="6:18" ht="21" x14ac:dyDescent="0.25">
       <c r="J87" s="20"/>
       <c r="K87" s="21"/>
       <c r="L87" s="20"/>
@@ -3294,16 +3420,7 @@
       <c r="O87" s="20"/>
       <c r="P87" s="20"/>
     </row>
-    <row r="88" spans="6:18" ht="24" x14ac:dyDescent="0.3">
-      <c r="G88" s="30" t="s">
-        <v>116</v>
-      </c>
-      <c r="H88" s="31" t="s">
-        <v>104</v>
-      </c>
-      <c r="I88" s="32" t="s">
-        <v>105</v>
-      </c>
+    <row r="88" spans="6:18" ht="21" x14ac:dyDescent="0.25">
       <c r="J88" s="20"/>
       <c r="K88" s="21"/>
       <c r="L88" s="20"/>
@@ -3312,12 +3429,7 @@
       <c r="O88" s="20"/>
       <c r="P88" s="20"/>
     </row>
-    <row r="89" spans="6:18" ht="24" x14ac:dyDescent="0.3">
-      <c r="G89" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="H89" s="9"/>
-      <c r="I89" s="5"/>
+    <row r="89" spans="6:18" ht="21" x14ac:dyDescent="0.25">
       <c r="J89" s="20"/>
       <c r="K89" s="21"/>
       <c r="L89" s="20"/>
@@ -3326,12 +3438,7 @@
       <c r="O89" s="20"/>
       <c r="P89" s="20"/>
     </row>
-    <row r="90" spans="6:18" ht="24" x14ac:dyDescent="0.3">
-      <c r="G90" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="H90" s="9"/>
-      <c r="I90" s="5"/>
+    <row r="90" spans="6:18" ht="21" x14ac:dyDescent="0.25">
       <c r="J90" s="20"/>
       <c r="K90" s="21"/>
       <c r="L90" s="20"/>
@@ -3340,12 +3447,7 @@
       <c r="O90" s="20"/>
       <c r="P90" s="20"/>
     </row>
-    <row r="91" spans="6:18" ht="24" x14ac:dyDescent="0.3">
-      <c r="G91" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="H91" s="11"/>
-      <c r="I91" s="5"/>
+    <row r="91" spans="6:18" ht="21" x14ac:dyDescent="0.25">
       <c r="J91" s="20"/>
       <c r="K91" s="21"/>
       <c r="L91" s="20"/>
@@ -3354,12 +3456,7 @@
       <c r="O91" s="20"/>
       <c r="P91" s="20"/>
     </row>
-    <row r="92" spans="6:18" ht="25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G92" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="H92" s="10"/>
-      <c r="I92" s="7"/>
+    <row r="92" spans="6:18" ht="21" x14ac:dyDescent="0.25">
       <c r="J92" s="20"/>
       <c r="K92" s="20"/>
       <c r="L92" s="20"/>
@@ -3368,14 +3465,7 @@
       <c r="O92" s="20"/>
       <c r="P92" s="20"/>
     </row>
-    <row r="93" spans="6:18" ht="23" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G93" s="55" t="s">
-        <v>131</v>
-      </c>
-      <c r="H93" s="14"/>
-      <c r="I93" s="53">
-        <v>0.94</v>
-      </c>
+    <row r="93" spans="6:18" x14ac:dyDescent="0.2">
       <c r="J93" s="22"/>
       <c r="K93" s="17"/>
       <c r="L93" s="22"/>
@@ -3384,289 +3474,33 @@
       <c r="O93" s="22"/>
       <c r="P93" s="22"/>
     </row>
-    <row r="100" spans="7:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="101" spans="7:9" ht="25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G101" s="40" t="s">
-        <v>128</v>
-      </c>
-      <c r="H101" s="41"/>
-      <c r="I101" s="42"/>
-    </row>
-    <row r="102" spans="7:9" ht="62" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G102" s="1"/>
-      <c r="H102" s="43" t="s">
-        <v>78</v>
-      </c>
-      <c r="I102" s="44"/>
-    </row>
-    <row r="103" spans="7:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="G103" s="2"/>
-      <c r="H103" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="I103" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="104" spans="7:9" ht="24" x14ac:dyDescent="0.3">
-      <c r="G104" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="H104" s="9">
-        <v>1</v>
-      </c>
-      <c r="I104" s="5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="105" spans="7:9" ht="24" x14ac:dyDescent="0.3">
-      <c r="G105" s="30" t="s">
-        <v>112</v>
-      </c>
-      <c r="H105" s="31" t="s">
-        <v>96</v>
-      </c>
-      <c r="I105" s="32" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="106" spans="7:9" ht="24" x14ac:dyDescent="0.3">
-      <c r="G106" s="30" t="s">
-        <v>113</v>
-      </c>
-      <c r="H106" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="I106" s="32" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="107" spans="7:9" ht="24" x14ac:dyDescent="0.3">
-      <c r="G107" s="30" t="s">
-        <v>114</v>
-      </c>
-      <c r="H107" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="I107" s="32" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="108" spans="7:9" ht="24" x14ac:dyDescent="0.3">
-      <c r="G108" s="30" t="s">
-        <v>115</v>
-      </c>
-      <c r="H108" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="I108" s="32" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="109" spans="7:9" ht="24" x14ac:dyDescent="0.3">
-      <c r="G109" s="30" t="s">
-        <v>116</v>
-      </c>
-      <c r="H109" s="31" t="s">
-        <v>102</v>
-      </c>
-      <c r="I109" s="32" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="110" spans="7:9" ht="24" x14ac:dyDescent="0.3">
-      <c r="G110" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="H110" s="9"/>
-      <c r="I110" s="5"/>
-    </row>
-    <row r="111" spans="7:9" ht="24" x14ac:dyDescent="0.3">
-      <c r="G111" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="H111" s="9"/>
-      <c r="I111" s="5"/>
-    </row>
-    <row r="112" spans="7:9" ht="24" x14ac:dyDescent="0.3">
-      <c r="G112" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="H112" s="11"/>
-      <c r="I112" s="5"/>
-    </row>
-    <row r="113" spans="7:9" ht="25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G113" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="H113" s="10"/>
-      <c r="I113" s="7"/>
-    </row>
-    <row r="114" spans="7:9" ht="23" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G114" s="55" t="s">
-        <v>131</v>
-      </c>
-      <c r="H114" s="14"/>
-      <c r="I114" s="53">
-        <v>0.82</v>
-      </c>
-    </row>
-    <row r="119" spans="7:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="120" spans="7:9" ht="25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G120" s="40" t="s">
-        <v>129</v>
-      </c>
-      <c r="H120" s="41"/>
-      <c r="I120" s="42"/>
-    </row>
-    <row r="121" spans="7:9" ht="26" x14ac:dyDescent="0.2">
-      <c r="G121" s="1"/>
-      <c r="H121" s="43" t="s">
-        <v>78</v>
-      </c>
-      <c r="I121" s="44"/>
-    </row>
-    <row r="122" spans="7:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="G122" s="2"/>
-      <c r="H122" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="I122" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="123" spans="7:9" ht="24" x14ac:dyDescent="0.3">
-      <c r="G123" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="H123" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="I123" s="32" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="124" spans="7:9" ht="24" x14ac:dyDescent="0.3">
-      <c r="G124" s="30" t="s">
-        <v>112</v>
-      </c>
-      <c r="H124" s="31" t="s">
-        <v>102</v>
-      </c>
-      <c r="I124" s="32" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="125" spans="7:9" ht="24" x14ac:dyDescent="0.3">
-      <c r="G125" s="30" t="s">
-        <v>113</v>
-      </c>
-      <c r="H125" s="31" t="s">
-        <v>102</v>
-      </c>
-      <c r="I125" s="32" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="126" spans="7:9" ht="24" x14ac:dyDescent="0.3">
-      <c r="G126" s="30" t="s">
-        <v>114</v>
-      </c>
-      <c r="H126" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="I126" s="32" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="127" spans="7:9" ht="24" x14ac:dyDescent="0.3">
-      <c r="G127" s="30" t="s">
-        <v>115</v>
-      </c>
-      <c r="H127" s="31" t="s">
-        <v>109</v>
-      </c>
-      <c r="I127" s="32" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="128" spans="7:9" ht="24" x14ac:dyDescent="0.3">
-      <c r="G128" s="30" t="s">
-        <v>116</v>
-      </c>
-      <c r="H128" s="31" t="s">
-        <v>102</v>
-      </c>
-      <c r="I128" s="32" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="129" spans="7:9" ht="24" x14ac:dyDescent="0.3">
-      <c r="G129" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="H129" s="9"/>
-      <c r="I129" s="5"/>
-    </row>
-    <row r="130" spans="7:9" ht="24" x14ac:dyDescent="0.3">
-      <c r="G130" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="H130" s="9"/>
-      <c r="I130" s="5"/>
-    </row>
-    <row r="131" spans="7:9" ht="24" x14ac:dyDescent="0.3">
-      <c r="G131" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="H131" s="11"/>
-      <c r="I131" s="5"/>
-    </row>
-    <row r="132" spans="7:9" ht="25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G132" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="H132" s="10"/>
-      <c r="I132" s="7"/>
-    </row>
-    <row r="133" spans="7:9" ht="23" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G133" s="55" t="s">
-        <v>131</v>
-      </c>
-      <c r="H133" s="14"/>
-      <c r="I133" s="53">
-        <v>0.86</v>
-      </c>
-    </row>
+    <row r="102" ht="62" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="24">
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="P32:R32"/>
+    <mergeCell ref="Q33:R33"/>
+    <mergeCell ref="S32:U32"/>
+    <mergeCell ref="T33:U33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="K78:L78"/>
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="M32:O32"/>
+    <mergeCell ref="I55:N56"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="I75:N76"/>
+    <mergeCell ref="I30:N31"/>
+    <mergeCell ref="H33:I33"/>
     <mergeCell ref="T9:U9"/>
-    <mergeCell ref="G26:I26"/>
     <mergeCell ref="I6:N7"/>
     <mergeCell ref="Q9:R9"/>
     <mergeCell ref="H9:I9"/>
     <mergeCell ref="K9:L9"/>
     <mergeCell ref="N9:O9"/>
-    <mergeCell ref="I30:N31"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="Q33:R33"/>
-    <mergeCell ref="K78:L78"/>
-    <mergeCell ref="N78:O78"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="G57:I57"/>
-    <mergeCell ref="G77:I77"/>
-    <mergeCell ref="I55:N56"/>
-    <mergeCell ref="H58:I58"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="N58:O58"/>
-    <mergeCell ref="I75:N76"/>
-    <mergeCell ref="G101:I101"/>
-    <mergeCell ref="H102:I102"/>
-    <mergeCell ref="G120:I120"/>
-    <mergeCell ref="H121:I121"/>
-    <mergeCell ref="H78:I78"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/reports/Results.xlsx
+++ b/reports/Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/moe/Desktop/puf-auth-ml/reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CAFD7AD-0E13-F545-B169-A47437DD8824}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97B1FFFC-DE63-7845-919B-EB1EAFC4B255}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{65BD7D84-E0D3-BF4C-8AA6-282CCD8082D7}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19460" xr2:uid="{65BD7D84-E0D3-BF4C-8AA6-282CCD8082D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1297,7 +1297,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1450,31 +1450,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1626,6 +1625,301 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1848970</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>112058</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="184731" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="TextBox 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F95F6F31-946A-6F95-8B4E-F249DC7B164C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19423529" y="21328529"/>
+          <a:ext cx="184731" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>159373</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>169831</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7262694" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="TextBox 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E1EAAE8-BF85-3BBA-ABD4-0412FE3B3C71}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17786973" y="21471964"/>
+          <a:ext cx="7262694" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" b="1"/>
+            <a:t>Below you can see the original response, which is 256 bits in length, with 30% corruption at the bottom, top, and middle.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>2259853</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>149412</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1357406</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>192741</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8159FF8-97E8-F447-3E4A-D5141954D59E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13428382" y="21982206"/>
+          <a:ext cx="3505200" cy="1892300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1905001</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>149412</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>546848</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>7471</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0139584B-C27C-6004-9B02-1FC896E6F697}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17481177" y="21982206"/>
+          <a:ext cx="3441700" cy="1968500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>1524000</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>1143000</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>241300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Picture 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58DF401F-23D9-09D8-4F0B-C8FCE590AF13}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25412700" y="21932900"/>
+          <a:ext cx="3543300" cy="1943100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>992747</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>169928</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>1138051</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>250422</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Picture 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0FEBACB-C7EB-75F5-F8DF-C6F36FC7469F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21357465" y="21983520"/>
+          <a:ext cx="3642276" cy="1940775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1928,10 +2222,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F7AB769-A4AB-314C-9FAA-CEF8525B9786}">
-  <dimension ref="F6:V102"/>
+  <dimension ref="G6:V102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C20" zoomScale="68" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="J51" sqref="J51"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="50" zoomScaleNormal="88" workbookViewId="0">
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1953,22 +2247,22 @@
   </cols>
   <sheetData>
     <row r="6" spans="7:22" x14ac:dyDescent="0.2">
-      <c r="I6" s="57" t="s">
+      <c r="I6" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="57"/>
-      <c r="K6" s="58"/>
-      <c r="L6" s="58"/>
-      <c r="M6" s="58"/>
-      <c r="N6" s="58"/>
+      <c r="J6" s="56"/>
+      <c r="K6" s="57"/>
+      <c r="L6" s="57"/>
+      <c r="M6" s="57"/>
+      <c r="N6" s="57"/>
     </row>
     <row r="7" spans="7:22" x14ac:dyDescent="0.2">
-      <c r="I7" s="58"/>
-      <c r="J7" s="58"/>
-      <c r="K7" s="58"/>
-      <c r="L7" s="58"/>
-      <c r="M7" s="58"/>
-      <c r="N7" s="58"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
+      <c r="K7" s="57"/>
+      <c r="L7" s="57"/>
+      <c r="M7" s="57"/>
+      <c r="N7" s="57"/>
     </row>
     <row r="8" spans="7:22" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="7:22" ht="82" customHeight="1" x14ac:dyDescent="0.2">
@@ -2548,62 +2842,62 @@
       <c r="J25" s="13"/>
     </row>
     <row r="26" spans="7:21" ht="49" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G26" s="56"/>
-      <c r="H26" s="56"/>
-      <c r="I26" s="56"/>
+      <c r="G26" s="63"/>
+      <c r="H26" s="63"/>
+      <c r="I26" s="63"/>
       <c r="L26" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="30" spans="7:21" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I30" s="57"/>
-      <c r="J30" s="57"/>
-      <c r="K30" s="57"/>
-      <c r="L30" s="57"/>
-      <c r="M30" s="57"/>
-      <c r="N30" s="57"/>
+      <c r="I30" s="56"/>
+      <c r="J30" s="56"/>
+      <c r="K30" s="56"/>
+      <c r="L30" s="56"/>
+      <c r="M30" s="56"/>
+      <c r="N30" s="56"/>
     </row>
     <row r="31" spans="7:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="I31" s="57"/>
-      <c r="J31" s="57"/>
-      <c r="K31" s="57"/>
-      <c r="L31" s="57"/>
-      <c r="M31" s="57"/>
-      <c r="N31" s="57"/>
+      <c r="I31" s="56"/>
+      <c r="J31" s="56"/>
+      <c r="K31" s="56"/>
+      <c r="L31" s="56"/>
+      <c r="M31" s="56"/>
+      <c r="N31" s="56"/>
     </row>
     <row r="32" spans="7:21" ht="25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G32" s="60" t="s">
+      <c r="G32" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="H32" s="61"/>
-      <c r="I32" s="62"/>
-      <c r="J32" s="60" t="s">
+      <c r="H32" s="60"/>
+      <c r="I32" s="61"/>
+      <c r="J32" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="K32" s="61"/>
-      <c r="L32" s="62"/>
-      <c r="M32" s="60" t="s">
+      <c r="K32" s="60"/>
+      <c r="L32" s="61"/>
+      <c r="M32" s="59" t="s">
         <v>127</v>
       </c>
-      <c r="N32" s="61"/>
-      <c r="O32" s="62"/>
-      <c r="P32" s="60" t="s">
+      <c r="N32" s="60"/>
+      <c r="O32" s="61"/>
+      <c r="P32" s="59" t="s">
         <v>128</v>
       </c>
-      <c r="Q32" s="61"/>
-      <c r="R32" s="62"/>
-      <c r="S32" s="60" t="s">
+      <c r="Q32" s="60"/>
+      <c r="R32" s="61"/>
+      <c r="S32" s="59" t="s">
         <v>129</v>
       </c>
-      <c r="T32" s="61"/>
-      <c r="U32" s="62"/>
+      <c r="T32" s="60"/>
+      <c r="U32" s="61"/>
     </row>
     <row r="33" spans="7:21" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G33" s="1"/>
       <c r="H33" s="54" t="s">
         <v>78</v>
       </c>
-      <c r="I33" s="63"/>
+      <c r="I33" s="62"/>
       <c r="J33" s="1"/>
       <c r="K33" s="54" t="s">
         <v>78</v>
@@ -3154,37 +3448,32 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="53" spans="9:16" x14ac:dyDescent="0.2">
-      <c r="I53" s="64"/>
-    </row>
     <row r="55" spans="9:16" x14ac:dyDescent="0.2">
-      <c r="I55" s="57"/>
-      <c r="J55" s="57"/>
-      <c r="K55" s="58"/>
-      <c r="L55" s="58"/>
-      <c r="M55" s="58"/>
-      <c r="N55" s="58"/>
+      <c r="I55" s="56"/>
+      <c r="J55" s="56"/>
+      <c r="K55" s="57"/>
+      <c r="L55" s="57"/>
+      <c r="M55" s="57"/>
+      <c r="N55" s="57"/>
     </row>
     <row r="56" spans="9:16" x14ac:dyDescent="0.2">
-      <c r="I56" s="58"/>
-      <c r="J56" s="58"/>
-      <c r="K56" s="58"/>
-      <c r="L56" s="58"/>
-      <c r="M56" s="58"/>
-      <c r="N56" s="58"/>
+      <c r="I56" s="57"/>
+      <c r="J56" s="57"/>
+      <c r="K56" s="57"/>
+      <c r="L56" s="57"/>
+      <c r="M56" s="57"/>
+      <c r="N56" s="57"/>
     </row>
     <row r="57" spans="9:16" ht="24" x14ac:dyDescent="0.3">
       <c r="J57" s="26"/>
-      <c r="K57" s="64"/>
-      <c r="M57" s="64"/>
     </row>
     <row r="58" spans="9:16" ht="58" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J58" s="17"/>
-      <c r="K58" s="59"/>
-      <c r="L58" s="58"/>
+      <c r="K58" s="58"/>
+      <c r="L58" s="57"/>
       <c r="M58" s="17"/>
-      <c r="N58" s="59"/>
-      <c r="O58" s="58"/>
+      <c r="N58" s="58"/>
+      <c r="O58" s="57"/>
       <c r="P58" s="17"/>
     </row>
     <row r="59" spans="9:16" ht="21" x14ac:dyDescent="0.25">
@@ -3296,31 +3585,31 @@
       <c r="P70" s="22"/>
     </row>
     <row r="75" spans="9:16" x14ac:dyDescent="0.2">
-      <c r="I75" s="57"/>
-      <c r="J75" s="57"/>
-      <c r="K75" s="58"/>
-      <c r="L75" s="58"/>
-      <c r="M75" s="58"/>
-      <c r="N75" s="58"/>
+      <c r="I75" s="56"/>
+      <c r="J75" s="56"/>
+      <c r="K75" s="57"/>
+      <c r="L75" s="57"/>
+      <c r="M75" s="57"/>
+      <c r="N75" s="57"/>
     </row>
     <row r="76" spans="9:16" x14ac:dyDescent="0.2">
-      <c r="I76" s="58"/>
-      <c r="J76" s="58"/>
-      <c r="K76" s="58"/>
-      <c r="L76" s="58"/>
-      <c r="M76" s="58"/>
-      <c r="N76" s="58"/>
+      <c r="I76" s="57"/>
+      <c r="J76" s="57"/>
+      <c r="K76" s="57"/>
+      <c r="L76" s="57"/>
+      <c r="M76" s="57"/>
+      <c r="N76" s="57"/>
     </row>
     <row r="77" spans="9:16" ht="24" x14ac:dyDescent="0.3">
       <c r="J77" s="26"/>
     </row>
     <row r="78" spans="9:16" ht="59" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J78" s="17"/>
-      <c r="K78" s="59"/>
-      <c r="L78" s="58"/>
+      <c r="K78" s="58"/>
+      <c r="L78" s="57"/>
       <c r="M78" s="17"/>
-      <c r="N78" s="59"/>
-      <c r="O78" s="58"/>
+      <c r="N78" s="58"/>
+      <c r="O78" s="57"/>
       <c r="P78" s="17"/>
     </row>
     <row r="79" spans="9:16" ht="21" x14ac:dyDescent="0.25">
@@ -3341,7 +3630,7 @@
       <c r="O80" s="20"/>
       <c r="P80" s="20"/>
     </row>
-    <row r="81" spans="6:18" ht="21" x14ac:dyDescent="0.25">
+    <row r="81" spans="10:18" ht="21" x14ac:dyDescent="0.25">
       <c r="J81" s="20"/>
       <c r="K81" s="21"/>
       <c r="L81" s="20"/>
@@ -3350,8 +3639,7 @@
       <c r="O81" s="20"/>
       <c r="P81" s="20"/>
     </row>
-    <row r="82" spans="6:18" ht="21" x14ac:dyDescent="0.25">
-      <c r="G82" s="64"/>
+    <row r="82" spans="10:18" ht="21" x14ac:dyDescent="0.25">
       <c r="J82" s="20"/>
       <c r="K82" s="21"/>
       <c r="L82" s="20"/>
@@ -3360,8 +3648,7 @@
       <c r="O82" s="20"/>
       <c r="P82" s="20"/>
     </row>
-    <row r="83" spans="6:18" ht="21" x14ac:dyDescent="0.25">
-      <c r="G83" s="64"/>
+    <row r="83" spans="10:18" ht="21" x14ac:dyDescent="0.25">
       <c r="J83" s="20"/>
       <c r="K83" s="21"/>
       <c r="L83" s="20"/>
@@ -3372,9 +3659,7 @@
       <c r="Q83" s="20"/>
       <c r="R83" s="20"/>
     </row>
-    <row r="84" spans="6:18" ht="21" x14ac:dyDescent="0.25">
-      <c r="F84" s="64"/>
-      <c r="G84" s="64"/>
+    <row r="84" spans="10:18" ht="21" x14ac:dyDescent="0.25">
       <c r="J84" s="20"/>
       <c r="K84" s="21"/>
       <c r="L84" s="20"/>
@@ -3385,9 +3670,7 @@
       <c r="Q84" s="20"/>
       <c r="R84" s="20"/>
     </row>
-    <row r="85" spans="6:18" ht="21" x14ac:dyDescent="0.25">
-      <c r="F85" s="64"/>
-      <c r="G85" s="64"/>
+    <row r="85" spans="10:18" ht="21" x14ac:dyDescent="0.25">
       <c r="J85" s="20"/>
       <c r="K85" s="21"/>
       <c r="L85" s="20"/>
@@ -3398,9 +3681,7 @@
       <c r="Q85" s="20"/>
       <c r="R85" s="20"/>
     </row>
-    <row r="86" spans="6:18" ht="21" x14ac:dyDescent="0.25">
-      <c r="F86" s="64"/>
-      <c r="G86" s="64"/>
+    <row r="86" spans="10:18" ht="21" x14ac:dyDescent="0.25">
       <c r="J86" s="20"/>
       <c r="K86" s="21"/>
       <c r="L86" s="20"/>
@@ -3411,7 +3692,7 @@
       <c r="Q86" s="20"/>
       <c r="R86" s="20"/>
     </row>
-    <row r="87" spans="6:18" ht="21" x14ac:dyDescent="0.25">
+    <row r="87" spans="10:18" ht="21" x14ac:dyDescent="0.25">
       <c r="J87" s="20"/>
       <c r="K87" s="21"/>
       <c r="L87" s="20"/>
@@ -3420,7 +3701,7 @@
       <c r="O87" s="20"/>
       <c r="P87" s="20"/>
     </row>
-    <row r="88" spans="6:18" ht="21" x14ac:dyDescent="0.25">
+    <row r="88" spans="10:18" ht="21" x14ac:dyDescent="0.25">
       <c r="J88" s="20"/>
       <c r="K88" s="21"/>
       <c r="L88" s="20"/>
@@ -3429,7 +3710,7 @@
       <c r="O88" s="20"/>
       <c r="P88" s="20"/>
     </row>
-    <row r="89" spans="6:18" ht="21" x14ac:dyDescent="0.25">
+    <row r="89" spans="10:18" ht="21" x14ac:dyDescent="0.25">
       <c r="J89" s="20"/>
       <c r="K89" s="21"/>
       <c r="L89" s="20"/>
@@ -3438,7 +3719,7 @@
       <c r="O89" s="20"/>
       <c r="P89" s="20"/>
     </row>
-    <row r="90" spans="6:18" ht="21" x14ac:dyDescent="0.25">
+    <row r="90" spans="10:18" ht="21" x14ac:dyDescent="0.25">
       <c r="J90" s="20"/>
       <c r="K90" s="21"/>
       <c r="L90" s="20"/>
@@ -3447,7 +3728,7 @@
       <c r="O90" s="20"/>
       <c r="P90" s="20"/>
     </row>
-    <row r="91" spans="6:18" ht="21" x14ac:dyDescent="0.25">
+    <row r="91" spans="10:18" ht="21" x14ac:dyDescent="0.25">
       <c r="J91" s="20"/>
       <c r="K91" s="21"/>
       <c r="L91" s="20"/>
@@ -3456,7 +3737,7 @@
       <c r="O91" s="20"/>
       <c r="P91" s="20"/>
     </row>
-    <row r="92" spans="6:18" ht="21" x14ac:dyDescent="0.25">
+    <row r="92" spans="10:18" ht="21" x14ac:dyDescent="0.25">
       <c r="J92" s="20"/>
       <c r="K92" s="20"/>
       <c r="L92" s="20"/>
@@ -3465,7 +3746,7 @@
       <c r="O92" s="20"/>
       <c r="P92" s="20"/>
     </row>
-    <row r="93" spans="6:18" x14ac:dyDescent="0.2">
+    <row r="93" spans="10:18" x14ac:dyDescent="0.2">
       <c r="J93" s="22"/>
       <c r="K93" s="17"/>
       <c r="L93" s="22"/>
@@ -3484,6 +3765,7 @@
     <mergeCell ref="S32:U32"/>
     <mergeCell ref="T33:U33"/>
     <mergeCell ref="N33:O33"/>
+    <mergeCell ref="I30:N31"/>
     <mergeCell ref="K78:L78"/>
     <mergeCell ref="N78:O78"/>
     <mergeCell ref="J32:L32"/>
@@ -3493,7 +3775,6 @@
     <mergeCell ref="K58:L58"/>
     <mergeCell ref="N58:O58"/>
     <mergeCell ref="I75:N76"/>
-    <mergeCell ref="I30:N31"/>
     <mergeCell ref="H33:I33"/>
     <mergeCell ref="T9:U9"/>
     <mergeCell ref="I6:N7"/>

--- a/reports/Results.xlsx
+++ b/reports/Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/moe/Desktop/puf-auth-ml/reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97B1FFFC-DE63-7845-919B-EB1EAFC4B255}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14526427-1DD8-454D-9E1E-C3672CAA7A43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19460" xr2:uid="{65BD7D84-E0D3-BF4C-8AA6-282CCD8082D7}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16120" xr2:uid="{65BD7D84-E0D3-BF4C-8AA6-282CCD8082D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="171">
   <si>
     <t>Intact</t>
   </si>
@@ -1053,12 +1053,72 @@
   <si>
     <t xml:space="preserve">   </t>
   </si>
+  <si>
+    <t>All-0</t>
+  </si>
+  <si>
+    <t>All-1</t>
+  </si>
+  <si>
+    <t>Augmented with "Unknown" class</t>
+  </si>
+  <si>
+    <t>Accuracy/ Average Confidence</t>
+  </si>
+  <si>
+    <t>C-10-All</t>
+  </si>
+  <si>
+    <t>C-20-All</t>
+  </si>
+  <si>
+    <t>C-30-All</t>
+  </si>
+  <si>
+    <t>C-40-All</t>
+  </si>
+  <si>
+    <t>C-50-All</t>
+  </si>
+  <si>
+    <t>C-60-All</t>
+  </si>
+  <si>
+    <t>100%  98.81%</t>
+  </si>
+  <si>
+    <t>100%  98.51%</t>
+  </si>
+  <si>
+    <t>100%  97.03%</t>
+  </si>
+  <si>
+    <t>100% 94.01%</t>
+  </si>
+  <si>
+    <t>100%  87.86%</t>
+  </si>
+  <si>
+    <t>100%. 76.89%</t>
+  </si>
+  <si>
+    <t>1.28%  60.15%</t>
+  </si>
+  <si>
+    <t>Random</t>
+  </si>
+  <si>
+    <t>83% confidence Correct to Unknown</t>
+  </si>
+  <si>
+    <t>87% Confidence to Unknown</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1132,6 +1192,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1153,7 +1221,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -1293,11 +1361,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1444,6 +1521,18 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1453,26 +1542,30 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1686,8 +1779,8 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>159373</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>169831</xdr:rowOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>157131</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="7262694" cy="264560"/>
     <xdr:sp macro="" textlink="">
@@ -1703,7 +1796,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17786973" y="21471964"/>
+          <a:off x="17761573" y="21556631"/>
           <a:ext cx="7262694" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1799,7 +1892,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>546848</xdr:colOff>
+      <xdr:colOff>178548</xdr:colOff>
       <xdr:row>59</xdr:row>
       <xdr:rowOff>7471</xdr:rowOff>
     </xdr:to>
@@ -2222,10 +2315,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F7AB769-A4AB-314C-9FAA-CEF8525B9786}">
-  <dimension ref="G6:V102"/>
+  <dimension ref="F6:V104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="50" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+    <sheetView tabSelected="1" topLeftCell="I57" zoomScaleNormal="88" workbookViewId="0">
+      <selection activeCell="O72" sqref="O72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2236,7 +2329,7 @@
     <col min="10" max="10" width="39.1640625" customWidth="1"/>
     <col min="11" max="11" width="18.6640625" customWidth="1"/>
     <col min="12" max="12" width="26.33203125" customWidth="1"/>
-    <col min="13" max="13" width="36.6640625" customWidth="1"/>
+    <col min="13" max="13" width="41.5" customWidth="1"/>
     <col min="14" max="14" width="18.5" customWidth="1"/>
     <col min="15" max="15" width="27.33203125" customWidth="1"/>
     <col min="16" max="16" width="35.5" customWidth="1"/>
@@ -2247,50 +2340,50 @@
   </cols>
   <sheetData>
     <row r="6" spans="7:22" x14ac:dyDescent="0.2">
-      <c r="I6" s="56" t="s">
+      <c r="I6" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="56"/>
-      <c r="K6" s="57"/>
-      <c r="L6" s="57"/>
-      <c r="M6" s="57"/>
-      <c r="N6" s="57"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="62"/>
+      <c r="L6" s="62"/>
+      <c r="M6" s="62"/>
+      <c r="N6" s="62"/>
     </row>
     <row r="7" spans="7:22" x14ac:dyDescent="0.2">
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
-      <c r="K7" s="57"/>
-      <c r="L7" s="57"/>
-      <c r="M7" s="57"/>
-      <c r="N7" s="57"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="62"/>
+      <c r="K7" s="62"/>
+      <c r="L7" s="62"/>
+      <c r="M7" s="62"/>
+      <c r="N7" s="62"/>
     </row>
     <row r="8" spans="7:22" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="7:22" ht="82" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G9" s="1"/>
-      <c r="H9" s="54" t="s">
+      <c r="H9" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="I9" s="55"/>
+      <c r="I9" s="59"/>
       <c r="J9" s="25"/>
-      <c r="K9" s="54" t="s">
+      <c r="K9" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="L9" s="55"/>
+      <c r="L9" s="59"/>
       <c r="M9" s="25"/>
-      <c r="N9" s="54" t="s">
+      <c r="N9" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="O9" s="55"/>
+      <c r="O9" s="59"/>
       <c r="P9" s="25"/>
-      <c r="Q9" s="54" t="s">
+      <c r="Q9" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="R9" s="55"/>
+      <c r="R9" s="59"/>
       <c r="S9" s="25"/>
-      <c r="T9" s="54" t="s">
+      <c r="T9" s="58" t="s">
         <v>79</v>
       </c>
-      <c r="U9" s="55"/>
+      <c r="U9" s="59"/>
       <c r="V9" s="2"/>
     </row>
     <row r="10" spans="7:22" ht="21" x14ac:dyDescent="0.25">
@@ -2613,7 +2706,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="7:21" ht="70" x14ac:dyDescent="0.25">
+    <row r="17" spans="6:22" ht="70" x14ac:dyDescent="0.25">
       <c r="G17" s="46" t="s">
         <v>138</v>
       </c>
@@ -2660,7 +2753,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="18" spans="7:21" ht="70" x14ac:dyDescent="0.25">
+    <row r="18" spans="6:22" ht="70" x14ac:dyDescent="0.25">
       <c r="G18" s="46" t="s">
         <v>139</v>
       </c>
@@ -2707,7 +2800,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="7:21" ht="70" x14ac:dyDescent="0.25">
+    <row r="19" spans="6:22" ht="70" x14ac:dyDescent="0.25">
       <c r="G19" s="47" t="s">
         <v>140</v>
       </c>
@@ -2754,7 +2847,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="7:21" ht="71" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="6:22" ht="71" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G20" s="47" t="s">
         <v>141</v>
       </c>
@@ -2801,7 +2894,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="7:21" ht="92" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="6:22" ht="92" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="G21" s="39" t="s">
         <v>130</v>
       </c>
@@ -2830,10 +2923,71 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="24" spans="7:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="6:22" ht="25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F22" s="64"/>
+      <c r="G22" s="40" t="s">
+        <v>151</v>
+      </c>
+      <c r="H22" s="14"/>
+      <c r="I22" s="40">
+        <v>0.45</v>
+      </c>
+      <c r="L22" s="41">
+        <v>0.47</v>
+      </c>
+      <c r="O22" s="43">
+        <v>0.51</v>
+      </c>
+      <c r="P22" s="18"/>
+      <c r="R22" s="43">
+        <v>0.44</v>
+      </c>
+      <c r="S22" s="18"/>
+      <c r="T22" s="14"/>
+      <c r="U22" s="43">
+        <v>0.5</v>
+      </c>
+      <c r="V22" s="2"/>
+    </row>
+    <row r="23" spans="6:22" ht="25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F23" s="64"/>
+      <c r="G23" s="40" t="s">
+        <v>152</v>
+      </c>
+      <c r="H23" s="65"/>
+      <c r="I23" s="40">
+        <v>0.95</v>
+      </c>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="41">
+        <v>1</v>
+      </c>
+      <c r="M23" s="14"/>
+      <c r="N23" s="14"/>
+      <c r="O23" s="43">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="14"/>
+      <c r="R23" s="43">
+        <v>1</v>
+      </c>
+      <c r="S23" s="65"/>
+      <c r="U23" s="43">
+        <v>1</v>
+      </c>
+      <c r="V23" s="2"/>
+    </row>
+    <row r="24" spans="6:22" x14ac:dyDescent="0.2">
       <c r="L24" s="23"/>
-    </row>
-    <row r="25" spans="7:21" ht="34" x14ac:dyDescent="0.2">
+      <c r="N24" s="66"/>
+      <c r="O24" s="66"/>
+      <c r="P24" s="66"/>
+      <c r="Q24" s="66"/>
+      <c r="R24" s="66"/>
+      <c r="T24" s="66"/>
+    </row>
+    <row r="25" spans="6:22" ht="34" x14ac:dyDescent="0.2">
       <c r="G25" s="12"/>
       <c r="H25" s="12"/>
       <c r="I25" s="13" t="s">
@@ -2841,83 +2995,83 @@
       </c>
       <c r="J25" s="13"/>
     </row>
-    <row r="26" spans="7:21" ht="49" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G26" s="63"/>
-      <c r="H26" s="63"/>
-      <c r="I26" s="63"/>
+    <row r="26" spans="6:22" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G26" s="54"/>
+      <c r="H26" s="54"/>
+      <c r="I26" s="54"/>
       <c r="L26" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="30" spans="7:21" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I30" s="56"/>
-      <c r="J30" s="56"/>
-      <c r="K30" s="56"/>
-      <c r="L30" s="56"/>
-      <c r="M30" s="56"/>
-      <c r="N30" s="56"/>
-    </row>
-    <row r="31" spans="7:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="I31" s="56"/>
-      <c r="J31" s="56"/>
-      <c r="K31" s="56"/>
-      <c r="L31" s="56"/>
-      <c r="M31" s="56"/>
-      <c r="N31" s="56"/>
-    </row>
-    <row r="32" spans="7:21" ht="25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G32" s="59" t="s">
+    <row r="30" spans="6:22" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I30" s="60"/>
+      <c r="J30" s="60"/>
+      <c r="K30" s="60"/>
+      <c r="L30" s="60"/>
+      <c r="M30" s="60"/>
+      <c r="N30" s="60"/>
+    </row>
+    <row r="31" spans="6:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I31" s="60"/>
+      <c r="J31" s="60"/>
+      <c r="K31" s="60"/>
+      <c r="L31" s="60"/>
+      <c r="M31" s="60"/>
+      <c r="N31" s="60"/>
+    </row>
+    <row r="32" spans="6:22" ht="25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G32" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="H32" s="60"/>
-      <c r="I32" s="61"/>
-      <c r="J32" s="59" t="s">
+      <c r="H32" s="56"/>
+      <c r="I32" s="57"/>
+      <c r="J32" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="K32" s="60"/>
-      <c r="L32" s="61"/>
-      <c r="M32" s="59" t="s">
+      <c r="K32" s="56"/>
+      <c r="L32" s="57"/>
+      <c r="M32" s="55" t="s">
         <v>127</v>
       </c>
-      <c r="N32" s="60"/>
-      <c r="O32" s="61"/>
-      <c r="P32" s="59" t="s">
+      <c r="N32" s="56"/>
+      <c r="O32" s="57"/>
+      <c r="P32" s="55" t="s">
         <v>128</v>
       </c>
-      <c r="Q32" s="60"/>
-      <c r="R32" s="61"/>
-      <c r="S32" s="59" t="s">
+      <c r="Q32" s="56"/>
+      <c r="R32" s="57"/>
+      <c r="S32" s="55" t="s">
         <v>129</v>
       </c>
-      <c r="T32" s="60"/>
-      <c r="U32" s="61"/>
+      <c r="T32" s="56"/>
+      <c r="U32" s="57"/>
     </row>
     <row r="33" spans="7:21" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G33" s="1"/>
-      <c r="H33" s="54" t="s">
+      <c r="H33" s="58" t="s">
         <v>78</v>
       </c>
-      <c r="I33" s="62"/>
+      <c r="I33" s="63"/>
       <c r="J33" s="1"/>
-      <c r="K33" s="54" t="s">
+      <c r="K33" s="58" t="s">
         <v>78</v>
       </c>
-      <c r="L33" s="55"/>
+      <c r="L33" s="59"/>
       <c r="M33" s="1"/>
-      <c r="N33" s="54" t="s">
+      <c r="N33" s="58" t="s">
         <v>78</v>
       </c>
-      <c r="O33" s="55"/>
+      <c r="O33" s="59"/>
       <c r="P33" s="1"/>
-      <c r="Q33" s="54" t="s">
+      <c r="Q33" s="58" t="s">
         <v>78</v>
       </c>
-      <c r="R33" s="55"/>
+      <c r="R33" s="59"/>
       <c r="S33" s="1"/>
-      <c r="T33" s="54" t="s">
+      <c r="T33" s="58" t="s">
         <v>78</v>
       </c>
-      <c r="U33" s="55"/>
+      <c r="U33" s="59"/>
     </row>
     <row r="34" spans="7:21" ht="21" x14ac:dyDescent="0.25">
       <c r="G34" s="2"/>
@@ -3425,21 +3579,65 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="46" spans="7:21" ht="24" x14ac:dyDescent="0.3">
+    <row r="46" spans="7:21" ht="25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G46" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="I46" s="42">
+        <v>0.71</v>
+      </c>
+      <c r="L46" s="42">
+        <v>0.99</v>
+      </c>
       <c r="M46" s="4" t="s">
         <v>119</v>
       </c>
       <c r="N46" s="11"/>
       <c r="O46" s="5"/>
+      <c r="P46" s="70" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q46" s="14"/>
+      <c r="R46" s="42">
+        <v>0.78</v>
+      </c>
+      <c r="T46" s="14"/>
+      <c r="U46" s="42">
+        <v>0.84</v>
+      </c>
     </row>
     <row r="47" spans="7:21" ht="25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G47" s="67" t="s">
+        <v>152</v>
+      </c>
+      <c r="H47" s="14"/>
+      <c r="I47" s="42">
+        <v>0.98</v>
+      </c>
+      <c r="J47" s="68"/>
+      <c r="K47" s="14"/>
+      <c r="L47" s="42">
+        <v>1</v>
+      </c>
       <c r="M47" s="6" t="s">
         <v>120</v>
       </c>
       <c r="N47" s="10"/>
       <c r="O47" s="7"/>
+      <c r="P47" s="69" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q47" s="14"/>
+      <c r="R47" s="42">
+        <v>1</v>
+      </c>
+      <c r="S47" s="68"/>
+      <c r="U47" s="42">
+        <v>0.33</v>
+      </c>
     </row>
     <row r="48" spans="7:21" ht="23" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J48" s="66"/>
       <c r="M48" s="44" t="s">
         <v>131</v>
       </c>
@@ -3447,33 +3645,56 @@
       <c r="O48" s="42">
         <v>0.94</v>
       </c>
+      <c r="P48" s="68"/>
+      <c r="S48" s="66"/>
+      <c r="T48" s="66"/>
+    </row>
+    <row r="49" spans="9:16" ht="23" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M49" s="44" t="s">
+        <v>151</v>
+      </c>
+      <c r="O49" s="42">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="50" spans="9:16" ht="23" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M50" s="44" t="s">
+        <v>152</v>
+      </c>
+      <c r="N50" s="14"/>
+      <c r="O50" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="9:16" x14ac:dyDescent="0.2">
+      <c r="M51" s="66"/>
     </row>
     <row r="55" spans="9:16" x14ac:dyDescent="0.2">
-      <c r="I55" s="56"/>
-      <c r="J55" s="56"/>
-      <c r="K55" s="57"/>
-      <c r="L55" s="57"/>
-      <c r="M55" s="57"/>
-      <c r="N55" s="57"/>
+      <c r="I55" s="60"/>
+      <c r="J55" s="60"/>
+      <c r="K55" s="62"/>
+      <c r="L55" s="62"/>
+      <c r="M55" s="62"/>
+      <c r="N55" s="62"/>
     </row>
     <row r="56" spans="9:16" x14ac:dyDescent="0.2">
-      <c r="I56" s="57"/>
-      <c r="J56" s="57"/>
-      <c r="K56" s="57"/>
-      <c r="L56" s="57"/>
-      <c r="M56" s="57"/>
-      <c r="N56" s="57"/>
+      <c r="I56" s="62"/>
+      <c r="J56" s="62"/>
+      <c r="K56" s="62"/>
+      <c r="L56" s="62"/>
+      <c r="M56" s="62"/>
+      <c r="N56" s="62"/>
     </row>
     <row r="57" spans="9:16" ht="24" x14ac:dyDescent="0.3">
       <c r="J57" s="26"/>
     </row>
     <row r="58" spans="9:16" ht="58" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J58" s="17"/>
-      <c r="K58" s="58"/>
-      <c r="L58" s="57"/>
+      <c r="K58" s="61"/>
+      <c r="L58" s="62"/>
       <c r="M58" s="17"/>
-      <c r="N58" s="58"/>
-      <c r="O58" s="57"/>
+      <c r="N58" s="61"/>
+      <c r="O58" s="62"/>
       <c r="P58" s="17"/>
     </row>
     <row r="59" spans="9:16" ht="21" x14ac:dyDescent="0.25">
@@ -3512,10 +3733,10 @@
       <c r="O62" s="20"/>
       <c r="P62" s="20"/>
     </row>
-    <row r="63" spans="9:16" ht="21" x14ac:dyDescent="0.25">
+    <row r="63" spans="9:16" ht="22" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J63" s="20"/>
       <c r="K63" s="21"/>
-      <c r="L63" s="20"/>
+      <c r="L63" s="71"/>
       <c r="M63" s="20"/>
       <c r="N63" s="21"/>
       <c r="O63" s="20"/>
@@ -3524,8 +3745,10 @@
     <row r="64" spans="9:16" ht="21" x14ac:dyDescent="0.25">
       <c r="J64" s="20"/>
       <c r="K64" s="21"/>
-      <c r="L64" s="20"/>
-      <c r="M64" s="20"/>
+      <c r="L64" s="73"/>
+      <c r="M64" s="72" t="s">
+        <v>153</v>
+      </c>
       <c r="N64" s="21"/>
       <c r="O64" s="20"/>
       <c r="P64" s="20"/>
@@ -3533,8 +3756,10 @@
     <row r="65" spans="9:16" ht="21" x14ac:dyDescent="0.25">
       <c r="J65" s="20"/>
       <c r="K65" s="21"/>
-      <c r="L65" s="20"/>
-      <c r="M65" s="20"/>
+      <c r="L65" s="11"/>
+      <c r="M65" s="5" t="s">
+        <v>154</v>
+      </c>
       <c r="N65" s="21"/>
       <c r="O65" s="20"/>
       <c r="P65" s="20"/>
@@ -3542,8 +3767,12 @@
     <row r="66" spans="9:16" ht="21" x14ac:dyDescent="0.25">
       <c r="J66" s="20"/>
       <c r="K66" s="21"/>
-      <c r="L66" s="20"/>
-      <c r="M66" s="20"/>
+      <c r="L66" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="M66" s="5" t="s">
+        <v>161</v>
+      </c>
       <c r="N66" s="21"/>
       <c r="O66" s="20"/>
       <c r="P66" s="20"/>
@@ -3551,8 +3780,12 @@
     <row r="67" spans="9:16" ht="21" x14ac:dyDescent="0.25">
       <c r="J67" s="20"/>
       <c r="K67" s="21"/>
-      <c r="L67" s="20"/>
-      <c r="M67" s="20"/>
+      <c r="L67" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="M67" s="5" t="s">
+        <v>162</v>
+      </c>
       <c r="N67" s="21"/>
       <c r="O67" s="20"/>
       <c r="P67" s="20"/>
@@ -3560,8 +3793,12 @@
     <row r="68" spans="9:16" ht="21" x14ac:dyDescent="0.25">
       <c r="J68" s="20"/>
       <c r="K68" s="21"/>
-      <c r="L68" s="20"/>
-      <c r="M68" s="20"/>
+      <c r="L68" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="M68" s="5" t="s">
+        <v>163</v>
+      </c>
       <c r="N68" s="21"/>
       <c r="O68" s="20"/>
       <c r="P68" s="20"/>
@@ -3569,75 +3806,108 @@
     <row r="69" spans="9:16" ht="21" x14ac:dyDescent="0.25">
       <c r="J69" s="20"/>
       <c r="K69" s="20"/>
-      <c r="L69" s="20"/>
-      <c r="M69" s="20"/>
+      <c r="L69" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="M69" s="5" t="s">
+        <v>164</v>
+      </c>
       <c r="N69" s="20"/>
       <c r="O69" s="20"/>
       <c r="P69" s="20"/>
     </row>
-    <row r="70" spans="9:16" x14ac:dyDescent="0.2">
+    <row r="70" spans="9:16" ht="21" x14ac:dyDescent="0.25">
       <c r="J70" s="22"/>
       <c r="K70" s="17"/>
-      <c r="L70" s="22"/>
-      <c r="M70" s="22"/>
+      <c r="L70" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="M70" s="5" t="s">
+        <v>165</v>
+      </c>
       <c r="N70" s="17"/>
       <c r="O70" s="22"/>
       <c r="P70" s="22"/>
     </row>
-    <row r="75" spans="9:16" x14ac:dyDescent="0.2">
-      <c r="I75" s="56"/>
-      <c r="J75" s="56"/>
-      <c r="K75" s="57"/>
-      <c r="L75" s="57"/>
-      <c r="M75" s="57"/>
-      <c r="N75" s="57"/>
+    <row r="71" spans="9:16" ht="21" x14ac:dyDescent="0.25">
+      <c r="L71" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="M71" s="5" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="72" spans="9:16" ht="21" x14ac:dyDescent="0.25">
+      <c r="L72" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="M72" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="73" spans="9:16" ht="21" x14ac:dyDescent="0.25">
+      <c r="L73" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="M73" s="5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="74" spans="9:16" ht="21" x14ac:dyDescent="0.25">
+      <c r="L74" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="M74" s="5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="75" spans="9:16" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L75" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="M75" s="7" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="76" spans="9:16" x14ac:dyDescent="0.2">
-      <c r="I76" s="57"/>
-      <c r="J76" s="57"/>
-      <c r="K76" s="57"/>
-      <c r="L76" s="57"/>
-      <c r="M76" s="57"/>
-      <c r="N76" s="57"/>
-    </row>
-    <row r="77" spans="9:16" ht="24" x14ac:dyDescent="0.3">
-      <c r="J77" s="26"/>
-    </row>
-    <row r="78" spans="9:16" ht="59" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J78" s="17"/>
-      <c r="K78" s="58"/>
-      <c r="L78" s="57"/>
-      <c r="M78" s="17"/>
-      <c r="N78" s="58"/>
-      <c r="O78" s="57"/>
-      <c r="P78" s="17"/>
-    </row>
-    <row r="79" spans="9:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="J79" s="19"/>
-      <c r="K79" s="19"/>
-      <c r="L79" s="19"/>
-      <c r="M79" s="19"/>
-      <c r="N79" s="19"/>
-      <c r="O79" s="19"/>
-      <c r="P79" s="19"/>
-    </row>
-    <row r="80" spans="9:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="J80" s="20"/>
-      <c r="K80" s="21"/>
-      <c r="L80" s="20"/>
-      <c r="M80" s="20"/>
-      <c r="N80" s="21"/>
-      <c r="O80" s="20"/>
-      <c r="P80" s="20"/>
+      <c r="L76" s="66"/>
+    </row>
+    <row r="77" spans="9:16" x14ac:dyDescent="0.2">
+      <c r="I77" s="60"/>
+      <c r="J77" s="60"/>
+      <c r="K77" s="62"/>
+      <c r="L77" s="62"/>
+      <c r="M77" s="62"/>
+      <c r="N77" s="62"/>
+    </row>
+    <row r="78" spans="9:16" x14ac:dyDescent="0.2">
+      <c r="I78" s="62"/>
+      <c r="J78" s="62"/>
+      <c r="K78" s="62"/>
+      <c r="L78" s="62"/>
+      <c r="M78" s="62"/>
+      <c r="N78" s="62"/>
+    </row>
+    <row r="79" spans="9:16" ht="24" x14ac:dyDescent="0.3">
+      <c r="J79" s="26"/>
+    </row>
+    <row r="80" spans="9:16" ht="59" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J80" s="17"/>
+      <c r="K80" s="61"/>
+      <c r="L80" s="62"/>
+      <c r="M80" s="17"/>
+      <c r="N80" s="61"/>
+      <c r="O80" s="62"/>
+      <c r="P80" s="17"/>
     </row>
     <row r="81" spans="10:18" ht="21" x14ac:dyDescent="0.25">
-      <c r="J81" s="20"/>
-      <c r="K81" s="21"/>
-      <c r="L81" s="20"/>
-      <c r="M81" s="20"/>
-      <c r="N81" s="21"/>
-      <c r="O81" s="20"/>
-      <c r="P81" s="20"/>
+      <c r="J81" s="19"/>
+      <c r="K81" s="19"/>
+      <c r="L81" s="19"/>
+      <c r="M81" s="19"/>
+      <c r="N81" s="19"/>
+      <c r="O81" s="19"/>
+      <c r="P81" s="19"/>
     </row>
     <row r="82" spans="10:18" ht="21" x14ac:dyDescent="0.25">
       <c r="J82" s="20"/>
@@ -3656,8 +3926,6 @@
       <c r="N83" s="21"/>
       <c r="O83" s="20"/>
       <c r="P83" s="20"/>
-      <c r="Q83" s="20"/>
-      <c r="R83" s="20"/>
     </row>
     <row r="84" spans="10:18" ht="21" x14ac:dyDescent="0.25">
       <c r="J84" s="20"/>
@@ -3667,8 +3935,6 @@
       <c r="N84" s="21"/>
       <c r="O84" s="20"/>
       <c r="P84" s="20"/>
-      <c r="Q84" s="20"/>
-      <c r="R84" s="20"/>
     </row>
     <row r="85" spans="10:18" ht="21" x14ac:dyDescent="0.25">
       <c r="J85" s="20"/>
@@ -3700,6 +3966,8 @@
       <c r="N87" s="21"/>
       <c r="O87" s="20"/>
       <c r="P87" s="20"/>
+      <c r="Q87" s="20"/>
+      <c r="R87" s="20"/>
     </row>
     <row r="88" spans="10:18" ht="21" x14ac:dyDescent="0.25">
       <c r="J88" s="20"/>
@@ -3709,6 +3977,8 @@
       <c r="N88" s="21"/>
       <c r="O88" s="20"/>
       <c r="P88" s="20"/>
+      <c r="Q88" s="20"/>
+      <c r="R88" s="20"/>
     </row>
     <row r="89" spans="10:18" ht="21" x14ac:dyDescent="0.25">
       <c r="J89" s="20"/>
@@ -3739,25 +4009,59 @@
     </row>
     <row r="92" spans="10:18" ht="21" x14ac:dyDescent="0.25">
       <c r="J92" s="20"/>
-      <c r="K92" s="20"/>
+      <c r="K92" s="21"/>
       <c r="L92" s="20"/>
       <c r="M92" s="20"/>
-      <c r="N92" s="20"/>
+      <c r="N92" s="21"/>
       <c r="O92" s="20"/>
       <c r="P92" s="20"/>
     </row>
-    <row r="93" spans="10:18" x14ac:dyDescent="0.2">
-      <c r="J93" s="22"/>
-      <c r="K93" s="17"/>
-      <c r="L93" s="22"/>
-      <c r="M93" s="22"/>
-      <c r="N93" s="17"/>
-      <c r="O93" s="22"/>
-      <c r="P93" s="22"/>
-    </row>
-    <row r="102" ht="62" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="93" spans="10:18" ht="21" x14ac:dyDescent="0.25">
+      <c r="J93" s="20"/>
+      <c r="K93" s="21"/>
+      <c r="L93" s="20"/>
+      <c r="M93" s="20"/>
+      <c r="N93" s="21"/>
+      <c r="O93" s="20"/>
+      <c r="P93" s="20"/>
+    </row>
+    <row r="94" spans="10:18" ht="21" x14ac:dyDescent="0.25">
+      <c r="J94" s="20"/>
+      <c r="K94" s="20"/>
+      <c r="L94" s="20"/>
+      <c r="M94" s="20"/>
+      <c r="N94" s="20"/>
+      <c r="O94" s="20"/>
+      <c r="P94" s="20"/>
+    </row>
+    <row r="95" spans="10:18" x14ac:dyDescent="0.2">
+      <c r="J95" s="22"/>
+      <c r="K95" s="17"/>
+      <c r="L95" s="22"/>
+      <c r="M95" s="22"/>
+      <c r="N95" s="17"/>
+      <c r="O95" s="22"/>
+      <c r="P95" s="22"/>
+    </row>
+    <row r="104" ht="62" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="T9:U9"/>
+    <mergeCell ref="I6:N7"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="K80:L80"/>
+    <mergeCell ref="N80:O80"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="M32:O32"/>
+    <mergeCell ref="I55:N56"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="I77:N78"/>
+    <mergeCell ref="H33:I33"/>
     <mergeCell ref="G26:I26"/>
     <mergeCell ref="G32:I32"/>
     <mergeCell ref="P32:R32"/>
@@ -3766,22 +4070,6 @@
     <mergeCell ref="T33:U33"/>
     <mergeCell ref="N33:O33"/>
     <mergeCell ref="I30:N31"/>
-    <mergeCell ref="K78:L78"/>
-    <mergeCell ref="N78:O78"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="M32:O32"/>
-    <mergeCell ref="I55:N56"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="N58:O58"/>
-    <mergeCell ref="I75:N76"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="T9:U9"/>
-    <mergeCell ref="I6:N7"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="N9:O9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/reports/Results.xlsx
+++ b/reports/Results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/moe/Desktop/puf-auth-ml/reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14526427-1DD8-454D-9E1E-C3672CAA7A43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D71D96B-3BB4-FD46-9745-56A07A170188}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16120" xr2:uid="{65BD7D84-E0D3-BF4C-8AA6-282CCD8082D7}"/>
+    <workbookView xWindow="4160" yWindow="4280" windowWidth="28800" windowHeight="16120" xr2:uid="{65BD7D84-E0D3-BF4C-8AA6-282CCD8082D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="174">
   <si>
     <t>Intact</t>
   </si>
@@ -372,9 +372,6 @@
   </si>
   <si>
     <t>94.81%</t>
-  </si>
-  <si>
-    <t>77.27%</t>
   </si>
   <si>
     <t>93.55%</t>
@@ -1112,6 +1109,18 @@
   </si>
   <si>
     <t>87% Confidence to Unknown</t>
+  </si>
+  <si>
+    <t>77.26%</t>
+  </si>
+  <si>
+    <t>90.99%</t>
+  </si>
+  <si>
+    <t>89.52%</t>
+  </si>
+  <si>
+    <t>66.41%</t>
   </si>
 </sst>
 </file>
@@ -1374,7 +1383,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1520,44 +1529,13 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1566,6 +1544,36 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2317,8 +2325,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F7AB769-A4AB-314C-9FAA-CEF8525B9786}">
   <dimension ref="F6:V104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I57" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="O72" sqref="O72"/>
+    <sheetView tabSelected="1" topLeftCell="N31" zoomScaleNormal="88" workbookViewId="0">
+      <selection activeCell="T43" sqref="T43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2340,50 +2348,50 @@
   </cols>
   <sheetData>
     <row r="6" spans="7:22" x14ac:dyDescent="0.2">
-      <c r="I6" s="60" t="s">
+      <c r="I6" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="60"/>
-      <c r="K6" s="62"/>
-      <c r="L6" s="62"/>
-      <c r="M6" s="62"/>
-      <c r="N6" s="62"/>
+      <c r="J6" s="65"/>
+      <c r="K6" s="66"/>
+      <c r="L6" s="66"/>
+      <c r="M6" s="66"/>
+      <c r="N6" s="66"/>
     </row>
     <row r="7" spans="7:22" x14ac:dyDescent="0.2">
-      <c r="I7" s="62"/>
-      <c r="J7" s="62"/>
-      <c r="K7" s="62"/>
-      <c r="L7" s="62"/>
-      <c r="M7" s="62"/>
-      <c r="N7" s="62"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="66"/>
+      <c r="K7" s="66"/>
+      <c r="L7" s="66"/>
+      <c r="M7" s="66"/>
+      <c r="N7" s="66"/>
     </row>
     <row r="8" spans="7:22" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="7:22" ht="82" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G9" s="1"/>
-      <c r="H9" s="58" t="s">
+      <c r="H9" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="I9" s="59"/>
+      <c r="I9" s="64"/>
       <c r="J9" s="25"/>
-      <c r="K9" s="58" t="s">
+      <c r="K9" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="L9" s="59"/>
+      <c r="L9" s="64"/>
       <c r="M9" s="25"/>
-      <c r="N9" s="58" t="s">
+      <c r="N9" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="O9" s="59"/>
+      <c r="O9" s="64"/>
       <c r="P9" s="25"/>
-      <c r="Q9" s="58" t="s">
+      <c r="Q9" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="R9" s="59"/>
+      <c r="R9" s="64"/>
       <c r="S9" s="25"/>
-      <c r="T9" s="58" t="s">
+      <c r="T9" s="63" t="s">
         <v>79</v>
       </c>
-      <c r="U9" s="59"/>
+      <c r="U9" s="64"/>
       <c r="V9" s="2"/>
     </row>
     <row r="10" spans="7:22" ht="21" x14ac:dyDescent="0.25">
@@ -2473,7 +2481,7 @@
     </row>
     <row r="12" spans="7:22" ht="70" x14ac:dyDescent="0.25">
       <c r="G12" s="45" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H12" s="9">
         <v>1</v>
@@ -2482,7 +2490,7 @@
         <v>17</v>
       </c>
       <c r="J12" s="45" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K12" s="9">
         <v>1</v>
@@ -2491,7 +2499,7 @@
         <v>28</v>
       </c>
       <c r="M12" s="45" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N12" s="9">
         <v>1</v>
@@ -2500,7 +2508,7 @@
         <v>39</v>
       </c>
       <c r="P12" s="45" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q12" s="9">
         <v>1</v>
@@ -2509,7 +2517,7 @@
         <v>47</v>
       </c>
       <c r="S12" s="45" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="T12" s="9">
         <v>1</v>
@@ -2520,7 +2528,7 @@
     </row>
     <row r="13" spans="7:22" ht="70" x14ac:dyDescent="0.25">
       <c r="G13" s="45" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H13" s="9">
         <v>1</v>
@@ -2529,7 +2537,7 @@
         <v>18</v>
       </c>
       <c r="J13" s="45" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K13" s="9">
         <v>1</v>
@@ -2538,7 +2546,7 @@
         <v>29</v>
       </c>
       <c r="M13" s="46" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="N13" s="9">
         <v>1</v>
@@ -2547,7 +2555,7 @@
         <v>40</v>
       </c>
       <c r="P13" s="46" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="Q13" s="9">
         <v>1</v>
@@ -2556,7 +2564,7 @@
         <v>48</v>
       </c>
       <c r="S13" s="45" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="T13" s="9">
         <v>1</v>
@@ -2567,7 +2575,7 @@
     </row>
     <row r="14" spans="7:22" ht="70" x14ac:dyDescent="0.25">
       <c r="G14" s="46" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H14" s="9">
         <v>1</v>
@@ -2576,7 +2584,7 @@
         <v>25</v>
       </c>
       <c r="J14" s="45" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K14" s="9">
         <v>1</v>
@@ -2585,7 +2593,7 @@
         <v>36</v>
       </c>
       <c r="M14" s="45" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N14" s="9">
         <v>1</v>
@@ -2594,7 +2602,7 @@
         <v>38</v>
       </c>
       <c r="P14" s="45" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Q14" s="9">
         <v>1</v>
@@ -2603,7 +2611,7 @@
         <v>55</v>
       </c>
       <c r="S14" s="45" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="T14" s="9">
         <v>1</v>
@@ -2614,7 +2622,7 @@
     </row>
     <row r="15" spans="7:22" ht="70" x14ac:dyDescent="0.25">
       <c r="G15" s="46" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H15" s="9">
         <v>1</v>
@@ -2623,7 +2631,7 @@
         <v>19</v>
       </c>
       <c r="J15" s="45" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K15" s="9">
         <v>1</v>
@@ -2632,7 +2640,7 @@
         <v>30</v>
       </c>
       <c r="M15" s="46" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N15" s="9">
         <v>1</v>
@@ -2641,7 +2649,7 @@
         <v>41</v>
       </c>
       <c r="P15" s="46" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Q15" s="9">
         <v>1</v>
@@ -2650,7 +2658,7 @@
         <v>49</v>
       </c>
       <c r="S15" s="45" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="T15" s="9">
         <v>1</v>
@@ -2661,7 +2669,7 @@
     </row>
     <row r="16" spans="7:22" ht="70" x14ac:dyDescent="0.25">
       <c r="G16" s="46" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H16" s="9">
         <v>1</v>
@@ -2670,7 +2678,7 @@
         <v>20</v>
       </c>
       <c r="J16" s="46" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K16" s="9">
         <v>1</v>
@@ -2679,7 +2687,7 @@
         <v>31</v>
       </c>
       <c r="M16" s="46" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N16" s="9">
         <v>1</v>
@@ -2688,7 +2696,7 @@
         <v>42</v>
       </c>
       <c r="P16" s="46" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Q16" s="9">
         <v>1</v>
@@ -2697,7 +2705,7 @@
         <v>50</v>
       </c>
       <c r="S16" s="45" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="T16" s="9">
         <v>1</v>
@@ -2708,7 +2716,7 @@
     </row>
     <row r="17" spans="6:22" ht="70" x14ac:dyDescent="0.25">
       <c r="G17" s="46" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H17" s="9">
         <v>1</v>
@@ -2717,7 +2725,7 @@
         <v>21</v>
       </c>
       <c r="J17" s="46" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K17" s="9">
         <v>1</v>
@@ -2726,7 +2734,7 @@
         <v>32</v>
       </c>
       <c r="M17" s="46" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N17" s="9">
         <v>1</v>
@@ -2735,7 +2743,7 @@
         <v>43</v>
       </c>
       <c r="P17" s="46" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q17" s="9">
         <v>1</v>
@@ -2744,7 +2752,7 @@
         <v>51</v>
       </c>
       <c r="S17" s="45" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="T17" s="9">
         <v>1</v>
@@ -2755,7 +2763,7 @@
     </row>
     <row r="18" spans="6:22" ht="70" x14ac:dyDescent="0.25">
       <c r="G18" s="46" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H18" s="9">
         <v>1</v>
@@ -2764,7 +2772,7 @@
         <v>22</v>
       </c>
       <c r="J18" s="46" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K18" s="9">
         <v>1</v>
@@ -2773,7 +2781,7 @@
         <v>33</v>
       </c>
       <c r="M18" s="46" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N18" s="9">
         <v>1</v>
@@ -2782,7 +2790,7 @@
         <v>44</v>
       </c>
       <c r="P18" s="46" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q18" s="9">
         <v>1</v>
@@ -2791,7 +2799,7 @@
         <v>52</v>
       </c>
       <c r="S18" s="45" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="T18" s="9">
         <v>1</v>
@@ -2802,7 +2810,7 @@
     </row>
     <row r="19" spans="6:22" ht="70" x14ac:dyDescent="0.25">
       <c r="G19" s="47" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H19" s="33" t="s">
         <v>3</v>
@@ -2811,7 +2819,7 @@
         <v>23</v>
       </c>
       <c r="J19" s="46" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K19" s="9">
         <v>1</v>
@@ -2820,7 +2828,7 @@
         <v>34</v>
       </c>
       <c r="M19" s="46" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N19" s="9">
         <v>1</v>
@@ -2829,7 +2837,7 @@
         <v>45</v>
       </c>
       <c r="P19" s="46" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Q19" s="9">
         <v>1</v>
@@ -2838,7 +2846,7 @@
         <v>53</v>
       </c>
       <c r="S19" s="48" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="T19" s="31" t="s">
         <v>3</v>
@@ -2849,7 +2857,7 @@
     </row>
     <row r="20" spans="6:22" ht="71" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G20" s="47" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H20" s="35" t="s">
         <v>3</v>
@@ -2858,7 +2866,7 @@
         <v>24</v>
       </c>
       <c r="J20" s="47" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K20" s="35" t="s">
         <v>3</v>
@@ -2867,7 +2875,7 @@
         <v>35</v>
       </c>
       <c r="M20" s="47" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N20" s="35" t="s">
         <v>3</v>
@@ -2876,7 +2884,7 @@
         <v>46</v>
       </c>
       <c r="P20" s="47" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Q20" s="35" t="s">
         <v>3</v>
@@ -2885,7 +2893,7 @@
         <v>54</v>
       </c>
       <c r="S20" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="T20" s="31" t="s">
         <v>3</v>
@@ -2896,7 +2904,7 @@
     </row>
     <row r="21" spans="6:22" ht="92" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="G21" s="39" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H21" s="14"/>
       <c r="I21" s="40">
@@ -2924,9 +2932,9 @@
       </c>
     </row>
     <row r="22" spans="6:22" ht="25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F22" s="64"/>
+      <c r="F22" s="54"/>
       <c r="G22" s="40" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H22" s="14"/>
       <c r="I22" s="40">
@@ -2950,11 +2958,11 @@
       <c r="V22" s="2"/>
     </row>
     <row r="23" spans="6:22" ht="25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F23" s="64"/>
+      <c r="F23" s="54"/>
       <c r="G23" s="40" t="s">
-        <v>152</v>
-      </c>
-      <c r="H23" s="65"/>
+        <v>151</v>
+      </c>
+      <c r="H23" s="55"/>
       <c r="I23" s="40">
         <v>0.95</v>
       </c>
@@ -2972,7 +2980,7 @@
       <c r="R23" s="43">
         <v>1</v>
       </c>
-      <c r="S23" s="65"/>
+      <c r="S23" s="55"/>
       <c r="U23" s="43">
         <v>1</v>
       </c>
@@ -2980,12 +2988,12 @@
     </row>
     <row r="24" spans="6:22" x14ac:dyDescent="0.2">
       <c r="L24" s="23"/>
-      <c r="N24" s="66"/>
-      <c r="O24" s="66"/>
-      <c r="P24" s="66"/>
-      <c r="Q24" s="66"/>
-      <c r="R24" s="66"/>
-      <c r="T24" s="66"/>
+      <c r="N24" s="56"/>
+      <c r="O24" s="56"/>
+      <c r="P24" s="56"/>
+      <c r="Q24" s="56"/>
+      <c r="R24" s="56"/>
+      <c r="T24" s="56"/>
     </row>
     <row r="25" spans="6:22" ht="34" x14ac:dyDescent="0.2">
       <c r="G25" s="12"/>
@@ -2996,82 +3004,82 @@
       <c r="J25" s="13"/>
     </row>
     <row r="26" spans="6:22" ht="49" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G26" s="54"/>
-      <c r="H26" s="54"/>
-      <c r="I26" s="54"/>
+      <c r="G26" s="72"/>
+      <c r="H26" s="72"/>
+      <c r="I26" s="72"/>
       <c r="L26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="30" spans="6:22" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I30" s="60"/>
-      <c r="J30" s="60"/>
-      <c r="K30" s="60"/>
-      <c r="L30" s="60"/>
-      <c r="M30" s="60"/>
-      <c r="N30" s="60"/>
+      <c r="I30" s="65"/>
+      <c r="J30" s="65"/>
+      <c r="K30" s="65"/>
+      <c r="L30" s="65"/>
+      <c r="M30" s="65"/>
+      <c r="N30" s="65"/>
     </row>
     <row r="31" spans="6:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="I31" s="60"/>
-      <c r="J31" s="60"/>
-      <c r="K31" s="60"/>
-      <c r="L31" s="60"/>
-      <c r="M31" s="60"/>
-      <c r="N31" s="60"/>
+      <c r="I31" s="65"/>
+      <c r="J31" s="65"/>
+      <c r="K31" s="65"/>
+      <c r="L31" s="65"/>
+      <c r="M31" s="65"/>
+      <c r="N31" s="65"/>
     </row>
     <row r="32" spans="6:22" ht="25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G32" s="55" t="s">
+      <c r="G32" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="H32" s="56"/>
-      <c r="I32" s="57"/>
-      <c r="J32" s="55" t="s">
+      <c r="H32" s="69"/>
+      <c r="I32" s="70"/>
+      <c r="J32" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="K32" s="56"/>
-      <c r="L32" s="57"/>
-      <c r="M32" s="55" t="s">
+      <c r="K32" s="69"/>
+      <c r="L32" s="70"/>
+      <c r="M32" s="68" t="s">
+        <v>126</v>
+      </c>
+      <c r="N32" s="69"/>
+      <c r="O32" s="70"/>
+      <c r="P32" s="68" t="s">
         <v>127</v>
       </c>
-      <c r="N32" s="56"/>
-      <c r="O32" s="57"/>
-      <c r="P32" s="55" t="s">
+      <c r="Q32" s="69"/>
+      <c r="R32" s="70"/>
+      <c r="S32" s="68" t="s">
         <v>128</v>
       </c>
-      <c r="Q32" s="56"/>
-      <c r="R32" s="57"/>
-      <c r="S32" s="55" t="s">
-        <v>129</v>
-      </c>
-      <c r="T32" s="56"/>
-      <c r="U32" s="57"/>
+      <c r="T32" s="69"/>
+      <c r="U32" s="70"/>
     </row>
     <row r="33" spans="7:21" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G33" s="1"/>
-      <c r="H33" s="58" t="s">
+      <c r="H33" s="63" t="s">
         <v>78</v>
       </c>
-      <c r="I33" s="63"/>
+      <c r="I33" s="71"/>
       <c r="J33" s="1"/>
-      <c r="K33" s="58" t="s">
+      <c r="K33" s="63" t="s">
         <v>78</v>
       </c>
-      <c r="L33" s="59"/>
+      <c r="L33" s="64"/>
       <c r="M33" s="1"/>
-      <c r="N33" s="58" t="s">
+      <c r="N33" s="63" t="s">
         <v>78</v>
       </c>
-      <c r="O33" s="59"/>
+      <c r="O33" s="64"/>
       <c r="P33" s="1"/>
-      <c r="Q33" s="58" t="s">
+      <c r="Q33" s="63" t="s">
         <v>78</v>
       </c>
-      <c r="R33" s="59"/>
+      <c r="R33" s="64"/>
       <c r="S33" s="1"/>
-      <c r="T33" s="58" t="s">
+      <c r="T33" s="63" t="s">
         <v>78</v>
       </c>
-      <c r="U33" s="59"/>
+      <c r="U33" s="64"/>
     </row>
     <row r="34" spans="7:21" ht="21" x14ac:dyDescent="0.25">
       <c r="G34" s="2"/>
@@ -3159,7 +3167,7 @@
     </row>
     <row r="36" spans="7:21" ht="24" x14ac:dyDescent="0.3">
       <c r="G36" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H36" s="9">
         <v>1</v>
@@ -3168,7 +3176,7 @@
         <v>67</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K36" s="9">
         <v>1</v>
@@ -3177,7 +3185,7 @@
         <v>81</v>
       </c>
       <c r="M36" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N36" s="9">
         <v>1</v>
@@ -3186,7 +3194,7 @@
         <v>92</v>
       </c>
       <c r="P36" s="30" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Q36" s="31" t="s">
         <v>96</v>
@@ -3195,7 +3203,7 @@
         <v>97</v>
       </c>
       <c r="S36" s="30" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="T36" s="31" t="s">
         <v>102</v>
@@ -3206,7 +3214,7 @@
     </row>
     <row r="37" spans="7:21" ht="24" x14ac:dyDescent="0.3">
       <c r="G37" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H37" s="9">
         <v>1</v>
@@ -3215,7 +3223,7 @@
         <v>68</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K37" s="9">
         <v>1</v>
@@ -3224,7 +3232,7 @@
         <v>82</v>
       </c>
       <c r="M37" s="30" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N37" s="31" t="s">
         <v>106</v>
@@ -3233,7 +3241,7 @@
         <v>93</v>
       </c>
       <c r="P37" s="30" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q37" s="31" t="s">
         <v>98</v>
@@ -3242,7 +3250,7 @@
         <v>99</v>
       </c>
       <c r="S37" s="30" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="T37" s="31" t="s">
         <v>102</v>
@@ -3253,7 +3261,7 @@
     </row>
     <row r="38" spans="7:21" ht="24" x14ac:dyDescent="0.3">
       <c r="G38" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H38" s="9">
         <v>1</v>
@@ -3262,7 +3270,7 @@
         <v>69</v>
       </c>
       <c r="J38" s="30" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K38" s="31" t="s">
         <v>73</v>
@@ -3271,16 +3279,16 @@
         <v>83</v>
       </c>
       <c r="M38" s="30" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N38" s="31" t="s">
         <v>73</v>
       </c>
       <c r="O38" s="32" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="P38" s="30" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Q38" s="31" t="s">
         <v>98</v>
@@ -3289,18 +3297,18 @@
         <v>100</v>
       </c>
       <c r="S38" s="30" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="T38" s="31" t="s">
-        <v>98</v>
+        <v>170</v>
       </c>
       <c r="U38" s="32" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
     </row>
     <row r="39" spans="7:21" ht="24" x14ac:dyDescent="0.3">
       <c r="G39" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H39" s="9">
         <v>1</v>
@@ -3309,7 +3317,7 @@
         <v>70</v>
       </c>
       <c r="J39" s="30" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K39" s="31" t="s">
         <v>73</v>
@@ -3318,16 +3326,16 @@
         <v>84</v>
       </c>
       <c r="M39" s="50" t="s">
+        <v>120</v>
+      </c>
+      <c r="N39" s="51">
+        <v>1</v>
+      </c>
+      <c r="O39" s="52" t="s">
         <v>121</v>
       </c>
-      <c r="N39" s="51">
-        <v>1</v>
-      </c>
-      <c r="O39" s="52" t="s">
-        <v>122</v>
-      </c>
       <c r="P39" s="30" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="Q39" s="31" t="s">
         <v>98</v>
@@ -3336,18 +3344,18 @@
         <v>101</v>
       </c>
       <c r="S39" s="30" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="T39" s="31" t="s">
-        <v>109</v>
+        <v>170</v>
       </c>
       <c r="U39" s="32" t="s">
-        <v>110</v>
+        <v>171</v>
       </c>
     </row>
     <row r="40" spans="7:21" ht="24" x14ac:dyDescent="0.3">
       <c r="G40" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H40" s="9">
         <v>1</v>
@@ -3356,7 +3364,7 @@
         <v>71</v>
       </c>
       <c r="J40" s="30" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K40" s="31" t="s">
         <v>3</v>
@@ -3365,16 +3373,16 @@
         <v>85</v>
       </c>
       <c r="M40" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="N40" s="51">
+        <v>1</v>
+      </c>
+      <c r="O40" s="52" t="s">
         <v>123</v>
       </c>
-      <c r="N40" s="51">
-        <v>1</v>
-      </c>
-      <c r="O40" s="52" t="s">
-        <v>124</v>
-      </c>
       <c r="P40" s="30" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Q40" s="31" t="s">
         <v>102</v>
@@ -3383,18 +3391,18 @@
         <v>103</v>
       </c>
       <c r="S40" s="30" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="T40" s="31" t="s">
-        <v>102</v>
+        <v>173</v>
       </c>
       <c r="U40" s="32" t="s">
-        <v>103</v>
+        <v>172</v>
       </c>
     </row>
     <row r="41" spans="7:21" ht="24" x14ac:dyDescent="0.3">
       <c r="G41" s="30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H41" s="31" t="s">
         <v>73</v>
@@ -3403,7 +3411,7 @@
         <v>72</v>
       </c>
       <c r="J41" s="30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K41" s="31" t="s">
         <v>75</v>
@@ -3412,28 +3420,28 @@
         <v>86</v>
       </c>
       <c r="M41" s="50" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N41" s="53" t="s">
         <v>3</v>
       </c>
       <c r="O41" s="52" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="P41" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Q41" s="9"/>
       <c r="R41" s="5"/>
       <c r="S41" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="T41" s="9"/>
       <c r="U41" s="5"/>
     </row>
     <row r="42" spans="7:21" ht="24" x14ac:dyDescent="0.3">
       <c r="G42" s="30" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H42" s="31" t="s">
         <v>73</v>
@@ -3442,7 +3450,7 @@
         <v>74</v>
       </c>
       <c r="J42" s="30" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K42" s="31" t="s">
         <v>75</v>
@@ -3451,7 +3459,7 @@
         <v>87</v>
       </c>
       <c r="M42" s="30" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N42" s="31" t="s">
         <v>73</v>
@@ -3460,19 +3468,19 @@
         <v>94</v>
       </c>
       <c r="P42" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Q42" s="9"/>
       <c r="R42" s="5"/>
       <c r="S42" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="T42" s="9"/>
       <c r="U42" s="5"/>
     </row>
     <row r="43" spans="7:21" ht="24" x14ac:dyDescent="0.3">
       <c r="G43" s="30" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H43" s="33" t="s">
         <v>75</v>
@@ -3481,7 +3489,7 @@
         <v>76</v>
       </c>
       <c r="J43" s="30" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K43" s="33" t="s">
         <v>75</v>
@@ -3490,7 +3498,7 @@
         <v>88</v>
       </c>
       <c r="M43" s="30" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N43" s="31" t="s">
         <v>104</v>
@@ -3499,19 +3507,19 @@
         <v>105</v>
       </c>
       <c r="P43" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q43" s="11"/>
       <c r="R43" s="5"/>
       <c r="S43" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="T43" s="11"/>
       <c r="U43" s="5"/>
     </row>
     <row r="44" spans="7:21" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G44" s="34" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H44" s="35" t="s">
         <v>12</v>
@@ -3520,7 +3528,7 @@
         <v>77</v>
       </c>
       <c r="J44" s="34" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K44" s="35" t="s">
         <v>90</v>
@@ -3529,50 +3537,50 @@
         <v>89</v>
       </c>
       <c r="M44" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="N44" s="9"/>
       <c r="O44" s="5"/>
       <c r="P44" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Q44" s="10"/>
       <c r="R44" s="7"/>
       <c r="S44" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="T44" s="10"/>
       <c r="U44" s="7"/>
     </row>
     <row r="45" spans="7:21" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G45" s="44" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H45" s="14"/>
       <c r="I45" s="42">
         <v>0.69</v>
       </c>
       <c r="J45" s="44" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K45" s="14"/>
       <c r="L45" s="42">
         <v>0.94</v>
       </c>
       <c r="M45" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N45" s="9"/>
       <c r="O45" s="5"/>
       <c r="P45" s="44" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Q45" s="14"/>
       <c r="R45" s="42">
         <v>0.82</v>
       </c>
       <c r="S45" s="44" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="T45" s="14"/>
       <c r="U45" s="42">
@@ -3581,7 +3589,7 @@
     </row>
     <row r="46" spans="7:21" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G46" s="30" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I46" s="42">
         <v>0.71</v>
@@ -3590,12 +3598,12 @@
         <v>0.99</v>
       </c>
       <c r="M46" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N46" s="11"/>
       <c r="O46" s="5"/>
-      <c r="P46" s="70" t="s">
-        <v>151</v>
+      <c r="P46" s="59" t="s">
+        <v>150</v>
       </c>
       <c r="Q46" s="14"/>
       <c r="R46" s="42">
@@ -3607,51 +3615,51 @@
       </c>
     </row>
     <row r="47" spans="7:21" ht="25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G47" s="67" t="s">
-        <v>152</v>
+      <c r="G47" s="57" t="s">
+        <v>151</v>
       </c>
       <c r="H47" s="14"/>
       <c r="I47" s="42">
         <v>0.98</v>
       </c>
-      <c r="J47" s="68"/>
+      <c r="J47" s="58"/>
       <c r="K47" s="14"/>
       <c r="L47" s="42">
         <v>1</v>
       </c>
       <c r="M47" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N47" s="10"/>
       <c r="O47" s="7"/>
-      <c r="P47" s="69" t="s">
-        <v>152</v>
+      <c r="P47" s="4" t="s">
+        <v>151</v>
       </c>
       <c r="Q47" s="14"/>
       <c r="R47" s="42">
         <v>1</v>
       </c>
-      <c r="S47" s="68"/>
+      <c r="S47" s="58"/>
       <c r="U47" s="42">
         <v>0.33</v>
       </c>
     </row>
     <row r="48" spans="7:21" ht="23" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J48" s="66"/>
+      <c r="J48" s="56"/>
       <c r="M48" s="44" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N48" s="14"/>
       <c r="O48" s="42">
         <v>0.94</v>
       </c>
-      <c r="P48" s="68"/>
-      <c r="S48" s="66"/>
-      <c r="T48" s="66"/>
+      <c r="P48" s="58"/>
+      <c r="S48" s="56"/>
+      <c r="T48" s="56"/>
     </row>
     <row r="49" spans="9:16" ht="23" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M49" s="44" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O49" s="42">
         <v>0.96</v>
@@ -3659,7 +3667,7 @@
     </row>
     <row r="50" spans="9:16" ht="23" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M50" s="44" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="N50" s="14"/>
       <c r="O50" s="42">
@@ -3667,34 +3675,34 @@
       </c>
     </row>
     <row r="51" spans="9:16" x14ac:dyDescent="0.2">
-      <c r="M51" s="66"/>
+      <c r="M51" s="56"/>
     </row>
     <row r="55" spans="9:16" x14ac:dyDescent="0.2">
-      <c r="I55" s="60"/>
-      <c r="J55" s="60"/>
-      <c r="K55" s="62"/>
-      <c r="L55" s="62"/>
-      <c r="M55" s="62"/>
-      <c r="N55" s="62"/>
+      <c r="I55" s="65"/>
+      <c r="J55" s="65"/>
+      <c r="K55" s="66"/>
+      <c r="L55" s="66"/>
+      <c r="M55" s="66"/>
+      <c r="N55" s="66"/>
     </row>
     <row r="56" spans="9:16" x14ac:dyDescent="0.2">
-      <c r="I56" s="62"/>
-      <c r="J56" s="62"/>
-      <c r="K56" s="62"/>
-      <c r="L56" s="62"/>
-      <c r="M56" s="62"/>
-      <c r="N56" s="62"/>
+      <c r="I56" s="66"/>
+      <c r="J56" s="66"/>
+      <c r="K56" s="66"/>
+      <c r="L56" s="66"/>
+      <c r="M56" s="66"/>
+      <c r="N56" s="66"/>
     </row>
     <row r="57" spans="9:16" ht="24" x14ac:dyDescent="0.3">
       <c r="J57" s="26"/>
     </row>
     <row r="58" spans="9:16" ht="58" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J58" s="17"/>
-      <c r="K58" s="61"/>
-      <c r="L58" s="62"/>
+      <c r="K58" s="67"/>
+      <c r="L58" s="66"/>
       <c r="M58" s="17"/>
-      <c r="N58" s="61"/>
-      <c r="O58" s="62"/>
+      <c r="N58" s="67"/>
+      <c r="O58" s="66"/>
       <c r="P58" s="17"/>
     </row>
     <row r="59" spans="9:16" ht="21" x14ac:dyDescent="0.25">
@@ -3736,7 +3744,7 @@
     <row r="63" spans="9:16" ht="22" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J63" s="20"/>
       <c r="K63" s="21"/>
-      <c r="L63" s="71"/>
+      <c r="L63" s="60"/>
       <c r="M63" s="20"/>
       <c r="N63" s="21"/>
       <c r="O63" s="20"/>
@@ -3745,9 +3753,9 @@
     <row r="64" spans="9:16" ht="21" x14ac:dyDescent="0.25">
       <c r="J64" s="20"/>
       <c r="K64" s="21"/>
-      <c r="L64" s="73"/>
-      <c r="M64" s="72" t="s">
-        <v>153</v>
+      <c r="L64" s="62"/>
+      <c r="M64" s="61" t="s">
+        <v>152</v>
       </c>
       <c r="N64" s="21"/>
       <c r="O64" s="20"/>
@@ -3758,7 +3766,7 @@
       <c r="K65" s="21"/>
       <c r="L65" s="11"/>
       <c r="M65" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N65" s="21"/>
       <c r="O65" s="20"/>
@@ -3771,7 +3779,7 @@
         <v>0</v>
       </c>
       <c r="M66" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="N66" s="21"/>
       <c r="O66" s="20"/>
@@ -3781,10 +3789,10 @@
       <c r="J67" s="20"/>
       <c r="K67" s="21"/>
       <c r="L67" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M67" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="N67" s="21"/>
       <c r="O67" s="20"/>
@@ -3794,10 +3802,10 @@
       <c r="J68" s="20"/>
       <c r="K68" s="21"/>
       <c r="L68" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="M68" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="N68" s="21"/>
       <c r="O68" s="20"/>
@@ -3807,10 +3815,10 @@
       <c r="J69" s="20"/>
       <c r="K69" s="20"/>
       <c r="L69" s="11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M69" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="N69" s="20"/>
       <c r="O69" s="20"/>
@@ -3820,10 +3828,10 @@
       <c r="J70" s="22"/>
       <c r="K70" s="17"/>
       <c r="L70" s="11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="M70" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N70" s="17"/>
       <c r="O70" s="22"/>
@@ -3831,73 +3839,73 @@
     </row>
     <row r="71" spans="9:16" ht="21" x14ac:dyDescent="0.25">
       <c r="L71" s="11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="M71" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="72" spans="9:16" ht="21" x14ac:dyDescent="0.25">
       <c r="L72" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="M72" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="73" spans="9:16" ht="21" x14ac:dyDescent="0.25">
       <c r="L73" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="M73" s="5" t="s">
         <v>168</v>
-      </c>
-      <c r="M73" s="5" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="74" spans="9:16" ht="21" x14ac:dyDescent="0.25">
       <c r="L74" s="11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M74" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="75" spans="9:16" ht="22" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L75" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M75" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="76" spans="9:16" x14ac:dyDescent="0.2">
-      <c r="L76" s="66"/>
+      <c r="L76" s="56"/>
     </row>
     <row r="77" spans="9:16" x14ac:dyDescent="0.2">
-      <c r="I77" s="60"/>
-      <c r="J77" s="60"/>
-      <c r="K77" s="62"/>
-      <c r="L77" s="62"/>
-      <c r="M77" s="62"/>
-      <c r="N77" s="62"/>
+      <c r="I77" s="65"/>
+      <c r="J77" s="65"/>
+      <c r="K77" s="66"/>
+      <c r="L77" s="66"/>
+      <c r="M77" s="66"/>
+      <c r="N77" s="66"/>
     </row>
     <row r="78" spans="9:16" x14ac:dyDescent="0.2">
-      <c r="I78" s="62"/>
-      <c r="J78" s="62"/>
-      <c r="K78" s="62"/>
-      <c r="L78" s="62"/>
-      <c r="M78" s="62"/>
-      <c r="N78" s="62"/>
+      <c r="I78" s="66"/>
+      <c r="J78" s="66"/>
+      <c r="K78" s="66"/>
+      <c r="L78" s="66"/>
+      <c r="M78" s="66"/>
+      <c r="N78" s="66"/>
     </row>
     <row r="79" spans="9:16" ht="24" x14ac:dyDescent="0.3">
       <c r="J79" s="26"/>
     </row>
     <row r="80" spans="9:16" ht="59" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J80" s="17"/>
-      <c r="K80" s="61"/>
-      <c r="L80" s="62"/>
+      <c r="K80" s="67"/>
+      <c r="L80" s="66"/>
       <c r="M80" s="17"/>
-      <c r="N80" s="61"/>
-      <c r="O80" s="62"/>
+      <c r="N80" s="67"/>
+      <c r="O80" s="66"/>
       <c r="P80" s="17"/>
     </row>
     <row r="81" spans="10:18" ht="21" x14ac:dyDescent="0.25">
@@ -4046,12 +4054,14 @@
     <row r="104" ht="62" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="T9:U9"/>
-    <mergeCell ref="I6:N7"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="P32:R32"/>
+    <mergeCell ref="Q33:R33"/>
+    <mergeCell ref="S32:U32"/>
+    <mergeCell ref="T33:U33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="I30:N31"/>
     <mergeCell ref="K80:L80"/>
     <mergeCell ref="N80:O80"/>
     <mergeCell ref="J32:L32"/>
@@ -4062,14 +4072,12 @@
     <mergeCell ref="N58:O58"/>
     <mergeCell ref="I77:N78"/>
     <mergeCell ref="H33:I33"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="P32:R32"/>
-    <mergeCell ref="Q33:R33"/>
-    <mergeCell ref="S32:U32"/>
-    <mergeCell ref="T33:U33"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="I30:N31"/>
+    <mergeCell ref="T9:U9"/>
+    <mergeCell ref="I6:N7"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="N9:O9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
